--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P396"/>
+  <dimension ref="A1:P400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30313,6 +30313,310 @@
         </is>
       </c>
       <c r="P396" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>6437</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>7/17/2025</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>MILLER 4590</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>808400306</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Columna corroida</t>
+        </is>
+      </c>
+      <c r="I397" t="n">
+        <v>1</v>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M397" t="n">
+        <v>-58.495482</v>
+      </c>
+      <c r="N397" t="n">
+        <v>-34.552614</v>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>6447</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>7/17/2025</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>CIUDAD DE LA PAZ 1535</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>808400333</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I398" t="n">
+        <v>1</v>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M398" t="n">
+        <v>-58.453124</v>
+      </c>
+      <c r="N398" t="n">
+        <v>-34.567382</v>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>-519</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>7/17/2025</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Vilela 2687</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>808400334</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>CAmbiar columna 114 picada en base</t>
+        </is>
+      </c>
+      <c r="I399" t="n">
+        <v>1</v>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M399" t="n">
+        <v>-58.472968</v>
+      </c>
+      <c r="N399" t="n">
+        <v>-34.546898</v>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>-520</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>7/17/2025</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Pedraza Manuela 4101</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>808400353</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Podrida en la base </t>
+        </is>
+      </c>
+      <c r="I400" t="n">
+        <v>1</v>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M400" t="n">
+        <v>-58.481569</v>
+      </c>
+      <c r="N400" t="n">
+        <v>-34.559853</v>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>
@@ -42563,7 +42867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46660,6 +46964,310 @@
         </is>
       </c>
       <c r="P54" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6437</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>7/17/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MILLER 4590</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>808400306</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Columna corroida</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>-58.495482</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-34.552614</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>6447</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7/17/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CIUDAD DE LA PAZ 1535</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>808400333</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>-58.453124</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-34.567382</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>-519</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>7/17/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Vilela 2687</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>808400334</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>CAmbiar columna 114 picada en base</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>-58.472968</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-34.546898</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>-520</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>7/17/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Pedraza Manuela 4101</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>808400353</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Podrida en la base </t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>-58.481569</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-34.559853</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P393"/>
+  <dimension ref="A1:P391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23269,32 +23269,32 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -23304,7 +23304,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I304" t="n">
@@ -23326,14 +23326,14 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>-58.459566</v>
+        <v>-58.362579</v>
       </c>
       <c r="N304" t="n">
-        <v>-34.634615</v>
+        <v>-34.635096</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
@@ -23345,7 +23345,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -23355,17 +23355,17 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -23380,7 +23380,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I305" t="n">
@@ -23388,7 +23388,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -23398,30 +23398,30 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>-58.362579</v>
+        <v>-58.487371</v>
       </c>
       <c r="N305" t="n">
-        <v>-34.635096</v>
+        <v>-34.640099</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P305" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -23431,22 +23431,22 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -23456,7 +23456,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I306" t="n">
@@ -23464,7 +23464,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -23474,30 +23474,30 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>-58.487371</v>
+        <v>-58.446125</v>
       </c>
       <c r="N306" t="n">
-        <v>-34.640099</v>
+        <v>-34.580819</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P306" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -23507,7 +23507,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -23517,7 +23517,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -23550,14 +23550,14 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>-58.445558</v>
+        <v>-58.447732</v>
       </c>
       <c r="N307" t="n">
-        <v>-34.581191</v>
+        <v>-34.580408</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -23583,17 +23583,17 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -23630,14 +23630,14 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>-58.446125</v>
+        <v>-58.461271</v>
       </c>
       <c r="N308" t="n">
-        <v>-34.580819</v>
+        <v>-34.625615</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
@@ -23649,7 +23649,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -23659,22 +23659,22 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -23684,7 +23684,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I309" t="n">
@@ -23702,18 +23702,18 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>-58.447732</v>
+        <v>-58.425845</v>
       </c>
       <c r="N309" t="n">
-        <v>-34.580408</v>
+        <v>-34.616562</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P309" t="inlineStr">
@@ -23725,7 +23725,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t xml:space="preserve">807187860 </t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -23735,22 +23735,22 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -23760,7 +23760,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I310" t="n">
@@ -23781,52 +23781,40 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M310" t="n">
-        <v>-58.461271</v>
-      </c>
-      <c r="N310" t="n">
-        <v>-34.625615</v>
-      </c>
-      <c r="O310" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P310" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
+      <c r="M310" t="inlineStr"/>
+      <c r="N310" t="inlineStr"/>
+      <c r="O310" t="inlineStr"/>
+      <c r="P310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -23836,7 +23824,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I311" t="n">
@@ -23858,36 +23846,36 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>-58.425845</v>
+        <v>-58.458518</v>
       </c>
       <c r="N311" t="n">
-        <v>-34.616562</v>
+        <v>-34.564693</v>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t xml:space="preserve">807187860 </t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -23897,7 +23885,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -23912,7 +23900,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I312" t="n">
@@ -23933,15 +23921,27 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M312" t="inlineStr"/>
-      <c r="N312" t="inlineStr"/>
-      <c r="O312" t="inlineStr"/>
-      <c r="P312" t="inlineStr"/>
+      <c r="M312" t="n">
+        <v>-58.416477</v>
+      </c>
+      <c r="N312" t="n">
+        <v>-34.61303</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -23951,22 +23951,22 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -23976,7 +23976,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I313" t="n">
@@ -23998,26 +23998,26 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>-58.458518</v>
+        <v>-58.427424</v>
       </c>
       <c r="N313" t="n">
-        <v>-34.564693</v>
+        <v>-34.601217</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P313" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -24037,7 +24037,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -24052,7 +24052,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I314" t="n">
@@ -24074,10 +24074,10 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>-58.416477</v>
+        <v>-58.426665</v>
       </c>
       <c r="N314" t="n">
-        <v>-34.61303</v>
+        <v>-34.598019</v>
       </c>
       <c r="O314" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -24103,7 +24103,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -24113,7 +24113,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -24128,7 +24128,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I315" t="n">
@@ -24150,10 +24150,10 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>-58.427424</v>
+        <v>-58.425478</v>
       </c>
       <c r="N315" t="n">
-        <v>-34.601217</v>
+        <v>-34.601865</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
@@ -24169,7 +24169,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -24179,22 +24179,22 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -24226,14 +24226,14 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>-58.426665</v>
+        <v>-58.436298</v>
       </c>
       <c r="N316" t="n">
-        <v>-34.598019</v>
+        <v>-34.578972</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P316" t="inlineStr">
@@ -24245,32 +24245,32 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -24280,7 +24280,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I317" t="n">
@@ -24302,10 +24302,10 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>-58.425478</v>
+        <v>-58.401624</v>
       </c>
       <c r="N317" t="n">
-        <v>-34.601865</v>
+        <v>-34.612001</v>
       </c>
       <c r="O317" t="inlineStr">
         <is>
@@ -24321,32 +24321,32 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -24356,7 +24356,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I318" t="n">
@@ -24364,7 +24364,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -24378,14 +24378,14 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>-58.436298</v>
+        <v>-58.440448</v>
       </c>
       <c r="N318" t="n">
-        <v>-34.578972</v>
+        <v>-34.611223</v>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
@@ -24397,32 +24397,32 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -24432,7 +24432,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I319" t="n">
@@ -24454,51 +24454,51 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>-58.401624</v>
+        <v>-58.480925</v>
       </c>
       <c r="N319" t="n">
-        <v>-34.612001</v>
+        <v>-34.585471</v>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P319" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -24508,7 +24508,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I320" t="n">
@@ -24516,7 +24516,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -24530,26 +24530,26 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>-58.440448</v>
+        <v>-58.495071</v>
       </c>
       <c r="N320" t="n">
-        <v>-34.611223</v>
+        <v>-34.593122</v>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P320" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -24559,17 +24559,17 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -24606,10 +24606,10 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>-58.480925</v>
+        <v>-58.481942</v>
       </c>
       <c r="N321" t="n">
-        <v>-34.585471</v>
+        <v>-34.602989</v>
       </c>
       <c r="O321" t="inlineStr">
         <is>
@@ -24625,32 +24625,32 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -24660,7 +24660,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I322" t="n">
@@ -24678,40 +24678,40 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>-58.495071</v>
+        <v>-58.426431</v>
       </c>
       <c r="N322" t="n">
-        <v>-34.593122</v>
+        <v>-34.627954</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P322" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -24721,7 +24721,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -24736,7 +24736,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I323" t="n">
@@ -24754,14 +24754,14 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>-58.481942</v>
+        <v>-58.517389</v>
       </c>
       <c r="N323" t="n">
-        <v>-34.602989</v>
+        <v>-34.593541</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
@@ -24777,32 +24777,32 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>807458383</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -24812,7 +24812,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I324" t="n">
@@ -24820,7 +24820,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -24830,18 +24830,18 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>-58.426431</v>
+        <v>-58.422775</v>
       </c>
       <c r="N324" t="n">
-        <v>-34.627954</v>
+        <v>-34.604135</v>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P324" t="inlineStr">
@@ -24853,32 +24853,32 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -24888,7 +24888,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I325" t="n">
@@ -24906,18 +24906,18 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>-58.517389</v>
+        <v>-58.49147</v>
       </c>
       <c r="N325" t="n">
-        <v>-34.593541</v>
+        <v>-34.55031</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P325" t="inlineStr">
@@ -24929,27 +24929,27 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -24964,7 +24964,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I326" t="n">
@@ -24972,7 +24972,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -24982,50 +24982,50 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>-58.422775</v>
+        <v>-58.497698</v>
       </c>
       <c r="N326" t="n">
-        <v>-34.604135</v>
+        <v>-34.612038</v>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P326" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -25038,11 +25038,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="n">
         <v>1</v>
       </c>
@@ -25062,26 +25058,26 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>-58.49147</v>
+        <v>-58.405761</v>
       </c>
       <c r="N327" t="n">
-        <v>-34.55031</v>
+        <v>-34.582476</v>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P327" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -25091,22 +25087,22 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -25116,7 +25112,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I328" t="n">
@@ -25124,7 +25120,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -25134,18 +25130,18 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>-58.497698</v>
+        <v>-58.469257</v>
       </c>
       <c r="N328" t="n">
-        <v>-34.612038</v>
+        <v>-34.542018</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
@@ -25157,7 +25153,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -25167,7 +25163,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -25177,12 +25173,12 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -25190,7 +25186,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr"/>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+        </is>
+      </c>
       <c r="I329" t="n">
         <v>1</v>
       </c>
@@ -25210,14 +25210,14 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>-58.405761</v>
+        <v>-58.409579</v>
       </c>
       <c r="N329" t="n">
-        <v>-34.582476</v>
+        <v>-34.581134</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
@@ -25229,32 +25229,32 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -25264,7 +25264,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I330" t="n">
@@ -25282,40 +25282,40 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>-58.469257</v>
+        <v>-58.432241</v>
       </c>
       <c r="N330" t="n">
-        <v>-34.542018</v>
+        <v>-34.56642</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -25325,12 +25325,12 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -25340,7 +25340,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I331" t="n">
@@ -25362,10 +25362,10 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>-58.409579</v>
+        <v>-58.417348</v>
       </c>
       <c r="N331" t="n">
-        <v>-34.581134</v>
+        <v>-34.595467</v>
       </c>
       <c r="O331" t="inlineStr">
         <is>
@@ -25381,32 +25381,32 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -25416,7 +25416,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I332" t="n">
@@ -25424,7 +25424,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -25434,14 +25434,14 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>-58.432241</v>
+        <v>-58.44848</v>
       </c>
       <c r="N332" t="n">
-        <v>-34.56642</v>
+        <v>-34.581338</v>
       </c>
       <c r="O332" t="inlineStr">
         <is>
@@ -25457,32 +25457,32 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -25492,7 +25492,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I333" t="n">
@@ -25500,7 +25500,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -25510,30 +25510,30 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>-58.417348</v>
+        <v>-58.448496</v>
       </c>
       <c r="N333" t="n">
-        <v>-34.595467</v>
+        <v>-34.58182</v>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -25543,22 +25543,22 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -25568,7 +25568,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I334" t="n">
@@ -25576,7 +25576,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -25590,14 +25590,14 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>-58.44848</v>
+        <v>-58.472311</v>
       </c>
       <c r="N334" t="n">
-        <v>-34.581338</v>
+        <v>-34.654867</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P334" t="inlineStr">
@@ -25609,7 +25609,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -25619,22 +25619,22 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>PEÑA 2079</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807763000</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -25644,7 +25644,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I335" t="n">
@@ -25652,7 +25652,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -25662,30 +25662,30 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>-58.448496</v>
+        <v>-58.395688</v>
       </c>
       <c r="N335" t="n">
-        <v>-34.58182</v>
+        <v>-34.592023</v>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P335" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -25695,22 +25695,22 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -25720,7 +25720,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I336" t="n">
@@ -25738,18 +25738,18 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>-58.472311</v>
+        <v>-58.402745</v>
       </c>
       <c r="N336" t="n">
-        <v>-34.654867</v>
+        <v>-34.627478</v>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P336" t="inlineStr">
@@ -25761,7 +25761,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -25771,22 +25771,22 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>PEÑA 2079</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>807763000</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -25796,7 +25796,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I337" t="n">
@@ -25809,7 +25809,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -25818,14 +25818,14 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>-58.395688</v>
+        <v>-58.400169</v>
       </c>
       <c r="N337" t="n">
-        <v>-34.592023</v>
+        <v>-34.617784</v>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P337" t="inlineStr">
@@ -25837,7 +25837,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -25847,22 +25847,22 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -25894,14 +25894,14 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>-58.402745</v>
+        <v>-58.422315</v>
       </c>
       <c r="N338" t="n">
-        <v>-34.627478</v>
+        <v>-34.576988</v>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
@@ -25913,7 +25913,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -25923,22 +25923,22 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -25948,7 +25948,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I339" t="n">
@@ -25961,23 +25961,23 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>-58.400169</v>
+        <v>-58.441049</v>
       </c>
       <c r="N339" t="n">
-        <v>-34.617784</v>
+        <v>-34.574625</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P339" t="inlineStr">
@@ -25989,7 +25989,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -25999,17 +25999,17 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -26046,10 +26046,10 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>-58.422315</v>
+        <v>-58.432722</v>
       </c>
       <c r="N340" t="n">
-        <v>-34.576988</v>
+        <v>-34.572371</v>
       </c>
       <c r="O340" t="inlineStr">
         <is>
@@ -26065,7 +26065,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -26075,22 +26075,22 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -26100,7 +26100,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I341" t="n">
@@ -26118,30 +26118,30 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>-58.441049</v>
+        <v>-58.450113</v>
       </c>
       <c r="N341" t="n">
-        <v>-34.574625</v>
+        <v>-34.574534</v>
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P341" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -26151,22 +26151,22 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -26176,7 +26176,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I342" t="n">
@@ -26194,55 +26194,55 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>-58.432722</v>
+        <v>-58.484729</v>
       </c>
       <c r="N342" t="n">
-        <v>-34.572371</v>
+        <v>-34.574614</v>
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P342" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -26252,7 +26252,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I343" t="n">
@@ -26274,51 +26274,51 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>-58.450113</v>
+        <v>-58.425296</v>
       </c>
       <c r="N343" t="n">
-        <v>-34.574534</v>
+        <v>-34.578706</v>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>VELEZ SARSFIELD AV. 855</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807789683</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -26328,7 +26328,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I344" t="n">
@@ -26346,50 +26346,50 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>-58.484729</v>
+        <v>-58.389598</v>
       </c>
       <c r="N344" t="n">
-        <v>-34.574614</v>
+        <v>-34.645174</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P344" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -26404,7 +26404,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I345" t="n">
@@ -26426,36 +26426,36 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>-58.425296</v>
+        <v>-58.474467</v>
       </c>
       <c r="N345" t="n">
-        <v>-34.578706</v>
+        <v>-34.624161</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P345" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>-490</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
+          <t>Luzuriaga 1273</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -26465,7 +26465,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>807789683</t>
+          <t>807789692</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -26480,7 +26480,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I346" t="n">
@@ -26502,10 +26502,10 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>-58.389598</v>
+        <v>-58.387569</v>
       </c>
       <c r="N346" t="n">
-        <v>-34.645174</v>
+        <v>-34.649344</v>
       </c>
       <c r="O346" t="inlineStr">
         <is>
@@ -26521,7 +26521,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -26531,22 +26531,22 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I347" t="n">
@@ -26578,14 +26578,14 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>-58.474467</v>
+        <v>-58.452636</v>
       </c>
       <c r="N347" t="n">
-        <v>-34.624161</v>
+        <v>-34.558607</v>
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P347" t="inlineStr">
@@ -26597,32 +26597,32 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>-490</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Luzuriaga 1273</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>807789692</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -26632,7 +26632,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I348" t="n">
@@ -26640,7 +26640,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -26654,14 +26654,14 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>-58.387569</v>
+        <v>-58.432644</v>
       </c>
       <c r="N348" t="n">
-        <v>-34.649344</v>
+        <v>-34.595434</v>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
@@ -26673,32 +26673,32 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -26708,7 +26708,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I349" t="n">
@@ -26721,7 +26721,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -26730,51 +26730,51 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>-58.452636</v>
+        <v>-58.401827</v>
       </c>
       <c r="N349" t="n">
-        <v>-34.558607</v>
+        <v>-34.617667</v>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P349" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -26784,7 +26784,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I350" t="n">
@@ -26792,7 +26792,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -26806,10 +26806,10 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>-58.432644</v>
+        <v>-58.436808</v>
       </c>
       <c r="N350" t="n">
-        <v>-34.595434</v>
+        <v>-34.577464</v>
       </c>
       <c r="O350" t="inlineStr">
         <is>
@@ -26825,27 +26825,27 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -26860,7 +26860,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I351" t="n">
@@ -26873,7 +26873,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -26882,14 +26882,14 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>-58.401827</v>
+        <v>-58.450359</v>
       </c>
       <c r="N351" t="n">
-        <v>-34.617667</v>
+        <v>-34.643582</v>
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P351" t="inlineStr">
@@ -26901,32 +26901,32 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>SOLER 6017</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>807851636</t>
+          <t>807877145</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Falta la foto</t>
         </is>
       </c>
       <c r="I352" t="n">
@@ -26958,14 +26958,14 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>-58.436808</v>
+        <v>-58.459566</v>
       </c>
       <c r="N352" t="n">
-        <v>-34.577464</v>
+        <v>-34.634615</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
@@ -26977,7 +26977,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -26987,17 +26987,17 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -27012,7 +27012,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I353" t="n">
@@ -27034,10 +27034,10 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>-58.450359</v>
+        <v>-58.437378</v>
       </c>
       <c r="N353" t="n">
-        <v>-34.643582</v>
+        <v>-34.62116</v>
       </c>
       <c r="O353" t="inlineStr">
         <is>
@@ -27053,27 +27053,27 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -27088,7 +27088,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I354" t="n">
@@ -27110,14 +27110,14 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>-58.459566</v>
+        <v>-58.413941</v>
       </c>
       <c r="N354" t="n">
-        <v>-34.634615</v>
+        <v>-34.57698</v>
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P354" t="inlineStr">
@@ -27129,32 +27129,32 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6331</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>PARAGUAY 4259</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807965788</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -27186,14 +27186,14 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>-58.437378</v>
+        <v>-58.421822</v>
       </c>
       <c r="N355" t="n">
-        <v>-34.62116</v>
+        <v>-34.58645</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P355" t="inlineStr">
@@ -27205,7 +27205,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -27215,7 +27215,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>ARAOZ 2560</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -27225,12 +27225,12 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807965818</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -27240,7 +27240,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I356" t="n">
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>-58.413941</v>
+        <v>-58.414507</v>
       </c>
       <c r="N356" t="n">
-        <v>-34.57698</v>
+        <v>-34.585377</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>6331</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -27291,7 +27291,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>PARAGUAY 4259</t>
+          <t>PARAGUAY 4291</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -27301,7 +27301,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>807965788</t>
+          <t>807965819</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -27338,10 +27338,10 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>-58.421822</v>
+        <v>-58.422084</v>
       </c>
       <c r="N357" t="n">
-        <v>-34.58645</v>
+        <v>-34.58625</v>
       </c>
       <c r="O357" t="inlineStr">
         <is>
@@ -27357,7 +27357,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>6337</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -27367,7 +27367,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>ARAOZ 2560</t>
+          <t>PARAGUAY 4383</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -27377,7 +27377,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>807965818</t>
+          <t>807965926</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -27414,10 +27414,10 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>-58.414507</v>
+        <v>-58.422931</v>
       </c>
       <c r="N358" t="n">
-        <v>-34.585377</v>
+        <v>-34.585597</v>
       </c>
       <c r="O358" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -27443,7 +27443,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>PARAGUAY 4291</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -27453,12 +27453,12 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>807965819</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -27468,15 +27468,15 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -27486,18 +27486,18 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>-58.422084</v>
+        <v>-58.405749</v>
       </c>
       <c r="N359" t="n">
-        <v>-34.58625</v>
+        <v>-34.58224</v>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P359" t="inlineStr">
@@ -27509,32 +27509,32 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6337</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>PARAGUAY 4383</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>807965926</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -27544,7 +27544,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I360" t="n">
@@ -27552,7 +27552,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -27562,40 +27562,40 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>-58.422931</v>
+        <v>-58.473179</v>
       </c>
       <c r="N360" t="n">
-        <v>-34.585597</v>
+        <v>-34.629138</v>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P360" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -27605,7 +27605,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -27620,32 +27620,32 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>-58.405749</v>
+        <v>-58.400188</v>
       </c>
       <c r="N361" t="n">
-        <v>-34.58224</v>
+        <v>-34.583882</v>
       </c>
       <c r="O361" t="inlineStr">
         <is>
@@ -27661,32 +27661,32 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>6363</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>MOLDES 3730</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808099415</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -27696,7 +27696,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I362" t="n">
@@ -27704,7 +27704,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -27714,18 +27714,18 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>-58.473179</v>
+        <v>-58.47192</v>
       </c>
       <c r="N362" t="n">
-        <v>-34.629138</v>
+        <v>-34.549398</v>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P362" t="inlineStr">
@@ -27737,32 +27737,32 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6376</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>BOYACA 712</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099366</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -27772,7 +27772,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I363" t="n">
@@ -27785,7 +27785,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -27794,14 +27794,14 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>-58.400188</v>
+        <v>-58.461858</v>
       </c>
       <c r="N363" t="n">
-        <v>-34.583882</v>
+        <v>-34.619348</v>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P363" t="inlineStr">
@@ -27813,7 +27813,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6363</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -27823,22 +27823,22 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>MOLDES 3730</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>808099415</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -27848,7 +27848,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I364" t="n">
@@ -27856,7 +27856,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -27866,30 +27866,30 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>-58.47192</v>
+        <v>-58.426322</v>
       </c>
       <c r="N364" t="n">
-        <v>-34.549398</v>
+        <v>-34.600097</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P364" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6376</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -27899,22 +27899,22 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>BOYACA 712</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>808099366</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -27946,10 +27946,10 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>-58.461858</v>
+        <v>-58.448523</v>
       </c>
       <c r="N365" t="n">
-        <v>-34.619348</v>
+        <v>-34.62452</v>
       </c>
       <c r="O365" t="inlineStr">
         <is>
@@ -27965,17 +27965,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>-503</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>Salguero 842</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -27985,12 +27985,12 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808148673</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -28000,7 +28000,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna picada en la base</t>
         </is>
       </c>
       <c r="I366" t="n">
@@ -28022,10 +28022,10 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>-58.426322</v>
+        <v>-58.419166</v>
       </c>
       <c r="N366" t="n">
-        <v>-34.600097</v>
+        <v>-34.600265</v>
       </c>
       <c r="O366" t="inlineStr">
         <is>
@@ -28041,32 +28041,32 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-504</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Ohiggins 1611</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808148679</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -28076,7 +28076,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I367" t="n">
@@ -28089,7 +28089,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -28098,51 +28098,51 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>-58.448523</v>
+        <v>-58.448993</v>
       </c>
       <c r="N367" t="n">
-        <v>-34.62452</v>
+        <v>-34.564383</v>
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P367" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>-503</t>
+          <t>-505</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Salguero 842</t>
+          <t>Brasil 3181</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>808148673</t>
+          <t>808150460</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -28152,7 +28152,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Cambiar columna picada en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I368" t="n">
@@ -28174,14 +28174,14 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>-58.419166</v>
+        <v>-58.409002</v>
       </c>
       <c r="N368" t="n">
-        <v>-34.600265</v>
+        <v>-34.634523</v>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P368" t="inlineStr">
@@ -28193,32 +28193,32 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>-504</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Ohiggins 1611</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>808148679</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I369" t="n">
@@ -28250,51 +28250,51 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>-58.448993</v>
+        <v>-58.449</v>
       </c>
       <c r="N369" t="n">
-        <v>-34.564383</v>
+        <v>-34.616077</v>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P369" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>-505</t>
+          <t>-507</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Brasil 3181</t>
+          <t>Tamborini 3291</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>808150460</t>
+          <t>808194229</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>INCO</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -28326,51 +28326,51 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>-58.409002</v>
+        <v>-58.473937</v>
       </c>
       <c r="N370" t="n">
-        <v>-34.634523</v>
+        <v>-34.557355</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P370" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-508</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Moldes 2463</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808194234</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>INCO</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -28402,26 +28402,26 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>-58.449</v>
+        <v>-58.462281</v>
       </c>
       <c r="N371" t="n">
-        <v>-34.616077</v>
+        <v>-34.560321</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P371" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>-507</t>
+          <t>-509</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -28431,17 +28431,17 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Tamborini 3291</t>
+          <t>Paso 58</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>808194229</t>
+          <t>808194240</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -28478,26 +28478,26 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>-58.473937</v>
+        <v>-58.403422</v>
       </c>
       <c r="N372" t="n">
-        <v>-34.557355</v>
+        <v>-34.609195</v>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P372" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>-508</t>
+          <t>-510</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -28507,17 +28507,17 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Moldes 2463</t>
+          <t>Larrea 590</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>808194234</t>
+          <t>808194254</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -28545,7 +28545,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -28554,26 +28554,26 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>-58.462281</v>
+        <v>-58.402353</v>
       </c>
       <c r="N373" t="n">
-        <v>-34.560321</v>
+        <v>-34.602205</v>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P373" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>-509</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -28583,7 +28583,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Paso 58</t>
+          <t>CASTELLI 304</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -28593,12 +28593,12 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>808194240</t>
+          <t>808194260</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -28630,10 +28630,10 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>-58.403422</v>
+        <v>-58.404696</v>
       </c>
       <c r="N374" t="n">
-        <v>-34.609195</v>
+        <v>-34.606337</v>
       </c>
       <c r="O374" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>-510</t>
+          <t>6392</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -28659,22 +28659,22 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Larrea 590</t>
+          <t>MOLDES 1808</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>808194254</t>
+          <t>808194266</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -28697,7 +28697,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -28706,26 +28706,26 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>-58.402353</v>
+        <v>-58.45719</v>
       </c>
       <c r="N375" t="n">
-        <v>-34.602205</v>
+        <v>-34.566365</v>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P375" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -28735,22 +28735,22 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>CASTELLI 304</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>808194260</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -28778,18 +28778,18 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>-58.404696</v>
+        <v>-58.363292</v>
       </c>
       <c r="N376" t="n">
-        <v>-34.606337</v>
+        <v>-34.642869</v>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P376" t="inlineStr">
@@ -28801,32 +28801,32 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>6392</t>
+          <t>-512</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>MOLDES 1808</t>
+          <t>Ciudad de la Paz 3742</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>808194266</t>
+          <t>808240230</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>INCO</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -28858,14 +28858,14 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>-58.45719</v>
+        <v>-58.470347</v>
       </c>
       <c r="N377" t="n">
-        <v>-34.566365</v>
+        <v>-34.547965</v>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P377" t="inlineStr">
@@ -28877,17 +28877,17 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>-513</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>Montes de Oca 1809</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -28897,7 +28897,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808240768</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -28912,7 +28912,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I378" t="n">
@@ -28930,14 +28930,14 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>-58.363292</v>
+        <v>-58.372941</v>
       </c>
       <c r="N378" t="n">
-        <v>-34.642869</v>
+        <v>-34.648341</v>
       </c>
       <c r="O378" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>-512</t>
+          <t>-514</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -28963,17 +28963,17 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 3742</t>
+          <t>Bilbao 2452</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>808240230</t>
+          <t>808243829</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -29010,26 +29010,26 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>-58.470347</v>
+        <v>-58.460594</v>
       </c>
       <c r="N379" t="n">
-        <v>-34.547965</v>
+        <v>-34.635581</v>
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P379" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>-513</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -29039,22 +29039,22 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Montes de Oca 1809</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>808240768</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -29064,7 +29064,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I380" t="n">
@@ -29072,7 +29072,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -29082,30 +29082,30 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>-58.372941</v>
+        <v>-58.510247</v>
       </c>
       <c r="N380" t="n">
-        <v>-34.648341</v>
+        <v>-34.645038</v>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P380" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>-514</t>
+          <t>6407</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -29115,22 +29115,22 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Bilbao 2452</t>
+          <t>TUCUMAN 3253</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>808243829</t>
+          <t>808373657</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -29162,14 +29162,14 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>-58.460594</v>
+        <v>-58.411609</v>
       </c>
       <c r="N381" t="n">
-        <v>-34.635581</v>
+        <v>-34.600329</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P381" t="inlineStr">
@@ -29181,7 +29181,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -29191,17 +29191,17 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>BEAUCHEF 421</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>808373658</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -29216,7 +29216,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I382" t="n">
@@ -29224,7 +29224,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -29234,55 +29234,55 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>-58.510247</v>
+        <v>-58.433724</v>
       </c>
       <c r="N382" t="n">
-        <v>-34.645038</v>
+        <v>-34.621643</v>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P382" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>6407</t>
+          <t>-516</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>TUCUMAN 3253</t>
+          <t>Olazabal 4417</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>808373657</t>
+          <t>808373646</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>INCO</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -29314,51 +29314,51 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>-58.411609</v>
+        <v>-58.478941</v>
       </c>
       <c r="N383" t="n">
-        <v>-34.600329</v>
+        <v>-34.57242</v>
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P383" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>BEAUCHEF 421</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>808373658</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -29368,7 +29368,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I384" t="n">
@@ -29390,14 +29390,14 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>-58.433724</v>
+        <v>-58.432805</v>
       </c>
       <c r="N384" t="n">
-        <v>-34.621643</v>
+        <v>-34.574345</v>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P384" t="inlineStr">
@@ -29409,7 +29409,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>-516</t>
+          <t>-518</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -29419,7 +29419,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Olazabal 4417</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -29429,12 +29429,12 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>808373646</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -29444,7 +29444,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I385" t="n">
@@ -29466,14 +29466,14 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>-58.478941</v>
+        <v>-58.483145</v>
       </c>
       <c r="N385" t="n">
-        <v>-34.57242</v>
+        <v>-34.557043</v>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P385" t="inlineStr">
@@ -29485,32 +29485,32 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>6437</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/17/2025</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>MILLER 4590</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>808400306</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -29520,7 +29520,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Columna corroida</t>
         </is>
       </c>
       <c r="I386" t="n">
@@ -29542,51 +29542,51 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>-58.432805</v>
+        <v>-58.495482</v>
       </c>
       <c r="N386" t="n">
-        <v>-34.574345</v>
+        <v>-34.552614</v>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P386" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>-518</t>
+          <t>6447</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/17/2025</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>CIUDAD DE LA PAZ 1535</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808400333</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -29596,7 +29596,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I387" t="n">
@@ -29618,14 +29618,14 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>-58.483145</v>
+        <v>-58.453124</v>
       </c>
       <c r="N387" t="n">
-        <v>-34.557043</v>
+        <v>-34.567382</v>
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P387" t="inlineStr">
@@ -29637,7 +29637,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6437</t>
+          <t>-519</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -29647,7 +29647,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>MILLER 4590</t>
+          <t>Vilela 2687</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -29657,7 +29657,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>808400306</t>
+          <t>808400334</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -29672,7 +29672,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Columna corroida</t>
+          <t>CAmbiar columna 114 picada en base</t>
         </is>
       </c>
       <c r="I388" t="n">
@@ -29694,10 +29694,10 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>-58.495482</v>
+        <v>-58.472968</v>
       </c>
       <c r="N388" t="n">
-        <v>-34.552614</v>
+        <v>-34.546898</v>
       </c>
       <c r="O388" t="inlineStr">
         <is>
@@ -29713,7 +29713,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6447</t>
+          <t>-520</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -29723,17 +29723,17 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 1535</t>
+          <t>Pedraza Manuela 4101</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>808400333</t>
+          <t>808400353</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -29748,7 +29748,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Podrida en la base </t>
         </is>
       </c>
       <c r="I389" t="n">
@@ -29770,14 +29770,14 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>-58.453124</v>
+        <v>-58.481569</v>
       </c>
       <c r="N389" t="n">
-        <v>-34.567382</v>
+        <v>-34.559853</v>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P389" t="inlineStr">
@@ -29789,32 +29789,32 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>-519</t>
+          <t>6454</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>7/17/2025</t>
+          <t>7/18/2025</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Vilela 2687</t>
+          <t>HABANA 3382</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>808400334</t>
+          <t>808413466</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -29824,7 +29824,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>CAmbiar columna 114 picada en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I390" t="n">
@@ -29846,14 +29846,14 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>-58.472968</v>
+        <v>-58.505747</v>
       </c>
       <c r="N390" t="n">
-        <v>-34.546898</v>
+        <v>-34.593173</v>
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P390" t="inlineStr">
@@ -29865,32 +29865,32 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>-520</t>
+          <t>6457</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>7/17/2025</t>
+          <t>7/18/2025</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Pedraza Manuela 4101</t>
+          <t>BATLLE Y ORDOÑEZ, JOSE P.T. 4659</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>808400353</t>
+          <t>808413477</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -29900,7 +29900,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podrida en la base </t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I391" t="n">
@@ -29908,7 +29908,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -29922,169 +29922,17 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>-58.481569</v>
+        <v>-58.464657</v>
       </c>
       <c r="N391" t="n">
-        <v>-34.559853</v>
+        <v>-34.670556</v>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P391" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>6454</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>7/18/2025</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>HABANA 3382</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E392" t="inlineStr">
-        <is>
-          <t>808413466</t>
-        </is>
-      </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G392" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I392" t="n">
-        <v>1</v>
-      </c>
-      <c r="J392" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M392" t="n">
-        <v>-58.505747</v>
-      </c>
-      <c r="N392" t="n">
-        <v>-34.593173</v>
-      </c>
-      <c r="O392" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P392" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>6457</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>7/18/2025</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>BATLLE Y ORDOÑEZ, JOSE P.T. 4659</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>808413477</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G393" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
-      <c r="I393" t="n">
-        <v>1</v>
-      </c>
-      <c r="J393" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M393" t="n">
-        <v>-58.464657</v>
-      </c>
-      <c r="N393" t="n">
-        <v>-34.670556</v>
-      </c>
-      <c r="O393" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P393" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -30101,7 +29949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34266,27 +34114,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-463</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Francisco Bilbao 2362</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807150735</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -34301,7 +34149,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">colunma base corroida sin riesgo de caida al </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -34323,14 +34171,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.459566</v>
+        <v>-58.446125</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.634615</v>
+        <v>-34.580819</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -34342,7 +34190,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-466</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -34352,7 +34200,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 140</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -34362,7 +34210,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807168184</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -34395,14 +34243,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.445558</v>
+        <v>-58.447732</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.581191</v>
+        <v>-34.580408</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -34418,7 +34266,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -34428,17 +34276,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -34475,14 +34323,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.446125</v>
+        <v>-58.461271</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.580819</v>
+        <v>-34.625615</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -34494,17 +34342,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -34514,7 +34362,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -34529,7 +34377,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -34547,50 +34395,50 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.447732</v>
+        <v>-58.458518</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.580408</v>
+        <v>-34.564693</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -34605,7 +34453,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -34627,14 +34475,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.461271</v>
+        <v>-58.401624</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.625615</v>
+        <v>-34.612001</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -34646,27 +34494,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6137</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/12/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>LA PLATA AV. 1058</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807458383</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -34681,7 +34529,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -34699,50 +34547,50 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.458518</v>
+        <v>-58.426431</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.564693</v>
+        <v>-34.627954</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -34757,7 +34605,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -34775,50 +34623,50 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.401624</v>
+        <v>-58.469257</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.612001</v>
+        <v>-34.542018</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6137</t>
+          <t>6217</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6/12/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1058</t>
+          <t>PEÑA 2079</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807458383</t>
+          <t>807763000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -34833,7 +34681,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Ver con inspector tratar de colocar r400 para sacar las dos columnas terminales existentes evaluar en campo</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -34851,18 +34699,18 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.426431</v>
+        <v>-58.395688</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.627954</v>
+        <v>-34.592023</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -34874,27 +34722,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -34909,7 +34757,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -34927,50 +34775,50 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.469257</v>
+        <v>-58.402745</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.542018</v>
+        <v>-34.627478</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6217</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PEÑA 2079</t>
+          <t>VELEZ SARSFIELD AV. 855</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807763000</t>
+          <t>807789683</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -34985,7 +34833,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -35007,14 +34855,14 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.395688</v>
+        <v>-58.389598</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.592023</v>
+        <v>-34.645174</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -35026,27 +34874,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>-490</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>Luzuriaga 1273</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807789692</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -35083,10 +34931,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.402745</v>
+        <v>-58.387569</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.627478</v>
+        <v>-34.649344</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -35102,27 +34950,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>VELEZ SARSFIELD AV. 855</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807789683</t>
+          <t>807877145</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -35137,7 +34985,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Falta la foto</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -35159,14 +35007,14 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.389598</v>
+        <v>-58.459566</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.645174</v>
+        <v>-34.634615</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -35178,27 +35026,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-490</t>
+          <t>6376</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Luzuriaga 1273</t>
+          <t>BOYACA 712</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807789692</t>
+          <t>808099366</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -35235,14 +35083,14 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.387569</v>
+        <v>-58.461858</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.649344</v>
+        <v>-34.619348</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -35254,27 +35102,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6376</t>
+          <t>-505</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BOYACA 712</t>
+          <t>Brasil 3181</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>808099366</t>
+          <t>808150460</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -35311,14 +35159,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.461858</v>
+        <v>-58.409002</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.619348</v>
+        <v>-34.634523</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -35330,27 +35178,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-505</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Brasil 3181</t>
+          <t>CASTELLI 304</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>808150460</t>
+          <t>808194260</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -35387,14 +35235,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.409002</v>
+        <v>-58.404696</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.634523</v>
+        <v>-34.606337</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -35406,17 +35254,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>6407</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CASTELLI 304</t>
+          <t>TUCUMAN 3253</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -35426,7 +35274,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>808194260</t>
+          <t>808373657</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -35463,10 +35311,10 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.404696</v>
+        <v>-58.411609</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.606337</v>
+        <v>-34.600329</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -35474,82 +35322,6 @@
         </is>
       </c>
       <c r="P71" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>6407</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>7/15/2025</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>TUCUMAN 3253</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>808373657</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>-58.411609</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-34.600329</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -35566,7 +35338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41415,7 +41187,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -41425,17 +41197,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -41450,7 +41222,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Columna con base corroida oxidada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -41472,10 +41244,10 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.459566</v>
+        <v>-58.437378</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.634615</v>
+        <v>-34.62116</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -41491,27 +41263,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -41526,7 +41298,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -41548,14 +41320,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.437378</v>
+        <v>-58.413941</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.62116</v>
+        <v>-34.57698</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -41567,7 +41339,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -41577,7 +41349,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -41587,7 +41359,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -41602,15 +41374,15 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -41620,18 +41392,18 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.413941</v>
+        <v>-58.405749</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.57698</v>
+        <v>-34.58224</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -41643,27 +41415,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -41678,15 +41450,15 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -41700,26 +41472,26 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.405749</v>
+        <v>-58.473179</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.58224</v>
+        <v>-34.629138</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -41729,17 +41501,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -41754,7 +41526,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -41762,60 +41534,60 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.473179</v>
+        <v>-58.400188</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.629138</v>
+        <v>-34.583882</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -41830,7 +41602,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -41843,7 +41615,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -41852,14 +41624,14 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.400188</v>
+        <v>-58.426322</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.583882</v>
+        <v>-34.600097</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -41871,7 +41643,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -41881,17 +41653,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -41928,14 +41700,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.426322</v>
+        <v>-58.448523</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.600097</v>
+        <v>-34.62452</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -41947,17 +41719,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -41967,7 +41739,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -41995,7 +41767,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -42004,10 +41776,10 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.448523</v>
+        <v>-58.449</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.62452</v>
+        <v>-34.616077</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -42023,27 +41795,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -42071,23 +41843,23 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.449</v>
+        <v>-58.363292</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.616077</v>
+        <v>-34.642869</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -42099,17 +41871,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>-513</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>Montes de Oca 1809</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -42119,7 +41891,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808240768</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -42134,7 +41906,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -42152,14 +41924,14 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.363292</v>
+        <v>-58.372941</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.642869</v>
+        <v>-34.648341</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -42175,27 +41947,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-513</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Montes de Oca 1809</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808240768</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -42210,7 +41982,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -42232,93 +42004,17 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.372941</v>
+        <v>-58.432805</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.648341</v>
+        <v>-34.574345</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>-517</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>7/16/2025</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Av Dorrego 2721</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>808373635</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>-58.432805</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-34.574345</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -28981,7 +28981,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>-526</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -28991,22 +28991,18 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Moldes 1813</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>808488825</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -29016,7 +29012,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I378" t="n">
@@ -29038,19 +29034,19 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>-58.457145</v>
+        <v>-58.384097</v>
       </c>
       <c r="N378" t="n">
-        <v>-34.56629</v>
+        <v>-34.598913</v>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
@@ -34238,7 +34234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40919,6 +40915,78 @@
         </is>
       </c>
       <c r="P88" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>-529</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>7/23/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Libertad 820</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>-58.384097</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-34.598913</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -40935,7 +41003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45336,82 +45404,6 @@
         </is>
       </c>
       <c r="P58" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>-526</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>7/23/2025</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Moldes 1813</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>808488825</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>-58.457145</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-34.56629</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Colegiales</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -14,7 +14,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Propio" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AYKO" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INCO" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sin_Asignar" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28722,7 +28721,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -28732,7 +28731,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Columna partida enganchada en tendido con riesgo de caida urgente</t>
+          <t>Traspasar red y desmontar</t>
         </is>
       </c>
       <c r="I374" t="n">
@@ -29309,7 +29308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34918,7 +34917,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6523</t>
+          <t>6522</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -34928,7 +34927,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BOGOTA 2552</t>
+          <t>ESTADO PLURINACIONAL DE BOLIVIA 384</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -34938,7 +34937,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>808571979</t>
+          <t>808571978</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -34953,7 +34952,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspasar red y desmontar</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -34975,10 +34974,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.466359</v>
+        <v>-58.466995</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.625966</v>
+        <v>-34.626426</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -34994,7 +34993,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6524</t>
+          <t>6523</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -35004,17 +35003,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>DORREGO AV. 2687</t>
+          <t>BOGOTA 2552</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>808571980</t>
+          <t>808571979</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -35051,14 +35050,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.433295</v>
+        <v>-58.466359</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.574305</v>
+        <v>-34.625966</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -35070,7 +35069,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6527</t>
+          <t>6524</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -35080,17 +35079,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE 3349</t>
+          <t>DORREGO AV. 2687</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>808571982</t>
+          <t>808571980</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -35127,10 +35126,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.447943</v>
+        <v>-58.433295</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.580719</v>
+        <v>-34.574305</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -35146,7 +35145,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-532</t>
+          <t>6527</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -35156,17 +35155,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Av Corrientes 5143</t>
+          <t>NEWBERY, JORGE 3349</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>808571983</t>
+          <t>808571982</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -35203,10 +35202,10 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.437823</v>
+        <v>-58.447943</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.600094</v>
+        <v>-34.580719</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -35222,74 +35221,150 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>-532</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>7/28/2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Av Corrientes 5143</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>808571983</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>-58.437823</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-34.600094</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>-533</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>7/28/2025</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Bonpland 2233</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>808571985</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>PEBCOM</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t xml:space="preserve">Cambiar columna y colocar rienda a pique </t>
         </is>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="M80" t="n">
         <v>-58.43258</v>
       </c>
-      <c r="N79" t="n">
+      <c r="N80" t="n">
         <v>-34.579265</v>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>Palermo</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -58607,181 +58682,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Caso</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>F. De Reclamo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Direccion</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Comuna</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OT</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Proveedor Asignado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Estado</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Observaciones</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Attachments</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de tarea</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Equipo</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo de Elemento</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Coordenada_X</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Coordenada_Y</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Operacion</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Zona</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6522</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7/28/2025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ESTADO PLURINACIONAL DE BOLIVIA 384</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>808571978</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Columna partida enganchada en tendido con riesgo de caida urgente</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>-58.466995</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-34.626426</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -29246,7 +29246,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E381" t="inlineStr"/>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>ICD30238810</t>
+        </is>
+      </c>
       <c r="F381" t="inlineStr">
         <is>
           <t>NEW</t>
@@ -47649,7 +47653,11 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ICD30238810</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>NEW</t>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P375"/>
+  <dimension ref="A1:P372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19441,7 +19441,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -19451,22 +19451,22 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>DE LOS CONSTITUYENTES AV. 5615</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -19494,30 +19494,30 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>-58.41193</v>
+        <v>-58.501766</v>
       </c>
       <c r="N252" t="n">
-        <v>-34.626628</v>
+        <v>-34.574369</v>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -19527,17 +19527,17 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5615</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -19574,26 +19574,26 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>-58.501766</v>
+        <v>-58.467789</v>
       </c>
       <c r="N253" t="n">
-        <v>-34.574369</v>
+        <v>-34.68463</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -19603,22 +19603,22 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -19628,7 +19628,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I254" t="n">
@@ -19636,7 +19636,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -19646,30 +19646,30 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>-58.467789</v>
+        <v>-58.468425</v>
       </c>
       <c r="N254" t="n">
-        <v>-34.68463</v>
+        <v>-34.54124</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -19679,7 +19679,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>11 de Septiembre de 1888 4662</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -19689,12 +19689,12 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -19704,7 +19704,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>CAMBIAR COLUMNA MUY INCLINADA POR POSTE PRFV 400, COLOCAR A 40 CMTS DEL CORDON</t>
         </is>
       </c>
       <c r="I255" t="n">
@@ -19712,7 +19712,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -19722,14 +19722,14 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>-58.468425</v>
+        <v>-58.467458</v>
       </c>
       <c r="N255" t="n">
-        <v>-34.54124</v>
+        <v>-34.537549</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>807044216</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -19755,22 +19755,22 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>11 de Septiembre de 1888 4662</t>
+          <t>Del Barco Centenera 894</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>807044216</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>INCO</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -19780,7 +19780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>CAMBIAR COLUMNA MUY INCLINADA POR POSTE PRFV 400, COLOCAR A 40 CMTS DEL CORDON</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I256" t="n">
@@ -19788,7 +19788,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19802,36 +19802,36 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>-58.467458</v>
+        <v>-58.438744</v>
       </c>
       <c r="N256" t="n">
-        <v>-34.537549</v>
+        <v>-34.629929</v>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P256" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>807044216</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Del Barco Centenera 894</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -19841,12 +19841,12 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>807044216</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -19856,7 +19856,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I257" t="n">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -19874,50 +19874,50 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>-58.438744</v>
+        <v>-58.469783</v>
       </c>
       <c r="N257" t="n">
-        <v>-34.629929</v>
+        <v>-34.599214</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -19932,7 +19932,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I258" t="n">
@@ -19940,7 +19940,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19950,30 +19950,30 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>-58.469783</v>
+        <v>-58.487144</v>
       </c>
       <c r="N258" t="n">
-        <v>-34.599214</v>
+        <v>-34.669078</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>6496</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -19983,15 +19983,19 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Moldes 2327</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr"/>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>807044059</t>
+        </is>
+      </c>
       <c r="F259" t="inlineStr">
         <is>
           <t>AYKO</t>
@@ -20004,7 +20008,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I259" t="n">
@@ -20012,7 +20016,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -20022,30 +20026,30 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>-58.487144</v>
+        <v>-58.461172</v>
       </c>
       <c r="N259" t="n">
-        <v>-34.669078</v>
+        <v>-34.561608</v>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P259" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>6496</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -20055,7 +20059,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Moldes 2327</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -20065,12 +20069,12 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -20080,7 +20084,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I260" t="n">
@@ -20093,7 +20097,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -20102,46 +20106,46 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>-58.461172</v>
+        <v>-58.423551</v>
       </c>
       <c r="N260" t="n">
-        <v>-34.561608</v>
+        <v>-34.581258</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -20156,7 +20160,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I261" t="n">
@@ -20169,7 +20173,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -20178,14 +20182,14 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>-58.423551</v>
+        <v>-58.468182</v>
       </c>
       <c r="N261" t="n">
-        <v>-34.581258</v>
+        <v>-34.685231</v>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P261" t="inlineStr">
@@ -20197,7 +20201,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -20207,7 +20211,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -20217,7 +20221,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -20232,7 +20236,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I262" t="n">
@@ -20250,14 +20254,14 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>-58.468182</v>
+        <v>-58.477944</v>
       </c>
       <c r="N262" t="n">
-        <v>-34.685231</v>
+        <v>-34.675149</v>
       </c>
       <c r="O262" t="inlineStr">
         <is>
@@ -20273,7 +20277,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -20283,17 +20287,17 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -20308,7 +20312,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I263" t="n">
@@ -20326,14 +20330,14 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>-58.477944</v>
+        <v>-58.4212</v>
       </c>
       <c r="N263" t="n">
-        <v>-34.675149</v>
+        <v>-34.623575</v>
       </c>
       <c r="O263" t="inlineStr">
         <is>
@@ -20349,32 +20353,32 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -20384,7 +20388,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I264" t="n">
@@ -20406,14 +20410,14 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>-58.4212</v>
+        <v>-58.404871</v>
       </c>
       <c r="N264" t="n">
-        <v>-34.623575</v>
+        <v>-34.619205</v>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P264" t="inlineStr">
@@ -20425,7 +20429,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>6494</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -20435,17 +20439,17 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>SEGUI, JUAN FRANCISCO 4507</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -20482,14 +20486,14 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>-58.404871</v>
+        <v>-58.420269</v>
       </c>
       <c r="N265" t="n">
-        <v>-34.619205</v>
+        <v>-34.574122</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P265" t="inlineStr">
@@ -20501,32 +20505,32 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>6494</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4507</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -20536,7 +20540,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I266" t="n">
@@ -20558,14 +20562,14 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>-58.420269</v>
+        <v>-58.362579</v>
       </c>
       <c r="N266" t="n">
-        <v>-34.574122</v>
+        <v>-34.635096</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P266" t="inlineStr">
@@ -20577,7 +20581,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -20587,17 +20591,17 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -20612,7 +20616,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I267" t="n">
@@ -20620,7 +20624,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -20630,30 +20634,30 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>-58.362579</v>
+        <v>-58.487371</v>
       </c>
       <c r="N267" t="n">
-        <v>-34.635096</v>
+        <v>-34.640099</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -20663,22 +20667,22 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -20688,7 +20692,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I268" t="n">
@@ -20696,7 +20700,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -20706,30 +20710,30 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>-58.487371</v>
+        <v>-58.446125</v>
       </c>
       <c r="N268" t="n">
-        <v>-34.640099</v>
+        <v>-34.580819</v>
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -20739,7 +20743,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -20749,7 +20753,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -20782,14 +20786,14 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>-58.446125</v>
+        <v>-58.447732</v>
       </c>
       <c r="N269" t="n">
-        <v>-34.580819</v>
+        <v>-34.580408</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
@@ -20805,7 +20809,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -20815,17 +20819,17 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -20858,18 +20862,18 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>-58.447732</v>
+        <v>-58.461271</v>
       </c>
       <c r="N270" t="n">
-        <v>-34.580408</v>
+        <v>-34.625615</v>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P270" t="inlineStr">
@@ -20881,7 +20885,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -20891,22 +20895,22 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -20916,7 +20920,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I271" t="n">
@@ -20938,14 +20942,14 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>-58.461271</v>
+        <v>-58.425845</v>
       </c>
       <c r="N271" t="n">
-        <v>-34.625615</v>
+        <v>-34.616562</v>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P271" t="inlineStr">
@@ -20957,7 +20961,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -20967,7 +20971,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -20977,7 +20981,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -20992,7 +20996,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I272" t="n">
@@ -21014,14 +21018,14 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>-58.425845</v>
+        <v>-58.420909</v>
       </c>
       <c r="N272" t="n">
-        <v>-34.616562</v>
+        <v>-34.626221</v>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P272" t="inlineStr">
@@ -21033,32 +21037,32 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -21068,7 +21072,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I273" t="n">
@@ -21090,26 +21094,26 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>-58.420909</v>
+        <v>-58.458518</v>
       </c>
       <c r="N273" t="n">
-        <v>-34.626221</v>
+        <v>-34.564693</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -21119,22 +21123,22 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -21144,7 +21148,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I274" t="n">
@@ -21166,26 +21170,26 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>-58.458518</v>
+        <v>-58.416477</v>
       </c>
       <c r="N274" t="n">
-        <v>-34.564693</v>
+        <v>-34.61303</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -21195,7 +21199,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -21205,7 +21209,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -21242,10 +21246,10 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>-58.416477</v>
+        <v>-58.427424</v>
       </c>
       <c r="N275" t="n">
-        <v>-34.61303</v>
+        <v>-34.601217</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
@@ -21261,7 +21265,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -21271,7 +21275,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -21281,7 +21285,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -21296,7 +21300,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I276" t="n">
@@ -21318,10 +21322,10 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>-58.427424</v>
+        <v>-58.426665</v>
       </c>
       <c r="N276" t="n">
-        <v>-34.601217</v>
+        <v>-34.598019</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
@@ -21337,7 +21341,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -21347,7 +21351,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -21357,7 +21361,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -21372,7 +21376,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I277" t="n">
@@ -21394,10 +21398,10 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>-58.426665</v>
+        <v>-58.425478</v>
       </c>
       <c r="N277" t="n">
-        <v>-34.598019</v>
+        <v>-34.601865</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
@@ -21413,7 +21417,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -21423,22 +21427,22 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -21448,7 +21452,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I278" t="n">
@@ -21470,14 +21474,14 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>-58.425478</v>
+        <v>-58.436298</v>
       </c>
       <c r="N278" t="n">
-        <v>-34.601865</v>
+        <v>-34.578972</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P278" t="inlineStr">
@@ -21489,32 +21493,32 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -21524,7 +21528,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I279" t="n">
@@ -21546,14 +21550,14 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>-58.436298</v>
+        <v>-58.401624</v>
       </c>
       <c r="N279" t="n">
-        <v>-34.578972</v>
+        <v>-34.612001</v>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P279" t="inlineStr">
@@ -21565,7 +21569,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -21575,22 +21579,22 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>VALLESE, FELIPE 490</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807458227</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -21600,7 +21604,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
         </is>
       </c>
       <c r="I280" t="n">
@@ -21608,7 +21612,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -21622,10 +21626,10 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>-58.401624</v>
+        <v>-58.440448</v>
       </c>
       <c r="N280" t="n">
-        <v>-34.612001</v>
+        <v>-34.611223</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
@@ -21641,32 +21645,32 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 490</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>807458227</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -21676,7 +21680,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Desmontar columa ya traspasaron un nodo solo falta retirar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I281" t="n">
@@ -21684,7 +21688,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -21698,26 +21702,26 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>-58.440448</v>
+        <v>-58.480925</v>
       </c>
       <c r="N281" t="n">
-        <v>-34.611223</v>
+        <v>-34.585471</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -21727,7 +21731,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -21737,7 +21741,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -21774,10 +21778,10 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>-58.480925</v>
+        <v>-58.495071</v>
       </c>
       <c r="N282" t="n">
-        <v>-34.585471</v>
+        <v>-34.593122</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
@@ -21793,7 +21797,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -21803,17 +21807,17 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -21850,10 +21854,10 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>-58.495071</v>
+        <v>-58.481942</v>
       </c>
       <c r="N283" t="n">
-        <v>-34.593122</v>
+        <v>-34.602989</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
@@ -21869,17 +21873,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -21889,7 +21893,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -21904,7 +21908,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I284" t="n">
@@ -21922,14 +21926,14 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>-58.481942</v>
+        <v>-58.517389</v>
       </c>
       <c r="N284" t="n">
-        <v>-34.602989</v>
+        <v>-34.593541</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
@@ -21945,32 +21949,32 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807537512</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -21980,7 +21984,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
         </is>
       </c>
       <c r="I285" t="n">
@@ -21988,7 +21992,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -21998,30 +22002,30 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>-58.517389</v>
+        <v>-58.422775</v>
       </c>
       <c r="N285" t="n">
-        <v>-34.593541</v>
+        <v>-34.604135</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -22031,22 +22035,22 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>807537512</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -22056,7 +22060,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I286" t="n">
@@ -22064,7 +22068,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -22078,51 +22082,51 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>-58.422775</v>
+        <v>-58.49147</v>
       </c>
       <c r="N286" t="n">
-        <v>-34.604135</v>
+        <v>-34.55031</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -22132,7 +22136,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I287" t="n">
@@ -22140,7 +22144,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -22150,18 +22154,18 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>-58.49147</v>
+        <v>-58.497698</v>
       </c>
       <c r="N287" t="n">
-        <v>-34.55031</v>
+        <v>-34.612038</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P287" t="inlineStr">
@@ -22173,7 +22177,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -22183,22 +22187,22 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -22206,17 +22210,13 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="n">
         <v>1</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -22226,30 +22226,30 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>-58.497698</v>
+        <v>-58.405761</v>
       </c>
       <c r="N288" t="n">
-        <v>-34.612038</v>
+        <v>-34.582476</v>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -22259,22 +22259,22 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -22282,7 +22282,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr"/>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+        </is>
+      </c>
       <c r="I289" t="n">
         <v>1</v>
       </c>
@@ -22298,30 +22302,30 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>-58.405761</v>
+        <v>-58.469257</v>
       </c>
       <c r="N289" t="n">
-        <v>-34.582476</v>
+        <v>-34.542018</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -22331,22 +22335,22 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -22356,7 +22360,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I290" t="n">
@@ -22374,40 +22378,40 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>-58.469257</v>
+        <v>-58.409579</v>
       </c>
       <c r="N290" t="n">
-        <v>-34.542018</v>
+        <v>-34.581134</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -22417,12 +22421,12 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -22432,7 +22436,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I291" t="n">
@@ -22454,10 +22458,10 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>-58.409579</v>
+        <v>-58.432241</v>
       </c>
       <c r="N291" t="n">
-        <v>-34.581134</v>
+        <v>-34.56642</v>
       </c>
       <c r="O291" t="inlineStr">
         <is>
@@ -22473,7 +22477,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -22483,7 +22487,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -22493,7 +22497,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -22508,7 +22512,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I292" t="n">
@@ -22530,10 +22534,10 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>-58.432241</v>
+        <v>-58.417348</v>
       </c>
       <c r="N292" t="n">
-        <v>-34.56642</v>
+        <v>-34.595467</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
@@ -22549,32 +22553,32 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -22584,7 +22588,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I293" t="n">
@@ -22592,7 +22596,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -22602,14 +22606,14 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>-58.417348</v>
+        <v>-58.44848</v>
       </c>
       <c r="N293" t="n">
-        <v>-34.595467</v>
+        <v>-34.581338</v>
       </c>
       <c r="O293" t="inlineStr">
         <is>
@@ -22625,7 +22629,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -22635,7 +22639,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -22645,7 +22649,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -22660,7 +22664,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I294" t="n">
@@ -22682,26 +22686,26 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>-58.44848</v>
+        <v>-58.448496</v>
       </c>
       <c r="N294" t="n">
-        <v>-34.581338</v>
+        <v>-34.58182</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -22711,22 +22715,22 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -22736,7 +22740,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I295" t="n">
@@ -22744,7 +22748,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -22758,26 +22762,26 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>-58.448496</v>
+        <v>-58.472311</v>
       </c>
       <c r="N295" t="n">
-        <v>-34.58182</v>
+        <v>-34.654867</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -22787,22 +22791,22 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -22812,7 +22816,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I296" t="n">
@@ -22830,18 +22834,18 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>-58.472311</v>
+        <v>-58.402745</v>
       </c>
       <c r="N296" t="n">
-        <v>-34.654867</v>
+        <v>-34.627478</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P296" t="inlineStr">
@@ -22853,7 +22857,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -22863,7 +22867,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -22873,12 +22877,12 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -22888,7 +22892,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I297" t="n">
@@ -22901,7 +22905,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -22910,14 +22914,14 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>-58.402745</v>
+        <v>-58.400169</v>
       </c>
       <c r="N297" t="n">
-        <v>-34.627478</v>
+        <v>-34.617784</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P297" t="inlineStr">
@@ -22929,7 +22933,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -22939,22 +22943,22 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -22964,7 +22968,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I298" t="n">
@@ -22977,7 +22981,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -22986,14 +22990,14 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>-58.400169</v>
+        <v>-58.422315</v>
       </c>
       <c r="N298" t="n">
-        <v>-34.617784</v>
+        <v>-34.576988</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P298" t="inlineStr">
@@ -23005,7 +23009,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -23015,7 +23019,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -23025,7 +23029,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -23040,7 +23044,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I299" t="n">
@@ -23058,14 +23062,14 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>-58.422315</v>
+        <v>-58.441049</v>
       </c>
       <c r="N299" t="n">
-        <v>-34.576988</v>
+        <v>-34.574625</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
@@ -23081,7 +23085,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -23091,17 +23095,17 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -23116,7 +23120,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I300" t="n">
@@ -23134,14 +23138,14 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>-58.441049</v>
+        <v>-58.432722</v>
       </c>
       <c r="N300" t="n">
-        <v>-34.574625</v>
+        <v>-34.572371</v>
       </c>
       <c r="O300" t="inlineStr">
         <is>
@@ -23157,7 +23161,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -23167,22 +23171,22 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -23214,26 +23218,26 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>-58.432722</v>
+        <v>-58.450113</v>
       </c>
       <c r="N301" t="n">
-        <v>-34.572371</v>
+        <v>-34.574534</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -23243,17 +23247,17 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -23268,7 +23272,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I302" t="n">
@@ -23286,18 +23290,18 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>-58.450113</v>
+        <v>-58.484729</v>
       </c>
       <c r="N302" t="n">
-        <v>-34.574534</v>
+        <v>-34.574614</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
@@ -23309,32 +23313,32 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -23344,7 +23348,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I303" t="n">
@@ -23362,50 +23366,50 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>-58.484729</v>
+        <v>-58.425296</v>
       </c>
       <c r="N303" t="n">
-        <v>-34.574614</v>
+        <v>-34.578706</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P303" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -23420,7 +23424,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I304" t="n">
@@ -23442,26 +23446,26 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>-58.425296</v>
+        <v>-58.474467</v>
       </c>
       <c r="N304" t="n">
-        <v>-34.578706</v>
+        <v>-34.624161</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -23471,22 +23475,22 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -23496,7 +23500,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I305" t="n">
@@ -23518,14 +23522,14 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>-58.474467</v>
+        <v>-58.452636</v>
       </c>
       <c r="N305" t="n">
-        <v>-34.624161</v>
+        <v>-34.558607</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P305" t="inlineStr">
@@ -23537,32 +23541,32 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -23572,7 +23576,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I306" t="n">
@@ -23580,7 +23584,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -23594,46 +23598,46 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>-58.452636</v>
+        <v>-58.432644</v>
       </c>
       <c r="N306" t="n">
-        <v>-34.558607</v>
+        <v>-34.595434</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P306" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -23648,7 +23652,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I307" t="n">
@@ -23656,12 +23660,12 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -23670,14 +23674,14 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>-58.432644</v>
+        <v>-58.401827</v>
       </c>
       <c r="N307" t="n">
-        <v>-34.595434</v>
+        <v>-34.617667</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
@@ -23689,7 +23693,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -23699,22 +23703,22 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -23724,7 +23728,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I308" t="n">
@@ -23737,7 +23741,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -23746,14 +23750,14 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>-58.401827</v>
+        <v>-58.436808</v>
       </c>
       <c r="N308" t="n">
-        <v>-34.617667</v>
+        <v>-34.577464</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
@@ -23765,32 +23769,32 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>SOLER 6017</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>807851636</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -23800,7 +23804,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I309" t="n">
@@ -23822,14 +23826,14 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>-58.436808</v>
+        <v>-58.450359</v>
       </c>
       <c r="N309" t="n">
-        <v>-34.577464</v>
+        <v>-34.643582</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P309" t="inlineStr">
@@ -23841,7 +23845,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -23851,7 +23855,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -23861,12 +23865,12 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807877145</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -23876,7 +23880,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Falta la foto</t>
         </is>
       </c>
       <c r="I310" t="n">
@@ -23898,10 +23902,10 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>-58.450359</v>
+        <v>-58.459566</v>
       </c>
       <c r="N310" t="n">
-        <v>-34.643582</v>
+        <v>-34.634615</v>
       </c>
       <c r="O310" t="inlineStr">
         <is>
@@ -23917,7 +23921,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -23927,22 +23931,22 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -23952,7 +23956,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Falta la foto</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I311" t="n">
@@ -23974,10 +23978,10 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>-58.459566</v>
+        <v>-58.437378</v>
       </c>
       <c r="N311" t="n">
-        <v>-34.634615</v>
+        <v>-34.62116</v>
       </c>
       <c r="O311" t="inlineStr">
         <is>
@@ -23993,27 +23997,27 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -24028,7 +24032,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I312" t="n">
@@ -24050,14 +24054,14 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>-58.437378</v>
+        <v>-58.413941</v>
       </c>
       <c r="N312" t="n">
-        <v>-34.62116</v>
+        <v>-34.57698</v>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P312" t="inlineStr">
@@ -24069,7 +24073,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -24079,7 +24083,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>ARAOZ 2560</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -24089,12 +24093,12 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807965818</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -24104,7 +24108,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I313" t="n">
@@ -24126,10 +24130,10 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>-58.413941</v>
+        <v>-58.414507</v>
       </c>
       <c r="N313" t="n">
-        <v>-34.57698</v>
+        <v>-34.585377</v>
       </c>
       <c r="O313" t="inlineStr">
         <is>
@@ -24145,7 +24149,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -24155,7 +24159,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>ARAOZ 2560</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -24165,12 +24169,12 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>807965818</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -24180,15 +24184,15 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -24198,18 +24202,18 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>-58.414507</v>
+        <v>-58.405749</v>
       </c>
       <c r="N314" t="n">
-        <v>-34.585377</v>
+        <v>-34.58224</v>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P314" t="inlineStr">
@@ -24221,27 +24225,27 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -24256,15 +24260,15 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -24278,26 +24282,26 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>-58.405749</v>
+        <v>-58.473179</v>
       </c>
       <c r="N315" t="n">
-        <v>-34.58224</v>
+        <v>-34.629138</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P315" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -24307,17 +24311,17 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -24332,7 +24336,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I316" t="n">
@@ -24340,65 +24344,65 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>-58.473179</v>
+        <v>-58.400188</v>
       </c>
       <c r="N316" t="n">
-        <v>-34.629138</v>
+        <v>-34.583882</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P316" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6363</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>MOLDES 3730</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099415</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -24408,7 +24412,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I317" t="n">
@@ -24416,40 +24420,40 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>-58.400188</v>
+        <v>-58.47192</v>
       </c>
       <c r="N317" t="n">
-        <v>-34.583882</v>
+        <v>-34.549398</v>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P317" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>6363</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -24459,22 +24463,22 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>MOLDES 3730</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>808099415</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -24484,7 +24488,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I318" t="n">
@@ -24492,7 +24496,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -24502,30 +24506,30 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>-58.47192</v>
+        <v>-58.426322</v>
       </c>
       <c r="N318" t="n">
-        <v>-34.549398</v>
+        <v>-34.600097</v>
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -24535,17 +24539,17 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -24582,14 +24586,14 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>-58.426322</v>
+        <v>-58.448523</v>
       </c>
       <c r="N319" t="n">
-        <v>-34.600097</v>
+        <v>-34.62452</v>
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P319" t="inlineStr">
@@ -24601,32 +24605,32 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-503</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Salguero 842</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808148673</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -24636,7 +24640,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna picada en la base</t>
         </is>
       </c>
       <c r="I320" t="n">
@@ -24658,14 +24662,14 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>-58.448523</v>
+        <v>-58.419166</v>
       </c>
       <c r="N320" t="n">
-        <v>-34.62452</v>
+        <v>-34.600265</v>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P320" t="inlineStr">
@@ -24677,7 +24681,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>-503</t>
+          <t>6506</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -24687,17 +24691,17 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Salguero 842</t>
+          <t>Ohiggins 1611</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>808148673</t>
+          <t>808148679</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -24712,7 +24716,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Cambiar columna picada en la base</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I321" t="n">
@@ -24725,7 +24729,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -24734,51 +24738,51 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>-58.419166</v>
+        <v>-58.448993</v>
       </c>
       <c r="N321" t="n">
-        <v>-34.600265</v>
+        <v>-34.564383</v>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P321" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6506</t>
+          <t>-505</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Ohiggins 1611</t>
+          <t>Brasil 3181</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>808148679</t>
+          <t>808150460</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -24788,7 +24792,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I322" t="n">
@@ -24801,7 +24805,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -24810,26 +24814,26 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>-58.448993</v>
+        <v>-58.409002</v>
       </c>
       <c r="N322" t="n">
-        <v>-34.564383</v>
+        <v>-34.634523</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P322" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>-505</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -24839,22 +24843,22 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Brasil 3181</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>808150460</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -24877,7 +24881,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -24886,14 +24890,14 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>-58.409002</v>
+        <v>-58.449</v>
       </c>
       <c r="N323" t="n">
-        <v>-34.634523</v>
+        <v>-34.616077</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P323" t="inlineStr">
@@ -24905,32 +24909,32 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-507</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Tamborini 3291</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808194229</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>INCO</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -24953,7 +24957,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -24962,26 +24966,26 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>-58.449</v>
+        <v>-58.473937</v>
       </c>
       <c r="N324" t="n">
-        <v>-34.616077</v>
+        <v>-34.557355</v>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P324" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>-507</t>
+          <t>-508</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -24991,7 +24995,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Tamborini 3291</t>
+          <t>Moldes 2463</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -25001,7 +25005,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>808194229</t>
+          <t>808194234</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -25029,7 +25033,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -25038,10 +25042,10 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>-58.473937</v>
+        <v>-58.462281</v>
       </c>
       <c r="N325" t="n">
-        <v>-34.557355</v>
+        <v>-34.560321</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
@@ -25057,7 +25061,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>-508</t>
+          <t>-509</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -25067,17 +25071,17 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Moldes 2463</t>
+          <t>Paso 58</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>808194234</t>
+          <t>808194240</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -25105,7 +25109,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -25114,26 +25118,26 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>-58.462281</v>
+        <v>-58.403422</v>
       </c>
       <c r="N326" t="n">
-        <v>-34.560321</v>
+        <v>-34.609195</v>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P326" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>-509</t>
+          <t>-510</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -25143,7 +25147,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Paso 58</t>
+          <t>Larrea 590</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -25153,7 +25157,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>808194240</t>
+          <t>808194254</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -25181,7 +25185,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -25190,10 +25194,10 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>-58.403422</v>
+        <v>-58.402353</v>
       </c>
       <c r="N327" t="n">
-        <v>-34.609195</v>
+        <v>-34.602205</v>
       </c>
       <c r="O327" t="inlineStr">
         <is>
@@ -25209,7 +25213,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>-510</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -25219,7 +25223,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Larrea 590</t>
+          <t>CASTELLI 304</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -25229,12 +25233,12 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>808194254</t>
+          <t>808194260</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -25257,7 +25261,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -25266,10 +25270,10 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>-58.402353</v>
+        <v>-58.404696</v>
       </c>
       <c r="N328" t="n">
-        <v>-34.602205</v>
+        <v>-34.606337</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
@@ -25285,7 +25289,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -25295,22 +25299,22 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>CASTELLI 304</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>808194260</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -25338,18 +25342,18 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>-58.404696</v>
+        <v>-58.363292</v>
       </c>
       <c r="N329" t="n">
-        <v>-34.606337</v>
+        <v>-34.642869</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P329" t="inlineStr">
@@ -25361,32 +25365,32 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>-512</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>Ciudad de la Paz 3742</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>808240230</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>INCO</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -25414,30 +25418,30 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>-58.363292</v>
+        <v>-58.470347</v>
       </c>
       <c r="N330" t="n">
-        <v>-34.642869</v>
+        <v>-34.547965</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>-512</t>
+          <t>-513</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -25447,22 +25451,22 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 3742</t>
+          <t>Montes de Oca 1809</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>808240230</t>
+          <t>808240768</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -25472,7 +25476,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I331" t="n">
@@ -25494,26 +25498,26 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>-58.470347</v>
+        <v>-58.372941</v>
       </c>
       <c r="N331" t="n">
-        <v>-34.547965</v>
+        <v>-34.648341</v>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>-513</t>
+          <t>6486</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -25523,22 +25527,22 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Montes de Oca 1809</t>
+          <t>BILBAO, FRANCISCO 2442</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>808240768</t>
+          <t>808243829</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>INCO</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -25548,7 +25552,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I332" t="n">
@@ -25570,14 +25574,14 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>-58.372941</v>
+        <v>-58.460522</v>
       </c>
       <c r="N332" t="n">
-        <v>-34.648341</v>
+        <v>-34.635514</v>
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P332" t="inlineStr">
@@ -25589,7 +25593,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>6486</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -25599,22 +25603,22 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2442</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>808243829</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -25624,7 +25628,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I333" t="n">
@@ -25632,7 +25636,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -25642,30 +25646,30 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>-58.460522</v>
+        <v>-58.510247</v>
       </c>
       <c r="N333" t="n">
-        <v>-34.635514</v>
+        <v>-34.645038</v>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P333" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6407</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -25675,22 +25679,22 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>TUCUMAN 3253</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>808373657</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -25700,7 +25704,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I334" t="n">
@@ -25708,7 +25712,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -25718,30 +25722,30 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>-58.510247</v>
+        <v>-58.411609</v>
       </c>
       <c r="N334" t="n">
-        <v>-34.645038</v>
+        <v>-34.600329</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P334" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>6407</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -25751,22 +25755,22 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>TUCUMAN 3253</t>
+          <t>BEAUCHEF 421</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>808373657</t>
+          <t>808373658</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -25798,14 +25802,14 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>-58.411609</v>
+        <v>-58.433724</v>
       </c>
       <c r="N335" t="n">
-        <v>-34.600329</v>
+        <v>-34.621643</v>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P335" t="inlineStr">
@@ -25817,32 +25821,32 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>-516</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>BEAUCHEF 421</t>
+          <t>Olazabal 4417</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>808373658</t>
+          <t>808373646</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>INCO</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -25874,26 +25878,26 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>-58.433724</v>
+        <v>-58.478941</v>
       </c>
       <c r="N336" t="n">
-        <v>-34.621643</v>
+        <v>-34.57242</v>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P336" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>-516</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -25903,22 +25907,22 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Olazabal 4417</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>808373646</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -25928,7 +25932,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I337" t="n">
@@ -25950,26 +25954,26 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>-58.478941</v>
+        <v>-58.432805</v>
       </c>
       <c r="N337" t="n">
-        <v>-34.57242</v>
+        <v>-34.574345</v>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P337" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>-518</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -25979,22 +25983,22 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -26004,7 +26008,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I338" t="n">
@@ -26026,36 +26030,36 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>-58.432805</v>
+        <v>-58.483145</v>
       </c>
       <c r="N338" t="n">
-        <v>-34.574345</v>
+        <v>-34.557043</v>
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>-518</t>
+          <t>6437</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/17/2025</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>MILLER 4590</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -26065,12 +26069,12 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808400306</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -26080,7 +26084,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Columna corroida</t>
         </is>
       </c>
       <c r="I339" t="n">
@@ -26102,10 +26106,10 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>-58.483145</v>
+        <v>-58.495482</v>
       </c>
       <c r="N339" t="n">
-        <v>-34.557043</v>
+        <v>-34.552614</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
@@ -26121,7 +26125,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>6437</t>
+          <t>6447</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -26131,17 +26135,17 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>MILLER 4590</t>
+          <t>CIUDAD DE LA PAZ 1535</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>808400306</t>
+          <t>808400333</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -26156,7 +26160,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Columna corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I340" t="n">
@@ -26178,14 +26182,14 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>-58.495482</v>
+        <v>-58.453124</v>
       </c>
       <c r="N340" t="n">
-        <v>-34.552614</v>
+        <v>-34.567382</v>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P340" t="inlineStr">
@@ -26197,7 +26201,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>6447</t>
+          <t>-519</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -26207,17 +26211,17 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 1535</t>
+          <t>Vilela 2687</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>808400333</t>
+          <t>808400334</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -26232,7 +26236,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>CAmbiar columna 114 picada en base</t>
         </is>
       </c>
       <c r="I341" t="n">
@@ -26254,14 +26258,14 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>-58.453124</v>
+        <v>-58.472968</v>
       </c>
       <c r="N341" t="n">
-        <v>-34.567382</v>
+        <v>-34.546898</v>
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P341" t="inlineStr">
@@ -26273,7 +26277,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>-519</t>
+          <t>6538</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -26283,7 +26287,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Vilela 2687</t>
+          <t>Pedraza Manuela 4101</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -26293,7 +26297,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>808400334</t>
+          <t>808400353</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -26308,7 +26312,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>CAmbiar columna 114 picada en base</t>
+          <t xml:space="preserve">Podrida en la base </t>
         </is>
       </c>
       <c r="I342" t="n">
@@ -26330,10 +26334,10 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>-58.472968</v>
+        <v>-58.481569</v>
       </c>
       <c r="N342" t="n">
-        <v>-34.546898</v>
+        <v>-34.559853</v>
       </c>
       <c r="O342" t="inlineStr">
         <is>
@@ -26349,32 +26353,32 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>6538</t>
+          <t>6454</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>7/17/2025</t>
+          <t>7/18/2025</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Pedraza Manuela 4101</t>
+          <t>HABANA 3382</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>808400353</t>
+          <t>808413466</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -26384,7 +26388,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podrida en la base </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I343" t="n">
@@ -26406,14 +26410,14 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>-58.481569</v>
+        <v>-58.505747</v>
       </c>
       <c r="N343" t="n">
-        <v>-34.559853</v>
+        <v>-34.593173</v>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P343" t="inlineStr">
@@ -26425,27 +26429,27 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>6454</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>7/18/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>HABANA 3382</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>808413466</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -26460,7 +26464,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I344" t="n">
@@ -26482,14 +26486,14 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>-58.505747</v>
+        <v>-58.496608</v>
       </c>
       <c r="N344" t="n">
-        <v>-34.593173</v>
+        <v>-34.666371</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P344" t="inlineStr">
@@ -26501,7 +26505,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>-522</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -26511,22 +26515,22 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>Uruguay 1090</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808430941</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>INCO</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -26536,7 +26540,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Reclaman columna corroida y rienda fuera de norma pero no se ve en la foto.</t>
         </is>
       </c>
       <c r="I345" t="n">
@@ -26554,50 +26558,50 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>-58.496608</v>
+        <v>-58.387175</v>
       </c>
       <c r="N345" t="n">
-        <v>-34.666371</v>
+        <v>-34.596</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P345" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>-522</t>
+          <t>-523</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/20/2025</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Uruguay 1090</t>
+          <t>Luis Maria Campos 585</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>808430941</t>
+          <t>808460898</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -26612,7 +26616,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Reclaman columna corroida y rienda fuera de norma pero no se ve en la foto.</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I346" t="n">
@@ -26630,18 +26634,18 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>-58.387175</v>
+        <v>-58.434668</v>
       </c>
       <c r="N346" t="n">
-        <v>-34.596</v>
+        <v>-34.571258</v>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P346" t="inlineStr">
@@ -26653,17 +26657,17 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>-523</t>
+          <t>-524</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>7/20/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Luis Maria Campos 585</t>
+          <t>Luis Maria Campos 509</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -26673,7 +26677,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>808460898</t>
+          <t>808460897</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -26710,10 +26714,10 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>-58.434668</v>
+        <v>-58.434194</v>
       </c>
       <c r="N347" t="n">
-        <v>-34.571258</v>
+        <v>-34.571754</v>
       </c>
       <c r="O347" t="inlineStr">
         <is>
@@ -26729,32 +26733,32 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>-524</t>
+          <t>-525</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/22/2025</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Luis Maria Campos 509</t>
+          <t>Zabala 3567</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>808460897</t>
+          <t>808480549</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -26764,7 +26768,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Corroida en base para recambio</t>
         </is>
       </c>
       <c r="I348" t="n">
@@ -26786,51 +26790,51 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>-58.434194</v>
+        <v>-58.457492</v>
       </c>
       <c r="N348" t="n">
-        <v>-34.571754</v>
+        <v>-34.579336</v>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>-525</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>7/22/2025</t>
+          <t>7/23/2025</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Zabala 3567</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>808480549</t>
+          <t>ICD30189941</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -26840,7 +26844,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Corroida en base para recambio</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I349" t="n">
@@ -26862,51 +26866,51 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>-58.457492</v>
+        <v>-58.384097</v>
       </c>
       <c r="N349" t="n">
-        <v>-34.579336</v>
+        <v>-34.598913</v>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P349" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>-529</t>
+          <t>6484</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>7/23/2025</t>
+          <t>7/24/2025</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Libertad 820</t>
+          <t>URIARTE 2396</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>ICD30189941</t>
+          <t>808509373</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -26916,7 +26920,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I350" t="n">
@@ -26938,14 +26942,14 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>-58.384097</v>
+        <v>-58.423934</v>
       </c>
       <c r="N350" t="n">
-        <v>-34.598913</v>
+        <v>-34.581562</v>
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P350" t="inlineStr">
@@ -26957,7 +26961,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6484</t>
+          <t>6472</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -26967,22 +26971,22 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>URIARTE 2396</t>
+          <t>DUMONT, SANTOS 3744</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>808509373</t>
+          <t>808509381</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -26992,7 +26996,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I351" t="n">
@@ -27010,30 +27014,30 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>-58.423934</v>
+        <v>-58.448576</v>
       </c>
       <c r="N351" t="n">
-        <v>-34.581562</v>
+        <v>-34.585794</v>
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P351" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>6478</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -27043,22 +27047,22 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3744</t>
+          <t>JUJUY AV. 1647</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>808509381</t>
+          <t>808509387</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>INCO</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -27068,7 +27072,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I352" t="n">
@@ -27086,55 +27090,55 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>-58.448576</v>
+        <v>-58.401083</v>
       </c>
       <c r="N352" t="n">
-        <v>-34.585794</v>
+        <v>-34.629397</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6478</t>
+          <t>-531</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>7/24/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>JUJUY AV. 1647</t>
+          <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>808509387</t>
+          <t>808530239</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -27144,7 +27148,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
       <c r="I353" t="n">
@@ -27166,26 +27170,26 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>-58.401083</v>
+        <v>-58.513643</v>
       </c>
       <c r="N353" t="n">
-        <v>-34.629397</v>
+        <v>-34.594169</v>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P353" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>-531</t>
+          <t>6471</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -27195,22 +27199,22 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4632</t>
+          <t>ACEVEDO 310</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>808530239</t>
+          <t>808533124</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -27220,7 +27224,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I354" t="n">
@@ -27242,10 +27246,10 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>-58.513643</v>
+        <v>-58.44163</v>
       </c>
       <c r="N354" t="n">
-        <v>-34.594169</v>
+        <v>-34.598788</v>
       </c>
       <c r="O354" t="inlineStr">
         <is>
@@ -27261,7 +27265,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -27271,22 +27275,22 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>ACEVEDO 310</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>808533124</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -27296,7 +27300,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I355" t="n">
@@ -27304,7 +27308,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -27318,26 +27322,26 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>-58.44163</v>
+        <v>-58.422229</v>
       </c>
       <c r="N355" t="n">
-        <v>-34.598788</v>
+        <v>-34.573148</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P355" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>6502</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -27347,22 +27351,22 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>CIUDAD DE LA PAZ 1511</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>808571972</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -27372,7 +27376,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I356" t="n">
@@ -27380,7 +27384,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -27394,26 +27398,26 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>-58.422229</v>
+        <v>-58.452907</v>
       </c>
       <c r="N356" t="n">
-        <v>-34.573148</v>
+        <v>-34.567508</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P356" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>6502</t>
+          <t>6504</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -27423,7 +27427,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 1511</t>
+          <t>CIUDAD DE LA PAZ 1278</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -27433,7 +27437,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>808571972</t>
+          <t>808571974</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -27448,7 +27452,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I357" t="n">
@@ -27470,10 +27474,10 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>-58.452907</v>
+        <v>-58.450753</v>
       </c>
       <c r="N357" t="n">
-        <v>-34.567508</v>
+        <v>-34.5688</v>
       </c>
       <c r="O357" t="inlineStr">
         <is>
@@ -27489,27 +27493,27 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6504</t>
+          <t>6512</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>7/28/2025</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 1278</t>
+          <t>GASCON 1195</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>808571974</t>
+          <t>808571975</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -27524,7 +27528,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I358" t="n">
@@ -27546,26 +27550,26 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>-58.450753</v>
+        <v>-58.423127</v>
       </c>
       <c r="N358" t="n">
-        <v>-34.5688</v>
+        <v>-34.596476</v>
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P358" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6512</t>
+          <t>6513</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -27575,7 +27579,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>GASCON 1195</t>
+          <t>DORREGO 1925</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -27585,7 +27589,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>808571975</t>
+          <t>808571976</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -27622,10 +27626,10 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>-58.423127</v>
+        <v>-58.441281</v>
       </c>
       <c r="N359" t="n">
-        <v>-34.596476</v>
+        <v>-34.579867</v>
       </c>
       <c r="O359" t="inlineStr">
         <is>
@@ -27641,7 +27645,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6513</t>
+          <t>6519</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -27651,7 +27655,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>DORREGO 1925</t>
+          <t>SALGUERO, JERONIMO 2874</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -27661,7 +27665,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>808571976</t>
+          <t>808571977</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -27676,7 +27680,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I360" t="n">
@@ -27684,7 +27688,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -27694,14 +27698,14 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>-58.441281</v>
+        <v>-58.407256</v>
       </c>
       <c r="N360" t="n">
-        <v>-34.579867</v>
+        <v>-34.578976</v>
       </c>
       <c r="O360" t="inlineStr">
         <is>
@@ -27717,7 +27721,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6519</t>
+          <t>6523</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -27727,22 +27731,22 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>SALGUERO, JERONIMO 2874</t>
+          <t>BOGOTA 2552</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>808571977</t>
+          <t>808571979</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -27752,7 +27756,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I361" t="n">
@@ -27760,7 +27764,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -27770,18 +27774,18 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>-58.407256</v>
+        <v>-58.466359</v>
       </c>
       <c r="N361" t="n">
-        <v>-34.578976</v>
+        <v>-34.625966</v>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P361" t="inlineStr">
@@ -27793,7 +27797,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>6523</t>
+          <t>6524</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -27803,17 +27807,17 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>BOGOTA 2552</t>
+          <t>DORREGO AV. 2687</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>808571979</t>
+          <t>808571980</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -27850,14 +27854,14 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>-58.466359</v>
+        <v>-58.433295</v>
       </c>
       <c r="N362" t="n">
-        <v>-34.625966</v>
+        <v>-34.574305</v>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P362" t="inlineStr">
@@ -27869,7 +27873,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>6524</t>
+          <t>6527</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -27879,17 +27883,17 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>DORREGO AV. 2687</t>
+          <t>NEWBERY, JORGE 3349</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>808571980</t>
+          <t>808571982</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -27926,10 +27930,10 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>-58.433295</v>
+        <v>-58.447943</v>
       </c>
       <c r="N363" t="n">
-        <v>-34.574305</v>
+        <v>-34.580719</v>
       </c>
       <c r="O363" t="inlineStr">
         <is>
@@ -27945,7 +27949,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6527</t>
+          <t>-532</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -27955,17 +27959,17 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE 3349</t>
+          <t>Av Corrientes 5143</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>808571982</t>
+          <t>808571983</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -28002,10 +28006,10 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>-58.447943</v>
+        <v>-58.437823</v>
       </c>
       <c r="N364" t="n">
-        <v>-34.580719</v>
+        <v>-34.600094</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
@@ -28021,7 +28025,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>-532</t>
+          <t>-533</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -28031,17 +28035,17 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Av Corrientes 5143</t>
+          <t>Bonpland 2233</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>808571983</t>
+          <t>808571985</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -28056,7 +28060,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna y colocar rienda a pique </t>
         </is>
       </c>
       <c r="I365" t="n">
@@ -28074,14 +28078,14 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>-58.437823</v>
+        <v>-58.43258</v>
       </c>
       <c r="N365" t="n">
-        <v>-34.600094</v>
+        <v>-34.579265</v>
       </c>
       <c r="O365" t="inlineStr">
         <is>
@@ -28097,27 +28101,27 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>-533</t>
+          <t>6534</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>7/28/2025</t>
+          <t>7/29/2025</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Bonpland 2233</t>
+          <t>CALLAO AV. 316</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>808571985</t>
+          <t>808579773</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -28132,7 +28136,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna y colocar rienda a pique </t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I366" t="n">
@@ -28150,18 +28154,18 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>-58.43258</v>
+        <v>-58.39231</v>
       </c>
       <c r="N366" t="n">
-        <v>-34.579265</v>
+        <v>-34.605507</v>
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P366" t="inlineStr">
@@ -28173,32 +28177,32 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>-534</t>
+          <t>6539</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>7/28/2025</t>
+          <t>7/29/2025</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Jose Aaron Salmun Feijoo 325</t>
+          <t>BOGOTA 3668</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>808571999</t>
+          <t>808579768</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -28208,11 +28212,11 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Cambiar terminal</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J367" t="inlineStr">
         <is>
@@ -28226,55 +28230,55 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>-58.3793</v>
+        <v>-58.479957</v>
       </c>
       <c r="N367" t="n">
-        <v>-34.636079</v>
+        <v>-34.629792</v>
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P367" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>-535</t>
+          <t>-536</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>7/28/2025</t>
+          <t>7/29/2025</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Jose Aaron Salmun Feijoo 363</t>
+          <t>Olof palme 4142</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>ICD30238810</t>
+          <t xml:space="preserve">ICD30249764 </t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -28284,15 +28288,15 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Colocar prfv pasante</t>
+          <t>Aplomar o desmontar poste</t>
         </is>
       </c>
       <c r="I368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -28302,55 +28306,55 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>-58.379294</v>
+        <v>-58.488239</v>
       </c>
       <c r="N368" t="n">
-        <v>-34.636313</v>
+        <v>-34.55341</v>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P368" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6534</t>
+          <t>-537</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>7/29/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>CALLAO AV. 316</t>
+          <t>Craig 717</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>808579773</t>
+          <t>808609241</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -28360,7 +28364,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I369" t="n">
@@ -28382,14 +28386,14 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>-58.39231</v>
+        <v>-58.435018</v>
       </c>
       <c r="N369" t="n">
-        <v>-34.605507</v>
+        <v>-34.627159</v>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P369" t="inlineStr">
@@ -28401,32 +28405,32 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6539</t>
+          <t>-538</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>7/29/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>BOGOTA 3668</t>
+          <t>Malabia 964</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>808579768</t>
+          <t>808609237</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -28436,7 +28440,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar poste mal estado por PRFV</t>
         </is>
       </c>
       <c r="I370" t="n">
@@ -28454,55 +28458,55 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>-58.479957</v>
+        <v>-58.433634</v>
       </c>
       <c r="N370" t="n">
-        <v>-34.629792</v>
+        <v>-34.595018</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P370" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>-536</t>
+          <t>-539</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>7/29/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Olof palme 4142</t>
+          <t>Tejedor 1097</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30249764 </t>
+          <t>808615951</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -28512,7 +28516,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Aplomar o desmontar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I371" t="n">
@@ -28520,7 +28524,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -28530,30 +28534,30 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>-58.488239</v>
+        <v>-58.440748</v>
       </c>
       <c r="N371" t="n">
-        <v>-34.55341</v>
+        <v>-34.63245</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P371" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>-537</t>
+          <t>-540</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -28563,17 +28567,17 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Craig 717</t>
+          <t>Tejedor 1071</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>808609241</t>
+          <t>808615948</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -28610,10 +28614,10 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>-58.435018</v>
+        <v>-58.44037</v>
       </c>
       <c r="N372" t="n">
-        <v>-34.627159</v>
+        <v>-34.632249</v>
       </c>
       <c r="O372" t="inlineStr">
         <is>
@@ -28621,234 +28625,6 @@
         </is>
       </c>
       <c r="P372" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>-538</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>7/31/2025</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>Malabia 964</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>808609237</t>
-        </is>
-      </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G373" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>Cambiar poste mal estado por PRFV</t>
-        </is>
-      </c>
-      <c r="I373" t="n">
-        <v>1</v>
-      </c>
-      <c r="J373" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M373" t="n">
-        <v>-58.433634</v>
-      </c>
-      <c r="N373" t="n">
-        <v>-34.595018</v>
-      </c>
-      <c r="O373" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P373" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>-539</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>7/31/2025</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>Tejedor 1097</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr">
-        <is>
-          <t>808615951</t>
-        </is>
-      </c>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I374" t="n">
-        <v>1</v>
-      </c>
-      <c r="J374" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M374" t="n">
-        <v>-58.440748</v>
-      </c>
-      <c r="N374" t="n">
-        <v>-34.63245</v>
-      </c>
-      <c r="O374" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P374" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>-540</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>7/31/2025</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>Tejedor 1071</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>808615948</t>
-        </is>
-      </c>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I375" t="n">
-        <v>1</v>
-      </c>
-      <c r="J375" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M375" t="n">
-        <v>-58.44037</v>
-      </c>
-      <c r="N375" t="n">
-        <v>-34.632249</v>
-      </c>
-      <c r="O375" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P375" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -28865,7 +28641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33258,7 +33034,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5940</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -33268,17 +33044,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1406</t>
+          <t>11 de Septiembre de 1888 4662</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807044148</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -33293,7 +33069,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>CAMBIAR COLUMNA MUY INCLINADA POR POSTE PRFV 400, COLOCAR A 40 CMTS DEL CORDON</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -33301,7 +33077,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -33315,46 +33091,46 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.41193</v>
+        <v>-58.467458</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.626628</v>
+        <v>-34.537549</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>11 de Septiembre de 1888 4662</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -33369,7 +33145,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>CAMBIAR COLUMNA MUY INCLINADA POR POSTE PRFV 400, COLOCAR A 40 CMTS DEL CORDON</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -33377,7 +33153,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -33387,30 +33163,30 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.467458</v>
+        <v>-58.404871</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.537549</v>
+        <v>-34.619205</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>6494</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -33420,17 +33196,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>SEGUI, JUAN FRANCISCO 4507</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -33467,14 +33243,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.404871</v>
+        <v>-58.420269</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.619205</v>
+        <v>-34.574122</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -33486,27 +33262,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6494</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4507</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -33543,10 +33319,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.420269</v>
+        <v>-58.446125</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.574122</v>
+        <v>-34.580819</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -33562,7 +33338,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -33572,7 +33348,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -33582,7 +33358,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -33615,14 +33391,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.446125</v>
+        <v>-58.447732</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.580819</v>
+        <v>-34.580408</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -33638,7 +33414,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -33648,17 +33424,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -33691,18 +33467,18 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.447732</v>
+        <v>-58.461271</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.580408</v>
+        <v>-34.625615</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -33714,27 +33490,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>-472</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>MOLDES 1995</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>807208296</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -33749,7 +33525,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -33771,46 +33547,46 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.461271</v>
+        <v>-58.458518</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.625615</v>
+        <v>-34.564693</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-472</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MOLDES 1995</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807208296</t>
+          <t>807458159</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -33825,7 +33601,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Columna 114 picada en base no confundir con Moldes 1983 son dos columnas cercanas para cambiar</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -33847,46 +33623,46 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.458518</v>
+        <v>-58.401624</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.564693</v>
+        <v>-34.612001</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807458159</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -33901,7 +33677,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -33919,50 +33695,50 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.401624</v>
+        <v>-58.469257</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.612001</v>
+        <v>-34.542018</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -33977,7 +33753,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -33995,50 +33771,50 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.469257</v>
+        <v>-58.402745</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.542018</v>
+        <v>-34.627478</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807877145</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -34053,7 +33829,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Falta la foto</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -34075,14 +33851,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.402745</v>
+        <v>-58.459566</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.627478</v>
+        <v>-34.634615</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -34094,27 +33870,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>-505</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>Brasil 3181</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807877145</t>
+          <t>808150460</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -34129,7 +33905,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Falta la foto</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -34151,14 +33927,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.459566</v>
+        <v>-58.409002</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.634615</v>
+        <v>-34.634523</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -34170,27 +33946,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-505</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Brasil 3181</t>
+          <t>CASTELLI 304</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>808150460</t>
+          <t>808194260</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -34227,14 +34003,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.409002</v>
+        <v>-58.404696</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.634523</v>
+        <v>-34.606337</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -34246,17 +34022,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>6407</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CASTELLI 304</t>
+          <t>TUCUMAN 3253</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -34266,7 +34042,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>808194260</t>
+          <t>808373657</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -34303,10 +34079,10 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.404696</v>
+        <v>-58.411609</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.606337</v>
+        <v>-34.600329</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -34322,27 +34098,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6407</t>
+          <t>6471</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TUCUMAN 3253</t>
+          <t>ACEVEDO 310</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>808373657</t>
+          <t>808533124</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -34379,46 +34155,46 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.411609</v>
+        <v>-58.44163</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.600329</v>
+        <v>-34.598788</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>6523</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>7/28/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ACEVEDO 310</t>
+          <t>BOGOTA 2552</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>808533124</t>
+          <t>808571979</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -34455,26 +34231,26 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.44163</v>
+        <v>-58.466359</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.598788</v>
+        <v>-34.625966</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6523</t>
+          <t>6524</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -34484,17 +34260,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BOGOTA 2552</t>
+          <t>DORREGO AV. 2687</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>808571979</t>
+          <t>808571980</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -34531,14 +34307,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.466359</v>
+        <v>-58.433295</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.625966</v>
+        <v>-34.574305</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -34550,7 +34326,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6524</t>
+          <t>6527</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -34560,17 +34336,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>DORREGO AV. 2687</t>
+          <t>NEWBERY, JORGE 3349</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>808571980</t>
+          <t>808571982</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -34607,10 +34383,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.433295</v>
+        <v>-58.447943</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.574305</v>
+        <v>-34.580719</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -34626,7 +34402,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6527</t>
+          <t>-532</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -34636,17 +34412,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE 3349</t>
+          <t>Av Corrientes 5143</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>808571982</t>
+          <t>808571983</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -34683,10 +34459,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.447943</v>
+        <v>-58.437823</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.580719</v>
+        <v>-34.600094</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -34702,7 +34478,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-532</t>
+          <t>-533</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -34712,17 +34488,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Av Corrientes 5143</t>
+          <t>Bonpland 2233</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>808571983</t>
+          <t>808571985</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -34737,7 +34513,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna y colocar rienda a pique </t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -34755,14 +34531,14 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.437823</v>
+        <v>-58.43258</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.600094</v>
+        <v>-34.579265</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -34778,27 +34554,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-533</t>
+          <t>6534</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/28/2025</t>
+          <t>7/29/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Bonpland 2233</t>
+          <t>CALLAO AV. 316</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808571985</t>
+          <t>808579773</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -34813,7 +34589,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna y colocar rienda a pique </t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -34831,18 +34607,18 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.43258</v>
+        <v>-58.39231</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.579265</v>
+        <v>-34.605507</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -34854,7 +34630,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6534</t>
+          <t>6539</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -34864,17 +34640,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CALLAO AV. 316</t>
+          <t>BOGOTA 3668</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808579773</t>
+          <t>808579768</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -34889,7 +34665,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -34911,93 +34687,17 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.39231</v>
+        <v>-58.479957</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.605507</v>
+        <v>-34.629792</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>6539</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>7/29/2025</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>BOGOTA 3668</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>808579768</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>-58.479957</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-34.629792</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>
@@ -42019,7 +41719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46808,27 +46508,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-534</t>
+          <t>-538</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7/28/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Jose Aaron Salmun Feijoo 325</t>
+          <t>Malabia 964</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>808571999</t>
+          <t>808609237</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -46843,11 +46543,11 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Cambiar terminal</t>
+          <t>Cambiar poste mal estado por PRFV</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -46861,173 +46561,21 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.3793</v>
+        <v>-58.433634</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.636079</v>
+        <v>-34.595018</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>-535</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>7/28/2025</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Jose Aaron Salmun Feijoo 363</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>ICD30238810</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Colocar prfv pasante</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>-58.379294</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-34.636313</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>-538</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>7/31/2025</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Malabia 964</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>808609237</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Cambiar poste mal estado por PRFV</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>-58.433634</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-34.595018</v>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -52712,7 +52260,11 @@
           <t>8</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ICD30261461 </t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>AYKO</t>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P372"/>
+  <dimension ref="A1:P375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17414,7 +17414,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -28278,7 +28278,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -28627,6 +28627,230 @@
       <c r="P372" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>-541</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>8/1/2025</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>AYACUCHO 241</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>808663880</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Colocar columna para pedir traspaso de nodo</t>
+        </is>
+      </c>
+      <c r="I373" t="n">
+        <v>1</v>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M373" t="n">
+        <v>-58.395015</v>
+      </c>
+      <c r="N373" t="n">
+        <v>-34.606755</v>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>-542</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>8/1/2025</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Cramer 2141</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>808663881</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+        </is>
+      </c>
+      <c r="I374" t="n">
+        <v>1</v>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M374" t="n">
+        <v>-58.461582</v>
+      </c>
+      <c r="N374" t="n">
+        <v>-34.564296</v>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P374" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>-543</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>8/1/2025</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Pedro Ignacio Rivera 3258</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Desmontar poste en desuso</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>1</v>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M375" t="n">
+        <v>-58.46967</v>
+      </c>
+      <c r="N375" t="n">
+        <v>-34.561676</v>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
@@ -28641,7 +28865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34700,6 +34924,82 @@
       <c r="P80" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>-541</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>8/1/2025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>AYACUCHO 241</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>808663880</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Colocar columna para pedir traspaso de nodo</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>-58.395015</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-34.606755</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
@@ -41719,7 +42019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44304,17 +44604,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5826</t>
+          <t>-406</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3180</t>
+          <t>Olof palme 4144</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -44324,7 +44624,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>806926466</t>
+          <t>805791925</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -44339,7 +44639,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Columna (metal) inclinada</t>
+          <t>Tensar 2 riendas a pique columna 168</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -44347,7 +44647,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -44361,14 +44661,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.513552</v>
+        <v>-58.488252</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.579829</v>
+        <v>-34.553391</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -44380,7 +44680,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5825</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -44390,7 +44690,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PAZ, GRAL. AV. 5602</t>
+          <t>ALBARELLOS AV. 3180</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -44400,7 +44700,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>806926472</t>
+          <t>806926466</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -44415,7 +44715,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
+          <t>Columna (metal) inclinada</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -44423,7 +44723,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -44437,10 +44737,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.513685</v>
+        <v>-58.513552</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.579838</v>
+        <v>-34.579829</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -44456,17 +44756,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>5825</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MONROE 4096</t>
+          <t>PAZ, GRAL. AV. 5602</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -44476,7 +44776,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>806975680</t>
+          <t>806926472</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -44491,7 +44791,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>reparar rienda cortada - ver foto no es la misma que albarellos</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -44499,7 +44799,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -44509,18 +44809,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.476106</v>
+        <v>-58.513685</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.568373</v>
+        <v>-34.579838</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -44532,27 +44832,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>5875</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>O'Higgins 4379</t>
+          <t>MONROE 4096</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>807044192</t>
+          <t>806975680</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -44567,7 +44867,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -44575,7 +44875,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -44585,18 +44885,18 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.468425</v>
+        <v>-58.476106</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.54124</v>
+        <v>-34.568373</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -44608,27 +44908,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 2036</t>
+          <t>O'Higgins 4379</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>807215465</t>
+          <t>807044192</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -44643,7 +44943,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Poste </t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -44651,7 +44951,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -44661,50 +44961,50 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.436298</v>
+        <v>-58.468425</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.578972</v>
+        <v>-34.54124</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6144</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6/11/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TURIN 2990</t>
+          <t>RAVIGNANI, EMILIO, DR. 2036</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>807458282</t>
+          <t>807215465</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -44741,26 +45041,26 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.480925</v>
+        <v>-58.436298</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.585471</v>
+        <v>-34.578972</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>6144</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -44770,7 +45070,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
+          <t>TURIN 2990</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -44780,7 +45080,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>807458296</t>
+          <t>807458282</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -44817,10 +45117,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.495071</v>
+        <v>-58.480925</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.593122</v>
+        <v>-34.585471</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -44836,7 +45136,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6141</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -44846,17 +45146,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EL PAMPERO 2618</t>
+          <t>SOLANO LOPEZ, F., MARISCAL 2845</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>807458310</t>
+          <t>807458296</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -44893,10 +45193,10 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.481942</v>
+        <v>-58.495071</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.602989</v>
+        <v>-34.593122</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -44912,17 +45212,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-478</t>
+          <t>6141</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6/15/2025</t>
+          <t>6/11/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Chivilcoy 4875</t>
+          <t>EL PAMPERO 2618</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -44932,7 +45232,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>807508509</t>
+          <t>807458310</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -44947,7 +45247,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Poste podrido</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -44965,14 +45265,14 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.517389</v>
+        <v>-58.481942</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.593541</v>
+        <v>-34.602989</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -44988,27 +45288,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6171</t>
+          <t>-478</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/15/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CABELLO 3486</t>
+          <t>Chivilcoy 4875</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807658640</t>
+          <t>807508509</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -45023,7 +45323,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Columna inclinada evaluar con inspector un corrimiento</t>
+          <t>Poste podrido</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -45041,40 +45341,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.409579</v>
+        <v>-58.517389</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.581134</v>
+        <v>-34.593541</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6171</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Santa maria de oro	2722</t>
+          <t>CABELLO 3486</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -45084,7 +45384,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807763066</t>
+          <t>807658640</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -45099,7 +45399,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada evaluar con inspector un corrimiento</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -45121,10 +45421,10 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.422315</v>
+        <v>-58.409579</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.576988</v>
+        <v>-34.581134</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -45140,7 +45440,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6231</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -45150,7 +45450,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 275</t>
+          <t>Santa maria de oro	2722</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -45160,7 +45460,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807763070</t>
+          <t>807763066</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -45175,7 +45475,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aplomar o cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -45193,14 +45493,14 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.441049</v>
+        <v>-58.422315</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.574625</v>
+        <v>-34.576988</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -45216,7 +45516,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6231</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -45226,17 +45526,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HUERGO 389</t>
+          <t>Ciudad de la Paz 275</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807763078</t>
+          <t>807763070</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -45251,7 +45551,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar o cambiar</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -45269,14 +45569,14 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.432722</v>
+        <v>-58.441049</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.572371</v>
+        <v>-34.574625</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -45292,27 +45592,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6295</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SOLER 6017</t>
+          <t>HUERGO 389</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807851636</t>
+          <t>807763078</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -45349,10 +45649,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.436808</v>
+        <v>-58.432722</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.577464</v>
+        <v>-34.572371</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -45368,17 +45668,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ARAOZ 2560</t>
+          <t>SOLER 6017</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -45388,7 +45688,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807965818</t>
+          <t>807851636</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -45425,10 +45725,10 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.414507</v>
+        <v>-58.436808</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.585377</v>
+        <v>-34.577464</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -45444,27 +45744,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6363</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MOLDES 3730</t>
+          <t>ARAOZ 2560</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>808099415</t>
+          <t>807965818</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -45479,7 +45779,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -45487,7 +45787,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -45497,50 +45797,50 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.47192</v>
+        <v>-58.414507</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.549398</v>
+        <v>-34.585377</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-503</t>
+          <t>6363</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7/10/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Salguero 842</t>
+          <t>MOLDES 3730</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>808148673</t>
+          <t>808099415</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -45555,7 +45855,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Cambiar columna picada en la base</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -45563,7 +45863,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -45573,30 +45873,30 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.419166</v>
+        <v>-58.47192</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.600265</v>
+        <v>-34.549398</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6506</t>
+          <t>-503</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -45606,17 +45906,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ohiggins 1611</t>
+          <t>Salguero 842</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>808148679</t>
+          <t>808148673</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -45631,7 +45931,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna podrida en la base</t>
+          <t>Cambiar columna picada en la base</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -45644,7 +45944,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -45653,46 +45953,46 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.448993</v>
+        <v>-58.419166</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.564383</v>
+        <v>-34.600265</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6437</t>
+          <t>6506</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7/17/2025</t>
+          <t>7/10/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MILLER 4590</t>
+          <t>Ohiggins 1611</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>808400306</t>
+          <t>808148679</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -45707,7 +46007,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna corroida</t>
+          <t>Columna podrida en la base</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -45720,7 +46020,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -45729,14 +46029,14 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.495482</v>
+        <v>-58.448993</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.552614</v>
+        <v>-34.564383</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -45748,7 +46048,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6447</t>
+          <t>6437</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -45758,17 +46058,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 1535</t>
+          <t>MILLER 4590</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>808400333</t>
+          <t>808400306</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -45783,7 +46083,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -45805,14 +46105,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.453124</v>
+        <v>-58.495482</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.567382</v>
+        <v>-34.552614</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -45824,7 +46124,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-519</t>
+          <t>6447</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -45834,17 +46134,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Vilela 2687</t>
+          <t>CIUDAD DE LA PAZ 1535</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>808400334</t>
+          <t>808400333</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -45859,7 +46159,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>CAmbiar columna 114 picada en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -45881,14 +46181,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.472968</v>
+        <v>-58.453124</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.546898</v>
+        <v>-34.567382</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -45900,7 +46200,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6538</t>
+          <t>-519</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -45910,7 +46210,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Pedraza Manuela 4101</t>
+          <t>Vilela 2687</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -45920,7 +46220,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>808400353</t>
+          <t>808400334</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -45935,7 +46235,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Podrida en la base </t>
+          <t>CAmbiar columna 114 picada en base</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -45957,10 +46257,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.481569</v>
+        <v>-58.472968</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.559853</v>
+        <v>-34.546898</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -45976,27 +46276,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-525</t>
+          <t>6538</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7/22/2025</t>
+          <t>7/17/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Zabala 3567</t>
+          <t>Pedraza Manuela 4101</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>808480549</t>
+          <t>808400353</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -46011,7 +46311,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Corroida en base para recambio</t>
+          <t xml:space="preserve">Podrida en la base </t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -46033,14 +46333,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.457492</v>
+        <v>-58.481569</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.579336</v>
+        <v>-34.559853</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -46052,27 +46352,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6484</t>
+          <t>-525</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7/24/2025</t>
+          <t>7/22/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>URIARTE 2396</t>
+          <t>Zabala 3567</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>808509373</t>
+          <t>808480549</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -46087,7 +46387,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Corroida en base para recambio</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -46109,46 +46409,46 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.423934</v>
+        <v>-58.457492</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.581562</v>
+        <v>-34.579336</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6502</t>
+          <t>6484</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>7/24/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 1511</t>
+          <t>URIARTE 2396</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>808571972</t>
+          <t>808509373</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -46185,26 +46485,26 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.452907</v>
+        <v>-58.423934</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.567508</v>
+        <v>-34.581562</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6504</t>
+          <t>6502</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -46214,7 +46514,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 1278</t>
+          <t>CIUDAD DE LA PAZ 1511</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -46224,7 +46524,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>808571974</t>
+          <t>808571972</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -46239,7 +46539,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -46261,10 +46561,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.450753</v>
+        <v>-58.452907</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.5688</v>
+        <v>-34.567508</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -46280,27 +46580,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6512</t>
+          <t>6504</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7/28/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GASCON 1195</t>
+          <t>CIUDAD DE LA PAZ 1278</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>808571975</t>
+          <t>808571974</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -46315,7 +46615,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -46337,26 +46637,26 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.423127</v>
+        <v>-58.450753</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.596476</v>
+        <v>-34.5688</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6513</t>
+          <t>6512</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -46366,7 +46666,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DORREGO 1925</t>
+          <t>GASCON 1195</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -46376,7 +46676,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>808571976</t>
+          <t>808571975</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -46413,10 +46713,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.441281</v>
+        <v>-58.423127</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.579867</v>
+        <v>-34.596476</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -46432,7 +46732,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6519</t>
+          <t>6513</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -46442,7 +46742,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SALGUERO, JERONIMO 2874</t>
+          <t>DORREGO 1925</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -46452,7 +46752,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>808571977</t>
+          <t>808571976</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -46467,7 +46767,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -46475,7 +46775,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -46485,14 +46785,14 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.407256</v>
+        <v>-58.441281</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.578976</v>
+        <v>-34.579867</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -46508,76 +46808,300 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>6519</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>7/28/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SALGUERO, JERONIMO 2874</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>808571977</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Reparar rienda</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Tensor</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>-58.407256</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-34.578976</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>-536</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>7/29/2025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Olof palme 4142</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ICD30249764 </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Aplomar o desmontar poste</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>-58.488239</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-34.55341</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>-538</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>7/31/2025</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Malabia 964</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>808609237</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>NEW</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>Cambiar poste mal estado por PRFV</t>
         </is>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Poste</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="M66" t="n">
         <v>-58.433634</v>
       </c>
-      <c r="N64" t="n">
+      <c r="N66" t="n">
         <v>-34.595018</v>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>Palermo</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>-543</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>8/1/2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Pedro Ignacio Rivera 3258</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Desmontar poste en desuso</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>-58.46967</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-34.561676</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
@@ -46921,7 +47445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51558,7 +52082,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-406</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -51568,7 +52092,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Olof palme 4144</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -51578,7 +52102,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>805791925</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -51593,7 +52117,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Tensar 2 riendas a pique columna 168</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -51601,7 +52125,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -51615,10 +52139,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.488252</v>
+        <v>-58.470837</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.553391</v>
+        <v>-34.545751</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -51634,7 +52158,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -51644,7 +52168,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -51654,7 +52178,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -51669,7 +52193,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -51682,19 +52206,19 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.470837</v>
+        <v>-58.472267</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.545751</v>
+        <v>-34.551163</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -51710,27 +52234,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -51745,7 +52269,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -51753,12 +52277,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -51767,10 +52291,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.472267</v>
+        <v>-58.464144</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.551163</v>
+        <v>-34.541832</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -51786,7 +52310,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -51796,17 +52320,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -51821,7 +52345,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -51843,26 +52367,26 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.464144</v>
+        <v>-58.434761</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.541832</v>
+        <v>-34.598381</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -51872,17 +52396,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -51897,7 +52421,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -51915,30 +52439,30 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.434761</v>
+        <v>-58.464177</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.598381</v>
+        <v>-34.558239</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -51948,17 +52472,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -51973,7 +52497,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -51991,50 +52515,50 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.464177</v>
+        <v>-58.412302</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.558239</v>
+        <v>-34.59301</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -52049,11 +52573,11 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -52071,46 +52595,46 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.412302</v>
+        <v>-58.485056</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.59301</v>
+        <v>-34.555059</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -52125,15 +52649,15 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -52147,14 +52671,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.485056</v>
+        <v>-58.469783</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.555059</v>
+        <v>-34.599214</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -52166,27 +52690,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -52201,7 +52725,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -52209,7 +52733,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -52219,30 +52743,30 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.469783</v>
+        <v>-58.487144</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.599214</v>
+        <v>-34.669078</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>6496</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -52252,17 +52776,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Moldes 2327</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>807044059</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -52277,7 +52801,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -52285,7 +52809,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -52295,50 +52819,50 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.487144</v>
+        <v>-58.461172</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.669078</v>
+        <v>-34.561608</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6496</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Moldes 2327</t>
+          <t>Arias 4384</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807044059</t>
+          <t>807537909</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -52353,7 +52877,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -52375,10 +52899,10 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.461172</v>
+        <v>-58.49147</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.561608</v>
+        <v>-34.55031</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -52394,27 +52918,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Arias 4384</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807537909</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -52427,11 +52951,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
         <v>1</v>
       </c>
@@ -52451,36 +52971,36 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.49147</v>
+        <v>-58.405761</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.55031</v>
+        <v>-34.582476</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -52490,7 +53010,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -52503,7 +53023,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
@@ -52523,14 +53047,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.405761</v>
+        <v>-58.432241</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.582476</v>
+        <v>-34.56642</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -52542,7 +53066,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -52552,7 +53076,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -52562,7 +53086,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -52577,7 +53101,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -52599,10 +53123,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.432241</v>
+        <v>-58.417348</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.56642</v>
+        <v>-34.595467</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -52618,27 +53142,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -52653,7 +53177,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -52671,18 +53195,18 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.417348</v>
+        <v>-58.472311</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.595467</v>
+        <v>-34.654867</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -52694,7 +53218,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -52704,17 +53228,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>PALPA 2964</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807763098</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -52729,7 +53253,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -52747,30 +53271,30 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.472311</v>
+        <v>-58.450113</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.654867</v>
+        <v>-34.574534</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -52780,17 +53304,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PALPA 2964</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807763098</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -52805,7 +53329,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -52823,18 +53347,18 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.450113</v>
+        <v>-58.484729</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.574534</v>
+        <v>-34.574614</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -52846,27 +53370,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>-491</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>3 de Febrero 2171</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807789702</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -52881,7 +53405,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Columna 114 propia picada en base con NAP</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -52899,18 +53423,18 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.484729</v>
+        <v>-58.452636</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.574614</v>
+        <v>-34.558607</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -52922,27 +53446,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-491</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3 de Febrero 2171</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>807789702</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -52957,7 +53481,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Columna 114 propia picada en base con NAP</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -52965,7 +53489,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -52975,18 +53499,18 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.452636</v>
+        <v>-58.510247</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.558607</v>
+        <v>-34.645038</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -52998,7 +53522,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6410</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -53008,17 +53532,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>BEAUCHEF 421</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>808373658</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -53033,7 +53557,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -53041,7 +53565,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -53051,50 +53575,50 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.510247</v>
+        <v>-58.433724</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.645038</v>
+        <v>-34.621643</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6410</t>
+          <t>-518</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BEAUCHEF 421</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808373658</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -53109,7 +53633,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -53131,46 +53655,46 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.433724</v>
+        <v>-58.483145</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.621643</v>
+        <v>-34.557043</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-518</t>
+          <t>6454</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/18/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>HABANA 3382</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808413466</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -53185,7 +53709,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -53207,14 +53731,14 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.483145</v>
+        <v>-58.505747</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.557043</v>
+        <v>-34.593173</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -53226,27 +53750,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6454</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/18/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HABANA 3382</t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808413466</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -53261,7 +53785,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -53283,14 +53807,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.505747</v>
+        <v>-58.496608</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.593173</v>
+        <v>-34.666371</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -53302,27 +53826,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6472</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/24/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>DUMONT, SANTOS 3744</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808509381</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -53337,7 +53861,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -53355,18 +53879,18 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.496608</v>
+        <v>-58.448576</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.666371</v>
+        <v>-34.585794</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -53378,27 +53902,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6472</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/24/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DUMONT, SANTOS 3744</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808509381</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -53413,7 +53937,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -53421,7 +53945,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -53431,175 +53955,23 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.448576</v>
+        <v>-58.422229</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.585794</v>
+        <v>-34.573148</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>6497</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>7/25/2025</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>808533127</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Inclinada</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>-58.422229</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-34.573148</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
           <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>-536</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>7/29/2025</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Olof palme 4142</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ICD30249764 </t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Aplomar o desmontar poste</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>-58.488239</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-34.55341</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
         </is>
       </c>
     </row>
@@ -57127,7 +57499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57445,6 +57817,82 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>-542</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8/1/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Cramer 2141</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>808663881</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>-58.461582</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-34.564296</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P375"/>
+  <dimension ref="A1:P376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28851,6 +28851,82 @@
       <c r="P375" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>-544</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>8/2/2025</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Vera 453</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>808669129</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Columna corroída en base</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>1</v>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M376" t="n">
+        <v>-58.437239</v>
+      </c>
+      <c r="N376" t="n">
+        <v>-34.599438</v>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
@@ -57499,7 +57575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57893,6 +57969,82 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>-544</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8/2/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Vera 453</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>808669129</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Columna corroída en base</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>-58.437239</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-34.599438</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P375"/>
+  <dimension ref="A1:P376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Retirar PRFV telecentro ya traspaso nodo</t>
+          <t>Telecentro ya traspaso su nodo solo falta desmontar el prfv que quedo</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>fue bajada como que no es de la empresa pero no se ve que sea de telecentro reverificar o esperar a Pedro para verla</t>
         </is>
       </c>
       <c r="I284" t="n">
@@ -24377,7 +24377,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>-512</t>
+          <t>6580</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -24985,7 +24985,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>-518</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -27189,7 +27189,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>-541</t>
+          <t>6578</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -27209,7 +27209,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>808663880</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -27873,7 +27873,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>-545</t>
+          <t>6193</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -27883,22 +27883,22 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Jeronimo Salguero 3601</t>
+          <t>POLA 591</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>808713766</t>
+          <t>808720861</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -27908,11 +27908,11 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Chocada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J363" t="inlineStr">
         <is>
@@ -27930,26 +27930,26 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>-58.400953</v>
+        <v>-58.507385</v>
       </c>
       <c r="N363" t="n">
-        <v>-34.572274</v>
+        <v>-34.644479</v>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P363" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6193</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -27959,17 +27959,17 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>POLA 591</t>
+          <t>SENILLOSA 323</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>808720861</t>
+          <t>808720859</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -27988,7 +27988,7 @@
         </is>
       </c>
       <c r="I364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J364" t="inlineStr">
         <is>
@@ -28006,26 +28006,26 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>-58.507385</v>
+        <v>-58.429726</v>
       </c>
       <c r="N364" t="n">
-        <v>-34.644479</v>
+        <v>-34.619969</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P364" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -28035,17 +28035,17 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>SENILLOSA 323</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>808720859</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -28060,7 +28060,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I365" t="n">
@@ -28082,26 +28082,26 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>-58.429726</v>
+        <v>-58.473089</v>
       </c>
       <c r="N365" t="n">
-        <v>-34.619969</v>
+        <v>-34.625478</v>
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P365" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>-546</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -28111,7 +28111,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t>Albarellos 3031</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -28121,12 +28121,12 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>808720857</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>INCO</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -28136,7 +28136,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I366" t="n">
@@ -28158,14 +28158,14 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>-58.473089</v>
+        <v>-58.511732</v>
       </c>
       <c r="N366" t="n">
-        <v>-34.625478</v>
+        <v>-34.578688</v>
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P366" t="inlineStr">
@@ -28177,17 +28177,17 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>-546</t>
+          <t>6498</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Albarellos 3031</t>
+          <t>BUCARELLI 2087</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -28197,12 +28197,12 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>808720857</t>
+          <t>808733908</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I367" t="n">
@@ -28234,10 +28234,10 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>-58.511732</v>
+        <v>-58.485592</v>
       </c>
       <c r="N367" t="n">
-        <v>-34.578688</v>
+        <v>-34.578586</v>
       </c>
       <c r="O367" t="inlineStr">
         <is>
@@ -28253,7 +28253,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6498</t>
+          <t>6469</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -28263,22 +28263,22 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>BUCARELLI 2087</t>
+          <t>USPALLATA 3626</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>808733908</t>
+          <t>808733910</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -28288,7 +28288,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I368" t="n">
@@ -28296,7 +28296,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -28310,26 +28310,26 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>-58.485592</v>
+        <v>-58.414389</v>
       </c>
       <c r="N368" t="n">
-        <v>-34.578586</v>
+        <v>-34.641308</v>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P368" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6469</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -28339,17 +28339,17 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>USPALLATA 3626</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>808733910</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -28364,7 +28364,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I369" t="n">
@@ -28372,7 +28372,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -28386,10 +28386,10 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>-58.414389</v>
+        <v>-58.468841</v>
       </c>
       <c r="N369" t="n">
-        <v>-34.641308</v>
+        <v>-34.686635</v>
       </c>
       <c r="O369" t="inlineStr">
         <is>
@@ -28405,7 +28405,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -28415,17 +28415,17 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -28440,7 +28440,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I370" t="n">
@@ -28448,7 +28448,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -28462,14 +28462,14 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>-58.468841</v>
+        <v>-58.375684</v>
       </c>
       <c r="N370" t="n">
-        <v>-34.686635</v>
+        <v>-34.656092</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P370" t="inlineStr">
@@ -28481,7 +28481,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>6571</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -28491,22 +28491,22 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>BERUTI 2496</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>808733917</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -28538,14 +28538,14 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>-58.375684</v>
+        <v>-58.401374</v>
       </c>
       <c r="N371" t="n">
-        <v>-34.656092</v>
+        <v>-34.592623</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P371" t="inlineStr">
@@ -28557,7 +28557,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>6571</t>
+          <t>6572</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -28567,17 +28567,17 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>BERUTI 2496</t>
+          <t>MEXICO 2639</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>808733917</t>
+          <t>808733920</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -28592,7 +28592,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I372" t="n">
@@ -28600,7 +28600,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -28614,14 +28614,14 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>-58.401374</v>
+        <v>-58.403444</v>
       </c>
       <c r="N372" t="n">
-        <v>-34.592623</v>
+        <v>-34.61685</v>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P372" t="inlineStr">
@@ -28633,7 +28633,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>6572</t>
+          <t>-547</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -28643,22 +28643,22 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>MEXICO 2639</t>
+          <t>Habana 4210</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>808733920</t>
+          <t>808733921</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -28668,7 +28668,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar poste dañado</t>
         </is>
       </c>
       <c r="I373" t="n">
@@ -28686,30 +28686,30 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>-58.403444</v>
+        <v>-58.515873</v>
       </c>
       <c r="N373" t="n">
-        <v>-34.61685</v>
+        <v>-34.599425</v>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P373" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>-547</t>
+          <t>-548</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -28719,22 +28719,22 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Habana 4210</t>
+          <t>Sucre 1533</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>808733921</t>
+          <t xml:space="preserve">ICD30326446 </t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -28744,7 +28744,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Cambiar poste dañado</t>
+          <t>Traspasar red a columna de TLC y Retirar columna quebrada</t>
         </is>
       </c>
       <c r="I374" t="n">
@@ -28752,7 +28752,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -28762,18 +28762,18 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>-58.515873</v>
+        <v>-58.44649</v>
       </c>
       <c r="N374" t="n">
-        <v>-34.599425</v>
+        <v>-34.558808</v>
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P374" t="inlineStr">
@@ -28785,17 +28785,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>-548</t>
+          <t>6579</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Sucre 1533</t>
+          <t>RIVADAVIA MARTIN, COMODORO 1350</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -28805,12 +28805,12 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>808749184</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -28820,7 +28820,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Traspasar red a columna de TLC y Retirar columna quebrada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I375" t="n">
@@ -28828,7 +28828,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -28838,21 +28838,97 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M375" t="n">
+        <v>-58.461024</v>
+      </c>
+      <c r="N375" t="n">
+        <v>-34.539409</v>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>-549</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>8/7/2025</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>14 de Julio 65</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>808749189</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>picada</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>1</v>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M375" t="n">
-        <v>-58.44649</v>
-      </c>
-      <c r="N375" t="n">
-        <v>-34.558808</v>
-      </c>
-      <c r="O375" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P375" t="inlineStr">
+      <c r="M376" t="n">
+        <v>-58.468496</v>
+      </c>
+      <c r="N376" t="n">
+        <v>-34.591282</v>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>
@@ -28869,7 +28945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30413,7 +30489,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Retirar PRFV telecentro ya traspaso nodo</t>
+          <t>Telecentro ya traspaso su nodo solo falta desmontar el prfv que quedo</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -33829,7 +33905,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>fue bajada como que no es de la empresa pero no se ve que sea de telecentro reverificar o esperar a Pedro para verla</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -34858,7 +34934,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-541</t>
+          <t>6578</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -34878,7 +34954,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808663880</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -35086,17 +35162,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-545</t>
+          <t>6571</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Jeronimo Salguero 3601</t>
+          <t>BERUTI 2496</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -35106,7 +35182,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808713766</t>
+          <t>808733917</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -35121,7 +35197,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Chocada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -35129,7 +35205,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -35143,10 +35219,10 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.400953</v>
+        <v>-58.401374</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.572274</v>
+        <v>-34.592623</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -35162,7 +35238,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6571</t>
+          <t>6572</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -35172,17 +35248,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BERUTI 2496</t>
+          <t>MEXICO 2639</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808733917</t>
+          <t>808733920</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -35197,7 +35273,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -35205,7 +35281,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -35219,93 +35295,17 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.401374</v>
+        <v>-58.403444</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.592623</v>
+        <v>-34.61685</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>6572</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>8/6/2025</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>MEXICO 2639</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>808733920</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>-58.403444</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-34.61685</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -42415,7 +42415,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">ICD30326446 </t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -42479,7 +42479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47032,6 +47032,82 @@
         </is>
       </c>
       <c r="P60" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>6579</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>8/7/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>RIVADAVIA MARTIN, COMODORO 1350</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>808749184</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Poste inclinado</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>-58.461024</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-34.539409</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>
@@ -47377,7 +47453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52998,7 +53074,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-518</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -53904,6 +53980,82 @@
       <c r="P86" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>-549</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>8/7/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>14 de Julio 65</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>808749189</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>picada</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>-58.468496</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-34.591282</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
@@ -56891,7 +57043,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-512</t>
+          <t>6580</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -3165,7 +3165,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30399325</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3885,10 +3885,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>-58.432658</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-34.576446</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -22297,10 +22309,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M289" t="inlineStr"/>
-      <c r="N289" t="inlineStr"/>
-      <c r="O289" t="inlineStr"/>
-      <c r="P289" t="inlineStr"/>
+      <c r="M289" t="n">
+        <v>-58.452583</v>
+      </c>
+      <c r="N289" t="n">
+        <v>-34.558668</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -29201,10 +29225,22 @@
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M380" t="inlineStr"/>
-      <c r="N380" t="inlineStr"/>
-      <c r="O380" t="inlineStr"/>
-      <c r="P380" t="inlineStr"/>
+      <c r="M380" t="n">
+        <v>-58.505375</v>
+      </c>
+      <c r="N380" t="n">
+        <v>-34.588299</v>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -29265,10 +29301,22 @@
           <t>Poste</t>
         </is>
       </c>
-      <c r="M381" t="inlineStr"/>
-      <c r="N381" t="inlineStr"/>
-      <c r="O381" t="inlineStr"/>
-      <c r="P381" t="inlineStr"/>
+      <c r="M381" t="n">
+        <v>-58.460834</v>
+      </c>
+      <c r="N381" t="n">
+        <v>-34.573753</v>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -29329,10 +29377,22 @@
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M382" t="inlineStr"/>
-      <c r="N382" t="inlineStr"/>
-      <c r="O382" t="inlineStr"/>
-      <c r="P382" t="inlineStr"/>
+      <c r="M382" t="n">
+        <v>-58.436264</v>
+      </c>
+      <c r="N382" t="n">
+        <v>-34.578942</v>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P382" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -29393,10 +29453,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M383" t="inlineStr"/>
-      <c r="N383" t="inlineStr"/>
-      <c r="O383" t="inlineStr"/>
-      <c r="P383" t="inlineStr"/>
+      <c r="M383" t="n">
+        <v>-58.414185</v>
+      </c>
+      <c r="N383" t="n">
+        <v>-34.64524</v>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P383" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -29457,10 +29529,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M384" t="inlineStr"/>
-      <c r="N384" t="inlineStr"/>
-      <c r="O384" t="inlineStr"/>
-      <c r="P384" t="inlineStr"/>
+      <c r="M384" t="n">
+        <v>-58.404946</v>
+      </c>
+      <c r="N384" t="n">
+        <v>-34.617251</v>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -29521,10 +29605,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M385" t="inlineStr"/>
-      <c r="N385" t="inlineStr"/>
-      <c r="O385" t="inlineStr"/>
-      <c r="P385" t="inlineStr"/>
+      <c r="M385" t="n">
+        <v>-58.460818</v>
+      </c>
+      <c r="N385" t="n">
+        <v>-34.618934</v>
+      </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P385" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -29585,10 +29681,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M386" t="inlineStr"/>
-      <c r="N386" t="inlineStr"/>
-      <c r="O386" t="inlineStr"/>
-      <c r="P386" t="inlineStr"/>
+      <c r="M386" t="n">
+        <v>-58.441171</v>
+      </c>
+      <c r="N386" t="n">
+        <v>-34.574547</v>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P386" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -29649,10 +29757,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M387" t="inlineStr"/>
-      <c r="N387" t="inlineStr"/>
-      <c r="O387" t="inlineStr"/>
-      <c r="P387" t="inlineStr"/>
+      <c r="M387" t="n">
+        <v>-58.435072</v>
+      </c>
+      <c r="N387" t="n">
+        <v>-34.565732</v>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P387" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -29713,10 +29833,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M388" t="inlineStr"/>
-      <c r="N388" t="inlineStr"/>
-      <c r="O388" t="inlineStr"/>
-      <c r="P388" t="inlineStr"/>
+      <c r="M388" t="n">
+        <v>-58.404058</v>
+      </c>
+      <c r="N388" t="n">
+        <v>-34.634341</v>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -29777,10 +29909,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M389" t="inlineStr"/>
-      <c r="N389" t="inlineStr"/>
-      <c r="O389" t="inlineStr"/>
-      <c r="P389" t="inlineStr"/>
+      <c r="M389" t="n">
+        <v>-58.487821</v>
+      </c>
+      <c r="N389" t="n">
+        <v>-34.554603</v>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -29843,8 +29987,16 @@
       </c>
       <c r="M390" t="inlineStr"/>
       <c r="N390" t="inlineStr"/>
-      <c r="O390" t="inlineStr"/>
-      <c r="P390" t="inlineStr"/>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t>No clasificado, consultar con mantenimiento</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -29907,8 +30059,16 @@
       </c>
       <c r="M391" t="inlineStr"/>
       <c r="N391" t="inlineStr"/>
-      <c r="O391" t="inlineStr"/>
-      <c r="P391" t="inlineStr"/>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="P391" t="inlineStr">
+        <is>
+          <t>No clasificado, consultar con mantenimiento</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31446,7 +31606,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30399325</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -36190,10 +36350,22 @@
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>-58.505375</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-34.588299</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -48444,10 +48616,22 @@
           <t>Poste</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>-58.460834</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-34.573753</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48508,10 +48692,22 @@
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>-58.436264</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-34.578942</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48572,10 +48768,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>-58.441171</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-34.574547</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48636,10 +48844,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>-58.435072</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-34.565732</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -49358,10 +49578,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>-58.432658</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-34.576446</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -54418,10 +54650,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>-58.452583</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-34.558668</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -55622,10 +55866,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>-58.414185</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-34.64524</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -55686,10 +55942,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>-58.404946</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-34.617251</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -55750,10 +56018,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>-58.460818</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-34.618934</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -59631,10 +59911,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>-58.404058</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-34.634341</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -59695,10 +59987,22 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>-58.487821</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-34.554603</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -59761,8 +60065,16 @@
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>No clasificado, consultar con mantenimiento</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -59825,8 +60137,16 @@
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>No clasificado, consultar con mantenimiento</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -27370,7 +27370,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -27380,7 +27380,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Traspasar red a columna de TLC y Retirar columna quebrada</t>
+          <t>Retirar columna</t>
         </is>
       </c>
       <c r="I356" t="n">
@@ -30385,7 +30385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35990,27 +35990,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6002</t>
+          <t>-548</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 832</t>
+          <t>Sucre 1533</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>808918694</t>
+          <t xml:space="preserve">ICD30326446 </t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -36025,7 +36025,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Retirar columna</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -36033,7 +36033,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -36047,26 +36047,26 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.426947</v>
+        <v>-58.44649</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.625698</v>
+        <v>-34.558808</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6921</t>
+          <t>6002</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -36076,17 +36076,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BERUTI 2592</t>
+          <t>LA PLATA AV. 832</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>808918705</t>
+          <t>808918694</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -36101,7 +36101,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -36123,14 +36123,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.402657</v>
+        <v>-58.426947</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.592182</v>
+        <v>-34.625698</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -36142,7 +36142,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-551</t>
+          <t>6921</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -36152,17 +36152,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Estados Unidos 2044</t>
+          <t>BERUTI 2592</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>808918724</t>
+          <t>808918705</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -36177,7 +36177,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspaso de redes y retiro de columna</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -36199,14 +36199,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.395142</v>
+        <v>-58.402657</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.619586</v>
+        <v>-34.592182</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -36218,27 +36218,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6907</t>
+          <t>-551</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Av. Gral. Mosconi 3142</t>
+          <t>Estados Unidos 2044</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ICD30401322</t>
+          <t>808918724</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -36253,7 +36253,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -36261,7 +36261,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -36271,50 +36271,50 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.505375</v>
+        <v>-58.395142</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.588299</v>
+        <v>-34.619586</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>6907</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ARENALES 3640</t>
+          <t>Av. Gral. Mosconi 3142</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ICD30449342</t>
+          <t>ICD30401322</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -36324,12 +36324,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -36337,40 +36337,40 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.413584</v>
+        <v>-58.505375</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.58551</v>
+        <v>-34.588299</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>6998</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -36380,7 +36380,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CHARCAS 3986</t>
+          <t>ARENALES 3640</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -36390,7 +36390,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>809065854</t>
+          <t>ICD30449342</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -36400,12 +36400,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -36418,7 +36418,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -36427,10 +36427,10 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.419711</v>
+        <v>-58.413584</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.586299</v>
+        <v>-34.58551</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -36446,7 +36446,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5625</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -36456,17 +36456,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 184</t>
+          <t>CHARCAS 3986</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>809065913</t>
+          <t>809065854</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -36481,7 +36481,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Inclinada ver cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -36499,18 +36499,18 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.437583</v>
+        <v>-58.419711</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.616231</v>
+        <v>-34.586299</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -36522,74 +36522,150 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>5625</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>8/20/2025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ACOYTE AV. 184</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>809065913</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Inclinada ver cambio</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>-58.437583</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-34.616231</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
           <t>-560</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>8/21/2025</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Pinzon 1590</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>809098712</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>PEBCOM</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>Picada</t>
         </is>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>-58.373506</v>
       </c>
-      <c r="N82" t="n">
+      <c r="N83" t="n">
         <v>-34.63706</v>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>San Telmo</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -36606,7 +36682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43755,27 +43831,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-548</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sucre 1533</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30326446 </t>
+          <t>808918700</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -43790,7 +43866,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Traspasar red a columna de TLC y Retirar columna quebrada</t>
+          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -43798,7 +43874,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -43812,93 +43888,17 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>-58.44649</v>
+        <v>-58.355342</v>
       </c>
       <c r="N95" t="n">
-        <v>-34.558808</v>
+        <v>-34.63565</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>6917</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>8/12/2025</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>BRIN, MINISTRO 1375</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>808918700</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>-58.355342</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-34.63565</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P395"/>
+  <dimension ref="A1:P397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24609,7 +24609,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>-525</t>
+          <t>7023</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -24619,7 +24619,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Zabala 3567</t>
+          <t>ZABALA 3573</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -24666,10 +24666,10 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>-58.457492</v>
+        <v>-58.457522</v>
       </c>
       <c r="N320" t="n">
-        <v>-34.579336</v>
+        <v>-34.579414</v>
       </c>
       <c r="O320" t="inlineStr">
         <is>
@@ -30371,6 +30371,158 @@
       <c r="P395" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>7024</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>SAAVEDRA 869</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>809155616</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I396" t="n">
+        <v>1</v>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M396" t="n">
+        <v>-58.402244</v>
+      </c>
+      <c r="N396" t="n">
+        <v>-34.619401</v>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>7021</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>VERA 445</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>809155622</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I397" t="n">
+        <v>1</v>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M397" t="n">
+        <v>-58.437181</v>
+      </c>
+      <c r="N397" t="n">
+        <v>-34.5995</v>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P397" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
@@ -30385,7 +30537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36666,6 +36818,82 @@
         </is>
       </c>
       <c r="P83" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>7024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SAAVEDRA 869</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>809155616</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>-58.402244</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-34.619401</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -44168,7 +44396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47901,7 +48129,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-525</t>
+          <t>7023</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -47911,7 +48139,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Zabala 3567</t>
+          <t>ZABALA 3573</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -47958,10 +48186,10 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.457492</v>
+        <v>-58.457522</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.579336</v>
+        <v>-34.579414</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -49795,6 +50023,82 @@
       <c r="P74" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>7021</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>VERA 445</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>809155622</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>-58.437181</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-34.5995</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P397"/>
+  <dimension ref="A1:P399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30521,6 +30521,158 @@
         </is>
       </c>
       <c r="P397" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>809156751</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Av San Martín 5045</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>809156751</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>aplomar o cambiar poste de 11 con rienda a pique</t>
+        </is>
+      </c>
+      <c r="I398" t="n">
+        <v>0</v>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M398" t="n">
+        <v>-58.489141</v>
+      </c>
+      <c r="N398" t="n">
+        <v>-34.597221</v>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>-563</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Av Castañares 4520</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>809157022</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Cambiar pasante</t>
+        </is>
+      </c>
+      <c r="I399" t="n">
+        <v>1</v>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M399" t="n">
+        <v>-58.470249</v>
+      </c>
+      <c r="N399" t="n">
+        <v>-34.664835</v>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -50113,7 +50265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56790,6 +56942,82 @@
         </is>
       </c>
       <c r="P88" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>-563</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Av Castañares 4520</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>809157022</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Cambiar pasante</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>-58.470249</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-34.664835</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -60843,7 +61071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61237,6 +61465,82 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>809156751</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Av San Martín 5045</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>809156751</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>aplomar o cambiar poste de 11 con rienda a pique</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>-58.489141</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-34.597221</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P399"/>
+  <dimension ref="A1:P401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,11 +630,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Nodo transferido, retirar columna</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>1</v>
       </c>
@@ -30673,6 +30669,158 @@
         </is>
       </c>
       <c r="P399" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>-564</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Quito 3666</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>809168441</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I400" t="n">
+        <v>1</v>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M400" t="n">
+        <v>-58.41791</v>
+      </c>
+      <c r="N400" t="n">
+        <v>-34.616706</v>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>-565</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Venezuela 3888</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>809168446</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>PIcada</t>
+        </is>
+      </c>
+      <c r="I401" t="n">
+        <v>1</v>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M401" t="n">
+        <v>-58.420309</v>
+      </c>
+      <c r="N401" t="n">
+        <v>-34.61767</v>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -30887,11 +31035,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Nodo transferido, retirar columna</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>1</v>
       </c>
@@ -61071,7 +61215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61541,6 +61685,158 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>-564</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Quito 3666</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>809168441</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>-58.41791</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-34.616706</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>-565</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Venezuela 3888</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>809168446</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PIcada</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>-58.420309</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-34.61767</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P401"/>
+  <dimension ref="A1:P402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30823,6 +30823,82 @@
       <c r="P401" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>-566</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Asuncion 2710</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>809171103</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="I402" t="n">
+        <v>0</v>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M402" t="n">
+        <v>-58.494789</v>
+      </c>
+      <c r="N402" t="n">
+        <v>-34.59082</v>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
@@ -30837,7 +30913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37192,6 +37268,82 @@
       <c r="P84" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>-566</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Asuncion 2710</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>809171103</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>-58.494789</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-34.59082</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P402"/>
+  <dimension ref="A1:P403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30897,6 +30897,82 @@
         </is>
       </c>
       <c r="P402" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>-567</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Franco 2543</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>809184735</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="I403" t="n">
+        <v>0</v>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M403" t="n">
+        <v>-58.502565</v>
+      </c>
+      <c r="N403" t="n">
+        <v>-34.578977</v>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P403" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>
@@ -44844,7 +44920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50547,6 +50623,82 @@
       <c r="P75" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>-567</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>8/25/2025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Franco 2543</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>809184735</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>-58.502565</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-34.578977</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -5421,7 +5421,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pendiente ICD</t>
+          <t>ICD30501795</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -23485,7 +23485,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30501825</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -32434,7 +32434,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pendiente ICD</t>
+          <t>ICD30501795</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -43995,7 +43995,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30501825</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P395"/>
+  <dimension ref="A1:P396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29005,7 +29005,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>-557</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -29015,7 +29015,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Av Castañares 4621</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -29025,7 +29025,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>ICD30462144</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -29035,12 +29035,12 @@
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo telecom</t>
+          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
         </is>
       </c>
       <c r="I378" t="n">
@@ -29056,16 +29056,12 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
-        <v>-58.470977</v>
+        <v>-58.470919</v>
       </c>
       <c r="N378" t="n">
-        <v>-34.665358</v>
+        <v>-34.665309</v>
       </c>
       <c r="O378" t="inlineStr">
         <is>
@@ -30367,6 +30363,82 @@
       <c r="P395" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>7064</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>8/28/2025</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>GAONA AV. 1189</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>809257408</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Piden aplomo de columna ver con Pedro si hay que colocar una R400 por tension de la red</t>
+        </is>
+      </c>
+      <c r="I396" t="n">
+        <v>1</v>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M396" t="n">
+        <v>-58.446008</v>
+      </c>
+      <c r="N396" t="n">
+        <v>-34.607602</v>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
@@ -30381,7 +30453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36658,6 +36730,82 @@
         </is>
       </c>
       <c r="P83" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>7064</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>8/28/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>GAONA AV. 1189</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>809257408</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Piden aplomo de columna ver con Pedro si hay que colocar una R400 por tension de la red</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>-58.446008</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-34.607602</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -56030,7 +56178,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-557</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -56040,7 +56188,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Av Castañares 4621</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -56050,7 +56198,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ICD30462144</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -56060,12 +56208,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo telecom</t>
+          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -56081,16 +56229,12 @@
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>-58.470977</v>
+        <v>-58.470919</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.665358</v>
+        <v>-34.665309</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -6942,7 +6942,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -30757,7 +30757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32562,27 +32562,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6045</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/7/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GALLARDO, ANGEL AV. 213</t>
+          <t>VALLESE, FELIPE 684</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803607430</t>
+          <t>802988221</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -32597,7 +32597,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Era el caso 4852 volvio a entrar por estar mal cementada la base volver a reparar</t>
+          <t>Picada info para cierre tambien entro como caso 6909</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -32619,26 +32619,26 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.435452</v>
+        <v>-58.443039</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.603627</v>
+        <v>-34.612262</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Fuera de operaciones</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>No clasificado, consultar con mantenimiento</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>803607506</t>
+          <t>6045</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -32648,17 +32648,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Paraguay 1312</t>
+          <t>GALLARDO, ANGEL AV. 213</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803607506</t>
+          <t>803607430</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -32673,7 +32673,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Era el caso 4852 volvio a entrar por estar mal cementada la base volver a reparar</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -32695,46 +32695,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.385734</v>
+        <v>-58.435452</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.598222</v>
+        <v>-34.603627</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Fuera de operaciones</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>No clasificado, consultar con mantenimiento</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>803607889</t>
+          <t>803607506</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/19/2025</t>
+          <t>2/7/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Arenales 2548</t>
+          <t>Paraguay 1312</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803607889</t>
+          <t>803607506</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -32771,10 +32771,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.402534</v>
+        <v>-58.385734</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.593133</v>
+        <v>-34.598222</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -32790,27 +32790,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>803666441</t>
+          <t>803607889</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2/28/2025</t>
+          <t>2/19/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pichincha 1160</t>
+          <t>Arenales 2548</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803666441</t>
+          <t>803607889</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -32829,7 +32829,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -32847,14 +32847,14 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.397946</v>
+        <v>-58.402534</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.622625</v>
+        <v>-34.593133</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -32866,27 +32866,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>803778985</t>
+          <t>803666441</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>2/28/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Arenales 3108</t>
+          <t>Pichincha 1160</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803778985</t>
+          <t>803666441</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -32901,7 +32901,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Colocar R400</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -32914,7 +32914,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -32923,14 +32923,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.408259</v>
+        <v>-58.397946</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.589265</v>
+        <v>-34.622625</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -32942,7 +32942,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>803825124</t>
+          <t>803778985</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -32952,7 +32952,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>José A. Cabrera 3086</t>
+          <t>Arenales 3108</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -32962,7 +32962,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>803825124</t>
+          <t>803778985</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -32977,7 +32977,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desmontar columna y transferir a comunitaria</t>
+          <t>Colocar R400</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -32990,7 +32990,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -32999,14 +32999,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.41002</v>
+        <v>-58.408259</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.596998</v>
+        <v>-34.589265</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -33018,27 +33018,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6029</t>
+          <t>803825124</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/13/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TANDIL 4746</t>
+          <t>José A. Cabrera 3086</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>803983204</t>
+          <t>803825124</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -33048,10 +33048,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Desmontar columna y transferir a comunitaria</t>
+        </is>
+      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
@@ -33062,55 +33066,55 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.487666</v>
+        <v>-58.41002</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.649704</v>
+        <v>-34.596998</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>6029</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3/26/2025</t>
+          <t>3/13/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 1095</t>
+          <t>TANDIL 4746</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804302893</t>
+          <t>803983204</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -33120,25 +33124,21 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Sacar ancla de rienda vieja y cementar vereda</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -33147,46 +33147,46 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.426593</v>
+        <v>-58.487666</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.628211</v>
+        <v>-34.649704</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4163</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/26/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3 DE FEBRERO 990</t>
+          <t>LA PLATA AV. 1095</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804309752</t>
+          <t>804302893</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -33201,7 +33201,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Sacar ancla de rienda vieja y cementar vereda</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -33209,7 +33209,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -33223,14 +33223,14 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.442791</v>
+        <v>-58.426593</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.569495</v>
+        <v>-34.628211</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -33242,7 +33242,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -33252,17 +33252,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BALLIVIAN 2987</t>
+          <t>3 DE FEBRERO 990</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804309772</t>
+          <t>804309752</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -33277,7 +33277,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -33285,7 +33285,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -33299,46 +33299,46 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.48396</v>
+        <v>-58.442791</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.582874</v>
+        <v>-34.569495</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3/28/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PRINGLES 1470</t>
+          <t>BALLIVIAN 2987</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804316147</t>
+          <t>804309772</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -33371,50 +33371,50 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.423996</v>
+        <v>-58.48396</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.594973</v>
+        <v>-34.582874</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5566</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/11/2025</t>
+          <t>3/28/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>URIBURU JOSE E., PRES. 1415</t>
+          <t>PRINGLES 1470</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804634219</t>
+          <t>804316147</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -33429,7 +33429,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -33437,7 +33437,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -33451,14 +33451,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.397031</v>
+        <v>-58.423996</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.591926</v>
+        <v>-34.594973</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -33470,27 +33470,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5566</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/11/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>URIBURU JOSE E., PRES. 1415</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>804634219</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -33505,11 +33505,11 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -33527,14 +33527,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.396135</v>
+        <v>-58.397031</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.624285</v>
+        <v>-34.591926</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -33546,17 +33546,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5682</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>República Bolivariana de Venezuela 2701</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -33566,7 +33566,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805507294</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -33576,16 +33576,16 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -33594,23 +33594,23 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.404913</v>
+        <v>-58.396135</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.615857</v>
+        <v>-34.624285</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -33622,7 +33622,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -33632,7 +33632,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HUMBERTO 1° 1999</t>
+          <t>República Bolivariana de Venezuela 2701</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -33642,7 +33642,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805507324</t>
+          <t>805507294</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -33657,7 +33657,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -33670,23 +33670,23 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.394304</v>
+        <v>-58.404913</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.621645</v>
+        <v>-34.615857</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -33698,27 +33698,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SARMIENTO 1741</t>
+          <t>HUMBERTO 1° 1999</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>805579089</t>
+          <t>805507324</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -33733,7 +33733,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo y fuente</t>
+          <t>Pendiente de traspaso fuente</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -33746,7 +33746,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -33755,10 +33755,10 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.391419</v>
+        <v>-58.394304</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.605543</v>
+        <v>-34.621645</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5731</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -33784,17 +33784,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RIOBAMBA 659</t>
+          <t>SARMIENTO 1741</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805579188</t>
+          <t>805579089</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -33809,7 +33809,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
+          <t>Pendiente de traspaso nodo y fuente</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -33822,7 +33822,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -33831,14 +33831,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.394118</v>
+        <v>-58.391419</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.601416</v>
+        <v>-34.605543</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -33850,27 +33850,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5731</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>RIOBAMBA 659</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>805579188</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -33880,12 +33880,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -33898,7 +33898,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -33907,26 +33907,26 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.450724</v>
+        <v>-58.394118</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.567086</v>
+        <v>-34.601416</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -33936,7 +33936,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -33946,7 +33946,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -33983,14 +33983,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.46522</v>
+        <v>-58.450724</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.556786</v>
+        <v>-34.567086</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -34002,17 +34002,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11 de Septiembre de 1888 4662</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -34022,7 +34022,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -34037,7 +34037,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>CAMBIAR COLUMNA MUY INCLINADA POR POSTE PRFV 400, COLOCAR A 40 CMTS DEL CORDON</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -34045,7 +34045,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -34055,14 +34055,14 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.467458</v>
+        <v>-58.46522</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.537549</v>
+        <v>-34.556786</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -34078,27 +34078,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>11 de Septiembre de 1888 4662</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -34113,7 +34113,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>CAMBIAR COLUMNA MUY INCLINADA POR POSTE PRFV 400, COLOCAR A 40 CMTS DEL CORDON</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -34121,7 +34121,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -34131,30 +34131,30 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.404871</v>
+        <v>-58.467458</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.619205</v>
+        <v>-34.537549</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6494</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -34164,17 +34164,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4507</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -34211,14 +34211,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.420269</v>
+        <v>-58.404871</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.574122</v>
+        <v>-34.619205</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -34230,27 +34230,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>6494</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>SEGUI, JUAN FRANCISCO 4507</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -34287,10 +34287,10 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.446125</v>
+        <v>-58.420269</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.580819</v>
+        <v>-34.574122</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -34316,7 +34316,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -34326,7 +34326,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -34359,14 +34359,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.447732</v>
+        <v>-58.446125</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.580408</v>
+        <v>-34.580819</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -34382,7 +34382,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -34392,17 +34392,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -34435,18 +34435,18 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.461271</v>
+        <v>-58.447732</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.625615</v>
+        <v>-34.580408</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -34458,27 +34458,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ICD30334323</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -34488,12 +34488,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -34506,7 +34506,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -34515,14 +34515,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.401624</v>
+        <v>-58.461271</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.612001</v>
+        <v>-34.625615</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -34534,27 +34534,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ICD30532670</t>
+          <t>ICD30334323</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -34564,12 +34564,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos mismo caso 7053</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -34577,12 +34577,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -34591,10 +34591,10 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.422775</v>
+        <v>-58.401624</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.604135</v>
+        <v>-34.612001</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -34610,27 +34610,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>ICD30532670</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -34645,7 +34645,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos mismo caso 7053</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -34653,7 +34653,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -34663,50 +34663,50 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.469257</v>
+        <v>-58.422775</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.542018</v>
+        <v>-34.604135</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -34721,7 +34721,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>fue bajada como que no es de la empresa pero no se ve que sea de telecentro reverificar o esperar a Pedro para verla</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -34739,50 +34739,50 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.402745</v>
+        <v>-58.469257</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.627478</v>
+        <v>-34.542018</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>809310336</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -34797,7 +34797,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Falta la foto</t>
+          <t>fue bajada como que no es de la empresa pero no se ve que sea de telecentro reverificar o esperar a Pedro para verla</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -34819,14 +34819,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.459566</v>
+        <v>-58.402745</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.634615</v>
+        <v>-34.627478</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -34838,27 +34838,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-505</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Brasil 3181</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>808150460</t>
+          <t>809310336</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -34873,7 +34873,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Falta la foto</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -34895,14 +34895,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.409002</v>
+        <v>-58.459566</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.634523</v>
+        <v>-34.634615</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -34914,27 +34914,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>-505</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CASTELLI 304</t>
+          <t>Brasil 3181</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>808194260</t>
+          <t>808150460</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -34971,14 +34971,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.404696</v>
+        <v>-58.409002</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.606337</v>
+        <v>-34.634523</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -34990,17 +34990,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6407</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>TUCUMAN 3253</t>
+          <t>CASTELLI 304</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -35010,7 +35010,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>808373657</t>
+          <t>808194260</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -35047,10 +35047,10 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.411609</v>
+        <v>-58.404696</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.600329</v>
+        <v>-34.606337</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -35066,27 +35066,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6555</t>
+          <t>6407</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>URUGUAY 1094</t>
+          <t>TUCUMAN 3253</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>808430941</t>
+          <t>808373657</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -35101,7 +35101,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Evaluar si es necesario cambio de columna y reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -35119,18 +35119,18 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.387175</v>
+        <v>-58.411609</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.596</v>
+        <v>-34.600329</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -35142,27 +35142,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>6555</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ACEVEDO 310</t>
+          <t>URUGUAY 1094</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>808533124</t>
+          <t>808430941</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -35177,7 +35177,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Evaluar si es necesario cambio de columna y reparar rienda</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -35195,50 +35195,50 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.44163</v>
+        <v>-58.387175</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.598788</v>
+        <v>-34.596</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6523</t>
+          <t>6471</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7/28/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BOGOTA 2552</t>
+          <t>ACEVEDO 310</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>808571979</t>
+          <t>808533124</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -35275,26 +35275,26 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.466359</v>
+        <v>-58.44163</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.625966</v>
+        <v>-34.598788</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6524</t>
+          <t>6523</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -35304,17 +35304,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DORREGO AV. 2687</t>
+          <t>BOGOTA 2552</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>808571980</t>
+          <t>808571979</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -35351,14 +35351,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.433295</v>
+        <v>-58.466359</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.574305</v>
+        <v>-34.625966</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -35370,7 +35370,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6527</t>
+          <t>6524</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -35380,17 +35380,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE 3349</t>
+          <t>DORREGO AV. 2687</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>808571982</t>
+          <t>808571980</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -35427,10 +35427,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.447943</v>
+        <v>-58.433295</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.580719</v>
+        <v>-34.574305</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-532</t>
+          <t>6527</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -35456,17 +35456,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Av Corrientes 5143</t>
+          <t>NEWBERY, JORGE 3349</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>808571983</t>
+          <t>808571982</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -35503,10 +35503,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.437823</v>
+        <v>-58.447943</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.600094</v>
+        <v>-34.580719</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -35522,7 +35522,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-533</t>
+          <t>-532</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -35532,17 +35532,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Bonpland 2233</t>
+          <t>Av Corrientes 5143</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>808571985</t>
+          <t>808571983</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -35557,7 +35557,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna y colocar rienda a pique </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -35575,14 +35575,14 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.43258</v>
+        <v>-58.437823</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.579265</v>
+        <v>-34.600094</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -35598,27 +35598,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6534</t>
+          <t>-533</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7/29/2025</t>
+          <t>7/28/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CALLAO AV. 316</t>
+          <t>Bonpland 2233</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>808579773</t>
+          <t>808571985</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -35633,7 +35633,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t xml:space="preserve">Cambiar columna y colocar rienda a pique </t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -35651,18 +35651,18 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.39231</v>
+        <v>-58.43258</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.605507</v>
+        <v>-34.579265</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -35674,7 +35674,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6539</t>
+          <t>6534</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -35684,17 +35684,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BOGOTA 3668</t>
+          <t>CALLAO AV. 316</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>808579768</t>
+          <t>808579773</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -35709,7 +35709,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -35731,46 +35731,46 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.479957</v>
+        <v>-58.39231</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.629792</v>
+        <v>-34.605507</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6554</t>
+          <t>6539</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>7/29/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MITRE, BARTOLOME 2482</t>
+          <t>BOGOTA 3668</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>808703866</t>
+          <t>808579768</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -35807,46 +35807,46 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.40161</v>
+        <v>-58.479957</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.608641</v>
+        <v>-34.629792</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6571</t>
+          <t>6554</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BERUTI 2496</t>
+          <t>MITRE, BARTOLOME 2482</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>808733917</t>
+          <t>808703866</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -35861,7 +35861,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -35869,7 +35869,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -35883,14 +35883,14 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.401374</v>
+        <v>-58.40161</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.592623</v>
+        <v>-34.608641</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -35902,7 +35902,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6572</t>
+          <t>6571</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -35912,17 +35912,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MEXICO 2639</t>
+          <t>BERUTI 2496</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>808733920</t>
+          <t>808733917</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -35937,7 +35937,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -35945,7 +35945,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -35959,14 +35959,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.403444</v>
+        <v>-58.401374</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.61685</v>
+        <v>-34.592623</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -35978,27 +35978,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6002</t>
+          <t>6572</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 832</t>
+          <t>MEXICO 2639</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>808918694</t>
+          <t>808733920</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -36035,14 +36035,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.426947</v>
+        <v>-58.403444</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.625698</v>
+        <v>-34.61685</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -36054,7 +36054,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6921</t>
+          <t>6002</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -36064,17 +36064,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BERUTI 2592</t>
+          <t>LA PLATA AV. 832</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>808918705</t>
+          <t>808918694</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -36089,7 +36089,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -36111,14 +36111,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.402657</v>
+        <v>-58.426947</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.592182</v>
+        <v>-34.625698</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -36130,7 +36130,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7039</t>
+          <t>6921</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -36140,17 +36140,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ESTADOS UNIDOS 2044</t>
+          <t>BERUTI 2592</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>808918724</t>
+          <t>808918705</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -36165,7 +36165,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspaso de redes y retiro de columna</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -36187,14 +36187,14 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.395142</v>
+        <v>-58.402657</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.619586</v>
+        <v>-34.592182</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -36206,27 +36206,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>7039</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ARENALES 3640</t>
+          <t>ESTADOS UNIDOS 2044</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ICD30449342</t>
+          <t>808918724</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -36236,12 +36236,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -36254,7 +36254,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -36263,14 +36263,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.413584</v>
+        <v>-58.395142</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.58551</v>
+        <v>-34.619586</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -36282,7 +36282,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>6998</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -36292,7 +36292,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CHARCAS 3986</t>
+          <t>ARENALES 3640</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -36302,7 +36302,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>809065854</t>
+          <t>ICD30449342</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -36312,12 +36312,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -36330,7 +36330,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -36339,10 +36339,10 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.419711</v>
+        <v>-58.413584</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.586299</v>
+        <v>-34.58551</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -36358,7 +36358,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5625</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -36368,17 +36368,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 184</t>
+          <t>CHARCAS 3986</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>809065913</t>
+          <t>809065854</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -36393,7 +36393,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Inclinada ver cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -36411,18 +36411,18 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.437583</v>
+        <v>-58.419711</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.616231</v>
+        <v>-34.586299</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -36434,27 +36434,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-560</t>
+          <t>5625</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Pinzon 1590</t>
+          <t>ACOYTE AV. 184</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>809098712</t>
+          <t>809065913</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -36469,7 +36469,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada ver cambio</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -36487,18 +36487,18 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.373506</v>
+        <v>-58.437583</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.63706</v>
+        <v>-34.616231</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -36510,27 +36510,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7024</t>
+          <t>-560</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SAAVEDRA 869</t>
+          <t>Pinzon 1590</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>809155616</t>
+          <t>809098712</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -36545,7 +36545,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada mismo caso que 7083</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -36567,10 +36567,10 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.402244</v>
+        <v>-58.373506</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.619401</v>
+        <v>-34.63706</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -36586,17 +36586,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7031</t>
+          <t>7024</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>RIOBAMBA 390</t>
+          <t>SAAVEDRA 869</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -36606,7 +36606,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>809195642</t>
+          <t>809155616</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -36621,7 +36621,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada mismo caso que 7083</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -36643,14 +36643,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.393882</v>
+        <v>-58.402244</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.604721</v>
+        <v>-34.619401</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -36662,7 +36662,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7038</t>
+          <t>7031</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -36672,7 +36672,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SARANDI 1011</t>
+          <t>RIOBAMBA 390</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -36682,7 +36682,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>809195660</t>
+          <t>809195642</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -36719,14 +36719,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.394543</v>
+        <v>-58.393882</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.620732</v>
+        <v>-34.604721</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -36738,7 +36738,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7050</t>
+          <t>7038</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -36748,17 +36748,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PRINGLES 788</t>
+          <t>SARANDI 1011</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>809195664</t>
+          <t>809195660</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -36791,18 +36791,18 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.427206</v>
+        <v>-58.394543</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.602914</v>
+        <v>-34.620732</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -36814,27 +36814,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7064</t>
+          <t>7050</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GAONA AV. 1189</t>
+          <t>PRINGLES 788</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>809257408</t>
+          <t>809195664</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -36849,7 +36849,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Piden aplomo de columna ver con Pedro si hay que colocar una R400 por tension de la red</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -36871,10 +36871,10 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.446008</v>
+        <v>-58.427206</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.607602</v>
+        <v>-34.602914</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7097</t>
+          <t>7064</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -36900,17 +36900,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BONORINO, ESTEBAN, CNEL. AV. 208</t>
+          <t>GAONA AV. 1189</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>809279093</t>
+          <t>809257408</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -36925,7 +36925,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Piden aplomo de columna ver con Pedro si hay que colocar una R400 por tension de la red</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -36947,14 +36947,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.458659</v>
+        <v>-58.446008</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.630464</v>
+        <v>-34.607602</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -36966,27 +36966,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>7097</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>REPETTO, NICOLAS, DR. 93</t>
+          <t>BONORINO, ESTEBAN, CNEL. AV. 208</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>809279093</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -36996,12 +36996,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -37014,7 +37014,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -37023,10 +37023,10 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.443232</v>
+        <v>-58.458659</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.620007</v>
+        <v>-34.630464</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -37042,17 +37042,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7102</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8/30/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>AMBERES 995</t>
+          <t>REPETTO, NICOLAS, DR. 93</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -37062,7 +37062,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>809309598</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -37072,12 +37072,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -37090,19 +37090,19 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.453382</v>
+        <v>-58.443232</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.612707</v>
+        <v>-34.620007</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -37118,74 +37118,150 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>7102</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>8/30/2025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>AMBERES 995</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>809309598</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>-58.453382</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-34.612707</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
           <t>7112</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>9/1/2025</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>OLLEROS 2488</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>809371829</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>PEBCOM</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t xml:space="preserve">Cambiar </t>
         </is>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="M86" t="n">
         <v>-58.444214</v>
       </c>
-      <c r="N85" t="n">
+      <c r="N86" t="n">
         <v>-34.571197</v>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>Palermo</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="P86" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -37202,7 +37278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38959,17 +39035,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4768</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>2/10/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 684</t>
+          <t>YERBAL 489</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -38979,7 +39055,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>802988221</t>
+          <t>803607520</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -38994,7 +39070,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Picada info para cierre tambien entro como caso 6909</t>
+          <t>Desmonte de columna ya traspasaron nodo</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -39007,7 +39083,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -39016,14 +39092,14 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.443039</v>
+        <v>-58.438053</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.612262</v>
+        <v>-34.617481</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -39035,17 +39111,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4696</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2/10/2025</t>
+          <t>2/14/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>YERBAL 489</t>
+          <t>CHACO 195</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -39055,7 +39131,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>803607520</t>
+          <t>803607699</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -39070,7 +39146,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desmonte de columna ya traspasaron nodo</t>
+          <t>Desmontar columna personal propio traspaso nodo</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -39092,10 +39168,10 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.438053</v>
+        <v>-58.431522</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.617481</v>
+        <v>-34.617523</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -39111,27 +39187,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>6066</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2/14/2025</t>
+          <t>2/26/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CHACO 195</t>
+          <t>ALBARIÑO 1331</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>803607699</t>
+          <t>803651213</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -39146,7 +39222,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desmontar columna personal propio traspaso nodo</t>
+          <t>Podrida en la base</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -39159,7 +39235,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -39168,46 +39244,46 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.431522</v>
+        <v>-58.496255</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.617523</v>
+        <v>-34.650599</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6066</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2/26/2025</t>
+          <t>3/7/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALBARIÑO 1331</t>
+          <t>ISABEL LA CATOLICA 1539</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>803651213</t>
+          <t>803778980</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -39222,11 +39298,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Podrida en la base</t>
+          <t>Picada cambiaron la incorrecta</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -39244,36 +39320,36 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.496255</v>
+        <v>-58.371855</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.650599</v>
+        <v>-34.646958</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3/7/2025</t>
+          <t>3/12/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ISABEL LA CATOLICA 1539</t>
+          <t>BERUTI 2716</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -39283,7 +39359,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>803778980</t>
+          <t>803969347</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -39298,7 +39374,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Picada cambiaron la incorrecta</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -39320,14 +39396,14 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.371855</v>
+        <v>-58.403583</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.646958</v>
+        <v>-34.591604</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -39339,27 +39415,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3/12/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BERUTI 2716</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>803969347</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -39369,16 +39445,16 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -39387,7 +39463,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -39396,14 +39472,14 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.403583</v>
+        <v>-58.441405</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.591604</v>
+        <v>-34.594348</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -39415,7 +39491,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -39425,17 +39501,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -39448,11 +39524,7 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
         <v>1</v>
       </c>
@@ -39472,14 +39544,14 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.441405</v>
+        <v>-58.483821</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.594348</v>
+        <v>-34.677698</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -39491,27 +39563,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>-317</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>4/9/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>804569034</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -39521,10 +39593,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+        </is>
+      </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
@@ -39544,14 +39620,14 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.483821</v>
+        <v>-58.445131</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.677698</v>
+        <v>-34.572117</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -39563,27 +39639,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-317</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4/9/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ /ALT/ 612</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>804569034</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -39598,7 +39674,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso en las fotos no se ve pero ya esta realizado</t>
+          <t>Columna corroída en su base entro tambien como caso 7049</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -39611,7 +39687,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -39620,14 +39696,14 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.445131</v>
+        <v>-58.425764</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.572117</v>
+        <v>-34.604359</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -39639,27 +39715,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>5626</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>ACOYTE AV. 746</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804876044</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -39674,7 +39750,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna corroída en su base entro tambien como caso 7049</t>
+          <t>Aplomador</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -39682,7 +39758,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -39696,10 +39772,10 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.425764</v>
+        <v>-58.439751</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.604359</v>
+        <v>-34.609908</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -39715,7 +39791,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5626</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -39725,7 +39801,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 746</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -39735,7 +39811,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804876044</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -39750,7 +39826,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomador</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -39772,14 +39848,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.439751</v>
+        <v>-58.43607</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.609908</v>
+        <v>-34.61926</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -39791,7 +39867,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -39801,17 +39877,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -39826,7 +39902,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -39834,7 +39910,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -39848,14 +39924,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.43607</v>
+        <v>-58.375515</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.61926</v>
+        <v>-34.634393</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -39867,27 +39943,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -39902,7 +39978,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -39924,14 +40000,14 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.375515</v>
+        <v>-58.415839</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.634393</v>
+        <v>-34.599291</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -39943,27 +40019,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -40000,46 +40076,46 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.415839</v>
+        <v>-58.440177</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.599291</v>
+        <v>-34.56291</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -40054,7 +40130,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -40076,46 +40152,46 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.440177</v>
+        <v>-58.469148</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.56291</v>
+        <v>-34.687883</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -40130,7 +40206,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -40143,7 +40219,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -40152,14 +40228,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.469148</v>
+        <v>-58.395063</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.687883</v>
+        <v>-34.606257</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -40171,7 +40247,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -40181,17 +40257,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -40206,7 +40282,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -40214,12 +40290,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -40228,14 +40304,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.395063</v>
+        <v>-58.429977</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.606257</v>
+        <v>-34.615514</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -40247,7 +40323,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -40257,17 +40333,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -40304,14 +40380,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.429977</v>
+        <v>-58.421623</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.615514</v>
+        <v>-34.614541</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -40323,27 +40399,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -40358,7 +40434,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -40366,12 +40442,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -40380,14 +40456,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.421623</v>
+        <v>-58.416562</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.614541</v>
+        <v>-34.590589</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -40399,7 +40475,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -40409,17 +40485,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -40434,7 +40510,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -40447,7 +40523,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -40456,14 +40532,14 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.416562</v>
+        <v>-58.429972</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.590589</v>
+        <v>-34.632042</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -40475,7 +40551,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -40485,17 +40561,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -40510,7 +40586,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -40532,26 +40608,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.429972</v>
+        <v>-58.47888</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.632042</v>
+        <v>-34.571108</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -40561,17 +40637,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -40586,7 +40662,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -40608,26 +40684,26 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.47888</v>
+        <v>-58.443196</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.571108</v>
+        <v>-34.618534</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -40637,17 +40713,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -40662,7 +40738,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -40675,7 +40751,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -40684,14 +40760,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.443196</v>
+        <v>-58.422268</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.618534</v>
+        <v>-34.627754</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -40703,7 +40779,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -40713,17 +40789,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -40738,7 +40814,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -40751,7 +40827,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -40760,14 +40836,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.422268</v>
+        <v>-58.423148</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.627754</v>
+        <v>-34.576964</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -40779,7 +40855,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -40789,17 +40865,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -40809,16 +40885,16 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -40836,14 +40912,14 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.423148</v>
+        <v>-58.406585</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.576964</v>
+        <v>-34.592933</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -40855,7 +40931,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -40865,17 +40941,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -40885,16 +40961,16 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -40903,55 +40979,55 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.406585</v>
+        <v>-58.51232</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.592933</v>
+        <v>-34.595637</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -40966,7 +41042,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -40984,18 +41060,18 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.51232</v>
+        <v>-58.483104</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.595637</v>
+        <v>-34.572353</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -41007,27 +41083,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -41042,7 +41118,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -41050,7 +41126,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -41060,14 +41136,14 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.483104</v>
+        <v>-58.483927</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.572353</v>
+        <v>-34.570689</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -41083,17 +41159,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>DE LOS CONSTITUYENTES AV. 4615</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -41103,7 +41179,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -41118,7 +41194,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -41126,7 +41202,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -41136,18 +41212,18 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.483927</v>
+        <v>-58.492605</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.570689</v>
+        <v>-34.581454</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -41159,7 +41235,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -41169,17 +41245,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 4615</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -41216,26 +41292,26 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.492605</v>
+        <v>-58.467789</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.581454</v>
+        <v>-34.68463</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -41245,17 +41321,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -41270,7 +41346,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -41283,7 +41359,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -41292,14 +41368,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.467789</v>
+        <v>-58.423551</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.68463</v>
+        <v>-34.581258</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -41311,27 +41387,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -41346,7 +41422,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -41359,7 +41435,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -41368,14 +41444,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.423551</v>
+        <v>-58.468182</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.581258</v>
+        <v>-34.685231</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -41387,7 +41463,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -41397,7 +41473,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -41407,7 +41483,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -41422,7 +41498,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -41440,14 +41516,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.468182</v>
+        <v>-58.477944</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.685231</v>
+        <v>-34.675149</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -41463,7 +41539,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -41473,17 +41549,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -41498,7 +41574,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -41516,14 +41592,14 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.477944</v>
+        <v>-58.4212</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.675149</v>
+        <v>-34.623575</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -41539,27 +41615,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -41574,7 +41650,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -41596,14 +41672,14 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.4212</v>
+        <v>-58.362579</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.623575</v>
+        <v>-34.635096</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -41615,7 +41691,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -41625,17 +41701,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -41650,7 +41726,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -41658,7 +41734,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -41668,30 +41744,30 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.362579</v>
+        <v>-58.487371</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.635096</v>
+        <v>-34.640099</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -41701,17 +41777,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -41726,7 +41802,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -41734,7 +41810,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -41744,30 +41820,30 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.487371</v>
+        <v>-58.425845</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.640099</v>
+        <v>-34.616562</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -41777,7 +41853,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -41787,7 +41863,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -41802,7 +41878,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -41824,14 +41900,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.425845</v>
+        <v>-58.420909</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.616562</v>
+        <v>-34.626221</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -41843,17 +41919,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -41863,7 +41939,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -41878,7 +41954,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -41900,14 +41976,14 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.420909</v>
+        <v>-58.416477</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.626221</v>
+        <v>-34.61303</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -41919,7 +41995,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -41929,7 +42005,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -41939,7 +42015,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -41976,10 +42052,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.416477</v>
+        <v>-58.427424</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.61303</v>
+        <v>-34.601217</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -41995,7 +42071,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -42005,7 +42081,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -42015,7 +42091,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -42030,7 +42106,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -42052,10 +42128,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.427424</v>
+        <v>-58.426665</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.601217</v>
+        <v>-34.598019</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -42071,7 +42147,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -42081,7 +42157,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -42091,7 +42167,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -42106,7 +42182,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -42128,10 +42204,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.426665</v>
+        <v>-58.425478</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.598019</v>
+        <v>-34.601865</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -42147,27 +42223,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -42182,7 +42258,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -42190,7 +42266,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -42200,50 +42276,50 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.425478</v>
+        <v>-58.497698</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.601865</v>
+        <v>-34.612038</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -42258,7 +42334,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -42266,7 +42342,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -42280,26 +42356,26 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.497698</v>
+        <v>-58.44848</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.612038</v>
+        <v>-34.581338</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -42309,7 +42385,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -42319,7 +42395,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -42334,7 +42410,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -42356,26 +42432,26 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.44848</v>
+        <v>-58.448496</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.581338</v>
+        <v>-34.58182</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -42385,17 +42461,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -42410,7 +42486,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -42418,60 +42494,60 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.448496</v>
+        <v>-58.400169</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.58182</v>
+        <v>-34.617784</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -42486,7 +42562,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -42499,7 +42575,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -42508,14 +42584,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.400169</v>
+        <v>-58.425296</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.617784</v>
+        <v>-34.578706</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -42527,27 +42603,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -42562,7 +42638,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -42584,46 +42660,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.425296</v>
+        <v>-58.474467</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.578706</v>
+        <v>-34.624161</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -42638,7 +42714,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -42646,7 +42722,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -42660,46 +42736,46 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.474467</v>
+        <v>-58.432644</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.624161</v>
+        <v>-34.595434</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -42714,7 +42790,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -42722,12 +42798,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -42736,14 +42812,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.432644</v>
+        <v>-58.401827</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.595434</v>
+        <v>-34.617667</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -42755,27 +42831,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -42790,7 +42866,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -42803,7 +42879,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -42812,14 +42888,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.401827</v>
+        <v>-58.450359</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.617667</v>
+        <v>-34.643582</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -42831,7 +42907,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -42841,17 +42917,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -42866,7 +42942,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -42888,10 +42964,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.450359</v>
+        <v>-58.437378</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.643582</v>
+        <v>-34.62116</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -42907,27 +42983,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -42942,7 +43018,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -42964,14 +43040,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.437378</v>
+        <v>-58.413941</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.62116</v>
+        <v>-34.57698</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -42983,7 +43059,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -42993,7 +43069,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -43003,7 +43079,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -43018,15 +43094,15 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -43036,18 +43112,18 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.413941</v>
+        <v>-58.405749</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.57698</v>
+        <v>-34.58224</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -43059,27 +43135,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -43094,15 +43170,15 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -43116,26 +43192,26 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.405749</v>
+        <v>-58.473179</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.58224</v>
+        <v>-34.629138</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -43145,17 +43221,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -43170,7 +43246,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -43178,60 +43254,60 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.473179</v>
+        <v>-58.400188</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.629138</v>
+        <v>-34.583882</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -43246,7 +43322,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -43259,7 +43335,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -43268,14 +43344,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.400188</v>
+        <v>-58.426322</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.583882</v>
+        <v>-34.600097</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -43287,7 +43363,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -43297,17 +43373,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -43344,14 +43420,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.426322</v>
+        <v>-58.448523</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.600097</v>
+        <v>-34.62452</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -43363,17 +43439,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -43383,7 +43459,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -43411,7 +43487,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -43420,10 +43496,10 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.448523</v>
+        <v>-58.449</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.62452</v>
+        <v>-34.616077</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -43439,27 +43515,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -43487,23 +43563,23 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.449</v>
+        <v>-58.363292</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.616077</v>
+        <v>-34.642869</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -43515,17 +43591,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>MONTES DE OCA, MANUEL AV. 1809</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -43535,7 +43611,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>ICD30501825</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -43550,7 +43626,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -43568,14 +43644,14 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.363292</v>
+        <v>-58.372941</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.642869</v>
+        <v>-34.648341</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -43591,27 +43667,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7030</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 1809</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ICD30501825</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -43626,7 +43702,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -43648,14 +43724,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.372941</v>
+        <v>-58.432805</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.648341</v>
+        <v>-34.574345</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -43667,27 +43743,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/23/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>ICD30189941</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -43702,7 +43778,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -43724,14 +43800,14 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.432805</v>
+        <v>-58.384097</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.574345</v>
+        <v>-34.598913</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -43743,27 +43819,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-529</t>
+          <t>-531</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/23/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Libertad 820</t>
+          <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ICD30189941</t>
+          <t>808530239</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -43778,7 +43854,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -43800,46 +43876,46 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.384097</v>
+        <v>-58.513643</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.598913</v>
+        <v>-34.594169</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-531</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4632</t>
+          <t>NAZCA 5168</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808530239</t>
+          <t>808703877</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -43854,7 +43930,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+          <t>Aplomar y corregir caja de empalme colgando</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -43862,7 +43938,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -43876,10 +43952,10 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.513643</v>
+        <v>-58.505593</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.594169</v>
+        <v>-34.582601</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -43895,27 +43971,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6558</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NAZCA 5168</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>808703877</t>
+          <t>808918700</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -43930,7 +44006,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aplomar y corregir caja de empalme colgando</t>
+          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -43938,7 +44014,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -43952,93 +44028,17 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.505593</v>
+        <v>-58.355342</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.582601</v>
+        <v>-34.63565</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>6917</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>8/12/2025</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>BRIN, MINISTRO 1375</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>808918700</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>-58.355342</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-34.63565</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -12094,7 +12094,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -28798,7 +28798,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -30757,7 +30757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33546,27 +33546,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5657</t>
+          <t>5632</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4/23/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2207</t>
+          <t>MORENO, JOSE MARIA AV. 93</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>804903806</t>
+          <t>804876047</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -33581,15 +33581,15 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -33603,14 +33603,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.396135</v>
+        <v>-58.43607</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.624285</v>
+        <v>-34.61926</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -33622,17 +33622,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5682</t>
+          <t>5657</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4/29/2025</t>
+          <t>4/23/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>República Bolivariana de Venezuela 2701</t>
+          <t>COCHABAMBA 2207</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -33642,7 +33642,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>805507294</t>
+          <t>804903806</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -33652,16 +33652,16 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>picada</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -33670,23 +33670,23 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.404913</v>
+        <v>-58.396135</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.615857</v>
+        <v>-34.624285</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -33698,7 +33698,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5686</t>
+          <t>5682</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -33708,7 +33708,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HUMBERTO 1° 1999</t>
+          <t>República Bolivariana de Venezuela 2701</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -33718,7 +33718,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>805507324</t>
+          <t>805507294</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -33733,7 +33733,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -33746,23 +33746,23 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.394304</v>
+        <v>-58.404913</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.621645</v>
+        <v>-34.615857</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -33774,27 +33774,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5708</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/1/2025</t>
+          <t>4/29/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SARMIENTO 1741</t>
+          <t>HUMBERTO 1° 1999</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>805579089</t>
+          <t>805507324</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -33809,7 +33809,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo y fuente</t>
+          <t>Pendiente de traspaso fuente</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -33822,7 +33822,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -33831,10 +33831,10 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.391419</v>
+        <v>-58.394304</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.605543</v>
+        <v>-34.621645</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -33850,7 +33850,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5731</t>
+          <t>5708</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -33860,17 +33860,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RIOBAMBA 659</t>
+          <t>SARMIENTO 1741</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805579188</t>
+          <t>805579089</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -33885,7 +33885,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
+          <t>Pendiente de traspaso nodo y fuente</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -33898,7 +33898,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -33907,14 +33907,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.394118</v>
+        <v>-58.391419</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.601416</v>
+        <v>-34.605543</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -33926,27 +33926,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5885</t>
+          <t>5731</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/1/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1500</t>
+          <t>RIOBAMBA 659</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806944768</t>
+          <t>805579188</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -33956,12 +33956,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Pendiente de traspaso nodo entro tambien como 7100</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -33974,7 +33974,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -33983,26 +33983,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.450724</v>
+        <v>-58.394118</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.567086</v>
+        <v>-34.601416</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5883</t>
+          <t>5885</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -34012,7 +34012,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CONGRESO AV. 2699</t>
+          <t>CABILDO AV. 1500</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -34022,7 +34022,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806944763</t>
+          <t>806944768</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -34059,14 +34059,14 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.46522</v>
+        <v>-58.450724</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.556786</v>
+        <v>-34.567086</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -34078,17 +34078,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>5883</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11 de Septiembre de 1888 4662</t>
+          <t>CONGRESO AV. 2699</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -34098,7 +34098,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>807044200</t>
+          <t>806944763</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -34113,7 +34113,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>CAMBIAR COLUMNA MUY INCLINADA POR POSTE PRFV 400, COLOCAR A 40 CMTS DEL CORDON</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -34121,7 +34121,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -34131,14 +34131,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.467458</v>
+        <v>-58.46522</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.537549</v>
+        <v>-34.556786</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -34154,27 +34154,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-461</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6/3/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Independencia 2796</t>
+          <t>11 de Septiembre de 1888 4662</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>807150726</t>
+          <t>807044200</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -34189,7 +34189,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>CAMBIAR COLUMNA MUY INCLINADA POR POSTE PRFV 400, COLOCAR A 40 CMTS DEL CORDON</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -34197,7 +34197,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -34207,30 +34207,30 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.404871</v>
+        <v>-58.467458</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.619205</v>
+        <v>-34.537549</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6494</t>
+          <t>-461</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -34240,17 +34240,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4507</t>
+          <t>Independencia 2796</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>807150729</t>
+          <t>807150726</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -34287,14 +34287,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.420269</v>
+        <v>-58.404871</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.574122</v>
+        <v>-34.619205</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -34306,27 +34306,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-467</t>
+          <t>6494</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/3/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>General Enrique Martinez 188</t>
+          <t>SEGUI, JUAN FRANCISCO 4507</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807168186</t>
+          <t>807150729</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -34363,10 +34363,10 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.446125</v>
+        <v>-58.420269</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.580819</v>
+        <v>-34.574122</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -34382,7 +34382,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-469</t>
+          <t>-467</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -34392,7 +34392,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Newbery 3323</t>
+          <t>General Enrique Martinez 188</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -34402,7 +34402,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>800966689</t>
+          <t>807168186</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -34435,14 +34435,14 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.447732</v>
+        <v>-58.446125</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.580408</v>
+        <v>-34.580819</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5996</t>
+          <t>-469</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -34468,17 +34468,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BACACAY 2205</t>
+          <t>Newbery 3323</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807187775</t>
+          <t>800966689</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -34511,18 +34511,18 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.461271</v>
+        <v>-58.447732</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.625615</v>
+        <v>-34.580408</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -34534,27 +34534,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>BACACAY 2205</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ICD30334323</t>
+          <t>807187775</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -34564,12 +34564,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspasar fuente teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -34582,7 +34582,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -34591,14 +34591,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.401624</v>
+        <v>-58.461271</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.612001</v>
+        <v>-34.625615</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -34610,27 +34610,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6/17/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ICD30532670</t>
+          <t>ICD30334323</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -34640,12 +34640,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos mismo caso 7053</t>
+          <t>Colocar R400 para traspasar fuente teco</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -34653,12 +34653,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -34667,10 +34667,10 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.422775</v>
+        <v>-58.401624</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.604135</v>
+        <v>-34.612001</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -34686,27 +34686,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-483</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/17/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Arcos 4326</t>
+          <t>ACUÑA DE FIGUEROA, FRANCISCO 566</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807605744</t>
+          <t>ICD30532670</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -34721,7 +34721,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
+          <t>Solo retirar columna tlc coloco una nueva y ya traspsaso sus activos mismo caso 7053</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -34729,7 +34729,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -34739,50 +34739,50 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.469257</v>
+        <v>-58.422775</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.542018</v>
+        <v>-34.604135</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>-483</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CATAMARCA 1485</t>
+          <t>Arcos 4326</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807763057</t>
+          <t>807605744</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -34797,7 +34797,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>fue bajada como que no es de la empresa pero no se ve que sea de telecentro reverificar o esperar a Pedro para verla</t>
+          <t>Terminal de teco con clientes Se solicita desconectar alarma vecinal en el poste</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -34815,50 +34815,50 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.402745</v>
+        <v>-58.469257</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.627478</v>
+        <v>-34.542018</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6303</t>
+          <t>6195</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2362</t>
+          <t>CATAMARCA 1485</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>809310336</t>
+          <t>807763057</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -34873,7 +34873,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Falta la foto</t>
+          <t>fue bajada como que no es de la empresa pero no se ve que sea de telecentro reverificar o esperar a Pedro para verla</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -34895,14 +34895,14 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.459566</v>
+        <v>-58.402745</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.634615</v>
+        <v>-34.627478</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -34914,27 +34914,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-505</t>
+          <t>6303</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Brasil 3181</t>
+          <t>BILBAO, FRANCISCO 2362</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>808150460</t>
+          <t>809310336</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -34949,7 +34949,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Falta la foto</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -34971,14 +34971,14 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.409002</v>
+        <v>-58.459566</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.634523</v>
+        <v>-34.634615</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -34990,27 +34990,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>-505</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CASTELLI 304</t>
+          <t>Brasil 3181</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>808194260</t>
+          <t>808150460</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -35047,14 +35047,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.404696</v>
+        <v>-58.409002</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.606337</v>
+        <v>-34.634523</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -35066,17 +35066,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6407</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TUCUMAN 3253</t>
+          <t>CASTELLI 304</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -35086,7 +35086,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>808373657</t>
+          <t>808194260</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -35123,10 +35123,10 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.411609</v>
+        <v>-58.404696</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.600329</v>
+        <v>-34.606337</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -35142,27 +35142,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6555</t>
+          <t>6407</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>URUGUAY 1094</t>
+          <t>TUCUMAN 3253</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>808430941</t>
+          <t>808373657</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -35177,7 +35177,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Evaluar si es necesario cambio de columna y reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -35195,18 +35195,18 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.387175</v>
+        <v>-58.411609</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.596</v>
+        <v>-34.600329</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -35218,27 +35218,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>6555</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ACEVEDO 310</t>
+          <t>URUGUAY 1094</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>808533124</t>
+          <t>808430941</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -35253,7 +35253,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Evaluar si es necesario cambio de columna y reparar rienda</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -35271,50 +35271,50 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.44163</v>
+        <v>-58.387175</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.598788</v>
+        <v>-34.596</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6523</t>
+          <t>6471</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7/28/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BOGOTA 2552</t>
+          <t>ACEVEDO 310</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>808571979</t>
+          <t>808533124</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -35351,26 +35351,26 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.466359</v>
+        <v>-58.44163</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.625966</v>
+        <v>-34.598788</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6524</t>
+          <t>6523</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -35380,17 +35380,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DORREGO AV. 2687</t>
+          <t>BOGOTA 2552</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>808571980</t>
+          <t>808571979</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -35427,14 +35427,14 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.433295</v>
+        <v>-58.466359</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.574305</v>
+        <v>-34.625966</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -35446,7 +35446,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6527</t>
+          <t>6524</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -35456,17 +35456,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE 3349</t>
+          <t>DORREGO AV. 2687</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>808571982</t>
+          <t>808571980</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -35503,10 +35503,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.447943</v>
+        <v>-58.433295</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.580719</v>
+        <v>-34.574305</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -35522,7 +35522,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-532</t>
+          <t>6527</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -35532,17 +35532,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Av Corrientes 5143</t>
+          <t>NEWBERY, JORGE 3349</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>808571983</t>
+          <t>808571982</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -35579,10 +35579,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.437823</v>
+        <v>-58.447943</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.600094</v>
+        <v>-34.580719</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -35598,7 +35598,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-533</t>
+          <t>-532</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -35608,17 +35608,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Bonpland 2233</t>
+          <t>Av Corrientes 5143</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>808571985</t>
+          <t>808571983</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -35633,7 +35633,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna y colocar rienda a pique </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -35651,14 +35651,14 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.43258</v>
+        <v>-58.437823</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.579265</v>
+        <v>-34.600094</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -35674,27 +35674,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6534</t>
+          <t>-533</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7/29/2025</t>
+          <t>7/28/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CALLAO AV. 316</t>
+          <t>Bonpland 2233</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>808579773</t>
+          <t>808571985</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -35709,7 +35709,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t xml:space="preserve">Cambiar columna y colocar rienda a pique </t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -35727,18 +35727,18 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.39231</v>
+        <v>-58.43258</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.605507</v>
+        <v>-34.579265</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -35750,7 +35750,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6539</t>
+          <t>6534</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -35760,17 +35760,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BOGOTA 3668</t>
+          <t>CALLAO AV. 316</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>808579768</t>
+          <t>808579773</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -35785,7 +35785,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -35807,46 +35807,46 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.479957</v>
+        <v>-58.39231</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.629792</v>
+        <v>-34.605507</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6554</t>
+          <t>6539</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>7/29/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MITRE, BARTOLOME 2482</t>
+          <t>BOGOTA 3668</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>808703866</t>
+          <t>808579768</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -35883,46 +35883,46 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.40161</v>
+        <v>-58.479957</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.608641</v>
+        <v>-34.629792</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6571</t>
+          <t>6554</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BERUTI 2496</t>
+          <t>MITRE, BARTOLOME 2482</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>808733917</t>
+          <t>808703866</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -35937,7 +35937,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -35945,7 +35945,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -35959,14 +35959,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.401374</v>
+        <v>-58.40161</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.592623</v>
+        <v>-34.608641</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -35978,7 +35978,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6572</t>
+          <t>6571</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -35988,17 +35988,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MEXICO 2639</t>
+          <t>BERUTI 2496</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>808733920</t>
+          <t>808733917</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -36013,7 +36013,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -36021,7 +36021,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -36035,14 +36035,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.403444</v>
+        <v>-58.401374</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.61685</v>
+        <v>-34.592623</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -36054,27 +36054,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6002</t>
+          <t>6572</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 832</t>
+          <t>MEXICO 2639</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>808918694</t>
+          <t>808733920</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -36111,14 +36111,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.426947</v>
+        <v>-58.403444</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.625698</v>
+        <v>-34.61685</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -36130,7 +36130,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6921</t>
+          <t>6002</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -36140,17 +36140,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BERUTI 2592</t>
+          <t>LA PLATA AV. 832</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>808918705</t>
+          <t>808918694</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -36165,7 +36165,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -36187,14 +36187,14 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.402657</v>
+        <v>-58.426947</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.592182</v>
+        <v>-34.625698</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -36206,7 +36206,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7039</t>
+          <t>6921</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -36216,17 +36216,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ESTADOS UNIDOS 2044</t>
+          <t>BERUTI 2592</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>808918724</t>
+          <t>808918705</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -36241,7 +36241,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspaso de redes y retiro de columna</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -36263,14 +36263,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.395142</v>
+        <v>-58.402657</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.619586</v>
+        <v>-34.592182</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -36282,27 +36282,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>7039</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ARENALES 3640</t>
+          <t>ESTADOS UNIDOS 2044</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ICD30449342</t>
+          <t>808918724</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -36312,12 +36312,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -36330,7 +36330,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -36339,14 +36339,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.413584</v>
+        <v>-58.395142</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.58551</v>
+        <v>-34.619586</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -36358,7 +36358,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>6998</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -36368,7 +36368,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CHARCAS 3986</t>
+          <t>ARENALES 3640</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -36378,7 +36378,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>809065854</t>
+          <t>ICD30449342</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -36388,12 +36388,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -36406,7 +36406,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -36415,10 +36415,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.419711</v>
+        <v>-58.413584</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.586299</v>
+        <v>-34.58551</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -36434,7 +36434,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5625</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -36444,17 +36444,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 184</t>
+          <t>CHARCAS 3986</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>809065913</t>
+          <t>809065854</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -36469,7 +36469,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Inclinada ver cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -36487,18 +36487,18 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.437583</v>
+        <v>-58.419711</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.616231</v>
+        <v>-34.586299</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -36510,27 +36510,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-560</t>
+          <t>5625</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Pinzon 1590</t>
+          <t>ACOYTE AV. 184</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>809098712</t>
+          <t>809065913</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -36545,7 +36545,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada ver cambio</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -36563,18 +36563,18 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.373506</v>
+        <v>-58.437583</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.63706</v>
+        <v>-34.616231</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -36586,27 +36586,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7024</t>
+          <t>-560</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SAAVEDRA 869</t>
+          <t>Pinzon 1590</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>809155616</t>
+          <t>809098712</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -36621,7 +36621,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada mismo caso que 7083</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -36643,10 +36643,10 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.402244</v>
+        <v>-58.373506</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.619401</v>
+        <v>-34.63706</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -36662,17 +36662,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7031</t>
+          <t>7024</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>RIOBAMBA 390</t>
+          <t>SAAVEDRA 869</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -36682,7 +36682,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>809195642</t>
+          <t>809155616</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -36697,7 +36697,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada mismo caso que 7083</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -36719,14 +36719,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.393882</v>
+        <v>-58.402244</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.604721</v>
+        <v>-34.619401</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -36738,7 +36738,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7038</t>
+          <t>7031</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -36748,7 +36748,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SARANDI 1011</t>
+          <t>RIOBAMBA 390</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -36758,7 +36758,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>809195660</t>
+          <t>809195642</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -36795,14 +36795,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.394543</v>
+        <v>-58.393882</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.620732</v>
+        <v>-34.604721</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -36814,7 +36814,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7050</t>
+          <t>7038</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -36824,17 +36824,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PRINGLES 788</t>
+          <t>SARANDI 1011</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>809195664</t>
+          <t>809195660</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -36867,18 +36867,18 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.427206</v>
+        <v>-58.394543</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.602914</v>
+        <v>-34.620732</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -36890,27 +36890,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7064</t>
+          <t>7050</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GAONA AV. 1189</t>
+          <t>PRINGLES 788</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>809257408</t>
+          <t>809195664</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -36925,7 +36925,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Piden aplomo de columna ver con Pedro si hay que colocar una R400 por tension de la red</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -36947,10 +36947,10 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.446008</v>
+        <v>-58.427206</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.607602</v>
+        <v>-34.602914</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -36966,27 +36966,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7097</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BONORINO, ESTEBAN, CNEL. AV. 208</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>809279093</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -37001,7 +37001,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -37014,7 +37014,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -37023,10 +37023,10 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.458659</v>
+        <v>-58.435017</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.630464</v>
+        <v>-34.622044</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -37042,17 +37042,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>7064</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>REPETTO, NICOLAS, DR. 93</t>
+          <t>GAONA AV. 1189</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -37062,7 +37062,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>809257408</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -37072,12 +37072,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
+          <t>Piden aplomo de columna ver con Pedro si hay que colocar una R400 por tension de la red</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -37090,7 +37090,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -37099,14 +37099,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.443232</v>
+        <v>-58.446008</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.620007</v>
+        <v>-34.607602</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -37118,27 +37118,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7102</t>
+          <t>7097</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>8/30/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>AMBERES 995</t>
+          <t>BONORINO, ESTEBAN, CNEL. AV. 208</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>809309598</t>
+          <t>809279093</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -37171,14 +37171,14 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.453382</v>
+        <v>-58.458659</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.612707</v>
+        <v>-34.630464</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -37194,74 +37194,226 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>8/29/2025</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>REPETTO, NICOLAS, DR. 93</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>-58.443232</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-34.620007</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>7102</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>8/30/2025</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>AMBERES 995</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>809309598</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>-58.453382</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-34.612707</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>7112</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>9/1/2025</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>OLLEROS 2488</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>809371829</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>PEBCOM</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t xml:space="preserve">Cambiar </t>
         </is>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="M88" t="n">
         <v>-58.444214</v>
       </c>
-      <c r="N86" t="n">
+      <c r="N88" t="n">
         <v>-34.571197</v>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>Palermo</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="P88" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -37278,7 +37430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39791,7 +39943,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5632</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -39801,17 +39953,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 93</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>804876047</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -39826,7 +39978,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -39834,7 +39986,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -39848,14 +40000,14 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.43607</v>
+        <v>-58.375515</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.61926</v>
+        <v>-34.634393</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -39867,27 +40019,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5671</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>TUCUMAN 3589</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>805507284</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -39902,7 +40054,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -39924,14 +40076,14 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.375515</v>
+        <v>-58.415839</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.634393</v>
+        <v>-34.599291</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -39943,27 +40095,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TUCUMAN 3589</t>
+          <t>Migueletes 1326</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>805507284</t>
+          <t>805707264</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -40000,46 +40152,46 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.415839</v>
+        <v>-58.440177</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.599291</v>
+        <v>-34.56291</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Migueletes 1326</t>
+          <t>CORRALES 6147</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>805707264</t>
+          <t>805707291</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -40054,7 +40206,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna corroida en su base</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -40076,46 +40228,46 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.440177</v>
+        <v>-58.469148</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.56291</v>
+        <v>-34.687883</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CORRALES 6147</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>805707291</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -40130,7 +40282,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Columna corroida en su base</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -40143,7 +40295,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -40152,14 +40304,14 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.469148</v>
+        <v>-58.395063</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.687883</v>
+        <v>-34.606257</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -40171,7 +40323,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>5836</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -40181,17 +40333,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>RIVADAVIA AV. 4548</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>806926405</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -40206,7 +40358,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -40214,12 +40366,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -40228,14 +40380,14 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.395063</v>
+        <v>-58.429977</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.606257</v>
+        <v>-34.615514</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -40247,7 +40399,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -40257,17 +40409,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 4548</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>806926405</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -40304,14 +40456,14 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.429977</v>
+        <v>-58.421623</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.615514</v>
+        <v>-34.614541</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -40323,27 +40475,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>-416</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>Paraguay 3765</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926557</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -40358,7 +40510,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -40366,12 +40518,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -40380,14 +40532,14 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.421623</v>
+        <v>-58.416562</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.614541</v>
+        <v>-34.590589</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -40399,7 +40551,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-416</t>
+          <t>-428</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -40409,17 +40561,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Paraguay 3765</t>
+          <t>Asamblea 301</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>806926557</t>
+          <t>806926697</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -40434,7 +40586,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Chocada en accidente</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -40447,7 +40599,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -40456,14 +40608,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.416562</v>
+        <v>-58.429972</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.590589</v>
+        <v>-34.632042</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -40475,7 +40627,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-428</t>
+          <t>-429</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -40485,17 +40637,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Asamblea 301</t>
+          <t>Blanco encalada 4362</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>806926697</t>
+          <t>806926710</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -40510,7 +40662,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Chocada en accidente</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -40532,26 +40684,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.429972</v>
+        <v>-58.47888</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.632042</v>
+        <v>-34.571108</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-429</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -40561,17 +40713,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Blanco encalada 4362</t>
+          <t>BACACAY 961</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>806926710</t>
+          <t>806926757</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -40586,7 +40738,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida dar prioridad </t>
+          <t>Columna inclinada con base corroída</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -40608,26 +40760,26 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.47888</v>
+        <v>-58.443196</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.571108</v>
+        <v>-34.618534</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>-437</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -40637,17 +40789,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BACACAY 961</t>
+          <t>Cochabamba 4090</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>806926757</t>
+          <t>806926861</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -40662,7 +40814,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Columna inclinada con base corroída</t>
+          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -40675,7 +40827,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -40684,14 +40836,14 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.443196</v>
+        <v>-58.422268</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.618534</v>
+        <v>-34.627754</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -40703,7 +40855,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-437</t>
+          <t>-438</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -40713,17 +40865,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cochabamba 4090</t>
+          <t>Juncal 4565</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926861</t>
+          <t>806926927</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -40738,7 +40890,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Columna base podrida colocar r400 para pedir traspaso de fuente</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -40751,7 +40903,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -40760,14 +40912,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.422268</v>
+        <v>-58.423148</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.627754</v>
+        <v>-34.576964</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -40779,7 +40931,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-438</t>
+          <t>-440</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -40789,17 +40941,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Juncal 4565</t>
+          <t>LAPRIDA 1374</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926927</t>
+          <t>807005369</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -40809,16 +40961,16 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Se coloco columna nueva queda pendiente de traspaso</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -40836,14 +40988,14 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.423148</v>
+        <v>-58.406585</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.576964</v>
+        <v>-34.592933</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -40855,7 +41007,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-440</t>
+          <t>-445</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -40865,17 +41017,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LAPRIDA 1374</t>
+          <t>Joaquin V Gonzalez 4410</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>807005369</t>
+          <t>806945058</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -40885,16 +41037,16 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Se coloco columna nueva queda pendiente de traspaso</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -40903,55 +41055,55 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.406585</v>
+        <v>-58.51232</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.592933</v>
+        <v>-34.595637</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-445</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4410</t>
+          <t>MONROE 4833</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806945058</t>
+          <t>807044121</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -40966,7 +41118,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -40984,18 +41136,18 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.51232</v>
+        <v>-58.483104</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.595637</v>
+        <v>-34.572353</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -41007,27 +41159,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MONROE 4833</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>807044121</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -41042,7 +41194,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -41050,7 +41202,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -41060,14 +41212,14 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.483104</v>
+        <v>-58.483927</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.572353</v>
+        <v>-34.570689</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -41083,17 +41235,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>DE LOS CONSTITUYENTES AV. 4615</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -41103,7 +41255,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -41118,7 +41270,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -41126,7 +41278,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -41136,18 +41288,18 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.483927</v>
+        <v>-58.492605</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.570689</v>
+        <v>-34.581454</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -41159,7 +41311,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -41169,17 +41321,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 4615</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -41216,26 +41368,26 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.492605</v>
+        <v>-58.467789</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.581454</v>
+        <v>-34.68463</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>-451</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -41245,17 +41397,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>Uriarte 2426</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044071</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -41270,7 +41422,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Colocar columna para pedir traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -41283,7 +41435,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -41292,14 +41444,14 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.467789</v>
+        <v>-58.423551</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.68463</v>
+        <v>-34.581258</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -41311,27 +41463,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-451</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Uriarte 2426</t>
+          <t>CAFAYATE 5007</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807044071</t>
+          <t>807129336</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -41346,7 +41498,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso de nodo teco</t>
+          <t>Columna inclinada Columna con base corroída oxidada</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -41359,7 +41511,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -41368,14 +41520,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.423551</v>
+        <v>-58.468182</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.581258</v>
+        <v>-34.685231</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -41387,7 +41539,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -41397,7 +41549,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CAFAYATE 5007</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -41407,7 +41559,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807129336</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -41422,7 +41574,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Columna inclinada Columna con base corroída oxidada</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -41440,14 +41592,14 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.468182</v>
+        <v>-58.477944</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.685231</v>
+        <v>-34.675149</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -41463,7 +41615,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -41473,17 +41625,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>YAPEYU 938</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807129372</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -41498,7 +41650,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -41516,14 +41668,14 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.477944</v>
+        <v>-58.4212</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.675149</v>
+        <v>-34.623575</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -41539,27 +41691,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5973</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>YAPEYU 938</t>
+          <t>PALOS 432</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807129372</t>
+          <t>807168105</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -41574,7 +41726,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Columna Picada, tambien resolver cables panseados y cortados reclaman ambas cosas</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -41596,14 +41748,14 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.4212</v>
+        <v>-58.362579</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.623575</v>
+        <v>-34.635096</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -41615,7 +41767,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>5973</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -41625,17 +41777,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PALOS 432</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807168105</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -41650,7 +41802,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -41658,7 +41810,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -41668,30 +41820,30 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.362579</v>
+        <v>-58.487371</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.635096</v>
+        <v>-34.640099</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5997</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -41701,17 +41853,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>MARMOL, JOSE 256</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807187768</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -41726,7 +41878,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -41734,7 +41886,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -41744,30 +41896,30 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.487371</v>
+        <v>-58.425845</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.640099</v>
+        <v>-34.616562</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -41777,7 +41929,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 256</t>
+          <t>San Juan 3960</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -41787,7 +41939,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>807187768</t>
+          <t>807187860</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -41802,7 +41954,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables con mismo numero de caso</t>
+          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -41824,14 +41976,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.425845</v>
+        <v>-58.420909</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.616562</v>
+        <v>-34.626221</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -41843,17 +41995,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>San Juan 3960</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -41863,7 +42015,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>807187860</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -41878,7 +42030,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Colocar columna contactar a Matias Tapia 1171744701 por si hay alguna duda o problema que surja en el momento ya que es para posterior tendido de ftth</t>
+          <t>Picada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -41900,14 +42052,14 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.420909</v>
+        <v>-58.416477</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.626221</v>
+        <v>-34.61303</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -41919,7 +42071,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>6007</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -41929,7 +42081,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>HUMAHUACA 4435</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -41939,7 +42091,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807215448</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -41976,10 +42128,10 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.416477</v>
+        <v>-58.427424</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.61303</v>
+        <v>-34.601217</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -41995,7 +42147,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>6008</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -42005,7 +42157,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>HUMAHUACA 4435</t>
+          <t>ESTADO DE ISRAEL AV. 4306</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -42015,7 +42167,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>807215448</t>
+          <t>807215455</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -42030,7 +42182,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Picada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -42052,10 +42204,10 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.427424</v>
+        <v>-58.426665</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.601217</v>
+        <v>-34.598019</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -42071,7 +42223,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6008</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -42081,7 +42233,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4306</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -42091,7 +42243,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>807215455</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -42106,7 +42258,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada y mal ubicada coincide con reclamo de cables</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -42128,10 +42280,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.426665</v>
+        <v>-58.425478</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.598019</v>
+        <v>-34.601865</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -42147,27 +42299,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6214</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>GONZALEZ, JOAQUIN V. 2308</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807605710</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -42182,7 +42334,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada coincide con reclamo de cables</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -42190,7 +42342,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -42200,50 +42352,50 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.425478</v>
+        <v>-58.497698</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.601865</v>
+        <v>-34.612038</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6229</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GONZALEZ, JOAQUIN V. 2308</t>
+          <t>ALVAREZ THOMAS AV. 309</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>807605710</t>
+          <t>807762987</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -42258,7 +42410,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Reparar rienda </t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -42266,7 +42418,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -42280,26 +42432,26 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.497698</v>
+        <v>-58.44848</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.612038</v>
+        <v>-34.581338</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6229</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -42309,7 +42461,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 309</t>
+          <t>NEWBERY, JORGE AV. 3416</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -42319,7 +42471,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>807762987</t>
+          <t>807762990</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -42334,7 +42486,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reparar rienda </t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -42356,26 +42508,26 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.44848</v>
+        <v>-58.448496</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.581338</v>
+        <v>-34.58182</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6076</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -42385,17 +42537,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3416</t>
+          <t>MATHEU 727</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>807762990</t>
+          <t>807763063</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -42410,7 +42562,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -42418,60 +42570,60 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo TLC</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.448496</v>
+        <v>-58.400169</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.58182</v>
+        <v>-34.617784</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6076</t>
+          <t>6249</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MATHEU 727</t>
+          <t>GODOY CRUZ 2696</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>807763063</t>
+          <t>807789682</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -42486,7 +42638,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir a base traspaso de nodo propio y posterior a TLC</t>
+          <t>Inclinada posible cambio</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -42499,7 +42651,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -42508,14 +42660,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.400169</v>
+        <v>-58.425296</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.617784</v>
+        <v>-34.578706</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -42527,27 +42679,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6271</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>6/26/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GODOY CRUZ 2696</t>
+          <t>ARGERICH 740</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>807789682</t>
+          <t>807789686</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -42562,7 +42714,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Inclinada posible cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -42584,46 +42736,46 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.425296</v>
+        <v>-58.474467</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.578706</v>
+        <v>-34.624161</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6271</t>
+          <t>-493</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6/26/2025</t>
+          <t>6/27/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ARGERICH 740</t>
+          <t>JUFRE 424</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>807789686</t>
+          <t>807817955</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -42638,7 +42790,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -42646,7 +42798,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -42660,46 +42812,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.474467</v>
+        <v>-58.432644</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.624161</v>
+        <v>-34.595434</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-493</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6/27/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>JUFRE 424</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>807817955</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -42714,7 +42866,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desmontar columna de 168 mm y traspasar redes a columna comunitaria</t>
+          <t>Colocar columna para pedir traspaso</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -42722,12 +42874,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -42736,14 +42888,14 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.432644</v>
+        <v>-58.401827</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.595434</v>
+        <v>-34.617667</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -42755,27 +42907,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6298</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>7/1/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>RIVERA INDARTE AV. 1406</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>807877127</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -42790,7 +42942,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso</t>
+          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -42803,7 +42955,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -42812,14 +42964,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.401827</v>
+        <v>-58.450359</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.617667</v>
+        <v>-34.643582</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -42831,7 +42983,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6298</t>
+          <t>6308</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -42841,17 +42993,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 1406</t>
+          <t>Guayaquil 637</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>807877127</t>
+          <t>807896343</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -42866,7 +43018,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Columna en plantera Se recomienda el retiro riesgo de caida</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -42888,10 +43040,10 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.450359</v>
+        <v>-58.437378</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.643582</v>
+        <v>-34.62116</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -42907,27 +43059,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6308</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7/1/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Guayaquil 637</t>
+          <t>REPUBLICA DE LA INDIA 3106</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>807896343</t>
+          <t>807965776</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -42942,7 +43094,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada e inclinada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -42964,14 +43116,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.437378</v>
+        <v>-58.413941</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.62116</v>
+        <v>-34.57698</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -42983,7 +43135,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>-501</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -42993,7 +43145,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>REPUBLICA DE LA INDIA 3106</t>
+          <t>Cabello 3107</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -43003,7 +43155,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>807965776</t>
+          <t>807971967</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -43018,15 +43170,15 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada e inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -43036,18 +43188,18 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.413941</v>
+        <v>-58.405749</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.57698</v>
+        <v>-34.58224</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -43059,27 +43211,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-501</t>
+          <t>6357</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>7/7/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cabello 3107</t>
+          <t>BACACAY 3088</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>807971967</t>
+          <t>808036196</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -43094,15 +43246,15 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Tensor</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -43116,26 +43268,26 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.405749</v>
+        <v>-58.473179</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.58224</v>
+        <v>-34.629138</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6357</t>
+          <t>-502</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -43145,17 +43297,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BACACAY 3088</t>
+          <t>Tagle 2562</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>808036196</t>
+          <t>808036198</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -43170,7 +43322,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Colocar columna para pedir traspaso nodo teco</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -43178,60 +43330,60 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Tensor</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.473179</v>
+        <v>-58.400188</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.629138</v>
+        <v>-34.583882</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-502</t>
+          <t>6377</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>7/8/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tagle 2562</t>
+          <t>GUARDIA VIEJA 4377</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>808036198</t>
+          <t>808099347</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -43246,7 +43398,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Colocar columna para pedir traspaso nodo teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -43259,7 +43411,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -43268,14 +43420,14 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.400188</v>
+        <v>-58.426322</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.583882</v>
+        <v>-34.600097</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -43287,7 +43439,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>6383</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -43297,17 +43449,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GUARDIA VIEJA 4377</t>
+          <t>FALCON, RAMON L.,CNEL. 1411</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>808099347</t>
+          <t>808099320</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -43344,14 +43496,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.426322</v>
+        <v>-58.448523</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.600097</v>
+        <v>-34.62452</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -43363,17 +43515,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6383</t>
+          <t>-506</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/11/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 1411</t>
+          <t>Espinosa 591</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -43383,7 +43535,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>808099320</t>
+          <t>808150511</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -43411,7 +43563,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -43420,10 +43572,10 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.448523</v>
+        <v>-58.449</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.62452</v>
+        <v>-34.616077</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -43439,27 +43591,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-506</t>
+          <t>-511</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7/11/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Espinosa 591</t>
+          <t>Carlos Melo 491</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>808150511</t>
+          <t>808194932</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -43487,23 +43639,23 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.449</v>
+        <v>-58.363292</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.616077</v>
+        <v>-34.642869</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -43515,17 +43667,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-511</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Carlos Melo 491</t>
+          <t>MONTES DE OCA, MANUEL AV. 1809</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -43535,7 +43687,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>808194932</t>
+          <t>ICD30501825</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -43550,7 +43702,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -43568,14 +43720,14 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.363292</v>
+        <v>-58.372941</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.642869</v>
+        <v>-34.648341</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -43591,27 +43743,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7030</t>
+          <t>-517</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 1809</t>
+          <t>Av Dorrego 2721</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ICD30501825</t>
+          <t>808373635</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -43626,7 +43778,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Colocar columna donde esta el monoducto para acceso a edifciio</t>
+          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -43648,14 +43800,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.372941</v>
+        <v>-58.432805</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.648341</v>
+        <v>-34.574345</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -43667,27 +43819,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-517</t>
+          <t>-529</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/23/2025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Av Dorrego 2721</t>
+          <t>Libertad 820</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>808373635</t>
+          <t>ICD30189941</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -43702,7 +43854,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 base corroida y cable de fo cortado</t>
+          <t>Colocar columna hablar con Pablo si hay dudas</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -43724,14 +43876,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.432805</v>
+        <v>-58.384097</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.574345</v>
+        <v>-34.598913</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -43743,27 +43895,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-529</t>
+          <t>-531</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7/23/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Libertad 820</t>
+          <t>Joaquin V Gonzalez 4632</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ICD30189941</t>
+          <t>808530239</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -43778,7 +43930,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Colocar columna hablar con Pablo si hay dudas</t>
+          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -43800,46 +43952,46 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.384097</v>
+        <v>-58.513643</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.598913</v>
+        <v>-34.594169</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-531</t>
+          <t>6558</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Joaquin V Gonzalez 4632</t>
+          <t>NAZCA 5168</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>808530239</t>
+          <t>808703877</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -43854,7 +44006,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cambiar por prfv y usar esa 114 en Libertad 820</t>
+          <t>Aplomar y corregir caja de empalme colgando</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -43862,7 +44014,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -43876,10 +44028,10 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.513643</v>
+        <v>-58.505593</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.594169</v>
+        <v>-34.582601</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -43895,27 +44047,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6558</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NAZCA 5168</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>808703877</t>
+          <t>808918700</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -43930,7 +44082,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aplomar y corregir caja de empalme colgando</t>
+          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -43938,7 +44090,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -43952,93 +44104,17 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.505593</v>
+        <v>-58.355342</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.582601</v>
+        <v>-34.63565</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>6917</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>8/12/2025</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>BRIN, MINISTRO 1375</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>808918700</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Picada tiene tambien una ot de cableado ver en conjunto</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>-58.355342</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-34.63565</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -50177,7 +50253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56098,7 +56174,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -56108,17 +56184,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -56133,7 +56209,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -56146,23 +56222,23 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.435017</v>
+        <v>-58.373428</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.622044</v>
+        <v>-34.63705</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -56174,7 +56250,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>-568</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -56184,17 +56260,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t>Ameghino 523</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>809208239</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -56209,7 +56285,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada con pelgro de caida</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -56231,46 +56307,46 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.373428</v>
+        <v>-58.488424</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.63705</v>
+        <v>-34.642002</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-568</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ameghino 523</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>809208239</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -56285,7 +56361,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada con pelgro de caida</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -56303,40 +56379,40 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.488424</v>
+        <v>-58.37456</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.642002</v>
+        <v>-34.649779</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -56346,7 +56422,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -56379,14 +56455,14 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.37456</v>
+        <v>-58.37805</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.649779</v>
+        <v>-34.649722</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -56402,17 +56478,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>7090</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 637</t>
+          <t>SAN ANTONIO 625</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -56422,7 +56498,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>809270751</t>
+          <t>809270753</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -56459,10 +56535,10 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.37805</v>
+        <v>-58.378104</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.649722</v>
+        <v>-34.649578</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -56478,7 +56554,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -56488,7 +56564,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 625</t>
+          <t>SUAREZ AV. 1966</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -56498,7 +56574,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>809270753</t>
+          <t>809279022</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -56535,10 +56611,10 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.378104</v>
+        <v>-58.377974</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.649578</v>
+        <v>-34.641024</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -56554,7 +56630,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -56564,17 +56640,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SUAREZ AV. 1966</t>
+          <t>VEDIA, AGUSTIN DE 2185</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>809279022</t>
+          <t>809279069</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -56611,14 +56687,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.377974</v>
+        <v>-58.435511</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.641024</v>
+        <v>-34.644702</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -56630,17 +56706,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>7106</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>9/1/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
+          <t>MARTI, JOSE 627</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -56650,7 +56726,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>809279069</t>
+          <t>809371835</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -56665,7 +56741,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -56687,10 +56763,10 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.435511</v>
+        <v>-58.469159</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.644702</v>
+        <v>-34.638898</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -56698,82 +56774,6 @@
         </is>
       </c>
       <c r="P86" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>7106</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>9/1/2025</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>MARTI, JOSE 627</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>809371835</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>AYKO</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>-58.469159</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-34.638898</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P393"/>
+  <dimension ref="A1:P394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30211,6 +30211,78 @@
       <c r="P393" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>-581</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>9/4/2025</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Praga 1380</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr"/>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>809432814</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I394" t="n">
+        <v>0</v>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M394" t="n">
+        <v>-58.481608</v>
+      </c>
+      <c r="N394" t="n">
+        <v>-34.587837</v>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
@@ -49797,7 +49869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55712,6 +55784,78 @@
       <c r="P78" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>-581</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>9/4/2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Praga 1380</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>809432814</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>-58.481608</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-34.587837</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -13462,7 +13462,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -21286,7 +21286,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -21438,7 +21438,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -49869,7 +49869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52986,27 +52986,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-395</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>POSADAS 1567</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>805707278</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -53043,14 +53043,14 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.387847</v>
+        <v>-58.372751</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.587043</v>
+        <v>-34.631917</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -53062,27 +53062,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-405</t>
+          <t>-395</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5/8/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Arcos 1855</t>
+          <t>POSADAS 1567</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>805791908</t>
+          <t>805707278</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -53097,7 +53097,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -53119,26 +53119,26 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.451835</v>
+        <v>-58.387847</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.562646</v>
+        <v>-34.587043</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-407</t>
+          <t>-405</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -53148,17 +53148,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cabildo 4148</t>
+          <t>Arcos 1855</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>805791933</t>
+          <t>805791908</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -53173,7 +53173,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
+          <t>Cambiar columna 114 picada en base, posee nodo propio.&lt;br&gt;</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -53181,7 +53181,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -53191,18 +53191,18 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.470837</v>
+        <v>-58.451835</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.545751</v>
+        <v>-34.562646</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -53214,7 +53214,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-408</t>
+          <t>-407</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -53224,7 +53224,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Larralde 2847</t>
+          <t>Cabildo 4148</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -53234,7 +53234,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>805791941</t>
+          <t>805791933</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -53249,7 +53249,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar columna 114</t>
+          <t xml:space="preserve">Aplomar columna 168 con rienda a pique </t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -53262,19 +53262,19 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.472267</v>
+        <v>-58.470837</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.551163</v>
+        <v>-34.545751</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -53290,27 +53290,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-421</t>
+          <t>-408</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>5/8/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BESARES 1699</t>
+          <t>Larralde 2847</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>806926565</t>
+          <t>805791941</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -53325,7 +53325,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
+          <t>Aplomar columna 114</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -53333,12 +53333,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -53347,10 +53347,10 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.464144</v>
+        <v>-58.472267</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.541832</v>
+        <v>-34.551163</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -53366,7 +53366,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-430</t>
+          <t>-421</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -53376,17 +53376,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Araoz 606</t>
+          <t>BESARES 1699</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>806926712</t>
+          <t>806926565</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -53401,7 +53401,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
+          <t>Cambiar columna 114 picada en base tener en cuenta que hay acometidas subterraneas que bajan por la columna para entrar en Libertador 8008 tanto de HFC como FTTH colocar medias cañas y colocar cerca para que quedan precintadas a la columna</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -53423,26 +53423,26 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.434761</v>
+        <v>-58.464144</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.598381</v>
+        <v>-34.541832</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-433</t>
+          <t>-430</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -53452,17 +53452,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Moldes 2720</t>
+          <t>Araoz 606</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>806926767</t>
+          <t>806926712</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -53477,7 +53477,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
+          <t>columna base corroida sin riesgo de caída a la fecha. 14/05/2025</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -53495,30 +53495,30 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.464177</v>
+        <v>-58.434761</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.558239</v>
+        <v>-34.598381</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-434</t>
+          <t>-433</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -53528,17 +53528,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Billinghurst 1478</t>
+          <t>Moldes 2720</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>806926806</t>
+          <t>806926767</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -53553,7 +53553,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
+          <t xml:space="preserve">Poste - Pasan 5 lingas y la línea de cobre </t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -53571,50 +53571,50 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.412302</v>
+        <v>-58.464177</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.59301</v>
+        <v>-34.558239</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-448</t>
+          <t>-434</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5/28/2025</t>
+          <t>5/26/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tronador 3826</t>
+          <t>Billinghurst 1478</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>806975699</t>
+          <t>806926806</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -53629,11 +53629,11 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Columna de retención (columna más ancha</t>
+          <t xml:space="preserve">Columna base corroida con Nap y ganancias de ambas compañias, </t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -53651,46 +53651,46 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.485056</v>
+        <v>-58.412302</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.555059</v>
+        <v>-34.59301</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>-448</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5/22/2025</t>
+          <t>5/28/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cucha Cucha 2918</t>
+          <t>Tronador 3826</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>807044223</t>
+          <t>806975699</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -53705,15 +53705,15 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Columna de retención (columna más ancha</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -53727,14 +53727,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.469783</v>
+        <v>-58.485056</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.599214</v>
+        <v>-34.555059</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -53746,27 +53746,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>807044233</t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/22/2025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Martin Grandoli 5761</t>
+          <t>Cucha Cucha 2918</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30261461 </t>
+          <t>807044223</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -53781,7 +53781,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -53789,7 +53789,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -53799,50 +53799,50 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.487144</v>
+        <v>-58.469783</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.669078</v>
+        <v>-34.599214</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-482</t>
+          <t>807044233</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6/18/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Av. Coronel Diaz 2596</t>
+          <t>Martin Grandoli 5761</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>807605730</t>
+          <t xml:space="preserve">ICD30261461 </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -53855,13 +53855,17 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Desmontar columna de 7 en desuso no colocar nueva queda OT 807044233 solo para el cambio ya realizado el ICD es para el desmonte</t>
+        </is>
+      </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -53871,18 +53875,18 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.405761</v>
+        <v>-58.487144</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.582476</v>
+        <v>-34.669078</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -53894,17 +53898,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-486</t>
+          <t>-482</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6/23/2025</t>
+          <t>6/18/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Del Libertador 4596</t>
+          <t>Av. Coronel Diaz 2596</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -53914,7 +53918,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>807762871</t>
+          <t>807605730</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -53927,11 +53931,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
         <v>1</v>
       </c>
@@ -53951,14 +53951,14 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.432241</v>
+        <v>-58.405761</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.56642</v>
+        <v>-34.582476</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -53970,7 +53970,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-487</t>
+          <t>-486</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -53980,7 +53980,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Gorriti 3735</t>
+          <t>Del Libertador 4596</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -53990,7 +53990,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>807762979</t>
+          <t>807762871</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -54005,7 +54005,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -54027,10 +54027,10 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.417348</v>
+        <v>-58.432241</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.595467</v>
+        <v>-34.56642</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -54046,27 +54046,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>-487</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6/24/2025</t>
+          <t>6/23/2025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ECHEANDIA 4200</t>
+          <t>Gorriti 3735</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>807762996</t>
+          <t>807762979</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -54081,7 +54081,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Columna inclinada con base  corroida</t>
+          <t>NAP FTTH Columna MAL ESTADO ROTA EN BASE</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -54099,18 +54099,18 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.472311</v>
+        <v>-58.417348</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.654867</v>
+        <v>-34.595467</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -54122,7 +54122,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-488</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -54132,17 +54132,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Blanco Encalada 4896</t>
+          <t>ECHEANDIA 4200</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>807763099</t>
+          <t>807762996</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -54157,7 +54157,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
+          <t>Columna inclinada con base  corroida</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -54175,50 +54175,50 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.484729</v>
+        <v>-58.472311</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.574614</v>
+        <v>-34.654867</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6409</t>
+          <t>-488</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7/3/2025</t>
+          <t>6/24/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 5656</t>
+          <t>Blanco Encalada 4896</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>807965768</t>
+          <t>807763099</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -54233,7 +54233,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Faltan cargar las fotos del cierre</t>
+          <t>Pendiente traspaso rxo y retiro de columna podrida</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -54251,50 +54251,50 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.479921</v>
+        <v>-58.484729</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.673021</v>
+        <v>-34.574614</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6409</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/3/2025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LARRAZABAL AV. 579</t>
+          <t>CASTAÑARES AV. 5656</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>808373655</t>
+          <t>807965768</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -54309,7 +54309,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>Faltan cargar las fotos del cierre</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -54317,7 +54317,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -54327,40 +54327,40 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.510247</v>
+        <v>-58.479921</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.645038</v>
+        <v>-34.673021</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>6580</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Crisologo Larralde 4073</t>
+          <t>Ciudad de la Paz 3742</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -54370,7 +54370,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>808373627</t>
+          <t>808240230</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -54385,7 +54385,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Cambiar columna corroída en base</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -54407,10 +54407,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.483145</v>
+        <v>-58.470347</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.557043</v>
+        <v>-34.547965</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -54426,27 +54426,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>6486</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Laferrere 6572</t>
+          <t>BILBAO, FRANCISCO 2442</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>808430950</t>
+          <t>808243829</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -54461,7 +54461,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -54483,46 +54483,46 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.496608</v>
+        <v>-58.460522</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.666371</v>
+        <v>-34.635514</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7/25/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SEGUI, JUAN FRANCISCO 4691</t>
+          <t>LARRAZABAL AV. 579</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>808533127</t>
+          <t>808373655</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -54537,7 +54537,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Inclinada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -54555,50 +54555,50 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.422229</v>
+        <v>-58.510247</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.573148</v>
+        <v>-34.645038</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>6695</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>OLAZABAL AV. 4417</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>808373646</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -54613,7 +54613,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -54621,7 +54621,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -54631,40 +54631,40 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.494864</v>
+        <v>-58.478941</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.678826</v>
+        <v>-34.57242</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>7/16/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., Dr. 2964</t>
+          <t>Crisologo Larralde 4073</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -54674,7 +54674,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>808720858</t>
+          <t>808373627</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -54689,7 +54689,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>Cambiar columna corroída en base</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -54711,14 +54711,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.473089</v>
+        <v>-58.483145</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.625478</v>
+        <v>-34.557043</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -54730,27 +54730,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>-521</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
+          <t>Laferrere 6572</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>808733912</t>
+          <t>808430950</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -54765,7 +54765,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Entre edificio 12 y edificio 13 columna corroida en base tambalea</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -54787,36 +54787,36 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.468841</v>
+        <v>-58.496608</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.686635</v>
+        <v>-34.666371</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>6478</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>7/24/2025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>JUJUY AV. 1647</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -54826,7 +54826,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>808509387</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -54841,7 +54841,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -54849,7 +54849,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -54863,10 +54863,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.375684</v>
+        <v>-58.401083</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.656092</v>
+        <v>-34.629397</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -54882,27 +54882,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6960</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>7/25/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 1940</t>
+          <t>SEGUI, JUAN FRANCISCO 4691</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>808972988</t>
+          <t>808533127</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -54917,7 +54917,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -54925,7 +54925,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -54939,14 +54939,14 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.460818</v>
+        <v>-58.422229</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.618934</v>
+        <v>-34.573148</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -54958,27 +54958,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6979</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8/18/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6740</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>809006419</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -54993,7 +54993,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -55001,7 +55001,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -55011,14 +55011,14 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.460441</v>
+        <v>-58.494864</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.628243</v>
+        <v>-34.678826</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -55034,27 +55034,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7072</t>
+          <t>6274</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>ARANGUREN, JUAN F., Dr. 2964</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ICD30519785</t>
+          <t>808720858</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -55064,12 +55064,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -55082,51 +55082,55 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
       <c r="M69" t="n">
-        <v>-58.470919</v>
+        <v>-58.473089</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.665309</v>
+        <v>-34.625478</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PINZON 1578</t>
+          <t xml:space="preserve">GOLETA SARANDI 6050 </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>809195671</t>
+          <t>808733912</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -55163,14 +55167,14 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.373428</v>
+        <v>-58.468841</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.63705</v>
+        <v>-34.686635</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -55182,27 +55186,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-568</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ameghino 523</t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>809208239</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -55217,7 +55221,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Picada con pelgro de caida</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -55225,7 +55229,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -55239,46 +55243,46 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.488424</v>
+        <v>-58.375684</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.642002</v>
+        <v>-34.656092</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>6960</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>VALLESE, FELIPE 1940</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>808972988</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -55293,7 +55297,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -55311,18 +55315,18 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.37456</v>
+        <v>-58.460818</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.649779</v>
+        <v>-34.618934</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -55334,27 +55338,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>6979</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>8/18/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 637</t>
+          <t>RIVADAVIA AV. 6740</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>809270751</t>
+          <t>809006419</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -55369,7 +55373,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Reclaman fuera de plomo ver si es necesario cambio</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -55377,7 +55381,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -55391,14 +55395,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.37805</v>
+        <v>-58.460441</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.649722</v>
+        <v>-34.628243</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -55410,27 +55414,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>7072</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 625</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>809270753</t>
+          <t>ICD30519785</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -55440,12 +55444,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>ICD30462144 fue la colocacion se genera otro para desmonte qap traspaso</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -55458,23 +55462,19 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>-58.378104</v>
+        <v>-58.470919</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.649578</v>
+        <v>-34.665309</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -55486,17 +55486,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SUAREZ AV. 1966</t>
+          <t>PINZON 1578</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -55506,7 +55506,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>809279022</t>
+          <t>809195671</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -55521,7 +55521,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -55543,10 +55543,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.377974</v>
+        <v>-58.373428</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.641024</v>
+        <v>-34.63705</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -55562,27 +55562,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>-568</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
+          <t>Ameghino 523</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>809279069</t>
+          <t>809208239</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -55597,7 +55597,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada con pelgro de caida</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -55619,46 +55619,46 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.435511</v>
+        <v>-58.488424</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.644702</v>
+        <v>-34.642002</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7106</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>9/1/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MARTI, JOSE 627</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>809371835</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -55673,7 +55673,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -55691,18 +55691,18 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.469159</v>
+        <v>-58.37456</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.638898</v>
+        <v>-34.649779</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -55714,27 +55714,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>4088</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GOMEZ, VALENTIN 3648</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>809406164</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -55749,7 +55749,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -55771,14 +55771,14 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.416416</v>
+        <v>-58.37805</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.604812</v>
+        <v>-34.649722</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -55790,70 +55790,450 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>7090</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>8/28/2025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SAN ANTONIO 625</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>809270753</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>-58.378104</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-34.649578</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>7091</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>8/28/2025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SUAREZ AV. 1966</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>809279022</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>-58.377974</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-34.641024</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>7096</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>8/28/2025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>VEDIA, AGUSTIN DE 2185</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>809279069</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>-58.435511</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-34.644702</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>7106</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>9/1/2025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MARTI, JOSE 627</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>809371835</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Poste quebrado cambiar por prfv es un poste viejo ExCV</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>-58.469159</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-34.638898</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4088</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>9/2/2025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>GOMEZ, VALENTIN 3648</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>809406164</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>-58.416416</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-34.604812</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>-581</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>9/4/2025</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Praga 1380</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>809432814</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>AYKO</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>Cambiar</t>
         </is>
       </c>
-      <c r="I79" t="n">
+      <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="M84" t="n">
         <v>-58.481608</v>
       </c>
-      <c r="N79" t="n">
+      <c r="N84" t="n">
         <v>-34.587837</v>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>Paternal</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>
@@ -55870,7 +56250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58083,27 +58463,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6180</t>
+          <t>805707245</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/4/2025</t>
+          <t>5/6/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AZARA 15</t>
+          <t>Soldado de la Independencia 1298</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>805655333</t>
+          <t>805707245</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -58118,7 +58498,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada - Con fuente teco</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -58131,7 +58511,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -58140,36 +58520,36 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.372751</v>
+        <v>-58.440507</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.631917</v>
+        <v>-34.564016</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>805707245</t>
+          <t>805722772</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/6/2025</t>
+          <t>5/7/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Soldado de la Independencia 1298</t>
+          <t>Luis Maria Campos 1336</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -58179,7 +58559,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>805707245</t>
+          <t>805722772</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -58194,7 +58574,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada - Con fuente teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -58207,7 +58587,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -58216,10 +58596,10 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.440507</v>
+        <v>-58.44191</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.564016</v>
+        <v>-34.564245</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -58235,27 +58615,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>805722772</t>
+          <t>807044216</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5/7/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Luis Maria Campos 1336</t>
+          <t>Del Barco Centenera 894</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>805722772</t>
+          <t>807044216</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -58270,7 +58650,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -58288,50 +58668,50 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.44191</v>
+        <v>-58.438744</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.564245</v>
+        <v>-34.629929</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>807044216</t>
+          <t>-507</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Del Barco Centenera 894</t>
+          <t>Tamborini 3291</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>807044216</t>
+          <t>808194229</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -58346,7 +58726,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -58364,30 +58744,30 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.438744</v>
+        <v>-58.473937</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.629929</v>
+        <v>-34.557355</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-507</t>
+          <t>-508</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -58397,7 +58777,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tamborini 3291</t>
+          <t>Moldes 2463</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -58407,7 +58787,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>808194229</t>
+          <t>808194234</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -58435,7 +58815,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -58444,10 +58824,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.473937</v>
+        <v>-58.462281</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.557355</v>
+        <v>-34.560321</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -58463,7 +58843,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-508</t>
+          <t>-509</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -58473,17 +58853,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Moldes 2463</t>
+          <t>Paso 58</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>808194234</t>
+          <t>808194240</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -58511,7 +58891,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -58520,26 +58900,26 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.462281</v>
+        <v>-58.403422</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.560321</v>
+        <v>-34.609195</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-509</t>
+          <t>-510</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -58549,7 +58929,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Paso 58</t>
+          <t>Larrea 590</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -58559,7 +58939,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>808194240</t>
+          <t>808194254</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -58587,7 +58967,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -58596,10 +58976,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.403422</v>
+        <v>-58.402353</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.609195</v>
+        <v>-34.602205</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -58615,27 +58995,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-510</t>
+          <t>-523</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/20/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Larrea 590</t>
+          <t>Luis Maria Campos 585</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>808194254</t>
+          <t>808460898</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -58663,7 +59043,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -58672,14 +59052,14 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.402353</v>
+        <v>-58.434668</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.602205</v>
+        <v>-34.571258</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -58691,27 +59071,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6580</t>
+          <t>-524</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ciudad de la Paz 3742</t>
+          <t>Luis Maria Campos 509</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>808240230</t>
+          <t>808460897</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -58748,36 +59128,36 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.470347</v>
+        <v>-58.434194</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.547965</v>
+        <v>-34.571754</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6486</t>
+          <t>-539</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BILBAO, FRANCISCO 2442</t>
+          <t>Tejedor 1097</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -58787,7 +59167,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>808243829</t>
+          <t>808615951</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -58820,14 +59200,14 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.460522</v>
+        <v>-58.440748</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.635514</v>
+        <v>-34.63245</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -58843,27 +59223,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6695</t>
+          <t>-540</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7/16/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>OLAZABAL AV. 4417</t>
+          <t>Tejedor 1071</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>808373646</t>
+          <t>808615948</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -58900,46 +59280,46 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.478941</v>
+        <v>-58.44037</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.57242</v>
+        <v>-34.632249</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-523</t>
+          <t>-542</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7/20/2025</t>
+          <t>8/1/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Luis Maria Campos 585</t>
+          <t>Cramer 2141</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>808460898</t>
+          <t>808663881</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -58954,7 +59334,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -58976,46 +59356,46 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.434668</v>
+        <v>-58.461582</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.571258</v>
+        <v>-34.564296</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-524</t>
+          <t>-546</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Luis Maria Campos 509</t>
+          <t>Albarellos 3031</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>808460897</t>
+          <t>808720857</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -59052,36 +59432,36 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.434194</v>
+        <v>-58.511732</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.571754</v>
+        <v>-34.578688</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6478</t>
+          <t>-552</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7/24/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>JUJUY AV. 1647</t>
+          <t>Catulo Castillo 2890</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -59091,7 +59471,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>808509387</t>
+          <t>808973183</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -59128,10 +59508,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.401083</v>
+        <v>-58.404058</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.629397</v>
+        <v>-34.634341</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -59147,27 +59527,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-539</t>
+          <t>-553</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7/31/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tejedor 1097</t>
+          <t>Holmberg 4002</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>808615951</t>
+          <t>808973192</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -59182,7 +59562,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Edificio en construcción solicitan correr columna 114 por entrada de garaje 5mts aprox Hablar con Sr Galvan encargado de la Obra</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -59200,50 +59580,50 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.440748</v>
+        <v>-58.487821</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.63245</v>
+        <v>-34.554603</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-540</t>
+          <t>-554</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7/31/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Tejedor 1071</t>
+          <t>Lima Oeste 1697</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>808615948</t>
+          <t>808973197</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -59258,7 +59638,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -59266,7 +59646,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -59276,50 +59656,46 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>-58.44037</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-34.632249</v>
-      </c>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>No ubicado</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>No clasificado, consultar con mantenimiento</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-542</t>
+          <t>-555</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8/1/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cramer 2141</t>
+          <t>Lima Oeste 1649</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>808663881</t>
+          <t>808973201</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -59334,7 +59710,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -59355,390 +59731,14 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>-58.461582</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-34.564296</v>
-      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>No ubicado</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>-546</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>8/5/2025</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Albarellos 3031</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>808720857</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>-58.511732</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-34.578688</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>-552</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>8/14/2025</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Catulo Castillo 2890</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>808973183</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>-58.404058</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-34.634341</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>-553</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>8/14/2025</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Holmberg 4002</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>808973192</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Edificio en construcción solicitan correr columna 114 por entrada de garaje 5mts aprox Hablar con Sr Galvan encargado de la Obra</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>-58.487821</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-34.554603</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>-554</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>8/14/2025</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Lima Oeste 1697</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>808973197</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Columna inclinada</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Aplomo</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>No ubicado</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>No clasificado, consultar con mantenimiento</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>-555</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>8/14/2025</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Lima Oeste 1649</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>808973201</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>No ubicado</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
         <is>
           <t>No clasificado, consultar con mantenimiento</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -24934,7 +24934,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -30297,7 +30297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35746,7 +35746,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6002</t>
+          <t>6921</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -35756,17 +35756,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 832</t>
+          <t>BERUTI 2592</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>808918694</t>
+          <t>808918705</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -35781,7 +35781,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspaso de redes y retiro de columna</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -35803,14 +35803,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.426947</v>
+        <v>-58.402657</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.625698</v>
+        <v>-34.592182</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -35822,7 +35822,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6921</t>
+          <t>7039</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -35832,17 +35832,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BERUTI 2592</t>
+          <t>ESTADOS UNIDOS 2044</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>808918705</t>
+          <t>808918724</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -35857,7 +35857,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Traspaso de redes y retiro de columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -35879,14 +35879,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.402657</v>
+        <v>-58.395142</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.592182</v>
+        <v>-34.619586</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -35898,27 +35898,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7039</t>
+          <t>6998</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ESTADOS UNIDOS 2044</t>
+          <t>ARENALES 3640</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>808918724</t>
+          <t>ICD30449342</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -35928,12 +35928,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -35946,7 +35946,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -35955,14 +35955,14 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.395142</v>
+        <v>-58.413584</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.619586</v>
+        <v>-34.58551</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -35974,7 +35974,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>6999</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -35984,7 +35984,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ARENALES 3640</t>
+          <t>CHARCAS 3986</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -35994,7 +35994,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ICD30449342</t>
+          <t>809065854</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -36004,12 +36004,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Colocar R400 si bien el nodo es de TLC la fuente es nuestra no desestimar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -36022,7 +36022,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -36031,10 +36031,10 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.413584</v>
+        <v>-58.419711</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.58551</v>
+        <v>-34.586299</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6999</t>
+          <t>5625</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -36060,17 +36060,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CHARCAS 3986</t>
+          <t>ACOYTE AV. 184</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>809065854</t>
+          <t>809065913</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -36085,7 +36085,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Inclinada ver cambio</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -36103,18 +36103,18 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.419711</v>
+        <v>-58.437583</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.586299</v>
+        <v>-34.616231</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -36126,27 +36126,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5625</t>
+          <t>-560</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ACOYTE AV. 184</t>
+          <t>Pinzon 1590</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>809065913</t>
+          <t>809098712</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -36161,7 +36161,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Inclinada ver cambio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -36179,18 +36179,18 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.437583</v>
+        <v>-58.373506</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.616231</v>
+        <v>-34.63706</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -36202,27 +36202,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-560</t>
+          <t>7024</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Pinzon 1590</t>
+          <t>SAAVEDRA 869</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>809098712</t>
+          <t>809155616</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -36237,7 +36237,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada mismo caso que 7083</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -36259,10 +36259,10 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.373506</v>
+        <v>-58.402244</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.63706</v>
+        <v>-34.619401</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -36278,17 +36278,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7024</t>
+          <t>7031</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SAAVEDRA 869</t>
+          <t>RIOBAMBA 390</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -36298,7 +36298,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>809155616</t>
+          <t>809195642</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -36313,7 +36313,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Picada mismo caso que 7083</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -36335,14 +36335,14 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.402244</v>
+        <v>-58.393882</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.619401</v>
+        <v>-34.604721</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -36354,7 +36354,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7031</t>
+          <t>7038</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -36364,7 +36364,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>RIOBAMBA 390</t>
+          <t>SARANDI 1011</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -36374,7 +36374,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>809195642</t>
+          <t>809195660</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -36411,14 +36411,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.393882</v>
+        <v>-58.394543</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.604721</v>
+        <v>-34.620732</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -36430,7 +36430,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7038</t>
+          <t>7050</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -36440,17 +36440,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SARANDI 1011</t>
+          <t>PRINGLES 788</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>809195660</t>
+          <t>809195664</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -36483,18 +36483,18 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.394543</v>
+        <v>-58.427206</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.620732</v>
+        <v>-34.602914</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -36506,7 +36506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7050</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -36516,17 +36516,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PRINGLES 788</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>809195664</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -36541,7 +36541,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -36554,7 +36554,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -36563,14 +36563,14 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.427206</v>
+        <v>-58.435017</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.602914</v>
+        <v>-34.622044</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -36582,17 +36582,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>7064</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>GAONA AV. 1189</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -36602,7 +36602,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>809257408</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -36617,7 +36617,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Piden aplomo de columna ver con Pedro si hay que colocar una R400 por tension de la red</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -36630,7 +36630,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -36639,14 +36639,14 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.435017</v>
+        <v>-58.446008</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.622044</v>
+        <v>-34.607602</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -36658,7 +36658,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7064</t>
+          <t>7097</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -36668,17 +36668,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GAONA AV. 1189</t>
+          <t>BONORINO, ESTEBAN, CNEL. AV. 208</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>809257408</t>
+          <t>809279093</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -36693,7 +36693,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Piden aplomo de columna ver con Pedro si hay que colocar una R400 por tension de la red</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -36715,14 +36715,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.446008</v>
+        <v>-58.458659</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.607602</v>
+        <v>-34.630464</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -36734,27 +36734,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7097</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BONORINO, ESTEBAN, CNEL. AV. 208</t>
+          <t>REPETTO, NICOLAS, DR. 93</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>809279093</t>
+          <t>ICD30593982</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -36764,12 +36764,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -36782,7 +36782,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -36791,10 +36791,10 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.458659</v>
+        <v>-58.443232</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.630464</v>
+        <v>-34.620007</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -36810,17 +36810,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>7102</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>8/30/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>REPETTO, NICOLAS, DR. 93</t>
+          <t>AMBERES 995</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -36830,7 +36830,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ICD30593982</t>
+          <t>809309598</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -36840,12 +36840,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -36858,19 +36858,19 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.443232</v>
+        <v>-58.453382</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.620007</v>
+        <v>-34.612707</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -36886,27 +36886,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>7102</t>
+          <t>7112</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>8/30/2025</t>
+          <t>9/1/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>AMBERES 995</t>
+          <t>OLLEROS 2488</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>809309598</t>
+          <t>809371829</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -36921,7 +36921,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar </t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -36939,18 +36939,18 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.453382</v>
+        <v>-58.444214</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.612707</v>
+        <v>-34.571197</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -36962,27 +36962,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7112</t>
+          <t>7120</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>9/1/2025</t>
+          <t>9/2/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>OLLEROS 2488</t>
+          <t>BLANCO ENCALADA 4210</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>809371829</t>
+          <t>ICD30461848</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -36997,7 +36997,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar </t>
+          <t>Colocar R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -37010,55 +37010,55 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.444214</v>
+        <v>-58.477593</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.571197</v>
+        <v>-34.570321</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>7120</t>
+          <t>7136</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>9/3/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>BLANCO ENCALADA 4210</t>
+          <t>FERRARI 455</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ICD30461848</t>
+          <t>809427020</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -37073,7 +37073,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir traspaso de fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -37086,23 +37086,23 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.477593</v>
+        <v>-58.441587</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.570321</v>
+        <v>-34.60547</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -37114,7 +37114,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>7136</t>
+          <t>7150</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -37124,17 +37124,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>FERRARI 455</t>
+          <t>Bartolomé Mitre 3070</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>809427020</t>
+          <t>809427021</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -37149,7 +37149,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -37167,97 +37167,21 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.441587</v>
+        <v>-58.410025</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.60547</v>
+        <v>-34.609184</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>7150</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>9/3/2025</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Bartolomé Mitre 3070</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>809427021</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Cambiar</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>-58.410025</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-34.609184</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -44076,7 +44000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48189,7 +48113,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6910</t>
+          <t>6002</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -48199,17 +48123,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>RIVAS, GRAL. 2345</t>
+          <t>LA PLATA AV. 832</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>808918698</t>
+          <t>808918694</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -48224,7 +48148,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -48246,26 +48170,26 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.482497</v>
+        <v>-58.426947</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.598714</v>
+        <v>-34.625698</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6928</t>
+          <t>6910</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -48275,17 +48199,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3101</t>
+          <t>RIVAS, GRAL. 2345</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>808918710</t>
+          <t>808918698</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -48300,7 +48224,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -48322,10 +48246,10 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.512623</v>
+        <v>-58.482497</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.579137</v>
+        <v>-34.598714</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -48341,7 +48265,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-550</t>
+          <t>6928</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -48351,17 +48275,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fitz roy 267</t>
+          <t>ALBARELLOS AV. 3101</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>808918720</t>
+          <t>808918710</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -48376,7 +48300,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aplomar columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -48398,10 +48322,10 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.451378</v>
+        <v>-58.512623</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.596195</v>
+        <v>-34.579137</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -48417,27 +48341,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6943</t>
+          <t>-550</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SUPERI 1459</t>
+          <t>Fitz roy 267</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>808972965</t>
+          <t>808918720</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -48452,7 +48376,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Poste con base quebrada ver si es posible desmonte</t>
+          <t>Aplomar columna</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -48460,7 +48384,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -48470,18 +48394,18 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.460834</v>
+        <v>-58.451378</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.573753</v>
+        <v>-34.596195</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -48493,7 +48417,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6969</t>
+          <t>6943</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -48503,17 +48427,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 295</t>
+          <t>SUPERI 1459</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>808972995</t>
+          <t>808972965</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -48528,7 +48452,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Poste con base quebrada ver si es posible desmonte</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -48536,7 +48460,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -48546,30 +48470,30 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.441171</v>
+        <v>-58.460834</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.574547</v>
+        <v>-34.573753</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6971</t>
+          <t>6969</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -48579,7 +48503,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MAURE 1594</t>
+          <t>CIUDAD DE LA PAZ 295</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -48589,7 +48513,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>808973001</t>
+          <t>808972995</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -48604,7 +48528,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Ver de traspasar a telecentro y  desmontar ver con inspector</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -48626,10 +48550,10 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.435072</v>
+        <v>-58.441171</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.565732</v>
+        <v>-34.574547</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -48645,17 +48569,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7000</t>
+          <t>6971</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SCALABRINI ORTIZ, RAUL AV. 2106</t>
+          <t>MAURE 1594</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -48665,7 +48589,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>809065867</t>
+          <t>808973001</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -48680,7 +48604,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Ver de traspasar a telecentro y  desmontar ver con inspector</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -48702,10 +48626,10 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.420109</v>
+        <v>-58.435072</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.58764</v>
+        <v>-34.565732</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -48721,7 +48645,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7003</t>
+          <t>7000</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -48731,17 +48655,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MELIAN AV. 2576</t>
+          <t>SCALABRINI ORTIZ, RAUL AV. 2106</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>809065874</t>
+          <t>809065867</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -48778,46 +48702,46 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.471943</v>
+        <v>-58.420109</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.564948</v>
+        <v>-34.58764</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-559</t>
+          <t>7003</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Av. Del Libertador 6736</t>
+          <t>MELIAN AV. 2576</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>809098713</t>
+          <t>809065874</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -48854,14 +48778,14 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.453398</v>
+        <v>-58.471943</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.550238</v>
+        <v>-34.564948</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -48873,17 +48797,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5503</t>
+          <t>-559</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/21/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CRAMER AV. 1771</t>
+          <t>Av. Del Libertador 6736</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -48893,7 +48817,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>809102564</t>
+          <t>809098713</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -48908,7 +48832,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>PIcada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -48930,14 +48854,14 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.458506</v>
+        <v>-58.453398</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.56783</v>
+        <v>-34.550238</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -48949,27 +48873,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7098</t>
+          <t>5503</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/22/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>UGARTE, MANUEL 3484</t>
+          <t>CRAMER AV. 1771</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>809126236</t>
+          <t>809102564</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -48984,7 +48908,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>PIcada</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -49006,10 +48930,10 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.472869</v>
+        <v>-58.458506</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.562</v>
+        <v>-34.56783</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -49025,7 +48949,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7080</t>
+          <t>7098</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -49035,17 +48959,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>UGARTE, MANUEL 2196</t>
+          <t>UGARTE, MANUEL 3484</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>809125906</t>
+          <t>809126236</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -49082,14 +49006,14 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.459402</v>
+        <v>-58.472869</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.555262</v>
+        <v>-34.562</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -49101,7 +49025,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7021</t>
+          <t>7080</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -49111,17 +49035,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>VERA 445</t>
+          <t>UGARTE, MANUEL 2196</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>809155622</t>
+          <t>809125906</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -49136,7 +49060,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Correrla para sacarla del cantero</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -49158,36 +49082,36 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.437181</v>
+        <v>-58.459402</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.5995</v>
+        <v>-34.555262</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6465</t>
+          <t>7021</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>AGUIRRE 368</t>
+          <t>VERA 445</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -49197,7 +49121,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>809268249</t>
+          <t>809155622</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -49212,7 +49136,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Correrla para sacarla del cantero</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -49234,10 +49158,10 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.434651</v>
+        <v>-58.437181</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.598814</v>
+        <v>-34.5995</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -49253,7 +49177,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7095</t>
+          <t>6465</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -49263,7 +49187,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SAN MARTIN AV. 4515</t>
+          <t>AGUIRRE 368</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -49273,7 +49197,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>809268240</t>
+          <t>809268249</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -49288,7 +49212,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Columna chocada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -49306,30 +49230,30 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.483415</v>
+        <v>-58.434651</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.597663</v>
+        <v>-34.598814</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-575</t>
+          <t>7095</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -49339,17 +49263,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Amenabar 3064</t>
+          <t>SAN MARTIN AV. 4515</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>809281299</t>
+          <t>809268240</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -49364,7 +49288,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna chocada</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -49382,18 +49306,18 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.465984</v>
+        <v>-58.483415</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.554869</v>
+        <v>-34.597663</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -49405,27 +49329,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-576</t>
+          <t>-575</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Av. Boyacá 2030</t>
+          <t>Amenabar 3064</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>809309606</t>
+          <t>809281299</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -49462,14 +49386,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.471173</v>
+        <v>-58.465984</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.60704</v>
+        <v>-34.554869</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -49481,27 +49405,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7111</t>
+          <t>-576</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>9/1/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>VILELA 3699</t>
+          <t>Av. Boyacá 2030</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>809371823</t>
+          <t>809309606</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -49516,7 +49440,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -49534,18 +49458,18 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.482817</v>
+        <v>-58.471173</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.550845</v>
+        <v>-34.60704</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -49557,17 +49481,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7118</t>
+          <t>7111</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>9/1/2025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUBAS, JOSE 2211</t>
+          <t>VILELA 3699</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -49577,7 +49501,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>809406168</t>
+          <t>809371823</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -49592,7 +49516,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar </t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -49610,18 +49534,18 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.492448</v>
+        <v>-58.482817</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.58372</v>
+        <v>-34.550845</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -49633,7 +49557,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-577</t>
+          <t>7118</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -49643,17 +49567,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Manuel Ugarte 2318</t>
+          <t>CUBAS, JOSE 2211</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>809406177</t>
+          <t>809406168</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -49690,14 +49614,14 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.460635</v>
+        <v>-58.492448</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.555932</v>
+        <v>-34.58372</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -49709,7 +49633,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-578</t>
+          <t>-577</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -49719,7 +49643,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Pedro I Rivera 2536</t>
+          <t>Manuel Ugarte 2318</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -49729,7 +49653,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>809406189</t>
+          <t>809406177</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -49766,10 +49690,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.462327</v>
+        <v>-58.460635</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.557565</v>
+        <v>-34.555932</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -49785,74 +49709,150 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>-578</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>9/2/2025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Pedro I Rivera 2536</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>809406189</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>-58.462327</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-34.557565</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>-579</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>9/2/2025</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Pedro Rivera 2546</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>ICD30612785</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>NEW</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>Colocar R200 para pedir traspaso de equipos</t>
         </is>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>Nodo Teco</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="M77" t="n">
         <v>-58.462479</v>
       </c>
-      <c r="N76" t="n">
+      <c r="N77" t="n">
         <v>-34.55765</v>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>Saavedra</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P389"/>
+  <dimension ref="A1:P390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29901,6 +29901,82 @@
         </is>
       </c>
       <c r="P389" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>-582</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>9/4/2025</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Vilela 4019</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>809454353</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Poste telefonico propio quebrado en base</t>
+        </is>
+      </c>
+      <c r="I390" t="n">
+        <v>1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M390" t="n">
+        <v>-58.485872</v>
+      </c>
+      <c r="N390" t="n">
+        <v>-34.552645</v>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P390" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>
@@ -43316,7 +43392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49321,6 +49397,82 @@
         </is>
       </c>
       <c r="P79" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>-582</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>9/4/2025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Vilela 4019</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>809454353</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Poste telefonico propio quebrado en base</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>-58.485872</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-34.552645</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P387"/>
+  <dimension ref="A1:P389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29751,6 +29751,158 @@
       <c r="P387" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>-583</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>9/8/2025</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Av Eva Perón 1145</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>809504290</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I388" t="n">
+        <v>1</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M388" t="n">
+        <v>-58.441547</v>
+      </c>
+      <c r="N388" t="n">
+        <v>-34.630481</v>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>-584</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>9/8/2025</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>General Gregorio Aráoz de Lamadrid 865</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>809504300</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Columna colgando</t>
+        </is>
+      </c>
+      <c r="I389" t="n">
+        <v>1</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M389" t="n">
+        <v>-58.364566</v>
+      </c>
+      <c r="N389" t="n">
+        <v>-34.639404</v>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
@@ -49033,7 +49185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P83"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55324,6 +55476,158 @@
       <c r="P83" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>-583</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>9/8/2025</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Av Eva Perón 1145</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>809504290</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>-58.441547</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-34.630481</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>-584</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>9/8/2025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>General Gregorio Aráoz de Lamadrid 865</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>809504300</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Columna colgando</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>-58.364566</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-34.639404</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P389"/>
+  <dimension ref="A1:P390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29901,6 +29901,82 @@
         </is>
       </c>
       <c r="P389" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>-585</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>9/8/2025</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Rio Cuarto 3267</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>Pendente ADM</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Desmonte de columna</t>
+        </is>
+      </c>
+      <c r="I390" t="n">
+        <v>1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M390" t="n">
+        <v>-58.39368</v>
+      </c>
+      <c r="N390" t="n">
+        <v>-34.652663</v>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P390" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -29917,7 +29993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36726,6 +36802,82 @@
         </is>
       </c>
       <c r="P90" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>-585</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>9/8/2025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Rio Cuarto 3267</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Pendente ADM</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Desmonte de columna</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>-58.39368</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-34.652663</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P394"/>
+  <dimension ref="A1:P393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25889,32 +25889,32 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>-560</t>
+          <t>5503</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/22/2025</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Pinzon 1590</t>
+          <t>CRAMER AV. 1771</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>809098712</t>
+          <t>809102564</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -25924,7 +25924,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>PIcada</t>
         </is>
       </c>
       <c r="I337" t="n">
@@ -25946,46 +25946,46 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>-58.373506</v>
+        <v>-58.458506</v>
       </c>
       <c r="N337" t="n">
-        <v>-34.63706</v>
+        <v>-34.56783</v>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P337" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>5503</t>
+          <t>7098</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>CRAMER AV. 1771</t>
+          <t>UGARTE, MANUEL 3484</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>809102564</t>
+          <t>809126236</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -26000,7 +26000,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>PIcada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I338" t="n">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>-58.458506</v>
+        <v>-58.472869</v>
       </c>
       <c r="N338" t="n">
-        <v>-34.56783</v>
+        <v>-34.562</v>
       </c>
       <c r="O338" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>7098</t>
+          <t>7080</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -26051,17 +26051,17 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>UGARTE, MANUEL 3484</t>
+          <t>UGARTE, MANUEL 2196</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>809126236</t>
+          <t>809125906</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -26098,14 +26098,14 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>-58.472869</v>
+        <v>-58.459402</v>
       </c>
       <c r="N339" t="n">
-        <v>-34.562</v>
+        <v>-34.555262</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P339" t="inlineStr">
@@ -26117,7 +26117,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>7080</t>
+          <t>7024</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -26127,22 +26127,22 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>UGARTE, MANUEL 2196</t>
+          <t>SAAVEDRA 869</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>809125906</t>
+          <t>809155616</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -26152,7 +26152,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada mismo caso que 7083</t>
         </is>
       </c>
       <c r="I340" t="n">
@@ -26174,26 +26174,26 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>-58.459402</v>
+        <v>-58.402244</v>
       </c>
       <c r="N340" t="n">
-        <v>-34.555262</v>
+        <v>-34.619401</v>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P340" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>7024</t>
+          <t>7021</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -26203,22 +26203,22 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>SAAVEDRA 869</t>
+          <t>VERA 445</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>809155616</t>
+          <t>809155622</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -26228,7 +26228,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Picada mismo caso que 7083</t>
+          <t>Correrla para sacarla del cantero</t>
         </is>
       </c>
       <c r="I341" t="n">
@@ -26250,14 +26250,14 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>-58.402244</v>
+        <v>-58.437181</v>
       </c>
       <c r="N341" t="n">
-        <v>-34.619401</v>
+        <v>-34.5995</v>
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P341" t="inlineStr">
@@ -26269,7 +26269,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>7021</t>
+          <t>809156751</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -26279,22 +26279,22 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>VERA 445</t>
+          <t>Av San Martín 5045</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>809155622</t>
+          <t>809156751</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -26304,11 +26304,11 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Correrla para sacarla del cantero</t>
+          <t>aplomar o cambiar poste de 11 con rienda a pique</t>
         </is>
       </c>
       <c r="I342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J342" t="inlineStr">
         <is>
@@ -26322,30 +26322,30 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>-58.437181</v>
+        <v>-58.489141</v>
       </c>
       <c r="N342" t="n">
-        <v>-34.5995</v>
+        <v>-34.597221</v>
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P342" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>809156751</t>
+          <t>7149</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -26355,22 +26355,22 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Av San Martín 5045</t>
+          <t>QUITO 3666</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>809156751</t>
+          <t>809168441</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -26380,11 +26380,11 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>aplomar o cambiar poste de 11 con rienda a pique</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J343" t="inlineStr">
         <is>
@@ -26398,30 +26398,30 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>-58.489141</v>
+        <v>-58.41791</v>
       </c>
       <c r="N343" t="n">
-        <v>-34.597221</v>
+        <v>-34.616706</v>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>7149</t>
+          <t>-565</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -26431,7 +26431,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>QUITO 3666</t>
+          <t>Venezuela 3888</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -26441,12 +26441,12 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>809168441</t>
+          <t>809168446</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -26456,7 +26456,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>PIcada</t>
         </is>
       </c>
       <c r="I344" t="n">
@@ -26478,10 +26478,10 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>-58.41791</v>
+        <v>-58.420309</v>
       </c>
       <c r="N344" t="n">
-        <v>-34.616706</v>
+        <v>-34.61767</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
@@ -26497,32 +26497,32 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>-565</t>
+          <t>7031</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Venezuela 3888</t>
+          <t>RIOBAMBA 390</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>809168446</t>
+          <t>809195642</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -26532,7 +26532,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>PIcada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I345" t="n">
@@ -26554,10 +26554,10 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>-58.420309</v>
+        <v>-58.393882</v>
       </c>
       <c r="N345" t="n">
-        <v>-34.61767</v>
+        <v>-34.604721</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>7031</t>
+          <t>7038</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -26583,7 +26583,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>RIOBAMBA 390</t>
+          <t>SARANDI 1011</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -26593,7 +26593,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>809195642</t>
+          <t>809195660</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -26630,14 +26630,14 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>-58.393882</v>
+        <v>-58.394543</v>
       </c>
       <c r="N346" t="n">
-        <v>-34.604721</v>
+        <v>-34.620732</v>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P346" t="inlineStr">
@@ -26649,7 +26649,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>7038</t>
+          <t>7050</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -26659,17 +26659,17 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>SARANDI 1011</t>
+          <t>PRINGLES 788</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>809195660</t>
+          <t>809195664</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -26702,18 +26702,18 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>-58.394543</v>
+        <v>-58.427206</v>
       </c>
       <c r="N347" t="n">
-        <v>-34.620732</v>
+        <v>-34.602914</v>
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P347" t="inlineStr">
@@ -26725,7 +26725,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>7050</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -26735,17 +26735,17 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>PRINGLES 788</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>809195664</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -26755,12 +26755,12 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I348" t="n">
@@ -26773,7 +26773,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -26782,14 +26782,14 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>-58.427206</v>
+        <v>-58.435017</v>
       </c>
       <c r="N348" t="n">
-        <v>-34.602914</v>
+        <v>-34.622044</v>
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P348" t="inlineStr">
@@ -26801,17 +26801,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>7064</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>GAONA AV. 1189</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -26821,7 +26821,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>809257408</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -26831,12 +26831,12 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Piden aplomo de columna ver con Pedro si hay que colocar una R400 por tension de la red</t>
         </is>
       </c>
       <c r="I349" t="n">
@@ -26849,7 +26849,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -26858,14 +26858,14 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>-58.435017</v>
+        <v>-58.446008</v>
       </c>
       <c r="N349" t="n">
-        <v>-34.622044</v>
+        <v>-34.607602</v>
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P349" t="inlineStr">
@@ -26877,32 +26877,32 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>7064</t>
+          <t>-569</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>GAONA AV. 1189</t>
+          <t>Palpa 2862</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>809257408</t>
+          <t>809257759</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -26912,7 +26912,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Piden aplomo de columna ver con Pedro si hay que colocar una R400 por tension de la red</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I350" t="n">
@@ -26930,30 +26930,30 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>-58.446008</v>
+        <v>-58.449512</v>
       </c>
       <c r="N350" t="n">
-        <v>-34.607602</v>
+        <v>-34.573404</v>
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P350" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>-569</t>
+          <t>7157</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -26963,22 +26963,22 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Palpa 2862</t>
+          <t>CALVO, CARLOS 1750</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>809257759</t>
+          <t>809257762</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -27010,26 +27010,26 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>-58.449512</v>
+        <v>-58.390806</v>
       </c>
       <c r="N351" t="n">
-        <v>-34.573404</v>
+        <v>-34.620213</v>
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P351" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>7157</t>
+          <t>-571</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -27039,22 +27039,22 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 1750</t>
+          <t>Alberti 1603</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>809257762</t>
+          <t>809257763</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -27086,10 +27086,10 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>-58.390806</v>
+        <v>-58.39992</v>
       </c>
       <c r="N352" t="n">
-        <v>-34.620213</v>
+        <v>-34.628742</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
@@ -27105,7 +27105,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>-571</t>
+          <t>-572</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -27115,7 +27115,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Alberti 1603</t>
+          <t>JUJUY 1633</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -27125,7 +27125,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>809257763</t>
+          <t>809257764</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -27162,10 +27162,10 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>-58.39992</v>
+        <v>-58.401125</v>
       </c>
       <c r="N353" t="n">
-        <v>-34.628742</v>
+        <v>-34.629165</v>
       </c>
       <c r="O353" t="inlineStr">
         <is>
@@ -27181,17 +27181,17 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>-572</t>
+          <t>7088</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>JUJUY 1633</t>
+          <t>HERRERA 1998</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -27201,12 +27201,12 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>809257764</t>
+          <t>809268244</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -27216,7 +27216,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I354" t="n">
@@ -27234,14 +27234,14 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>-58.401125</v>
+        <v>-58.37456</v>
       </c>
       <c r="N354" t="n">
-        <v>-34.629165</v>
+        <v>-34.649779</v>
       </c>
       <c r="O354" t="inlineStr">
         <is>
@@ -27257,7 +27257,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>7088</t>
+          <t>6465</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -27267,22 +27267,22 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>HERRERA 1998</t>
+          <t>AGUIRRE 368</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>809268244</t>
+          <t>809268249</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -27292,7 +27292,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I355" t="n">
@@ -27310,18 +27310,18 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>-58.37456</v>
+        <v>-58.434651</v>
       </c>
       <c r="N355" t="n">
-        <v>-34.649779</v>
+        <v>-34.598814</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P355" t="inlineStr">
@@ -27333,7 +27333,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>6465</t>
+          <t>7095</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -27343,7 +27343,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>AGUIRRE 368</t>
+          <t>SAN MARTIN AV. 4515</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -27353,7 +27353,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>809268249</t>
+          <t>809268240</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -27368,7 +27368,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna chocada</t>
         </is>
       </c>
       <c r="I356" t="n">
@@ -27386,30 +27386,30 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>-58.434651</v>
+        <v>-58.483415</v>
       </c>
       <c r="N356" t="n">
-        <v>-34.598814</v>
+        <v>-34.597663</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P356" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>7095</t>
+          <t>-573</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -27419,22 +27419,22 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>SAN MARTIN AV. 4515</t>
+          <t>Juramento 5211</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>809268240</t>
+          <t>809268259</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -27444,7 +27444,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Columna chocada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I357" t="n">
@@ -27462,14 +27462,14 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>-58.483415</v>
+        <v>-58.484108</v>
       </c>
       <c r="N357" t="n">
-        <v>-34.597663</v>
+        <v>-34.579014</v>
       </c>
       <c r="O357" t="inlineStr">
         <is>
@@ -27485,7 +27485,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>-573</t>
+          <t>7171</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -27495,7 +27495,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Juramento 5211</t>
+          <t>OLAZABAL AV. 5531</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -27505,12 +27505,12 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>809268259</t>
+          <t>809268253</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -27542,10 +27542,10 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>-58.484108</v>
+        <v>-58.491028</v>
       </c>
       <c r="N358" t="n">
-        <v>-34.579014</v>
+        <v>-34.579381</v>
       </c>
       <c r="O358" t="inlineStr">
         <is>
@@ -27561,27 +27561,27 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>7171</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/27/2025</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>OLAZABAL AV. 5531</t>
+          <t>SAN ANTONIO 637</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>809268253</t>
+          <t>809270751</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -27596,7 +27596,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I359" t="n">
@@ -27618,36 +27618,36 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>-58.491028</v>
+        <v>-58.37805</v>
       </c>
       <c r="N359" t="n">
-        <v>-34.579381</v>
+        <v>-34.649722</v>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P359" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>7090</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>8/27/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 637</t>
+          <t>SAN ANTONIO 625</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -27657,7 +27657,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>809270751</t>
+          <t>809270753</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>-58.37805</v>
+        <v>-58.378104</v>
       </c>
       <c r="N360" t="n">
-        <v>-34.649722</v>
+        <v>-34.649578</v>
       </c>
       <c r="O360" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>7090</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -27723,7 +27723,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 625</t>
+          <t>SUAREZ AV. 1966</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -27733,7 +27733,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>809270753</t>
+          <t>809279022</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -27770,10 +27770,10 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>-58.378104</v>
+        <v>-58.377974</v>
       </c>
       <c r="N361" t="n">
-        <v>-34.649578</v>
+        <v>-34.641024</v>
       </c>
       <c r="O361" t="inlineStr">
         <is>
@@ -27789,7 +27789,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -27799,17 +27799,17 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>SUAREZ AV. 1966</t>
+          <t>VEDIA, AGUSTIN DE 2185</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>809279022</t>
+          <t>809279069</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -27846,14 +27846,14 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>-58.377974</v>
+        <v>-58.435511</v>
       </c>
       <c r="N362" t="n">
-        <v>-34.641024</v>
+        <v>-34.644702</v>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P362" t="inlineStr">
@@ -27865,7 +27865,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>7097</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -27875,7 +27875,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>VEDIA, AGUSTIN DE 2185</t>
+          <t>BONORINO, ESTEBAN, CNEL. AV. 208</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -27885,12 +27885,12 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>809279069</t>
+          <t>809279093</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -27900,7 +27900,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I363" t="n">
@@ -27918,14 +27918,14 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>-58.435511</v>
+        <v>-58.458659</v>
       </c>
       <c r="N363" t="n">
-        <v>-34.644702</v>
+        <v>-34.630464</v>
       </c>
       <c r="O363" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>7097</t>
+          <t>-575</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -27951,22 +27951,22 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>BONORINO, ESTEBAN, CNEL. AV. 208</t>
+          <t>Amenabar 3064</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>809279093</t>
+          <t>809281299</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -27994,65 +27994,65 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>-58.458659</v>
+        <v>-58.465984</v>
       </c>
       <c r="N364" t="n">
-        <v>-34.630464</v>
+        <v>-34.554869</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P364" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>-575</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Amenabar 3064</t>
+          <t>REPETTO, NICOLAS, DR. 93</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>809281299</t>
+          <t>ICD30593982</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
         </is>
       </c>
       <c r="I365" t="n">
@@ -28065,45 +28065,45 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>-58.465984</v>
+        <v>-58.443232</v>
       </c>
       <c r="N365" t="n">
-        <v>-34.554869</v>
+        <v>-34.620007</v>
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P365" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>7102</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>8/30/2025</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>REPETTO, NICOLAS, DR. 93</t>
+          <t>AMBERES 995</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -28113,7 +28113,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>ICD30593982</t>
+          <t>809309598</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -28123,12 +28123,12 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I366" t="n">
@@ -28141,19 +28141,19 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>-58.443232</v>
+        <v>-58.453382</v>
       </c>
       <c r="N366" t="n">
-        <v>-34.620007</v>
+        <v>-34.612707</v>
       </c>
       <c r="O366" t="inlineStr">
         <is>
@@ -28169,32 +28169,32 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>7102</t>
+          <t>-576</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>8/30/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>AMBERES 995</t>
+          <t>Av. Boyacá 2030</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>809309598</t>
+          <t>809309606</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -28226,46 +28226,46 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>-58.453382</v>
+        <v>-58.471173</v>
       </c>
       <c r="N367" t="n">
-        <v>-34.612707</v>
+        <v>-34.60704</v>
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P367" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>-576</t>
+          <t>7111</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/1/2025</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Av. Boyacá 2030</t>
+          <t>VILELA 3699</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>809309606</t>
+          <t>809371823</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -28280,7 +28280,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar </t>
         </is>
       </c>
       <c r="I368" t="n">
@@ -28298,18 +28298,18 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>-58.471173</v>
+        <v>-58.482817</v>
       </c>
       <c r="N368" t="n">
-        <v>-34.60704</v>
+        <v>-34.550845</v>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P368" t="inlineStr">
@@ -28321,7 +28321,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>7111</t>
+          <t>7112</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -28331,22 +28331,22 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>VILELA 3699</t>
+          <t>OLLEROS 2488</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>809371823</t>
+          <t>809371829</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -28378,51 +28378,51 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>-58.482817</v>
+        <v>-58.444214</v>
       </c>
       <c r="N369" t="n">
-        <v>-34.550845</v>
+        <v>-34.571197</v>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P369" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>7112</t>
+          <t>7118</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>9/1/2025</t>
+          <t>9/2/2025</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>OLLEROS 2488</t>
+          <t>CUBAS, JOSE 2211</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>809371829</t>
+          <t>809406168</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -28432,7 +28432,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I370" t="n">
@@ -28450,30 +28450,30 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>-58.444214</v>
+        <v>-58.492448</v>
       </c>
       <c r="N370" t="n">
-        <v>-34.571197</v>
+        <v>-34.58372</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P370" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>7118</t>
+          <t>7120</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -28483,7 +28483,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>CUBAS, JOSE 2211</t>
+          <t>BLANCO ENCALADA 4210</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -28493,12 +28493,12 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>809406168</t>
+          <t>ICD30461848</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -28508,7 +28508,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I371" t="n">
@@ -28521,7 +28521,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -28530,14 +28530,14 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>-58.492448</v>
+        <v>-58.477593</v>
       </c>
       <c r="N371" t="n">
-        <v>-34.58372</v>
+        <v>-34.570321</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P371" t="inlineStr">
@@ -28549,7 +28549,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>7120</t>
+          <t>-577</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -28559,22 +28559,22 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>BLANCO ENCALADA 4210</t>
+          <t>Manuel Ugarte 2318</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>ICD30461848</t>
+          <t>809406177</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -28584,7 +28584,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir traspaso de fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I372" t="n">
@@ -28597,7 +28597,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -28606,14 +28606,14 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>-58.477593</v>
+        <v>-58.460635</v>
       </c>
       <c r="N372" t="n">
-        <v>-34.570321</v>
+        <v>-34.555932</v>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P372" t="inlineStr">
@@ -28625,7 +28625,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>-577</t>
+          <t>-578</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -28635,7 +28635,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Manuel Ugarte 2318</t>
+          <t>Pedro I Rivera 2536</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -28645,7 +28645,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>809406177</t>
+          <t>809406189</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -28682,10 +28682,10 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>-58.460635</v>
+        <v>-58.462327</v>
       </c>
       <c r="N373" t="n">
-        <v>-34.555932</v>
+        <v>-34.557565</v>
       </c>
       <c r="O373" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>-578</t>
+          <t>-579</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -28711,7 +28711,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Pedro I Rivera 2536</t>
+          <t>Pedro Rivera 2546</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -28721,7 +28721,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>809406189</t>
+          <t>ICD30612785</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R200 para pedir traspaso de equipos</t>
         </is>
       </c>
       <c r="I374" t="n">
@@ -28749,7 +28749,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -28758,10 +28758,10 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>-58.462327</v>
+        <v>-58.462479</v>
       </c>
       <c r="N374" t="n">
-        <v>-34.557565</v>
+        <v>-34.55765</v>
       </c>
       <c r="O374" t="inlineStr">
         <is>
@@ -28777,32 +28777,32 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>-579</t>
+          <t>-580</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>9/3/2025</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Pedro Rivera 2546</t>
+          <t>Av Nazca 3985</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>ICD30612785</t>
+          <t>809409491</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -28812,7 +28812,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Colocar R200 para pedir traspaso de equipos</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I375" t="n">
@@ -28825,7 +28825,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -28834,14 +28834,14 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>-58.462479</v>
+        <v>-58.497366</v>
       </c>
       <c r="N375" t="n">
-        <v>-34.55765</v>
+        <v>-34.591544</v>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P375" t="inlineStr">
@@ -28853,7 +28853,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>-580</t>
+          <t>7136</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -28863,7 +28863,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Av Nazca 3985</t>
+          <t>FERRARI 455</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -28873,12 +28873,12 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>809409491</t>
+          <t>809427020</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -28906,14 +28906,14 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>-58.497366</v>
+        <v>-58.441587</v>
       </c>
       <c r="N376" t="n">
-        <v>-34.591544</v>
+        <v>-34.60547</v>
       </c>
       <c r="O376" t="inlineStr">
         <is>
@@ -28929,7 +28929,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>7136</t>
+          <t>7150</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -28939,17 +28939,17 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>FERRARI 455</t>
+          <t>Bartolomé Mitre 3070</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>809427020</t>
+          <t>809427021</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -28964,7 +28964,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I377" t="n">
@@ -28982,55 +28982,51 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>-58.441587</v>
+        <v>-58.410025</v>
       </c>
       <c r="N377" t="n">
-        <v>-34.60547</v>
+        <v>-34.609184</v>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P377" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>7150</t>
+          <t>-581</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>9/3/2025</t>
+          <t>9/4/2025</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Bartolomé Mitre 3070</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>Praga 1380</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr"/>
       <c r="E378" t="inlineStr">
         <is>
-          <t>809427021</t>
+          <t>809432814</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -29044,7 +29040,7 @@
         </is>
       </c>
       <c r="I378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J378" t="inlineStr">
         <is>
@@ -29062,42 +29058,46 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>-58.410025</v>
+        <v>-58.481608</v>
       </c>
       <c r="N378" t="n">
-        <v>-34.609184</v>
+        <v>-34.587837</v>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P378" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>-581</t>
+          <t>7169</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>9/4/2025</t>
+          <t>9/5/2025</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Praga 1380</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr"/>
+          <t>SAN NICOLAS 5045</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>809432814</t>
+          <t>809492980</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -29112,11 +29112,11 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J379" t="inlineStr">
         <is>
@@ -29130,14 +29130,14 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>-58.481608</v>
+        <v>-58.515637</v>
       </c>
       <c r="N379" t="n">
-        <v>-34.587837</v>
+        <v>-34.589993</v>
       </c>
       <c r="O379" t="inlineStr">
         <is>
@@ -29153,27 +29153,27 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>7169</t>
+          <t>-583</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>9/8/2025</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>SAN NICOLAS 5045</t>
+          <t>Av Eva Perón 1145</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>809492980</t>
+          <t>809504290</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -29188,7 +29188,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I380" t="n">
@@ -29206,30 +29206,30 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>-58.515637</v>
+        <v>-58.441547</v>
       </c>
       <c r="N380" t="n">
-        <v>-34.589993</v>
+        <v>-34.630481</v>
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P380" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>-583</t>
+          <t>-585</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -29239,22 +29239,22 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Av Eva Perón 1145</t>
+          <t>Rio Cuarto 3267</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>809504290</t>
+          <t>ICD30704450</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -29264,7 +29264,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmonte de columna</t>
         </is>
       </c>
       <c r="I381" t="n">
@@ -29272,7 +29272,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -29282,18 +29282,18 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>-58.441547</v>
+        <v>-58.39368</v>
       </c>
       <c r="N381" t="n">
-        <v>-34.630481</v>
+        <v>-34.652663</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P381" t="inlineStr">
@@ -29305,7 +29305,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>-585</t>
+          <t>7174</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -29315,22 +29315,22 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Rio Cuarto 3267</t>
+          <t>FERNANDEZ BLANCO 2320</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>ICD30704450</t>
+          <t>809526154</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -29340,7 +29340,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Desmonte de columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I382" t="n">
@@ -29348,7 +29348,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -29358,30 +29358,30 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>-58.39368</v>
+        <v>-58.481983</v>
       </c>
       <c r="N382" t="n">
-        <v>-34.652663</v>
+        <v>-34.573931</v>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P382" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>7174</t>
+          <t>7177</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -29391,7 +29391,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>FERNANDEZ BLANCO 2320</t>
+          <t>LUGONES 2830</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -29401,7 +29401,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>809526154</t>
+          <t>809526156</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -29438,10 +29438,10 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>-58.481983</v>
+        <v>-58.482786</v>
       </c>
       <c r="N383" t="n">
-        <v>-34.573931</v>
+        <v>-34.56748</v>
       </c>
       <c r="O383" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>7177</t>
+          <t>7180</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -29467,22 +29467,22 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>LUGONES 2830</t>
+          <t>GORRITI 4417</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>809526156</t>
+          <t>809526157</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -29514,26 +29514,26 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>-58.482786</v>
+        <v>-58.425358</v>
       </c>
       <c r="N384" t="n">
-        <v>-34.56748</v>
+        <v>-34.593308</v>
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P384" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>7184</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -29543,22 +29543,22 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>GORRITI 4417</t>
+          <t>VALLEJOS 2221</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>809526157</t>
+          <t>809526160</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -29590,26 +29590,26 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>-58.425358</v>
+        <v>-58.493225</v>
       </c>
       <c r="N385" t="n">
-        <v>-34.593308</v>
+        <v>-34.583095</v>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P385" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>7184</t>
+          <t>7186</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -29619,22 +29619,22 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>VALLEJOS 2221</t>
+          <t>NICARAGUA 5510</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>809526160</t>
+          <t>809526162</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -29666,26 +29666,26 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>-58.493225</v>
+        <v>-58.432726</v>
       </c>
       <c r="N386" t="n">
-        <v>-34.583095</v>
+        <v>-34.582328</v>
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P386" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>7186</t>
+          <t>7194</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -29695,17 +29695,17 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>NICARAGUA 5510</t>
+          <t>CASEROS AV. 2032</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>809526162</t>
+          <t>ICD30709299</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -29720,7 +29720,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomo </t>
         </is>
       </c>
       <c r="I387" t="n">
@@ -29728,7 +29728,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -29738,18 +29738,18 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>-58.432726</v>
+        <v>-58.390906</v>
       </c>
       <c r="N387" t="n">
-        <v>-34.582328</v>
+        <v>-34.634312</v>
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P387" t="inlineStr">
@@ -29761,7 +29761,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>7194</t>
+          <t>-586</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -29771,17 +29771,17 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>CASEROS AV. 2032</t>
+          <t>Franklin 666</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>ICD30709299</t>
+          <t>ICD30709119</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -29796,7 +29796,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomo </t>
+          <t>Traspasar redes a la columna de telecentro y desmontar la picada</t>
         </is>
       </c>
       <c r="I388" t="n">
@@ -29804,7 +29804,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -29814,18 +29814,18 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>-58.390906</v>
+        <v>-58.441362</v>
       </c>
       <c r="N388" t="n">
-        <v>-34.634312</v>
+        <v>-34.607784</v>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P388" t="inlineStr">
@@ -29837,7 +29837,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>-586</t>
+          <t>-587</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -29847,22 +29847,22 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Franklin 666</t>
+          <t>ARIAS 4048</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>ICD30709119</t>
+          <t>809526164</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -29872,7 +29872,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Traspasar redes a la columna de telecentro y desmontar la picada</t>
+          <t>Cambiar 114 picada</t>
         </is>
       </c>
       <c r="I389" t="n">
@@ -29880,7 +29880,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -29894,51 +29894,51 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>-58.441362</v>
+        <v>-58.488936</v>
       </c>
       <c r="N389" t="n">
-        <v>-34.607784</v>
+        <v>-34.549005</v>
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P389" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>-587</t>
+          <t>-588</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>9/8/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>ARIAS 4048</t>
+          <t>Uruguay 259</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>809526164</t>
+          <t>809575010</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -29948,7 +29948,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Cambiar 114 picada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I390" t="n">
@@ -29961,7 +29961,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -29970,26 +29970,26 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>-58.488936</v>
+        <v>-58.386393</v>
       </c>
       <c r="N390" t="n">
-        <v>-34.549005</v>
+        <v>-34.605812</v>
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P390" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>-588</t>
+          <t>-589</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -29999,22 +29999,22 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Uruguay 259</t>
+          <t>Balbin 4059</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>809575010</t>
+          <t>809575056</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -30024,7 +30024,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Corrimiento ver con Pablo</t>
         </is>
       </c>
       <c r="I391" t="n">
@@ -30037,35 +30037,35 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>-58.386393</v>
+        <v>-58.48797</v>
       </c>
       <c r="N391" t="n">
-        <v>-34.605812</v>
+        <v>-34.554733</v>
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P391" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>-589</t>
+          <t>-590</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -30075,7 +30075,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Balbin 4059</t>
+          <t>Holmberg 4002</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -30085,7 +30085,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>809575056</t>
+          <t>809575080</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -30118,14 +30118,14 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>-58.48797</v>
+        <v>-58.487821</v>
       </c>
       <c r="N392" t="n">
-        <v>-34.554733</v>
+        <v>-34.554603</v>
       </c>
       <c r="O392" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>-590</t>
+          <t>-591</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -30151,22 +30151,22 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Holmberg 4002</t>
+          <t>Santa Maria de Oro 2730</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>809575080</t>
+          <t>809574969</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -30174,11 +30174,7 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>Corrimiento ver con Pablo</t>
-        </is>
-      </c>
+      <c r="H393" t="inlineStr"/>
       <c r="I393" t="n">
         <v>1</v>
       </c>
@@ -30189,7 +30185,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente TLC</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -30198,89 +30194,17 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>-58.487821</v>
+        <v>-58.422406</v>
       </c>
       <c r="N393" t="n">
-        <v>-34.554603</v>
+        <v>-34.577085</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P393" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>-591</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>9/9/2025</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>Santa Maria de Oro 2730</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>809574969</t>
-        </is>
-      </c>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="G394" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H394" t="inlineStr"/>
-      <c r="I394" t="n">
-        <v>1</v>
-      </c>
-      <c r="J394" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>Fuente TLC</t>
-        </is>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M394" t="n">
-        <v>-58.422406</v>
-      </c>
-      <c r="N394" t="n">
-        <v>-34.577085</v>
-      </c>
-      <c r="O394" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P394" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -30297,7 +30221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35302,27 +35226,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-560</t>
+          <t>7024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8/21/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Pinzon 1590</t>
+          <t>SAAVEDRA 869</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>809098712</t>
+          <t>809155616</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -35337,7 +35261,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada mismo caso que 7083</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -35359,10 +35283,10 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.373506</v>
+        <v>-58.402244</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.63706</v>
+        <v>-34.619401</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -35378,17 +35302,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7024</t>
+          <t>7031</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SAAVEDRA 869</t>
+          <t>RIOBAMBA 390</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -35398,7 +35322,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>809155616</t>
+          <t>809195642</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -35413,7 +35337,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Picada mismo caso que 7083</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -35435,14 +35359,14 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.402244</v>
+        <v>-58.393882</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.619401</v>
+        <v>-34.604721</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -35454,7 +35378,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7031</t>
+          <t>7038</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -35464,7 +35388,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>RIOBAMBA 390</t>
+          <t>SARANDI 1011</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -35474,7 +35398,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>809195642</t>
+          <t>809195660</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -35511,14 +35435,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.393882</v>
+        <v>-58.394543</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.604721</v>
+        <v>-34.620732</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -35530,7 +35454,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7038</t>
+          <t>7050</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -35540,17 +35464,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SARANDI 1011</t>
+          <t>PRINGLES 788</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>809195660</t>
+          <t>809195664</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -35583,18 +35507,18 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.394543</v>
+        <v>-58.427206</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.620732</v>
+        <v>-34.602914</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -35606,7 +35530,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7050</t>
+          <t>7051</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -35616,17 +35540,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PRINGLES 788</t>
+          <t>MORENO, JOSE MARIA AV. 345</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>809195664</t>
+          <t>ICD30508311</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -35636,12 +35560,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -35654,7 +35578,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -35663,14 +35587,14 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.427206</v>
+        <v>-58.435017</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.602914</v>
+        <v>-34.622044</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -35682,17 +35606,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7051</t>
+          <t>7064</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/28/2025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 345</t>
+          <t>GAONA AV. 1189</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -35702,7 +35626,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ICD30508311</t>
+          <t>809257408</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -35712,12 +35636,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Colocar PRFV R400 para pedir traspaso de fuente</t>
+          <t>Piden aplomo de columna ver con Pedro si hay que colocar una R400 por tension de la red</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -35730,7 +35654,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -35739,14 +35663,14 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.435017</v>
+        <v>-58.446008</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.622044</v>
+        <v>-34.607602</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -35758,7 +35682,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7064</t>
+          <t>7097</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -35768,17 +35692,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GAONA AV. 1189</t>
+          <t>BONORINO, ESTEBAN, CNEL. AV. 208</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>809257408</t>
+          <t>809279093</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -35793,7 +35717,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Piden aplomo de columna ver con Pedro si hay que colocar una R400 por tension de la red</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -35815,14 +35739,14 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.446008</v>
+        <v>-58.458659</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.607602</v>
+        <v>-34.630464</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -35834,27 +35758,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7097</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8/28/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BONORINO, ESTEBAN, CNEL. AV. 208</t>
+          <t>REPETTO, NICOLAS, DR. 93</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>809279093</t>
+          <t>ICD30593982</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -35864,12 +35788,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -35882,7 +35806,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -35891,10 +35815,10 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.458659</v>
+        <v>-58.443232</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.630464</v>
+        <v>-34.620007</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -35910,17 +35834,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4698</t>
+          <t>7102</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>8/30/2025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>REPETTO, NICOLAS, DR. 93</t>
+          <t>AMBERES 995</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -35930,7 +35854,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ICD30593982</t>
+          <t>809309598</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -35940,12 +35864,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>traspasar nodo a columna nueva y pasar a retirar entro directamente con la nueva al lado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -35958,19 +35882,19 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.443232</v>
+        <v>-58.453382</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.620007</v>
+        <v>-34.612707</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -35986,27 +35910,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7102</t>
+          <t>7112</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8/30/2025</t>
+          <t>9/1/2025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>AMBERES 995</t>
+          <t>OLLEROS 2488</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>809309598</t>
+          <t>809371829</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -36021,7 +35945,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Cambiar </t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -36039,18 +35963,18 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.453382</v>
+        <v>-58.444214</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.612707</v>
+        <v>-34.571197</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -36062,27 +35986,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7112</t>
+          <t>7120</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>9/1/2025</t>
+          <t>9/2/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>OLLEROS 2488</t>
+          <t>BLANCO ENCALADA 4210</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>809371829</t>
+          <t>ICD30461848</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -36097,7 +36021,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar </t>
+          <t>Colocar R400 para pedir traspaso de fuente</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -36110,55 +36034,55 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.444214</v>
+        <v>-58.477593</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.571197</v>
+        <v>-34.570321</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7120</t>
+          <t>7136</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>9/3/2025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>BLANCO ENCALADA 4210</t>
+          <t>FERRARI 455</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ICD30461848</t>
+          <t>809427020</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -36173,7 +36097,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Colocar R400 para pedir traspaso de fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -36186,23 +36110,23 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.477593</v>
+        <v>-58.441587</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.570321</v>
+        <v>-34.60547</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -36214,7 +36138,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7136</t>
+          <t>7150</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -36224,17 +36148,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>FERRARI 455</t>
+          <t>Bartolomé Mitre 3070</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>809427020</t>
+          <t>809427021</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -36249,7 +36173,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -36267,50 +36191,50 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.441587</v>
+        <v>-58.410025</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.60547</v>
+        <v>-34.609184</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7150</t>
+          <t>-585</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>9/3/2025</t>
+          <t>9/8/2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Bartolomé Mitre 3070</t>
+          <t>Rio Cuarto 3267</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>809427021</t>
+          <t>ICD30704450</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -36325,7 +36249,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Desmonte de columna</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -36333,7 +36257,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -36343,18 +36267,18 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.410025</v>
+        <v>-58.39368</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.609184</v>
+        <v>-34.652663</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -36366,7 +36290,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-585</t>
+          <t>7180</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -36376,17 +36300,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Rio Cuarto 3267</t>
+          <t>GORRITI 4417</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ICD30704450</t>
+          <t>809526157</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -36401,7 +36325,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desmonte de columna</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -36409,7 +36333,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -36419,18 +36343,18 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.39368</v>
+        <v>-58.425358</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.652663</v>
+        <v>-34.593308</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -36442,7 +36366,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>7186</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -36452,7 +36376,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GORRITI 4417</t>
+          <t>NICARAGUA 5510</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -36462,7 +36386,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>809526157</t>
+          <t>809526162</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -36499,10 +36423,10 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.425358</v>
+        <v>-58.432726</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.593308</v>
+        <v>-34.582328</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -36518,7 +36442,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7186</t>
+          <t>7194</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -36528,17 +36452,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NICARAGUA 5510</t>
+          <t>CASEROS AV. 2032</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>809526162</t>
+          <t>ICD30709299</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -36553,7 +36477,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t xml:space="preserve">Aplomo </t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -36561,7 +36485,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -36571,18 +36495,18 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.432726</v>
+        <v>-58.390906</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.582328</v>
+        <v>-34.634312</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -36594,7 +36518,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7194</t>
+          <t>-586</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -36604,17 +36528,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CASEROS AV. 2032</t>
+          <t>Franklin 666</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ICD30709299</t>
+          <t>ICD30709119</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -36629,7 +36553,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aplomo </t>
+          <t>Traspasar redes a la columna de telecentro y desmontar la picada</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -36637,7 +36561,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -36647,97 +36571,21 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.390906</v>
+        <v>-58.441362</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.634312</v>
+        <v>-34.607784</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>-586</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>9/8/2025</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Franklin 666</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>ICD30709119</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>PEBCOM</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Traspasar redes a la columna de telecentro y desmontar la picada</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Desmonte</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>-58.441362</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-34.607784</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P375"/>
+  <dimension ref="A1:P380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27257,7 +27257,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>-580</t>
+          <t>7237</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -27267,7 +27267,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Av Nazca 3985</t>
+          <t>NAZCA 3985</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -27282,7 +27282,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -28169,32 +28169,32 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>-591</t>
+          <t>-592</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/10/2025</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Santa Maria de Oro 2730</t>
+          <t>VARELA 3018</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>809574969</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -28202,7 +28202,11 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr"/>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Desmonte de columna</t>
+        </is>
+      </c>
       <c r="I367" t="n">
         <v>1</v>
       </c>
@@ -28213,7 +28217,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Fuente TLC</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -28222,14 +28226,14 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>-58.422406</v>
+        <v>-58.435989</v>
       </c>
       <c r="N367" t="n">
-        <v>-34.577085</v>
+        <v>-34.657716</v>
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P367" t="inlineStr">
@@ -28241,7 +28245,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>-592</t>
+          <t>-593</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -28251,22 +28255,22 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>VARELA 3018</t>
+          <t>Husares 2250</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>809642176</t>
+          <t>809642190</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -28276,7 +28280,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Corrimiento columna evaluar con Pablo la posicion</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I368" t="n">
@@ -28298,26 +28302,26 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>-58.435989</v>
+        <v>-58.443269</v>
       </c>
       <c r="N368" t="n">
-        <v>-34.657716</v>
+        <v>-34.552209</v>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P368" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>-593</t>
+          <t>-594</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -28327,7 +28331,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Husares 2250</t>
+          <t>Vidal 1861</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -28337,7 +28341,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>809642190</t>
+          <t>809642175</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -28374,14 +28378,14 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>-58.443269</v>
+        <v>-58.458298</v>
       </c>
       <c r="N369" t="n">
-        <v>-34.552209</v>
+        <v>-34.566511</v>
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P369" t="inlineStr">
@@ -28393,32 +28397,32 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>-594</t>
+          <t>7247</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>9/10/2025</t>
+          <t>9/11/2025</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Vidal 1861</t>
+          <t>ARAUJO 3430</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>809642175</t>
+          <t>809687268</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -28450,51 +28454,51 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>-58.458298</v>
+        <v>-58.46866</v>
       </c>
       <c r="N370" t="n">
-        <v>-34.566511</v>
+        <v>-34.669465</v>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P370" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>-595</t>
+          <t>-596</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>9/11/2025</t>
+          <t>9/14/2025</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Araujo 3433</t>
+          <t>Humahuaca 3866</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>809687268</t>
+          <t>809732190</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -28526,14 +28530,14 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>-58.469721</v>
+        <v>-58.418823</v>
       </c>
       <c r="N371" t="n">
-        <v>-34.668753</v>
+        <v>-34.602148</v>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P371" t="inlineStr">
@@ -28545,32 +28549,32 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>-596</t>
+          <t>7218</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>9/14/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Humahuaca 3866</t>
+          <t>SAN NICOLAS 5123</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>809732190</t>
+          <t>809758863</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Sin Asignar</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -28580,7 +28584,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I372" t="n">
@@ -28598,30 +28602,30 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>-58.418823</v>
+        <v>-58.516218</v>
       </c>
       <c r="N372" t="n">
-        <v>-34.602148</v>
+        <v>-34.589343</v>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P372" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>7218</t>
+          <t>7220</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -28631,22 +28635,22 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>SAN NICOLAS 5123</t>
+          <t>GUTENBERG 2901</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>809758863</t>
+          <t>809758870</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>AYKO</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -28656,7 +28660,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I373" t="n">
@@ -28674,14 +28678,14 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>-58.516218</v>
+        <v>-58.496084</v>
       </c>
       <c r="N373" t="n">
-        <v>-34.589343</v>
+        <v>-34.593316</v>
       </c>
       <c r="O373" t="inlineStr">
         <is>
@@ -28697,7 +28701,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>7220</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -28707,22 +28711,22 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>GUTENBERG 2901</t>
+          <t>SANABRIA 4817</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>809758870</t>
+          <t>809758873</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AYKO</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -28732,7 +28736,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Aplomar poste y reparar rienda ver con Pablo si se pude desmontar</t>
         </is>
       </c>
       <c r="I374" t="n">
@@ -28754,10 +28758,10 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>-58.496084</v>
+        <v>-58.520505</v>
       </c>
       <c r="N374" t="n">
-        <v>-34.593316</v>
+        <v>-34.596045</v>
       </c>
       <c r="O374" t="inlineStr">
         <is>
@@ -28773,76 +28777,456 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>7224</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>SANABRIA 4817</t>
+          <t>CABILDO AV. 3950</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>809758873</t>
+          <t>809784515</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>1</v>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M375" t="n">
+        <v>-58.469735</v>
+      </c>
+      <c r="N375" t="n">
+        <v>-34.547232</v>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>9/16/2025</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>AMENABAR 3590</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>809784519</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Reparar rienda y tambien reclaman columna picada pero no se ve la foto verificarla y evaluar cambio</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>1</v>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M376" t="n">
+        <v>-58.470045</v>
+      </c>
+      <c r="N376" t="n">
+        <v>-34.550272</v>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>7229</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>9/16/2025</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>AZURDUY JUANA 2627</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Colocar columna para pedir traspaso de nodo propio</t>
+        </is>
+      </c>
+      <c r="I377" t="n">
+        <v>1</v>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M377" t="n">
+        <v>-58.469008</v>
+      </c>
+      <c r="N377" t="n">
+        <v>-34.552083</v>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>7234</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>9/16/2025</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>MOLDES 3388</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>809784522</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I378" t="n">
+        <v>1</v>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M378" t="n">
+        <v>-58.469426</v>
+      </c>
+      <c r="N378" t="n">
+        <v>-34.552639</v>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>9/16/2025</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>LARRALDE, CRISOLOGO AV. 3875</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>809784524</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
           <t>AYKO</t>
         </is>
       </c>
-      <c r="G375" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>Aplomar poste y reparar rienda ver con Pablo si se pude desmontar</t>
-        </is>
-      </c>
-      <c r="I375" t="n">
-        <v>1</v>
-      </c>
-      <c r="J375" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L375" t="inlineStr">
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I379" t="n">
+        <v>1</v>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
         <is>
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M375" t="n">
-        <v>-58.520505</v>
-      </c>
-      <c r="N375" t="n">
-        <v>-34.596045</v>
-      </c>
-      <c r="O375" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P375" t="inlineStr">
+      <c r="M379" t="n">
+        <v>-58.481316</v>
+      </c>
+      <c r="N379" t="n">
+        <v>-34.556157</v>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P379" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>9/16/2025</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>FERNANDEZ DE LA CRUZ, F., GRAL. AV. 4065</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>809784526</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Columna chocada </t>
+        </is>
+      </c>
+      <c r="I380" t="n">
+        <v>1</v>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M380" t="n">
+        <v>-58.455155</v>
+      </c>
+      <c r="N380" t="n">
+        <v>-34.669378</v>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
@@ -28857,7 +29241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34844,6 +35228,234 @@
       <c r="P79" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>7224</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>9/16/2025</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CABILDO AV. 3950</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>809784515</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Columna inclinada</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Aplomo</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>-58.469735</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-34.547232</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>7225</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>9/16/2025</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>AMENABAR 3590</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>809784519</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Reparar rienda y tambien reclaman columna picada pero no se ve la foto verificarla y evaluar cambio</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>-58.470045</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-34.550272</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>7234</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>9/16/2025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MOLDES 3388</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>809784522</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>-58.469426</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-34.552639</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
@@ -34858,7 +35470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P92"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41315,27 +41927,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7169</t>
+          <t>7237</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>9/3/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SAN NICOLAS 5045</t>
+          <t>NAZCA 3985</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>809492980</t>
+          <t>809409491</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -41350,7 +41962,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Poste quebrado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -41368,14 +41980,14 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.515637</v>
+        <v>-58.497366</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.589993</v>
+        <v>-34.591544</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -41391,27 +42003,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-589</t>
+          <t>7169</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/5/2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Balbin 4059</t>
+          <t>SAN NICOLAS 5045</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>809575056</t>
+          <t>809492980</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -41426,7 +42038,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Corrimiento ver con Pablo</t>
+          <t>Poste quebrado</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -41444,18 +42056,18 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.48797</v>
+        <v>-58.515637</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.554733</v>
+        <v>-34.589993</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -41467,7 +42079,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-590</t>
+          <t>-589</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -41477,7 +42089,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Holmberg 4002</t>
+          <t>Balbin 4059</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -41487,7 +42099,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>809575080</t>
+          <t>809575056</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -41520,14 +42132,14 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.487821</v>
+        <v>-58.48797</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.554603</v>
+        <v>-34.554733</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -41543,27 +42155,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-592</t>
+          <t>-590</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>9/10/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>VARELA 3018</t>
+          <t>Holmberg 4002</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>809642176</t>
+          <t>809575080</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -41578,7 +42190,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Corrimiento columna evaluar con Pablo la posicion</t>
+          <t>Corrimiento ver con Pablo</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -41600,36 +42212,36 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.435989</v>
+        <v>-58.487821</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.657716</v>
+        <v>-34.554603</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-595</t>
+          <t>-592</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>9/11/2025</t>
+          <t>9/10/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Araujo 3433</t>
+          <t>VARELA 3018</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -41639,7 +42251,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>809687268</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -41654,7 +42266,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmonte de columna</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -41676,14 +42288,14 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.469721</v>
+        <v>-58.435989</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.668753</v>
+        <v>-34.657716</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -41695,27 +42307,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>7218</t>
+          <t>7247</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/11/2025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SAN NICOLAS 5123</t>
+          <t>ARAUJO 3430</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>809758863</t>
+          <t>809687268</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -41730,7 +42342,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -41748,99 +42360,327 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.516218</v>
+        <v>-58.46866</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.589343</v>
+        <v>-34.669465</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>7218</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>9/15/2025</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SAN NICOLAS 5123</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>809758863</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Cambiar</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Poste</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>-58.516218</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-34.589343</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>9/15/2025</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>SANABRIA 4817</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>809758873</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>AYKO</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
         <is>
           <t>Aplomar poste y reparar rienda ver con Pablo si se pude desmontar</t>
         </is>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>Terminal</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="M93" t="n">
         <v>-58.520505</v>
       </c>
-      <c r="N92" t="n">
+      <c r="N93" t="n">
         <v>-34.596045</v>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>Paternal</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>9/16/2025</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>LARRALDE, CRISOLOGO AV. 3875</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>809784524</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>-58.481316</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-34.556157</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>7248</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>9/16/2025</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>FERNANDEZ DE LA CRUZ, F., GRAL. AV. 4065</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>809784526</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>AYKO</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Columna chocada </t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>-58.455155</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-34.669378</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
@@ -46381,7 +47221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48662,27 +49502,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-580</t>
+          <t>-588</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9/3/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Av Nazca 3985</t>
+          <t>Uruguay 259</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>809409491</t>
+          <t>809575010</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -48710,7 +49550,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -48719,46 +49559,46 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.497366</v>
+        <v>-58.386393</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.591544</v>
+        <v>-34.605812</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-588</t>
+          <t>-596</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/14/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Uruguay 259</t>
+          <t>Humahuaca 3866</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>809575010</t>
+          <t>809732190</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -48786,7 +49626,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -48795,165 +49635,17 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.386393</v>
+        <v>-58.418823</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.605812</v>
+        <v>-34.602148</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>-591</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>9/9/2025</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Santa Maria de Oro 2730</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>809574969</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Fuente TLC</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>-58.422406</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-34.577085</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>-596</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>9/14/2025</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Humahuaca 3866</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>809732190</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sin Asignar</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>-58.418823</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-34.602148</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
@@ -48970,7 +49662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54443,6 +55135,82 @@
         </is>
       </c>
       <c r="P72" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>7229</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>9/16/2025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>AZURDUY JUANA 2627</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Colocar columna para pedir traspaso de nodo propio</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>-58.469008</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-34.552083</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R380"/>
+  <dimension ref="A1:R384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,7 +637,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>782794907</t>
+          <t>Pendiente de Carga</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -647,10 +647,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Desmontar columna ya traspasaron nodo</t>
+        </is>
+      </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
@@ -33019,6 +33023,350 @@
       <c r="R380" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>-620</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>9/29/2025</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Luis Viale 3098</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>810056875</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>picada</t>
+        </is>
+      </c>
+      <c r="I381" t="n">
+        <v>1</v>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M381" t="n">
+        <v>-58.477413</v>
+      </c>
+      <c r="N381" t="n">
+        <v>-34.620772</v>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q381" t="inlineStr">
+        <is>
+          <t>NRA-M</t>
+        </is>
+      </c>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>-621</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>9/29/2025</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Tres Arroyos 2911</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>810056868</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I382" t="n">
+        <v>1</v>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M382" t="n">
+        <v>-58.476877</v>
+      </c>
+      <c r="N382" t="n">
+        <v>-34.617525</v>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P382" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q382" t="inlineStr">
+        <is>
+          <t>NRA-M</t>
+        </is>
+      </c>
+      <c r="R382" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>-622</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>9/29/2025</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Mariano Acha 2271</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>810056867</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I383" t="n">
+        <v>1</v>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M383" t="n">
+        <v>-58.477338</v>
+      </c>
+      <c r="N383" t="n">
+        <v>-34.571921</v>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P383" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q383" t="inlineStr">
+        <is>
+          <t>ATH-J</t>
+        </is>
+      </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>-623</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>9/29/2025</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Mosconi 3368</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>810061513</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I384" t="n">
+        <v>1</v>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M384" t="n">
+        <v>-58.508377</v>
+      </c>
+      <c r="N384" t="n">
+        <v>-34.590137</v>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q384" t="inlineStr">
+        <is>
+          <t>PUE-N</t>
+        </is>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>ARATO-25058.PO.2PUE</t>
         </is>
       </c>
     </row>
@@ -33238,7 +33586,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>782794907</t>
+          <t>Pendiente de Carga</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -33248,10 +33596,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Desmontar columna ya traspasaron nodo</t>
+        </is>
+      </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
@@ -51555,7 +51907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56792,6 +57144,350 @@
       <c r="R61" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>-620</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>9/29/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Luis Viale 3098</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>810056875</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>picada</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>-58.477413</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-34.620772</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>NRA-M</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>-621</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>9/29/2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Tres Arroyos 2911</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>810056868</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>-58.476877</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-34.617525</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>NRA-M</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>-622</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>9/29/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Mariano Acha 2271</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>810056867</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>-58.477338</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-34.571921</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>ATH-J</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>-623</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>9/29/2025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Mosconi 3368</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>810061513</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>-58.508377</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-34.590137</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>PUE-N</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>ARATO-25058.PO.2PUE</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -32616,7 +32616,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -34577,7 +34577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41950,7 +41950,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7371</t>
+          <t>-627</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -41960,17 +41960,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GORRITI 4527</t>
+          <t>Av San Martin 3231</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>810093630</t>
+          <t>810093647</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -41985,7 +41985,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna chocada</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -42007,56 +42007,56 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.426261</v>
+        <v>-58.469321</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.592587</v>
+        <v>-34.601663</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>VCR-D</t>
+          <t>NRA-F</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.1NRA</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>7378</t>
+          <t>7371</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>10/2/2025</t>
+          <t>10/1/2025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>VINCHINA 1518</t>
+          <t>GORRITI 4527</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>810132548</t>
+          <t>810093630</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -42093,24 +42093,24 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.468128</v>
+        <v>-58.426261</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.648117</v>
+        <v>-34.592587</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>PPT-N</t>
+          <t>VCR-D</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -42122,7 +42122,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7382</t>
+          <t>7378</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -42132,17 +42132,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SARMIENTO 1495</t>
+          <t>VINCHINA 1518</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>810132686</t>
+          <t>810132548</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -42179,24 +42179,24 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.387767</v>
+        <v>-58.468128</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.60532</v>
+        <v>-34.648117</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>CEN-E</t>
+          <t>PPT-N</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -42208,27 +42208,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>7428</t>
+          <t>7382</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10/6/2025</t>
+          <t>10/2/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ALBERDI, JUAN BAUTISTA AV. 1536</t>
+          <t>SARMIENTO 1495</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>810244453</t>
+          <t>810132686</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -42243,7 +42243,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Cambiar inclinada casi por caer</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -42265,14 +42265,14 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>-58.449833</v>
+        <v>-58.387767</v>
       </c>
       <c r="N90" t="n">
-        <v>-34.626444</v>
+        <v>-34.60532</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -42282,7 +42282,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>PCH-A</t>
+          <t>CEN-E</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -42294,7 +42294,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>6404</t>
+          <t>7428</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -42304,17 +42304,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>LARREA 320</t>
+          <t>ALBERDI, JUAN BAUTISTA AV. 1536</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>810244454</t>
+          <t>810244453</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -42329,7 +42329,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar inclinada casi por caer</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -42351,14 +42351,14 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>-58.402105</v>
+        <v>-58.449833</v>
       </c>
       <c r="N91" t="n">
-        <v>-34.606071</v>
+        <v>-34.626444</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -42368,7 +42368,7 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>CLI-D</t>
+          <t>PCH-A</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -42380,27 +42380,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>7442</t>
+          <t>6404</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>10/7/2025</t>
+          <t>10/6/2025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1232</t>
+          <t>LARREA 320</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>810255071</t>
+          <t>810244454</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -42415,7 +42415,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -42437,24 +42437,24 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>-58.448466</v>
+        <v>-58.402105</v>
       </c>
       <c r="N92" t="n">
-        <v>-34.56829</v>
+        <v>-34.606071</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>COG-D</t>
+          <t>CLI-D</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -42466,7 +42466,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>7443</t>
+          <t>7442</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -42476,7 +42476,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CABILDO AV. 1158</t>
+          <t>CABILDO AV. 1232</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -42486,7 +42486,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>810255072</t>
+          <t>810255071</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -42501,7 +42501,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -42523,27 +42523,113 @@
         </is>
       </c>
       <c r="M93" t="n">
+        <v>-58.448466</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-34.56829</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>COG-D</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>7443</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>10/7/2025</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CABILDO AV. 1158</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>810255072</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>-58.447751</v>
       </c>
-      <c r="N93" t="n">
+      <c r="N94" t="n">
         <v>-34.568653</v>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>Colegiales</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
+      <c r="P94" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>
       </c>
-      <c r="Q93" t="inlineStr">
+      <c r="Q94" t="inlineStr">
         <is>
           <t>COG-D</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr">
+      <c r="R94" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
         </is>
@@ -59808,7 +59894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65665,27 +65751,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-627</t>
+          <t>7381</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10/1/2025</t>
+          <t>10/2/2025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Av San Martin 3231</t>
+          <t>HONDURAS 4656</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>810093647</t>
+          <t>810132594</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -65700,7 +65786,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Columna chocada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -65722,36 +65808,36 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.469321</v>
+        <v>-58.426599</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.601663</v>
+        <v>-34.591132</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>NRA-F</t>
+          <t>VCR-F</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.1NRA</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7381</t>
+          <t>7403</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -65761,17 +65847,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>HONDURAS 4656</t>
+          <t>MOLDES 2688</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>810132594</t>
+          <t>810132881</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -65786,7 +65872,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar o desmontar poste ver con inspector</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -65808,24 +65894,24 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.426599</v>
+        <v>-58.463815</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.591132</v>
+        <v>-34.558663</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>VCR-F</t>
+          <t>COG-K</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -65837,27 +65923,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7403</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>10/2/2025</t>
+          <t>10/6/2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MOLDES 2688</t>
+          <t>MERCEDES 3774</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>810132881</t>
+          <t>810244452</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -65872,7 +65958,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Cambiar o desmontar poste ver con inspector</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -65890,18 +65976,18 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.463815</v>
+        <v>-58.511139</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.558663</v>
+        <v>-34.602167</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -65911,96 +65997,10 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>COG-K</t>
+          <t>PUE-P</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
-        <is>
-          <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>7411</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>10/6/2025</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>MERCEDES 3774</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>810244452</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Poste inclinado</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Poste</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>-58.511139</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-34.602167</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>PUE-P</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
         <is>
           <t>ARATO-25058.PO.1PUE</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PEBCOM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Optical_Power" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Propio" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sin_Asignar" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEW" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AYKO" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INCO" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="General" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PEBCOM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Optical_Power" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Propio" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sin_Asignar" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NEW" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="AYKO" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="INCO" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R436"/>
+  <dimension ref="A1:R438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37841,6 +37841,178 @@
         </is>
       </c>
       <c r="R436" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>-662</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>10/30/2025</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>ARIAS 2941</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>810490637</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I437" t="n">
+        <v>1</v>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M437" t="n">
+        <v>-58.478491</v>
+      </c>
+      <c r="N437" t="n">
+        <v>-34.543969</v>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>COG-P</t>
+        </is>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>-663</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>10/30/2025</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>ALBERDI, JUAN BAUTISTA AV. 2693</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Picada con nodo teco</t>
+        </is>
+      </c>
+      <c r="I438" t="n">
+        <v>1</v>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M438" t="n">
+        <v>-58.465679</v>
+      </c>
+      <c r="N438" t="n">
+        <v>-34.63241</v>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>PCH-H</t>
+        </is>
+      </c>
+      <c r="R438" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
         </is>
@@ -54912,7 +55084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62555,6 +62727,178 @@
         </is>
       </c>
       <c r="R89" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>-662</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>10/30/2025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ARIAS 2941</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>810490637</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>-58.478491</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-34.543969</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>COG-P</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>-663</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>10/30/2025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ALBERDI, JUAN BAUTISTA AV. 2693</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Picada con nodo teco</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Nodo Teco</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>-58.465679</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-34.63241</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>PCH-H</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R436"/>
+  <dimension ref="A1:R438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37763,32 +37763,32 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>-664</t>
+          <t>-665</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>10/31/2025</t>
+          <t>11/2/2025</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Mercedes 346</t>
+          <t>BEIRO, FRANCISCO AV. 3926</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>810493536</t>
+          <t>810526256</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>Sin Asignar</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -37798,11 +37798,11 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Estaba chocada pasada por Juli</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J436" t="inlineStr">
         <is>
@@ -37820,10 +37820,10 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>-58.484683</v>
+        <v>-58.507687</v>
       </c>
       <c r="N436" t="n">
-        <v>-34.630456</v>
+        <v>-34.603386</v>
       </c>
       <c r="O436" t="inlineStr">
         <is>
@@ -37837,12 +37837,184 @@
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>DEV-L</t>
+          <t>DEV-C</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.2DEV</t>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>-666</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>11/2/2025</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>ALBERDI, JUAN BAUTISTA AV. 2331</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>810526265</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I437" t="n">
+        <v>1</v>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M437" t="n">
+        <v>-58.460681</v>
+      </c>
+      <c r="N437" t="n">
+        <v>-34.63089</v>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P437" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q437" t="inlineStr">
+        <is>
+          <t>PCH-J</t>
+        </is>
+      </c>
+      <c r="R437" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>-667</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>11/2/2025</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>ALBERDI, JUAN BAUTISTA AV. 2309</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>810526272</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I438" t="n">
+        <v>1</v>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M438" t="n">
+        <v>-58.460356</v>
+      </c>
+      <c r="N438" t="n">
+        <v>-34.630793</v>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>PCH-J</t>
+        </is>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
@@ -46364,7 +46536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R96"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54529,92 +54701,6 @@
       <c r="R95" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>-664</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>10/31/2025</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Mercedes 346</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>810493536</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Estaba chocada pasada por Juli</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>-58.484683</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-34.630456</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>DEV-L</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>ARATO-25058.PO.2DEV</t>
         </is>
       </c>
     </row>
@@ -54826,7 +54912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R90"/>
+  <dimension ref="A1:R93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62555,6 +62641,264 @@
         </is>
       </c>
       <c r="R90" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>-665</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>11/2/2025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>BEIRO, FRANCISCO AV. 3926</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>810526256</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>-58.507687</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-34.603386</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>DEV-C</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>-666</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>11/2/2025</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ALBERDI, JUAN BAUTISTA AV. 2331</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>810526265</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>-58.460681</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-34.63089</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>PCH-J</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>-667</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>11/2/2025</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ALBERDI, JUAN BAUTISTA AV. 2309</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>810526272</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sin Asignar</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>-58.460356</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-34.630793</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>PCH-J</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="PEBCOM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Optical_Power" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Propio" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sin_Asignar" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="NEW" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="AYKO" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="INCO" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PEBCOM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Optical_Power" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Propio" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sin_Asignar" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NEW" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AYKO" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INCO" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -4206,7 +4206,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>INCO</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -62493,7 +62493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R90"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63280,27 +63280,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5884</t>
+          <t>-111</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11/7/2024</t>
+          <t>7/12/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OLLEROS 2952</t>
+          <t>CATAMARCA /ALT/ 1127</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>799450967</t>
+          <t>790298182</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -63315,7 +63315,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Solo retirar columna ya se realizo traspaso</t>
+          <t>Cambio de columna.-</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -63328,7 +63328,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -63337,14 +63337,14 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>-58.447022</v>
+        <v>-58.404265</v>
       </c>
       <c r="N10" t="n">
-        <v>-34.575873</v>
+        <v>-34.623154</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -63354,7 +63354,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>ATH-P</t>
+          <t>CEN-K</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -63366,27 +63366,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4082</t>
+          <t>5884</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12/21/2024</t>
+          <t>11/7/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MERCEDES 254</t>
+          <t>OLLEROS 2952</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>801901755</t>
+          <t>799450967</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -63396,16 +63396,16 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Colocar R200 para pedir traspaso de equipo</t>
+          <t>Solo retirar columna ya se realizo traspaso</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -63423,46 +63423,46 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.484232</v>
+        <v>-58.447022</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.631431</v>
+        <v>-34.575873</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>DEV-L</t>
+          <t>ATH-P</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.2DEV</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/14/2025</t>
+          <t>12/21/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Campana	534</t>
+          <t>MERCEDES 254</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -63472,7 +63472,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>802657454</t>
+          <t>801901755</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -63482,12 +63482,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R200 para pedir traspaso de equipo</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -63500,7 +63500,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -63509,10 +63509,10 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.477376</v>
+        <v>-58.484232</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.626126</v>
+        <v>-34.631431</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -63526,39 +63526,39 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>NRA-R</t>
+          <t>DEV-L</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.2NRA</t>
+          <t>ARATO-25058.PO.2DEV</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/22/2025</t>
+          <t>1/14/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUENCA 3345</t>
+          <t>Campana	534</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>802843289</t>
+          <t>802657454</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -63568,7 +63568,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -63586,7 +63586,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -63595,14 +63595,14 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.496935</v>
+        <v>-58.477376</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.599084</v>
+        <v>-34.626126</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -63612,39 +63612,39 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>PUE-B</t>
+          <t>NRA-R</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.2NRA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5750</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/24/2025</t>
+          <t>1/22/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BRASIL 2561</t>
+          <t>CUENCA 3345</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>802871857</t>
+          <t>802843289</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -63654,12 +63654,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Colocar columna R400 - Fuente Teco</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -63672,7 +63672,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -63681,46 +63681,46 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.400156</v>
+        <v>-58.496935</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.631369</v>
+        <v>-34.599084</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>PPT-F</t>
+          <t>PUE-B</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.1PPT</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>5750</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/30/2025</t>
+          <t>1/24/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RONDEAU 2775</t>
+          <t>BRASIL 2561</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -63730,7 +63730,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>802988219</t>
+          <t>802871857</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -63745,7 +63745,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Relevar</t>
+          <t>Colocar columna R400 - Fuente Teco</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -63758,7 +63758,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -63767,10 +63767,10 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.402062</v>
+        <v>-58.400156</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.635143</v>
+        <v>-34.631369</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -63784,39 +63784,39 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>PPT-K</t>
+          <t>PPT-F</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.1PPT</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4696</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2/10/2025</t>
+          <t>1/30/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>YERBAL 489</t>
+          <t>RONDEAU 2775</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>803607520</t>
+          <t>802988219</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -63831,7 +63831,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desmonte de columna ya traspasaron nodo</t>
+          <t>Relevar</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -63853,14 +63853,14 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.438053</v>
+        <v>-58.402062</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.617481</v>
+        <v>-34.635143</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -63870,7 +63870,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>ALM-G</t>
+          <t>PPT-K</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -63882,17 +63882,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2/14/2025</t>
+          <t>2/10/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CHACO 195</t>
+          <t>YERBAL 489</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -63902,7 +63902,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>803607699</t>
+          <t>803607520</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -63917,7 +63917,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desmontar columna personal propio traspaso nodo</t>
+          <t>Desmonte de columna ya traspasaron nodo</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -63939,10 +63939,10 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.431522</v>
+        <v>-58.438053</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.617523</v>
+        <v>-34.617481</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -63956,7 +63956,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>ALM-F</t>
+          <t>ALM-G</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -63968,27 +63968,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4974</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2/17/2025</t>
+          <t>2/14/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SAN PEDRITO AV. 96</t>
+          <t>CHACO 195</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>803607768</t>
+          <t>803607699</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -64003,7 +64003,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Desmontar columna personal propio traspaso nodo</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -64011,24 +64011,24 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.468938</v>
+        <v>-58.431522</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.632015</v>
+        <v>-34.617523</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -64042,7 +64042,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>PCH-H</t>
+          <t>ALM-F</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -64054,27 +64054,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3/18/2025</t>
+          <t>2/17/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TREINTA Y TRES ORIENTALES 965</t>
+          <t>SAN PEDRITO AV. 96</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804161231</t>
+          <t>803607768</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -64089,7 +64089,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -64097,7 +64097,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -64107,14 +64107,14 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.423042</v>
+        <v>-58.468938</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.625868</v>
+        <v>-34.632015</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -64128,7 +64128,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>ALM-A</t>
+          <t>PCH-H</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -64140,27 +64140,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3/27/2025</t>
+          <t>3/18/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>THAMES 649</t>
+          <t>TREINTA Y TRES ORIENTALES 965</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804309655</t>
+          <t>804161231</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -64170,12 +64170,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -64188,7 +64188,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -64197,14 +64197,14 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.441405</v>
+        <v>-58.423042</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.594348</v>
+        <v>-34.625868</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -64214,7 +64214,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>VCR-H</t>
+          <t>ALM-A</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -64226,7 +64226,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -64236,17 +64236,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 6147</t>
+          <t>THAMES 649</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804309801</t>
+          <t>804309655</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -64259,7 +64259,11 @@
           <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>QAP traspaso fuente propia para posterior pasar a TLC</t>
+        </is>
+      </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
@@ -64279,14 +64283,14 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.483821</v>
+        <v>-58.441405</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.677698</v>
+        <v>-34.594348</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -64296,7 +64300,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>PAV-Q</t>
+          <t>VCR-H</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -64308,27 +64312,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>4179</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>3/27/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SARMIENTO 4290</t>
+          <t>ZELARRAYAN 6147</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>804569065</t>
+          <t>804309801</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -64338,14 +64342,10 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Columna corroída en su base entro tambien como caso 7049</t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
         <v>1</v>
       </c>
@@ -64356,7 +64356,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -64365,14 +64365,14 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.425764</v>
+        <v>-58.483821</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.604359</v>
+        <v>-34.677698</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -64382,7 +64382,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>ALM-L</t>
+          <t>PAV-Q</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -64394,27 +64394,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4/14/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LASTRA AV. 4379</t>
+          <t>SARMIENTO 4290</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>804663677</t>
+          <t>804569065</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -64429,7 +64429,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Columna corroída en su base entro tambien como caso 7049</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -64437,7 +64437,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -64451,56 +64451,56 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.525125</v>
+        <v>-58.425764</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.604668</v>
+        <v>-34.604359</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>DEV-F</t>
+          <t>ALM-L</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.1DEV</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5651</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4/22/2025</t>
+          <t>4/14/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MONTES DE OCA, MANUEL AV. 511</t>
+          <t>LASTRA AV. 4379</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>804876051</t>
+          <t>804663677</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -64515,7 +64515,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Pegar los ductos al prfv</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -64523,7 +64523,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -64537,46 +64537,46 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.375515</v>
+        <v>-58.525125</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.634393</v>
+        <v>-34.604668</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>CON-B</t>
+          <t>DEV-F</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.1DEV</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6180</t>
+          <t>5651</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5/4/2025</t>
+          <t>4/22/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AZARA 15</t>
+          <t>MONTES DE OCA, MANUEL AV. 511</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -64586,7 +64586,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>805655333</t>
+          <t>804876051</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -64601,7 +64601,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Picada entro tambien como reclamo 7611</t>
+          <t>Pegar los ductos al prfv</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -64623,10 +64623,10 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.372751</v>
+        <v>-58.375515</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.631917</v>
+        <v>-34.634393</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -64652,27 +64652,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5839</t>
+          <t>6180</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5/19/2025</t>
+          <t>5/4/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AYACUCHO 267</t>
+          <t>AZARA 15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>806926385</t>
+          <t>805655333</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -64687,7 +64687,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
+          <t>Picada entro tambien como reclamo 7611</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -64700,7 +64700,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -64709,14 +64709,14 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.395063</v>
+        <v>-58.372751</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.606257</v>
+        <v>-34.631917</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -64726,7 +64726,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>CLI-B</t>
+          <t>CON-B</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -64738,7 +64738,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5835</t>
+          <t>5839</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -64748,17 +64748,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>YAPEYU 198</t>
+          <t>AYACUCHO 267</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>806926444</t>
+          <t>806926385</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -64773,7 +64773,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Colocar columna y dar aviso para traspaso de nodo teco</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -64781,12 +64781,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -64795,10 +64795,10 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.421623</v>
+        <v>-58.395063</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.614541</v>
+        <v>-34.606257</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -64812,7 +64812,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>ALM-C</t>
+          <t>CLI-B</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -64824,27 +64824,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>5835</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>5/19/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ALVAREZ THOMAS AV. 3305</t>
+          <t>YAPEYU 198</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>807044131</t>
+          <t>806926444</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -64859,7 +64859,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -64877,28 +64877,28 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.483927</v>
+        <v>-58.421623</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.570689</v>
+        <v>-34.614541</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>PUE-E</t>
+          <t>ALM-C</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -64910,17 +64910,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5938</t>
+          <t>5935</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 4615</t>
+          <t>ALVAREZ THOMAS AV. 3305</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -64930,7 +64930,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>807044154</t>
+          <t>807044131</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -64945,7 +64945,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Columna con base corroída</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -64953,7 +64953,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -64963,18 +64963,18 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.492605</v>
+        <v>-58.483927</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.581454</v>
+        <v>-34.570689</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -64984,7 +64984,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>PUE-K</t>
+          <t>PUE-E</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -64996,7 +64996,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5944</t>
+          <t>5938</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -65006,17 +65006,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
+          <t>DE LOS CONSTITUYENTES AV. 4615</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>807044186</t>
+          <t>807044154</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -65053,24 +65053,24 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.467789</v>
+        <v>-58.492605</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.68463</v>
+        <v>-34.581454</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>PAV-U</t>
+          <t>PUE-K</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -65082,17 +65082,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5944</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MURGUIONDO 3990</t>
+          <t>GARCIA, PEDRO A.,CNEL. 5887</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -65102,7 +65102,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>807129347</t>
+          <t>807044186</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -65117,7 +65117,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>COLUMNA INCLINADA</t>
+          <t>Columna con base corroída</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -65135,14 +65135,14 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.477944</v>
+        <v>-58.467789</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.675149</v>
+        <v>-34.68463</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -65156,7 +65156,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>PAV-V</t>
+          <t>PAV-U</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -65168,27 +65168,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3715</t>
+          <t>5948</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6/4/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EL SERENO 358</t>
+          <t>MURGUIONDO 3990</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>807168098</t>
+          <t>807129347</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -65203,7 +65203,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Poste inclinado</t>
+          <t>COLUMNA INCLINADA</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -65211,7 +65211,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -65221,60 +65221,60 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.487371</v>
+        <v>-58.477944</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.640099</v>
+        <v>-34.675149</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>PCH-S</t>
+          <t>PAV-V</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.2PCH</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6004</t>
+          <t>3715</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6/5/2025</t>
+          <t>6/4/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MAZA 181</t>
+          <t>EL SERENO 358</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>807215439</t>
+          <t>807168098</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -65289,7 +65289,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Poste inclinado</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -65297,50 +65297,50 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.416477</v>
+        <v>-58.487371</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.61303</v>
+        <v>-34.640099</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>CLI-I</t>
+          <t>PCH-S</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.2PCH</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>6004</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -65350,7 +65350,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 771</t>
+          <t>MAZA 181</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -65360,7 +65360,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>807215458</t>
+          <t>807215439</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -65375,7 +65375,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Picada y mal ubicada ver con Pedro</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -65388,7 +65388,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -65397,10 +65397,10 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>-58.425478</v>
+        <v>-58.416477</v>
       </c>
       <c r="N34" t="n">
-        <v>-34.601865</v>
+        <v>-34.61303</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -65414,7 +65414,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>CLI-N</t>
+          <t>CLI-I</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -65426,27 +65426,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6075</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6/9/2025</t>
+          <t>6/5/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ALBERTI 191</t>
+          <t>ESTADO DE PALESTINA 771</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>810533286</t>
+          <t>807215458</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -65461,7 +65461,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desmontar PRFV 400</t>
+          <t>Picada y mal ubicada ver con Pedro</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -65474,7 +65474,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -65483,10 +65483,10 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>-58.401624</v>
+        <v>-58.425478</v>
       </c>
       <c r="N35" t="n">
-        <v>-34.612001</v>
+        <v>-34.601865</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -65500,7 +65500,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>CLI-N</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -65512,17 +65512,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6284</t>
+          <t>6075</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/9/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CHILE 2561</t>
+          <t>ALBERTI 191</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -65532,7 +65532,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>807851584</t>
+          <t>810533286</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -65542,10 +65542,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Desmontar PRFV 400</t>
+        </is>
+      </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
@@ -65556,7 +65560,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -65565,10 +65569,10 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>-58.401827</v>
+        <v>-58.401624</v>
       </c>
       <c r="N36" t="n">
-        <v>-34.617667</v>
+        <v>-34.612001</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -65582,7 +65586,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>CEN-M</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -65594,27 +65598,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7336</t>
+          <t>6284</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8/1/2025</t>
+          <t>6/30/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CRAMER AV. 2141</t>
+          <t>CHILE 2561</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>808663881</t>
+          <t>807851584</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -65624,14 +65628,10 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
-        </is>
-      </c>
+          <t>Pendiente de Traspaso PROPIO</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
         <v>1</v>
       </c>
@@ -65642,7 +65642,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -65651,24 +65651,24 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>-58.461582</v>
+        <v>-58.401827</v>
       </c>
       <c r="N37" t="n">
-        <v>-34.564296</v>
+        <v>-34.617667</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>COG-H</t>
+          <t>CEN-M</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -65680,27 +65680,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6556</t>
+          <t>7336</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/1/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6982</t>
+          <t>CRAMER AV. 2141</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ICD30334420</t>
+          <t>808663881</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -65715,7 +65715,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
+          <t xml:space="preserve">Cambiar columna 114 base corroida </t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -65723,7 +65723,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -65733,28 +65733,28 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>-58.494864</v>
+        <v>-58.461582</v>
       </c>
       <c r="N38" t="n">
-        <v>-34.678826</v>
+        <v>-34.564296</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>PAV-M</t>
+          <t>COG-H</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -65766,27 +65766,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6567</t>
+          <t>6556</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SAN ANTONIO 1221</t>
+          <t>2 DE ABRIL DE 1982 6982</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>808733914</t>
+          <t>ICD30334420</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -65801,7 +65801,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aplomar</t>
+          <t>Traspasar a columna o cortar redes en punta y desmontar poste</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -65809,7 +65809,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -65819,18 +65819,18 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>-58.375684</v>
+        <v>-58.494864</v>
       </c>
       <c r="N39" t="n">
-        <v>-34.656092</v>
+        <v>-34.678826</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -65840,7 +65840,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>CON-I</t>
+          <t>PAV-M</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -65852,27 +65852,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6579</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RIVADAVIA MARTIN, COMODORO 1350</t>
+          <t>SAN ANTONIO 1221</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>808749184</t>
+          <t>808733914</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -65887,7 +65887,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Poste inclinado ingreso tambien como 7201</t>
+          <t>Aplomar</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -65905,28 +65905,28 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>-58.461024</v>
+        <v>-58.375684</v>
       </c>
       <c r="N40" t="n">
-        <v>-34.539409</v>
+        <v>-34.656092</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>BLO-F</t>
+          <t>CON-I</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -65938,27 +65938,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>6579</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MARMOL, JOSE 228</t>
+          <t>RIVADAVIA MARTIN, COMODORO 1350</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>808918687</t>
+          <t>808749184</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -65968,51 +65968,51 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Se deriva directamente a traspaso de fuente ya que hay una columna existente</t>
+          <t>Poste inclinado ingreso tambien como 7201</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>-58.425858</v>
+        <v>-58.461024</v>
       </c>
       <c r="N41" t="n">
-        <v>-34.61629</v>
+        <v>-34.539409</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>ALM-D</t>
+          <t>BLO-F</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -66024,27 +66024,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7098</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>UGARTE, MANUEL 3484</t>
+          <t>MARMOL, JOSE 228</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>809126236</t>
+          <t>808918687</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -66054,16 +66054,16 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Se deriva directamente a traspaso de fuente ya que hay una columna existente</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -66072,7 +66072,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -66081,24 +66081,24 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>-58.472869</v>
+        <v>-58.425858</v>
       </c>
       <c r="N42" t="n">
-        <v>-34.562</v>
+        <v>-34.61629</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>COG-I</t>
+          <t>ALM-D</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -66110,27 +66110,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7260</t>
+          <t>7098</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9/10/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Vidal 1861</t>
+          <t>UGARTE, MANUEL 3484</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>809642175</t>
+          <t>809126236</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -66167,10 +66167,10 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>-58.458298</v>
+        <v>-58.472869</v>
       </c>
       <c r="N43" t="n">
-        <v>-34.566511</v>
+        <v>-34.562</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -66184,7 +66184,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>COG-F</t>
+          <t>COG-I</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -66196,27 +66196,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7218</t>
+          <t>7260</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/10/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SAN NICOLAS 5123</t>
+          <t>Vidal 1861</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>809758863</t>
+          <t>809642175</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -66231,7 +66231,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -66249,18 +66249,18 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>-58.516218</v>
+        <v>-58.458298</v>
       </c>
       <c r="N44" t="n">
-        <v>-34.589343</v>
+        <v>-34.566511</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -66270,7 +66270,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>PUE-J</t>
+          <t>COG-F</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -66282,7 +66282,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>7218</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -66292,7 +66292,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SANABRIA 4817</t>
+          <t>SAN NICOLAS 5123</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -66302,7 +66302,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>809758873</t>
+          <t>809758863</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -66317,7 +66317,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aplomar poste y reparar rienda ver con Pablo si se pude desmontar</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -66335,14 +66335,14 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-58.520505</v>
+        <v>-58.516218</v>
       </c>
       <c r="N45" t="n">
-        <v>-34.596045</v>
+        <v>-34.589343</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -66356,39 +66356,39 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>PUE-O</t>
+          <t>PUE-J</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.1PUE</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7240</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LARRALDE, CRISOLOGO AV. 3875</t>
+          <t>SANABRIA 4817</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>809784524</t>
+          <t>809758873</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -66403,7 +66403,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Aplomar poste y reparar rienda ver con Pablo si se pude desmontar</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -66425,14 +66425,14 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>-58.481316</v>
+        <v>-58.520505</v>
       </c>
       <c r="N46" t="n">
-        <v>-34.556157</v>
+        <v>-34.596045</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -66442,39 +66442,39 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>COG-O</t>
+          <t>PUE-O</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.1PUE</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6475</t>
+          <t>7240</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Av Amancio Alcorta 3570</t>
+          <t>LARRALDE, CRISOLOGO AV. 3875</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>809800213</t>
+          <t>809784524</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -66489,7 +66489,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>aplomar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -66497,7 +66497,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -66511,24 +66511,24 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-58.409278</v>
+        <v>-58.481316</v>
       </c>
       <c r="N47" t="n">
-        <v>-34.653566</v>
+        <v>-34.556157</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>PPT-H</t>
+          <t>COG-O</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -66540,7 +66540,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6182</t>
+          <t>6475</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -66550,7 +66550,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Los Patos 2702</t>
+          <t>Av Amancio Alcorta 3570</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -66560,7 +66560,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>809818308</t>
+          <t>809800213</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -66575,7 +66575,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sacar PRFV del cantero, colocar en vereda y aplomar</t>
+          <t>aplomar</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -66583,7 +66583,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -66593,14 +66593,14 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-58.399262</v>
+        <v>-58.409278</v>
       </c>
       <c r="N48" t="n">
-        <v>-34.639685</v>
+        <v>-34.653566</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -66614,7 +66614,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>PPT-K</t>
+          <t>PPT-H</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -66626,27 +66626,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>6182</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9/23/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 911</t>
+          <t>Los Patos 2702</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ICD30958043</t>
+          <t>809818308</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -66661,7 +66661,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desmonte de columna ya traspasaron un nodo</t>
+          <t>Sacar PRFV del cantero, colocar en vereda y aplomar</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -66674,7 +66674,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -66683,24 +66683,24 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>-58.447743</v>
+        <v>-58.399262</v>
       </c>
       <c r="N49" t="n">
-        <v>-34.570457</v>
+        <v>-34.639685</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>COG-C</t>
+          <t>PPT-K</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -66712,27 +66712,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>9/23/2025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>FIGUEROA, D. APOLINARIO, CORONEL 1047</t>
+          <t>CIUDAD DE LA PAZ 911</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>809972754</t>
+          <t>ICD30958043</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -66747,7 +66747,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Cambiar columna ver si es necesario rienda con Pablo</t>
+          <t>Desmonte de columna ya traspasaron un nodo</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -66760,7 +66760,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -66769,14 +66769,14 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-58.452532</v>
+        <v>-58.447743</v>
       </c>
       <c r="N50" t="n">
-        <v>-34.609005</v>
+        <v>-34.570457</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -66786,7 +66786,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>NRA-H</t>
+          <t>COG-C</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -66798,27 +66798,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>7308</t>
+          <t>2528</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>9/25/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MANZANARES 4186</t>
+          <t>FIGUEROA, D. APOLINARIO, CORONEL 1047</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>809979726</t>
+          <t>809972754</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -66833,7 +66833,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna ver si es necesario rienda con Pablo</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -66855,14 +66855,14 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>-58.485454</v>
+        <v>-58.452532</v>
       </c>
       <c r="N51" t="n">
-        <v>-34.555745</v>
+        <v>-34.609005</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -66872,7 +66872,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>COG-O</t>
+          <t>NRA-H</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -66884,7 +66884,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7310</t>
+          <t>7308</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -66894,17 +66894,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BACACAY AV. 5805</t>
+          <t>MANZANARES 4186</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>809979728</t>
+          <t>809979726</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -66919,7 +66919,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Cambiar y reparar rienda</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -66937,18 +66937,18 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>-58.509324</v>
+        <v>-58.485454</v>
       </c>
       <c r="N52" t="n">
-        <v>-34.635335</v>
+        <v>-34.555745</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -66958,19 +66958,19 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>DEV-M</t>
+          <t>COG-O</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.2DEV</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>7314</t>
+          <t>7310</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -66980,17 +66980,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MIRALLA 954</t>
+          <t>BACACAY AV. 5805</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>809979735</t>
+          <t>809979728</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -67005,7 +67005,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar y reparar rienda</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -67023,14 +67023,14 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>-58.501431</v>
+        <v>-58.509324</v>
       </c>
       <c r="N53" t="n">
-        <v>-34.647791</v>
+        <v>-34.635335</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -67044,39 +67044,39 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>PAV-?</t>
+          <t>DEV-M</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.2DEV</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7373</t>
+          <t>7314</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10/2/2025</t>
+          <t>9/25/2025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SANTIAGO DEL ESTERO 1253</t>
+          <t>MIRALLA 954</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>810132493</t>
+          <t>809979735</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -67113,24 +67113,24 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>-58.384406</v>
+        <v>-58.501431</v>
       </c>
       <c r="N54" t="n">
-        <v>-34.622932</v>
+        <v>-34.647791</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>CON-M</t>
+          <t>PAV-?</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -67142,7 +67142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7387</t>
+          <t>7373</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -67152,17 +67152,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PERIBEBUY 6814</t>
+          <t>SANTIAGO DEL ESTERO 1253</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>810132728</t>
+          <t>810132493</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -67177,7 +67177,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -67199,24 +67199,24 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>-58.521719</v>
+        <v>-58.384406</v>
       </c>
       <c r="N55" t="n">
-        <v>-34.647467</v>
+        <v>-34.622932</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>PAV-C</t>
+          <t>CON-M</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -67228,7 +67228,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7394</t>
+          <t>7387</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -67238,17 +67238,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BONIFACIO, JOSE 2409</t>
+          <t>PERIBEBUY 6814</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>810132768</t>
+          <t>810132728</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -67263,7 +67263,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Picada volvio a ingresar mail con caso 7597</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -67285,24 +67285,24 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>-58.461482</v>
+        <v>-58.521719</v>
       </c>
       <c r="N56" t="n">
-        <v>-34.632432</v>
+        <v>-34.647467</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>PCH-F</t>
+          <t>PAV-C</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -67314,17 +67314,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>7595</t>
+          <t>7394</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10/13/2025</t>
+          <t>10/2/2025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 2353</t>
+          <t>BONIFACIO, JOSE 2409</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -67334,7 +67334,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>810333018</t>
+          <t>810132768</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -67349,7 +67349,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Picada volvio a ingresar mail con caso 7597</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -67371,10 +67371,10 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>-58.46138</v>
+        <v>-58.461482</v>
       </c>
       <c r="N57" t="n">
-        <v>-34.629774</v>
+        <v>-34.632432</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -67388,7 +67388,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>PCH-J</t>
+          <t>PCH-F</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -67400,27 +67400,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7703</t>
+          <t>7595</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/13/2025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ROSARIO DE LA FRONTERA 4996</t>
+          <t>FALCON, RAMON L.,CNEL. 2353</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>810355303</t>
+          <t>810333018</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -67457,24 +67457,24 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>-58.514176</v>
+        <v>-58.46138</v>
       </c>
       <c r="N58" t="n">
-        <v>-34.589877</v>
+        <v>-34.629774</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>PUE-J</t>
+          <t>PCH-J</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -67486,7 +67486,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7516</t>
+          <t>7703</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -67496,17 +67496,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ALVAREZ, CRISOSTOMO 3000</t>
+          <t>ROSARIO DE LA FRONTERA 4996</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>810371027</t>
+          <t>810355303</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -67543,24 +67543,24 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>-58.458516</v>
+        <v>-58.514176</v>
       </c>
       <c r="N59" t="n">
-        <v>-34.646422</v>
+        <v>-34.589877</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>PPT-N</t>
+          <t>PUE-J</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -67572,7 +67572,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7735</t>
+          <t>7516</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -67582,17 +67582,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GARCIA, MARTIN AV. 772</t>
+          <t>ALVAREZ, CRISOSTOMO 3000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>810371042</t>
+          <t>810371027</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -67629,14 +67629,14 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-58.374086</v>
+        <v>-58.458516</v>
       </c>
       <c r="N60" t="n">
-        <v>-34.633168</v>
+        <v>-34.646422</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -67646,7 +67646,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>CON-B</t>
+          <t>PPT-N</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -67658,27 +67658,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5783</t>
+          <t>7735</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10/17/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ALCARAZ 5168</t>
+          <t>GARCIA, MARTIN AV. 772</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>810378783</t>
+          <t>810371042</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -67715,24 +67715,24 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>-58.50875</v>
+        <v>-58.374086</v>
       </c>
       <c r="N61" t="n">
-        <v>-34.623434</v>
+        <v>-34.633168</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>DEV-H</t>
+          <t>CON-B</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -67744,27 +67744,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7621</t>
+          <t>5783</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10/20/2025</t>
+          <t>10/17/2025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Quito 3832</t>
+          <t>ALCARAZ 5168</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>810404273</t>
+          <t>810378783</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -67801,24 +67801,24 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>-58.420412</v>
+        <v>-58.50875</v>
       </c>
       <c r="N62" t="n">
-        <v>-34.616726</v>
+        <v>-34.623434</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>ALM-C</t>
+          <t>DEV-H</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -67830,27 +67830,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7571</t>
+          <t>7621</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10/22/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SAENZ AV. 1204</t>
+          <t>Quito 3832</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>810416653</t>
+          <t>810404273</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -67887,14 +67887,14 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>-58.416237</v>
+        <v>-58.420412</v>
       </c>
       <c r="N63" t="n">
-        <v>-34.65477</v>
+        <v>-34.616726</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -67904,7 +67904,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>PPT-H</t>
+          <t>ALM-C</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -67916,27 +67916,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7556</t>
+          <t>7571</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10/21/2025</t>
+          <t>10/22/2025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1923</t>
+          <t>SAENZ AV. 1204</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>810416656</t>
+          <t>810416653</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -67951,7 +67951,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -67973,10 +67973,10 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-58.411426</v>
+        <v>-58.416237</v>
       </c>
       <c r="N64" t="n">
-        <v>-34.633266</v>
+        <v>-34.65477</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -67990,7 +67990,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>PPT-Q</t>
+          <t>PPT-H</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -68002,27 +68002,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7579</t>
+          <t>7556</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>10/22/2025</t>
+          <t>10/21/2025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>AGUIRRE 508</t>
+          <t>SANCHEZ DE LORIA 1923</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>810421912</t>
+          <t>810416656</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -68037,7 +68037,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>cambiar</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -68055,18 +68055,18 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>-58.435731</v>
+        <v>-58.411426</v>
       </c>
       <c r="N65" t="n">
-        <v>-34.597659</v>
+        <v>-34.633266</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -68076,7 +68076,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>VCR-H</t>
+          <t>PPT-Q</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -68088,7 +68088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7594</t>
+          <t>7579</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -68098,17 +68098,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE 2696</t>
+          <t>AGUIRRE 508</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>810421921</t>
+          <t>810421912</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -68145,10 +68145,10 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>-58.44293</v>
+        <v>-58.435731</v>
       </c>
       <c r="N66" t="n">
-        <v>-34.574483</v>
+        <v>-34.597659</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -68162,7 +68162,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>COG-B</t>
+          <t>VCR-H</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -68174,27 +68174,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7620</t>
+          <t>7594</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>10/24/2025</t>
+          <t>10/22/2025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>QUITO 3954</t>
+          <t>NEWBERY, JORGE 2696</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>810447247</t>
+          <t>810421921</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -68227,18 +68227,18 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>-58.422216</v>
+        <v>-58.44293</v>
       </c>
       <c r="N67" t="n">
-        <v>-34.616828</v>
+        <v>-34.574483</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -68248,7 +68248,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>ALM-C</t>
+          <t>COG-B</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -68260,27 +68260,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5749</t>
+          <t>7620</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>10/27/2025</t>
+          <t>10/24/2025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1754</t>
+          <t>QUITO 3954</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>01230434</t>
+          <t>810447247</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -68290,16 +68290,16 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Traspaso de nodo propio</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -68308,7 +68308,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -68317,14 +68317,14 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>-58.4018</v>
+        <v>-58.422216</v>
       </c>
       <c r="N68" t="n">
-        <v>-34.590471</v>
+        <v>-34.616828</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -68334,7 +68334,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>AGU-F</t>
+          <t>ALM-C</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -68346,7 +68346,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7631</t>
+          <t>5749</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -68356,17 +68356,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CALVO, CARLOS 3762</t>
+          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1754</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>810451584</t>
+          <t>01230434</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -68376,16 +68376,16 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspaso de nodo propio</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -68394,7 +68394,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -68403,14 +68403,14 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>-58.418542</v>
+        <v>-58.4018</v>
       </c>
       <c r="N69" t="n">
-        <v>-34.624609</v>
+        <v>-34.590471</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -68420,7 +68420,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>ALM-A</t>
+          <t>AGU-F</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -68432,7 +68432,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7630</t>
+          <t>7631</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -68442,7 +68442,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA AV. 3690</t>
+          <t>CALVO, CARLOS 3762</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -68452,7 +68452,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>810451588</t>
+          <t>810451584</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -68489,10 +68489,10 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>-58.417821</v>
+        <v>-58.418542</v>
       </c>
       <c r="N70" t="n">
-        <v>-34.621158</v>
+        <v>-34.624609</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -68518,7 +68518,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7800</t>
+          <t>7630</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -68528,17 +68528,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CONDE 1638</t>
+          <t>INDEPENDENCIA AV. 3690</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>810454540</t>
+          <t>810451588</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -68553,7 +68553,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>El poste quedo inclinado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -68571,28 +68571,28 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>-58.461646</v>
+        <v>-58.417821</v>
       </c>
       <c r="N71" t="n">
-        <v>-34.571812</v>
+        <v>-34.621158</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>ATH-R</t>
+          <t>ALM-A</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -68604,7 +68604,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7624</t>
+          <t>7800</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -68614,17 +68614,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DIAZ VELEZ AV. 4516</t>
+          <t>CONDE 1638</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>810454541</t>
+          <t>810454540</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -68639,7 +68639,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>El poste quedo inclinado</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -68657,28 +68657,28 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-58.430613</v>
+        <v>-58.461646</v>
       </c>
       <c r="N72" t="n">
-        <v>-34.608805</v>
+        <v>-34.571812</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>ALM-J</t>
+          <t>ATH-R</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -68690,7 +68690,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7622</t>
+          <t>7624</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -68700,17 +68700,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MIRALLA 950</t>
+          <t>DIAZ VELEZ AV. 4516</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>01233440</t>
+          <t>810454541</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -68725,7 +68725,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -68738,7 +68738,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -68747,24 +68747,24 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>-58.50161</v>
+        <v>-58.430613</v>
       </c>
       <c r="N73" t="n">
-        <v>-34.647648</v>
+        <v>-34.608805</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>PAV-?</t>
+          <t>ALM-J</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -68776,27 +68776,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7643</t>
+          <t>7622</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>10/28/2025</t>
+          <t>10/27/2025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ACEVEDO 524</t>
+          <t>MIRALLA 950</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>810458896</t>
+          <t>01233440</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -68824,7 +68824,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -68833,24 +68833,24 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>-58.439164</v>
+        <v>-58.50161</v>
       </c>
       <c r="N74" t="n">
-        <v>-34.597069</v>
+        <v>-34.647648</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>VCR-J</t>
+          <t>PAV-?</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -68862,7 +68862,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7665</t>
+          <t>7643</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -68872,17 +68872,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ARAOZ 2313</t>
+          <t>ACEVEDO 524</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>810461115</t>
+          <t>810458896</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -68897,7 +68897,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Picada y cable cortado</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -68919,10 +68919,10 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>-58.417634</v>
+        <v>-58.439164</v>
       </c>
       <c r="N75" t="n">
-        <v>-34.587439</v>
+        <v>-34.597069</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -68936,7 +68936,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>VCR-G</t>
+          <t>VCR-J</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -68948,7 +68948,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7683</t>
+          <t>7665</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -68958,17 +68958,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1684</t>
+          <t>ARAOZ 2313</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>01230516</t>
+          <t>810461115</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -68983,7 +68983,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>colocar columna para pedir traspaso de nodo</t>
+          <t>Picada y cable cortado</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -68996,7 +68996,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -69005,14 +69005,14 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>-58.402647</v>
+        <v>-58.417634</v>
       </c>
       <c r="N76" t="n">
-        <v>-34.591114</v>
+        <v>-34.587439</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -69022,7 +69022,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>AGU-F</t>
+          <t>VCR-G</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -69034,27 +69034,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>7619</t>
+          <t>7683</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>10/29/2025</t>
+          <t>10/28/2025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>QUITO 4180</t>
+          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1684</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>810471618</t>
+          <t>01230516</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -69069,7 +69069,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>colocar columna para pedir traspaso de nodo</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -69082,7 +69082,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -69091,14 +69091,14 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>-58.425596</v>
+        <v>-58.402647</v>
       </c>
       <c r="N77" t="n">
-        <v>-34.617038</v>
+        <v>-34.591114</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -69108,7 +69108,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>ALM-C</t>
+          <t>AGU-F</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -69120,7 +69120,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-658</t>
+          <t>7619</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -69130,17 +69130,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Vera 311</t>
+          <t>QUITO 4180</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>01230602</t>
+          <t>810471618</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -69150,12 +69150,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Traspasar Fuente</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -69168,23 +69168,23 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>-58.436262</v>
+        <v>-58.425596</v>
       </c>
       <c r="N78" t="n">
-        <v>-34.600478</v>
+        <v>-34.617038</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -69194,7 +69194,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>CLI-O</t>
+          <t>ALM-C</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -69206,27 +69206,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7709</t>
+          <t>-658</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>10/30/2025</t>
+          <t>10/29/2025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SAN BLAS 2891</t>
+          <t>Vera 311</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>810487021</t>
+          <t>01230602</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -69236,12 +69236,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente de Traspaso PROPIO</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Traspasar Fuente</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -69254,33 +69254,33 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>-58.48121</v>
+        <v>-58.436262</v>
       </c>
       <c r="N79" t="n">
-        <v>-34.61126</v>
+        <v>-34.600478</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>NRA-Q</t>
+          <t>CLI-O</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -69292,7 +69292,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>7709</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -69302,17 +69302,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 180</t>
+          <t>SAN BLAS 2891</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>01229656</t>
+          <t>810487021</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -69327,7 +69327,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Colocar R400 para traspaso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -69340,7 +69340,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Nodo/Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -69349,24 +69349,24 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>-58.440031</v>
+        <v>-58.48121</v>
       </c>
       <c r="N80" t="n">
-        <v>-34.575409</v>
+        <v>-34.61126</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>COG-B</t>
+          <t>NRA-Q</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -69378,7 +69378,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7732</t>
+          <t>7719</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -69388,17 +69388,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LINIERS VIRREY 1142</t>
+          <t>CIUDAD DE LA PAZ 180</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>810487035</t>
+          <t>01229656</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -69413,7 +69413,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Colocar R400 para traspaso</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -69426,7 +69426,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo/Fuente Teco</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -69435,14 +69435,14 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>-58.413563</v>
+        <v>-58.440031</v>
       </c>
       <c r="N81" t="n">
-        <v>-34.624645</v>
+        <v>-34.575409</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -69452,7 +69452,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>CEN-P</t>
+          <t>COG-B</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -69464,27 +69464,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7744</t>
+          <t>7732</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>10/31/2025</t>
+          <t>10/30/2025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>NECOCHEA 369</t>
+          <t>LINIERS VIRREY 1142</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>01233359</t>
+          <t>810487035</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -69499,7 +69499,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Colocar R200 para rtaspaso de nodo</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -69512,7 +69512,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -69521,14 +69521,14 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>-58.364132</v>
+        <v>-58.413563</v>
       </c>
       <c r="N82" t="n">
-        <v>-34.628423</v>
+        <v>-34.624645</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -69538,7 +69538,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>CON-F</t>
+          <t>CEN-P</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -69550,27 +69550,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7780</t>
+          <t>7744</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>11/4/2025</t>
+          <t>10/31/2025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA AV. 1654</t>
+          <t>NECOCHEA 369</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>810573618</t>
+          <t>01233359</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -69585,7 +69585,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Columna picada e inclinada</t>
+          <t>Colocar R200 para rtaspaso de nodo</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -69598,7 +69598,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -69607,10 +69607,10 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>-58.389676</v>
+        <v>-58.364132</v>
       </c>
       <c r="N83" t="n">
-        <v>-34.618127</v>
+        <v>-34.628423</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -69624,7 +69624,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>CEN-?</t>
+          <t>CON-F</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -69636,27 +69636,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>7810</t>
+          <t>7780</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>11/10/2025</t>
+          <t>11/4/2025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GUTENBERG 3212</t>
+          <t>INDEPENDENCIA AV. 1654</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>810651343</t>
+          <t>810573618</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -69671,7 +69671,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Cambiar columna y ver que el vano quede separado del balcon esta inclinada hacia la casa</t>
+          <t>Columna picada e inclinada</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -69693,36 +69693,36 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>-58.501325</v>
+        <v>-58.389676</v>
       </c>
       <c r="N84" t="n">
-        <v>-34.594325</v>
+        <v>-34.618127</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>PUE-Q</t>
+          <t>CEN-?</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.2PUE</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-670</t>
+          <t>7810</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -69732,17 +69732,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Timoteo Gordillo 1666</t>
+          <t>GUTENBERG 3212</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>810651269</t>
+          <t>810651343</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -69757,7 +69757,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Cambiar columna de lugar la actual es un poste ex Cablevision correrla ya que el vecino reclama obstruccion de la cochera</t>
+          <t>Cambiar columna y ver que el vano quede separado del balcon esta inclinada hacia la casa</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -69779,14 +69779,14 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>-58.510994</v>
+        <v>-58.501325</v>
       </c>
       <c r="N85" t="n">
-        <v>-34.655027</v>
+        <v>-34.594325</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -69796,39 +69796,39 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>PAV-J</t>
+          <t>PUE-Q</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.2PUE</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>7604</t>
+          <t>-670</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>11/10/2025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SAN JUAN AV. 3741</t>
+          <t>Timoteo Gordillo 1666</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>810712796</t>
+          <t>810651269</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -69843,7 +69843,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar columna de lugar la actual es un poste ex Cablevision correrla ya que el vecino reclama obstruccion de la cochera</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -69865,24 +69865,24 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-58.418108</v>
+        <v>-58.510994</v>
       </c>
       <c r="N86" t="n">
-        <v>-34.62564</v>
+        <v>-34.655027</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>ALM-A</t>
+          <t>PAV-J</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -69894,7 +69894,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7764</t>
+          <t>7604</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -69904,17 +69904,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2 DE ABRIL DE 1982 6510</t>
+          <t>SAN JUAN AV. 3741</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810712796</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -69929,7 +69929,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desmontar poste en desuso</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -69937,7 +69937,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -69947,14 +69947,14 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>-58.490261</v>
+        <v>-58.418108</v>
       </c>
       <c r="N87" t="n">
-        <v>-34.677337</v>
+        <v>-34.62564</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -69968,7 +69968,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>PAV-M</t>
+          <t>ALM-A</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -69980,7 +69980,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>6415</t>
+          <t>7764</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -69990,17 +69990,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CAMPICHUELO 215</t>
+          <t>2 DE ABRIL DE 1982 6510</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>810712875</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -70015,7 +70015,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Desmontar poste en desuso</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -70023,7 +70023,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -70033,18 +70033,18 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>-58.433771</v>
+        <v>-58.490261</v>
       </c>
       <c r="N88" t="n">
-        <v>-34.614668</v>
+        <v>-34.677337</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -70054,7 +70054,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>ALM-J</t>
+          <t>PAV-M</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -70066,7 +70066,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>7746</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -70076,7 +70076,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CAMPICHUELO 229</t>
+          <t>CAMPICHUELO 215</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -70086,7 +70086,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>810712887</t>
+          <t>810712875</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -70101,7 +70101,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -70123,10 +70123,10 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>-58.433855</v>
+        <v>-58.433771</v>
       </c>
       <c r="N89" t="n">
-        <v>-34.614487</v>
+        <v>-34.614668</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -70152,27 +70152,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>7842</t>
+          <t>7746</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>11/12/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>FERRARI 410</t>
+          <t>CAMPICHUELO 229</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>810713039</t>
+          <t>810712887</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -70187,7 +70187,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -70209,27 +70209,113 @@
         </is>
       </c>
       <c r="M90" t="n">
+        <v>-58.433855</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-34.614487</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>ALM-J</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>7842</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>11/12/2025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>FERRARI 410</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>810713039</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Picada</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>-58.441198</v>
       </c>
-      <c r="N90" t="n">
+      <c r="N91" t="n">
         <v>-34.605341</v>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>Paternal</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr">
+      <c r="P91" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>
       </c>
-      <c r="Q90" t="inlineStr">
+      <c r="Q91" t="inlineStr">
         <is>
           <t>ALM-O</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr">
+      <c r="R91" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
         </is>
@@ -73179,7 +73265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74048,27 +74134,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>-111</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7/12/2024</t>
+          <t>1/27/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CATAMARCA /ALT/ 1127</t>
+          <t>HELGUERA /ALT/ 1405</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>790298182</t>
+          <t>802925468</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -74083,11 +74169,11 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cambio de columna.-</t>
+          <t>Base picada</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -74105,24 +74191,24 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>-58.404265</v>
+        <v>-58.480871</v>
       </c>
       <c r="N11" t="n">
-        <v>-34.623154</v>
+        <v>-34.616598</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>CEN-K</t>
+          <t>NRA-M</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -74134,27 +74220,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-275</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/27/2025</t>
+          <t>2/3/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HELGUERA /ALT/ 1405</t>
+          <t>DEAN FUNES /ALT/ 481</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>802925468</t>
+          <t>803039902</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -74169,7 +74255,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Base picada</t>
+          <t xml:space="preserve">Propia diámetro 114mm </t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -74191,24 +74277,24 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>-58.480871</v>
+        <v>-58.407076</v>
       </c>
       <c r="N12" t="n">
-        <v>-34.616598</v>
+        <v>-34.616016</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>NRA-M</t>
+          <t>CEN-J</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -74220,27 +74306,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>-275</t>
+          <t>803608208</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2/3/2025</t>
+          <t>2/24/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DEAN FUNES /ALT/ 481</t>
+          <t>LA PAMPA 1001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>803039902</t>
+          <t>803608208</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -74255,11 +74341,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Propia diámetro 114mm </t>
+          <t xml:space="preserve">Cambiar columna base corroida prioridad media </t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -74277,24 +74363,24 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>-58.407076</v>
+        <v>-58.439727</v>
       </c>
       <c r="N13" t="n">
-        <v>-34.616016</v>
+        <v>-34.556261</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>CEN-J</t>
+          <t>BLO-B</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -74306,27 +74392,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>803608208</t>
+          <t>804161204</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2/24/2025</t>
+          <t>3/18/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LA PAMPA 1001</t>
+          <t>Av. Hipólito Yrigoyen 3451</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>803608208</t>
+          <t>804161204</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -74341,7 +74427,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cambiar columna base corroida prioridad media </t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -74363,24 +74449,24 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-58.439727</v>
+        <v>-58.415566</v>
       </c>
       <c r="N14" t="n">
-        <v>-34.556261</v>
+        <v>-34.613244</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>BLO-B</t>
+          <t>CLI-I</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -74392,17 +74478,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>804161204</t>
+          <t>804270064</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3/18/2025</t>
+          <t>3/21/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Av. Hipólito Yrigoyen 3451</t>
+          <t>Colombres 636</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -74412,7 +74498,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>804161204</t>
+          <t>804270064</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -74449,10 +74535,10 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-58.415566</v>
+        <v>-58.418089</v>
       </c>
       <c r="N15" t="n">
-        <v>-34.613244</v>
+        <v>-34.620313</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -74466,7 +74552,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>CLI-I</t>
+          <t>ALM-B</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -74478,7 +74564,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>804270064</t>
+          <t>804270068</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -74488,7 +74574,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Colombres 636</t>
+          <t>Quito 4292</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -74498,7 +74584,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>804270064</t>
+          <t>804270068</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -74535,10 +74621,10 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-58.418089</v>
+        <v>-58.427201</v>
       </c>
       <c r="N16" t="n">
-        <v>-34.620313</v>
+        <v>-34.617131</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -74552,7 +74638,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>ALM-B</t>
+          <t>ALM-D</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -74564,7 +74650,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>804270068</t>
+          <t>804270074</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -74574,7 +74660,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Quito 4292</t>
+          <t>Maza 836</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -74584,7 +74670,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>804270068</t>
+          <t>804270074</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -74621,14 +74707,14 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>-58.427201</v>
+        <v>-58.414984</v>
       </c>
       <c r="N17" t="n">
-        <v>-34.617131</v>
+        <v>-34.621386</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -74638,7 +74724,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>ALM-D</t>
+          <t>CEN-P</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -74650,27 +74736,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>804270074</t>
+          <t>804427444</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3/21/2025</t>
+          <t>4/1/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Maza 836</t>
+          <t>Cochrane 2864</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>804270074</t>
+          <t>804427444</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -74685,7 +74771,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -74707,24 +74793,24 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>-58.414984</v>
+        <v>-58.507569</v>
       </c>
       <c r="N18" t="n">
-        <v>-34.621386</v>
+        <v>-34.579623</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>CEN-P</t>
+          <t>PUE-J</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -74736,27 +74822,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>804427444</t>
+          <t>804568979</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4/1/2025</t>
+          <t>4/8/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cochrane 2864</t>
+          <t>Quesada 2710</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>804427444</t>
+          <t>804568979</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -74771,11 +74857,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -74793,14 +74879,14 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>-58.507569</v>
+        <v>-58.466348</v>
       </c>
       <c r="N19" t="n">
-        <v>-34.579623</v>
+        <v>-34.556028</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -74810,7 +74896,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>PUE-J</t>
+          <t>COG-L</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -74822,27 +74908,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>804568979</t>
+          <t>804736517</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4/8/2025</t>
+          <t>4/15/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Quesada 2710</t>
+          <t>Av. Gral. Mosconi 2490</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>804568979</t>
+          <t>804736517</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -74857,7 +74943,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -74879,14 +74965,14 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>-58.466348</v>
+        <v>-58.497446</v>
       </c>
       <c r="N20" t="n">
-        <v>-34.556028</v>
+        <v>-34.583455</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -74896,7 +74982,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>COG-L</t>
+          <t>PUE-K</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -74908,27 +74994,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>804736517</t>
+          <t>805507192</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4/15/2025</t>
+          <t>4/28/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Av. Gral. Mosconi 2490</t>
+          <t>Virrey Arredondo 2821</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>804736517</t>
+          <t>805507192</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -74943,7 +75029,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -74961,18 +75047,18 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-58.497446</v>
+        <v>-58.454065</v>
       </c>
       <c r="N21" t="n">
-        <v>-34.583455</v>
+        <v>-34.57105</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -74982,7 +75068,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>PUE-K</t>
+          <t>ATH-H</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -74994,27 +75080,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>805507192</t>
+          <t>805655355</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4/28/2025</t>
+          <t>5/5/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Virrey Arredondo 2821</t>
+          <t>Arce 867</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>805507192</t>
+          <t>805655355</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -75047,28 +75133,28 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-58.454065</v>
+        <v>-58.436255</v>
       </c>
       <c r="N22" t="n">
-        <v>-34.57105</v>
+        <v>-34.567733</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>ATH-H</t>
+          <t>BLO-J</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -75080,27 +75166,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>805655355</t>
+          <t>807044216</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5/5/2025</t>
+          <t>5/29/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Arce 867</t>
+          <t>Del Barco Centenera 894</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>805655355</t>
+          <t>807044216</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -75115,7 +75201,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Cambiar</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -75133,18 +75219,18 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>-58.436255</v>
+        <v>-58.438744</v>
       </c>
       <c r="N23" t="n">
-        <v>-34.567733</v>
+        <v>-34.629929</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -75154,7 +75240,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>BLO-J</t>
+          <t>PPT-P</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -75166,27 +75252,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>807044216</t>
+          <t>-507</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5/29/2025</t>
+          <t>7/14/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Del Barco Centenera 894</t>
+          <t>Tamborini 3291</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>807044216</t>
+          <t>808194229</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -75201,7 +75287,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cambiar</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -75219,28 +75305,28 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>-58.438744</v>
+        <v>-58.473937</v>
       </c>
       <c r="N24" t="n">
-        <v>-34.629929</v>
+        <v>-34.557355</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>PPT-P</t>
+          <t>COG-L</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -75252,27 +75338,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-507</t>
+          <t>-523</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/20/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tamborini 3291</t>
+          <t>Luis Maria Campos 585</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>808194229</t>
+          <t>808460898</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -75309,24 +75395,24 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>-58.473937</v>
+        <v>-58.434668</v>
       </c>
       <c r="N25" t="n">
-        <v>-34.557355</v>
+        <v>-34.571258</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>COG-L</t>
+          <t>BLO-H</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -75338,17 +75424,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-523</t>
+          <t>-524</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7/20/2025</t>
+          <t>7/21/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Luis Maria Campos 585</t>
+          <t>Luis Maria Campos 509</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -75358,7 +75444,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>808460898</t>
+          <t>808460897</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -75395,10 +75481,10 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>-58.434668</v>
+        <v>-58.434194</v>
       </c>
       <c r="N26" t="n">
-        <v>-34.571258</v>
+        <v>-34.571754</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -75424,27 +75510,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-524</t>
+          <t>-539</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7/21/2025</t>
+          <t>7/31/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Luis Maria Campos 509</t>
+          <t>Tejedor 1097</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>808460897</t>
+          <t>808615951</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -75477,18 +75563,18 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>-58.434194</v>
+        <v>-58.440748</v>
       </c>
       <c r="N27" t="n">
-        <v>-34.571754</v>
+        <v>-34.63245</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -75498,7 +75584,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>BLO-H</t>
+          <t>PPT-P</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -75510,7 +75596,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-539</t>
+          <t>-540</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -75520,7 +75606,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tejedor 1097</t>
+          <t>Tejedor 1071</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -75530,7 +75616,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>808615951</t>
+          <t>808615948</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -75563,14 +75649,14 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>-58.440748</v>
+        <v>-58.44037</v>
       </c>
       <c r="N28" t="n">
-        <v>-34.63245</v>
+        <v>-34.632249</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -75596,27 +75682,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-540</t>
+          <t>-546</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7/31/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tejedor 1071</t>
+          <t>Albarellos 3031</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>808615948</t>
+          <t>808720857</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -75653,24 +75739,24 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>-58.44037</v>
+        <v>-58.511732</v>
       </c>
       <c r="N29" t="n">
-        <v>-34.632249</v>
+        <v>-34.578688</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>PPT-P</t>
+          <t>PUE-J</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -75682,27 +75768,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-546</t>
+          <t>-552</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Albarellos 3031</t>
+          <t>Catulo Castillo 2890</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>808720857</t>
+          <t>808973183</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -75739,24 +75825,24 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>-58.511732</v>
+        <v>-58.404058</v>
       </c>
       <c r="N30" t="n">
-        <v>-34.578688</v>
+        <v>-34.634341</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>PUE-J</t>
+          <t>PPT-K</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -75768,7 +75854,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-552</t>
+          <t>-553</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -75778,17 +75864,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Catulo Castillo 2890</t>
+          <t>Holmberg 4002</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>808973183</t>
+          <t>808973192</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -75803,7 +75889,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Picada</t>
+          <t>Edificio en construcción solicitan correr columna 114 por entrada de garaje 5mts aprox Hablar con Sr Galvan encargado de la Obra</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -75825,24 +75911,24 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>-58.404058</v>
+        <v>-58.487821</v>
       </c>
       <c r="N31" t="n">
-        <v>-34.634341</v>
+        <v>-34.554603</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>PPT-K</t>
+          <t>COG-A</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -75854,7 +75940,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-553</t>
+          <t>-554</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -75864,17 +75950,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Holmberg 4002</t>
+          <t>Lima 1697</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>808973192</t>
+          <t>808973197</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -75889,7 +75975,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Edificio en construcción solicitan correr columna 114 por entrada de garaje 5mts aprox Hablar con Sr Galvan encargado de la Obra</t>
+          <t>Columna inclinada</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -75897,7 +75983,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Aplomo</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -75907,28 +75993,28 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>-58.487821</v>
+        <v>-58.382231</v>
       </c>
       <c r="N32" t="n">
-        <v>-34.554603</v>
+        <v>-34.627676</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>COG-A</t>
+          <t>CON-M</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -75940,7 +76026,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-554</t>
+          <t>-555</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -75950,7 +76036,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lima 1697</t>
+          <t>Lima 1649</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -75960,7 +76046,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>808973197</t>
+          <t>808973201</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -75975,7 +76061,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Columna inclinada</t>
+          <t>Picada</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -75983,7 +76069,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -75993,14 +76079,14 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>-58.382231</v>
+        <v>-58.382261</v>
       </c>
       <c r="N33" t="n">
-        <v>-34.627676</v>
+        <v>-34.62737</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -76014,96 +76100,10 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>CON-M</t>
+          <t>CON-K</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
-        <is>
-          <t>Fuera de Poligono OVL</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>-555</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>8/14/2025</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Lima 1649</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>808973201</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>INCO</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Picada</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Cambio</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Sin equipos</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>-58.382261</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-34.62737</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>CON-K</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
         </is>

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787648</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Baunes 2195</t>
+          <t>Bauness 2195</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787633</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787625</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787612</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787606</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787554</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787548</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787513</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ARCAMENDIA 793</t>
+          <t xml:space="preserve"> ARCAMENDIA 793</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787479</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -37472,7 +37472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787648</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -37558,7 +37558,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787612</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -37644,7 +37644,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787606</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -37730,7 +37730,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787554</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -37816,7 +37816,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787548</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -37902,7 +37902,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787513</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -37978,7 +37978,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ARCAMENDIA 793</t>
+          <t xml:space="preserve"> ARCAMENDIA 793</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -37988,7 +37988,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787479</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -46919,7 +46919,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Baunes 2195</t>
+          <t>Bauness 2195</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -46929,7 +46929,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787633</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -46952,7 +46952,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -47015,7 +47015,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810787625</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -47038,7 +47038,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Aplomo</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">

--- a/mapa_interactivo.xlsx
+++ b/mapa_interactivo.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R481"/>
+  <dimension ref="A1:R486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21036,12 +21036,12 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo TLC ICD Colocacion ICD30449342</t>
+          <t>Pendiente de desmonte icd Colocacion ICD30449342</t>
         </is>
       </c>
       <c r="I241" t="n">
@@ -36736,7 +36736,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>-677</t>
+          <t>S00073051/24</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -36746,22 +36746,22 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>MONROE 1611</t>
+          <t>Franklin 2427</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>810787648</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>GESTION TELECENTRO</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -36771,7 +36771,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>base picada</t>
+          <t>inclinada</t>
         </is>
       </c>
       <c r="I424" t="n">
@@ -36793,24 +36793,24 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>-58.452384</v>
+        <v>-58.468107</v>
       </c>
       <c r="N424" t="n">
-        <v>-34.553744</v>
+        <v>-34.618068</v>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P424" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>BLO-D</t>
+          <t>NRA-D</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -36822,32 +36822,32 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>S00073051/24</t>
+          <t>-678</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Franklin 2427</t>
+          <t>San Luis 2492</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>810804472</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>GESTION TELECENTRO</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -36857,11 +36857,11 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>inclinada</t>
+          <t>base picada</t>
         </is>
       </c>
       <c r="I425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J425" t="inlineStr">
         <is>
@@ -36879,14 +36879,14 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>-58.468107</v>
+        <v>-58.402179</v>
       </c>
       <c r="N425" t="n">
-        <v>-34.618068</v>
+        <v>-34.600152</v>
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P425" t="inlineStr">
@@ -36896,7 +36896,7 @@
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>NRA-D</t>
+          <t>CLI-E</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -36908,27 +36908,27 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>-678</t>
+          <t>S00110420</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>11/19/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>San Luis 2492</t>
+          <t>YATAY 760</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>810804472</t>
+          <t>810804303</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -36943,7 +36943,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>base picada</t>
+          <t>columna inclinada</t>
         </is>
       </c>
       <c r="I426" t="n">
@@ -36965,10 +36965,10 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>-58.402179</v>
+        <v>-58.428752</v>
       </c>
       <c r="N426" t="n">
-        <v>-34.600152</v>
+        <v>-34.603273</v>
       </c>
       <c r="O426" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>CLI-E</t>
+          <t>ALM-M</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -36994,7 +36994,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>S00110420</t>
+          <t>S00921200</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -37004,17 +37004,17 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>YATAY 760</t>
+          <t>ROSETI 544</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>810804303</t>
+          <t>810804233</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -37051,24 +37051,24 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>-58.428752</v>
+        <v>-58.4513</v>
       </c>
       <c r="N427" t="n">
-        <v>-34.603273</v>
+        <v>-34.584106</v>
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P427" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>ALM-M</t>
+          <t>ATH-N</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -37080,27 +37080,27 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>S00921200</t>
+          <t>S00921590</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>ROSETI 544</t>
+          <t>CASEROS AV. 3621</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>810804233</t>
+          <t>810804462</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -37115,7 +37115,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>columna inclinada</t>
+          <t>columna inclinada corroida</t>
         </is>
       </c>
       <c r="I428" t="n">
@@ -37137,24 +37137,24 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>-58.4513</v>
+        <v>-58.416134</v>
       </c>
       <c r="N428" t="n">
-        <v>-34.584106</v>
+        <v>-34.638879</v>
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P428" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>ATH-N</t>
+          <t>PPT-Q</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -37166,7 +37166,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>S00921590</t>
+          <t>S00921597</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -37176,7 +37176,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3621</t>
+          <t>CASEROS AV. 3507</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -37186,7 +37186,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>810804462</t>
+          <t>810804451</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -37223,10 +37223,10 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>-58.416134</v>
+        <v>-58.414769</v>
       </c>
       <c r="N429" t="n">
-        <v>-34.638879</v>
+        <v>-34.638638</v>
       </c>
       <c r="O429" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>S00921597</t>
+          <t>S00921602</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -37262,7 +37262,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3507</t>
+          <t>CASEROS AV. 3411</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -37272,7 +37272,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>810804451</t>
+          <t>810804383</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -37287,7 +37287,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>columna inclinada corroida</t>
+          <t>columna inclinada</t>
         </is>
       </c>
       <c r="I430" t="n">
@@ -37309,10 +37309,10 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>-58.414769</v>
+        <v>-58.413499</v>
       </c>
       <c r="N430" t="n">
-        <v>-34.638638</v>
+        <v>-34.638416</v>
       </c>
       <c r="O430" t="inlineStr">
         <is>
@@ -37338,7 +37338,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>S00921602</t>
+          <t>S00958024</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -37348,22 +37348,22 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3411</t>
+          <t>SAN PEDRITO 3010</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>810804383</t>
+          <t>810804380</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
@@ -37373,7 +37373,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>columna inclinada</t>
+          <t>columna inclinada base corroida</t>
         </is>
       </c>
       <c r="I431" t="n">
@@ -37395,10 +37395,10 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>-58.413499</v>
+        <v>-58.439239</v>
       </c>
       <c r="N431" t="n">
-        <v>-34.638416</v>
+        <v>-34.6604</v>
       </c>
       <c r="O431" t="inlineStr">
         <is>
@@ -37412,7 +37412,7 @@
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>PPT-Q</t>
+          <t>PPT-I</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -37424,7 +37424,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>S00958024</t>
+          <t>900008740210</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -37434,22 +37434,22 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>SAN PEDRITO 3010</t>
+          <t>MORENO 2911</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>810804380</t>
+          <t>810804379</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -37459,7 +37459,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>columna inclinada base corroida</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I432" t="n">
@@ -37481,14 +37481,14 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>-58.439239</v>
+        <v>-58.406823</v>
       </c>
       <c r="N432" t="n">
-        <v>-34.6604</v>
+        <v>-34.613644</v>
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P432" t="inlineStr">
@@ -37498,7 +37498,7 @@
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>PPT-I</t>
+          <t>CEN-I</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -37510,7 +37510,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>900008740210</t>
+          <t>S01140678</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -37520,22 +37520,22 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>MORENO 2911</t>
+          <t xml:space="preserve"> VELEZ SARSFIELD AV. 1722</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>810804379</t>
+          <t>810804375</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -37545,7 +37545,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>columna inclinada corroida</t>
         </is>
       </c>
       <c r="I433" t="n">
@@ -37567,14 +37567,14 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>-58.406823</v>
+        <v>-58.388529</v>
       </c>
       <c r="N433" t="n">
-        <v>-34.613644</v>
+        <v>-34.655949</v>
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P433" t="inlineStr">
@@ -37584,7 +37584,7 @@
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>CEN-I</t>
+          <t>CON-I</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
@@ -37596,7 +37596,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>S01140678</t>
+          <t>S01145223</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -37606,7 +37606,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VELEZ SARSFIELD AV. 1722</t>
+          <t>C. Gaspar M. de Jovellanos 302</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -37616,12 +37616,12 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>810804375</t>
+          <t>810804373</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -37631,7 +37631,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>columna inclinada corroida</t>
+          <t>inclinada base corroida</t>
         </is>
       </c>
       <c r="I434" t="n">
@@ -37649,28 +37649,24 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M434" t="n">
-        <v>-58.388529</v>
-      </c>
-      <c r="N434" t="n">
-        <v>-34.655949</v>
-      </c>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M434" t="inlineStr"/>
+      <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>No ubicado</t>
         </is>
       </c>
       <c r="P434" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>No clasificado, consultar con mantenimiento</t>
         </is>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>CON-I</t>
+          <t>No ubicado</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -37682,7 +37678,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>S01145223</t>
+          <t>S00942399</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -37692,17 +37688,13 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>C. Gaspar M. de Jovellanos 302</t>
-        </is>
-      </c>
-      <c r="D435" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>ESTADOS UNIDOS 4030</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>810804373</t>
+          <t xml:space="preserve">01503983 </t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -37717,7 +37709,8 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>inclinada base corroida</t>
+          <t>base corroida
+Colocar PRFV 400</t>
         </is>
       </c>
       <c r="I435" t="n">
@@ -37730,29 +37723,33 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M435" t="inlineStr"/>
-      <c r="N435" t="inlineStr"/>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M435" t="n">
+        <v>-58.422536</v>
+      </c>
+      <c r="N435" t="n">
+        <v>-34.623094</v>
+      </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>No ubicado</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P435" t="inlineStr">
         <is>
-          <t>No clasificado, consultar con mantenimiento</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>No ubicado</t>
+          <t>ALM-A</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -37764,7 +37761,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>S00942399</t>
+          <t xml:space="preserve"> S01123014</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -37774,13 +37771,17 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>ESTADOS UNIDOS 4030</t>
-        </is>
-      </c>
-      <c r="D436" t="inlineStr"/>
+          <t>PADILLA 1255</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t xml:space="preserve">01503983 </t>
+          <t>810804370</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -37795,8 +37796,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>base corroida
-Colocar PRFV 400</t>
+          <t>columna inclinada base corroida</t>
         </is>
       </c>
       <c r="I436" t="n">
@@ -37809,7 +37809,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -37818,24 +37818,24 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>-58.422536</v>
+        <v>-58.447651</v>
       </c>
       <c r="N436" t="n">
-        <v>-34.623094</v>
+        <v>-34.595324</v>
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P436" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>ALM-A</t>
+          <t>VCR-?</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -37847,7 +37847,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S01123014</t>
+          <t>S01110546</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -37857,17 +37857,17 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>PADILLA 1255</t>
+          <t>ALSINA, ADOLFO 2490</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>810804370</t>
+          <t>810804369</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -37882,7 +37882,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>columna inclinada base corroida</t>
+          <t>columna inclinada  base corroida</t>
         </is>
       </c>
       <c r="I437" t="n">
@@ -37904,24 +37904,24 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>-58.447651</v>
+        <v>-58.401266</v>
       </c>
       <c r="N437" t="n">
-        <v>-34.595324</v>
+        <v>-34.612194</v>
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P437" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>VCR-?</t>
+          <t>CEN-H</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -37933,7 +37933,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>S01110546</t>
+          <t>S00982328</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -37943,17 +37943,17 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>ALSINA, ADOLFO 2490</t>
+          <t>BROWN, ALTE. AV. 1201</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>810804369</t>
+          <t>810804366</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -37968,7 +37968,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>columna inclinada  base corroida</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I438" t="n">
@@ -37990,14 +37990,14 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>-58.401266</v>
+        <v>-58.358915</v>
       </c>
       <c r="N438" t="n">
-        <v>-34.612194</v>
+        <v>-34.635472</v>
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P438" t="inlineStr">
@@ -38007,7 +38007,7 @@
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>CEN-H</t>
+          <t>CON-G</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -38019,7 +38019,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>S00982328</t>
+          <t>AGUIRRE 290</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -38029,17 +38029,17 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 1201</t>
+          <t>AGUIRRE 290</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>810804366</t>
+          <t>810804344</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -38076,14 +38076,14 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>-58.358915</v>
+        <v>-58.434002</v>
       </c>
       <c r="N439" t="n">
-        <v>-34.635472</v>
+        <v>-34.599505</v>
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P439" t="inlineStr">
@@ -38093,7 +38093,7 @@
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>CON-G</t>
+          <t>CLI-O</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -38105,7 +38105,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>AGUIRRE 290</t>
+          <t>S01098187</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -38115,7 +38115,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>AGUIRRE 290</t>
+          <t>SERRANO 432</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -38125,7 +38125,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>810804344</t>
+          <t>810804334</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -38162,24 +38162,24 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>-58.434002</v>
+        <v>-58.443352</v>
       </c>
       <c r="N440" t="n">
-        <v>-34.599505</v>
+        <v>-34.596905</v>
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P440" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>CLI-O</t>
+          <t>VCR-J</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -38191,7 +38191,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>S01098187</t>
+          <t>S01089776</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -38201,7 +38201,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>SERRANO 432</t>
+          <t>ARGERICH 3717</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -38211,12 +38211,12 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>810804334</t>
+          <t>810804318</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -38226,7 +38226,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>inclinado</t>
         </is>
       </c>
       <c r="I441" t="n">
@@ -38248,10 +38248,10 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>-58.443352</v>
+        <v>-58.497051</v>
       </c>
       <c r="N441" t="n">
-        <v>-34.596905</v>
+        <v>-34.594109</v>
       </c>
       <c r="O441" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>VCR-J</t>
+          <t>PUE-G</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -38277,7 +38277,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>S01089776</t>
+          <t>S01077242</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -38287,7 +38287,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>ARGERICH 3717</t>
+          <t>HELGUERA 3875</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -38297,7 +38297,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>810804318</t>
+          <t>810804305</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -38312,7 +38312,7 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>inclinado</t>
+          <t>inclinada</t>
         </is>
       </c>
       <c r="I442" t="n">
@@ -38334,10 +38334,10 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>-58.497051</v>
+        <v>-58.499016</v>
       </c>
       <c r="N442" t="n">
-        <v>-34.594109</v>
+        <v>-34.594233</v>
       </c>
       <c r="O442" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>S01077242</t>
+          <t>7853</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -38373,22 +38373,22 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>HELGUERA 3875</t>
+          <t xml:space="preserve"> ACOSTA, MARIANO 2769</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>810804305</t>
+          <t>810932740</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
@@ -38398,7 +38398,8 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>inclinada</t>
+          <t xml:space="preserve">falta desmontar columna
+</t>
         </is>
       </c>
       <c r="I443" t="n">
@@ -38411,7 +38412,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -38420,24 +38421,24 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>-58.499016</v>
+        <v>-58.450997</v>
       </c>
       <c r="N443" t="n">
-        <v>-34.594233</v>
+        <v>-34.658874</v>
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P443" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>PUE-G</t>
+          <t>PPT-I</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
@@ -38449,32 +38450,32 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>7853</t>
+          <t>S00973332</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>11/19/2025</t>
+          <t>11/20/2025</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACOSTA, MARIANO 2769</t>
+          <t>GAVILAN 3587</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>01517664</t>
+          <t>810820767</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -38484,7 +38485,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>columna inclinada</t>
+          <t>inclinada</t>
         </is>
       </c>
       <c r="I444" t="n">
@@ -38497,7 +38498,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -38506,24 +38507,24 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>-58.450997</v>
+        <v>-58.486871</v>
       </c>
       <c r="N444" t="n">
-        <v>-34.658874</v>
+        <v>-34.589473</v>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P444" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>PPT-I</t>
+          <t>PUE-G</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
@@ -38535,7 +38536,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>S00973332</t>
+          <t>-679</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -38545,7 +38546,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>GAVILAN 3587</t>
+          <t>Malabia 518</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -38555,12 +38556,12 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>810820767</t>
+          <t xml:space="preserve">01565659 </t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -38570,7 +38571,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>inclinada</t>
+          <t xml:space="preserve">base corroida </t>
         </is>
       </c>
       <c r="I445" t="n">
@@ -38583,7 +38584,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -38592,24 +38593,24 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>-58.486871</v>
+        <v>-58.438283</v>
       </c>
       <c r="N445" t="n">
-        <v>-34.589473</v>
+        <v>-34.597989</v>
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P445" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>PUE-G</t>
+          <t>VCR-H</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -38621,7 +38622,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>-679</t>
+          <t>-680</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -38631,22 +38632,22 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Malabia 518</t>
+          <t>UGARTE, MANUEL 1796</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t xml:space="preserve">01565659 </t>
+          <t>810820827</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -38656,7 +38657,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t xml:space="preserve">base corroida </t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I446" t="n">
@@ -38669,7 +38670,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -38678,24 +38679,24 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>-58.438283</v>
+        <v>-58.455584</v>
       </c>
       <c r="N446" t="n">
-        <v>-34.597989</v>
+        <v>-34.553164</v>
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P446" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>VCR-H</t>
+          <t>BLO-D</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
@@ -38707,7 +38708,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>-680</t>
+          <t>S01112737</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -38717,22 +38718,22 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>UGARTE, MANUEL 1796</t>
+          <t>RODO, JOSE E. 4799</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>810820827</t>
+          <t>810820822</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -38742,7 +38743,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>inclinada</t>
         </is>
       </c>
       <c r="I447" t="n">
@@ -38764,14 +38765,14 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>-58.455584</v>
+        <v>-58.491325</v>
       </c>
       <c r="N447" t="n">
-        <v>-34.553164</v>
+        <v>-34.647761</v>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P447" t="inlineStr">
@@ -38781,7 +38782,7 @@
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>BLO-D</t>
+          <t>PAV-H</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -38793,7 +38794,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>S01112737</t>
+          <t>S01126628</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -38803,22 +38804,22 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>RODO, JOSE E. 4799</t>
+          <t>RIVERA, PEDRO I., DR. 3385</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>810820822</t>
+          <t>810820813</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -38850,14 +38851,14 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>-58.491325</v>
+        <v>-58.47104</v>
       </c>
       <c r="N448" t="n">
-        <v>-34.647761</v>
+        <v>-34.562322</v>
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P448" t="inlineStr">
@@ -38867,7 +38868,7 @@
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>PAV-H</t>
+          <t>COG-I</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
@@ -38879,7 +38880,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>S01126628</t>
+          <t>S01128759</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -38889,22 +38890,22 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>RIVERA, PEDRO I., DR. 3385</t>
+          <t>YRIGOYEN, HIPOLITO 1935</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>810820813</t>
+          <t xml:space="preserve">01565615 </t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -38914,7 +38915,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>inclinada</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I449" t="n">
@@ -38927,7 +38928,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -38936,24 +38937,24 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>-58.47104</v>
+        <v>-58.393835</v>
       </c>
       <c r="N449" t="n">
-        <v>-34.562322</v>
+        <v>-34.610417</v>
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P449" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>COG-I</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -38965,7 +38966,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>S01128759</t>
+          <t>S01145254</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -38975,17 +38976,17 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>YRIGOYEN, HIPOLITO 1935</t>
+          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 591</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t xml:space="preserve">01565615 </t>
+          <t>810820746</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -39013,7 +39014,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -39022,14 +39023,14 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>-58.393835</v>
+        <v>-58.360658</v>
       </c>
       <c r="N450" t="n">
-        <v>-34.610417</v>
+        <v>-34.638004</v>
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P450" t="inlineStr">
@@ -39039,7 +39040,7 @@
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>CON-E</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
@@ -39051,7 +39052,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>S01145254</t>
+          <t>S01144183</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -39061,22 +39062,22 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 591</t>
+          <t>DE LOS CONSTITUYENTES AV. 4318</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>810820746</t>
+          <t>810820640</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -39086,7 +39087,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>inclinada</t>
         </is>
       </c>
       <c r="I451" t="n">
@@ -39108,24 +39109,24 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>-58.360658</v>
+        <v>-58.490526</v>
       </c>
       <c r="N451" t="n">
-        <v>-34.638004</v>
+        <v>-34.583417</v>
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P451" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>CON-E</t>
+          <t>PUE-K</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -39137,7 +39138,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>S01144183</t>
+          <t>S01171313</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -39147,17 +39148,17 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 4318</t>
+          <t xml:space="preserve"> LOPE DE VEGA AV. 3128 </t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>810820640</t>
+          <t>810820624</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -39172,7 +39173,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>inclinada</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I452" t="n">
@@ -39194,14 +39195,14 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>-58.490526</v>
+        <v>-58.525417</v>
       </c>
       <c r="N452" t="n">
-        <v>-34.583417</v>
+        <v>-34.613865</v>
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P452" t="inlineStr">
@@ -39211,7 +39212,7 @@
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>PUE-K</t>
+          <t>DEV-G</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
@@ -39223,7 +39224,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>S01171313</t>
+          <t>S01183783</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -39233,22 +39234,22 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LOPE DE VEGA AV. 3128 </t>
+          <t xml:space="preserve"> 24 DE NOVIEMBRE 2133 </t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>810820624</t>
+          <t>810820614</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -39258,7 +39259,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>inclinada</t>
         </is>
       </c>
       <c r="I453" t="n">
@@ -39280,24 +39281,24 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>-58.525417</v>
+        <v>-58.409282</v>
       </c>
       <c r="N453" t="n">
-        <v>-34.613865</v>
+        <v>-34.635897</v>
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P453" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>DEV-G</t>
+          <t>PPT-Q</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
@@ -39309,7 +39310,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>S01183783</t>
+          <t>-681</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -39319,17 +39320,17 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 DE NOVIEMBRE 2133 </t>
+          <t>Ugarteche 3075</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>810820614</t>
+          <t xml:space="preserve">01638326 </t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -39344,7 +39345,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>inclinada</t>
+          <t xml:space="preserve">Columna de telecom corroida en base para retira A pocos metros ya hay columna nueva de telecentro </t>
         </is>
       </c>
       <c r="I454" t="n">
@@ -39352,7 +39353,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
@@ -39366,14 +39367,14 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>-58.409282</v>
+        <v>-58.411934</v>
       </c>
       <c r="N454" t="n">
-        <v>-34.635897</v>
+        <v>-34.580653</v>
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P454" t="inlineStr">
@@ -39383,7 +39384,7 @@
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>PPT-Q</t>
+          <t>AGU-M</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -39395,7 +39396,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>-681</t>
+          <t xml:space="preserve">7874 </t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -39405,17 +39406,17 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Ugarteche 3075</t>
+          <t>SAN LUIS 2488</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810820592</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -39430,7 +39431,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna de telecom corroida en base para retira A pocos metros ya hay columna nueva de telecentro </t>
+          <t>base muy picada</t>
         </is>
       </c>
       <c r="I455" t="n">
@@ -39438,7 +39439,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -39452,14 +39453,14 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>-58.411934</v>
+        <v>-58.402179</v>
       </c>
       <c r="N455" t="n">
-        <v>-34.580653</v>
+        <v>-34.600152</v>
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P455" t="inlineStr">
@@ -39469,7 +39470,7 @@
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>AGU-M</t>
+          <t>CLI-E</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -39481,7 +39482,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t xml:space="preserve">7874 </t>
+          <t xml:space="preserve">7870 </t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -39491,22 +39492,22 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>SAN LUIS 2488</t>
+          <t>MAGARIÑOS CERVANTES, A. 4803</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>810820592</t>
+          <t>810820571</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>Optical Power</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -39516,7 +39517,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>base muy picada</t>
+          <t>inclinada, tensor roto</t>
         </is>
       </c>
       <c r="I456" t="n">
@@ -39534,40 +39535,40 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>-58.402179</v>
+        <v>-58.500609</v>
       </c>
       <c r="N456" t="n">
-        <v>-34.600152</v>
+        <v>-34.626542</v>
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P456" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>CLI-E</t>
+          <t>DEV-I</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-26011.PO.1DEV</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t xml:space="preserve">7870 </t>
+          <t xml:space="preserve">7869 </t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -39577,17 +39578,17 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>MAGARIÑOS CERVANTES, A. 4803</t>
+          <t>BOGOTA 2770</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>810820571</t>
+          <t>810820553</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -39602,7 +39603,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>inclinada, tensor roto</t>
+          <t>base picada</t>
         </is>
       </c>
       <c r="I457" t="n">
@@ -39620,40 +39621,40 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>-58.500609</v>
+        <v>-58.469394</v>
       </c>
       <c r="N457" t="n">
-        <v>-34.626542</v>
+        <v>-34.626925</v>
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P457" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>DEV-I</t>
+          <t>NRA-L</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>ARATO-26011.PO.1DEV</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t xml:space="preserve">7869 </t>
+          <t xml:space="preserve">7867 </t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -39663,22 +39664,22 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>BOGOTA 2770</t>
+          <t>DIAZ, CESAR, GRAL. 1450</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>810820553</t>
+          <t>810820533</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>Optical Power</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -39688,7 +39689,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>base picada</t>
+          <t>muy inclinada</t>
         </is>
       </c>
       <c r="I458" t="n">
@@ -39710,24 +39711,24 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>-58.469394</v>
+        <v>-58.461219</v>
       </c>
       <c r="N458" t="n">
-        <v>-34.626925</v>
+        <v>-34.605928</v>
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P458" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>NRA-L</t>
+          <t>NRA-K</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
@@ -39739,32 +39740,32 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t xml:space="preserve">7867 </t>
+          <t>-682</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>11/20/2025</t>
+          <t>11/25/2025</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>DIAZ, CESAR, GRAL. 1450</t>
+          <t>Paraguay 4301</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>810820533</t>
+          <t>810853935</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -39774,7 +39775,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>muy inclinada</t>
+          <t>Cambio de columna propia corroida en base</t>
         </is>
       </c>
       <c r="I459" t="n">
@@ -39796,24 +39797,24 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>-58.461219</v>
+        <v>-58.422434</v>
       </c>
       <c r="N459" t="n">
-        <v>-34.605928</v>
+        <v>-34.585978</v>
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P459" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>NRA-K</t>
+          <t>VCR-O</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
@@ -39825,7 +39826,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>-682</t>
+          <t>-683</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -39835,22 +39836,22 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Paraguay 4301</t>
+          <t>Pico 3064</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>810853935</t>
+          <t xml:space="preserve">01675746 </t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -39860,7 +39861,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Cambio de columna propia corroida en base</t>
+          <t>poste caido, desmontar retirar</t>
         </is>
       </c>
       <c r="I460" t="n">
@@ -39868,7 +39869,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -39878,28 +39879,28 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>-58.422434</v>
+        <v>-58.480507</v>
       </c>
       <c r="N460" t="n">
-        <v>-34.585978</v>
+        <v>-34.542795</v>
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P460" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>VCR-O</t>
+          <t>COG-Q</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
@@ -39911,27 +39912,27 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>-683</t>
+          <t>-684</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>11/25/2025</t>
+          <t>11/26/2025</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Pico 3064</t>
+          <t>LONDRES 4280</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">01639693 </t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -39946,7 +39947,8 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>poste caido, desmontar retirar</t>
+          <t xml:space="preserve">Columna 114 picada en base con receptor óptico propio, ver de colocar otra columna a la derecha asi poder traspasar el mismo receptor y Cdo propio.
+</t>
         </is>
       </c>
       <c r="I461" t="n">
@@ -39954,28 +39956,28 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>-58.480507</v>
+        <v>-58.48081</v>
       </c>
       <c r="N461" t="n">
-        <v>-34.542795</v>
+        <v>-34.582354</v>
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P461" t="inlineStr">
@@ -39985,7 +39987,7 @@
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>COG-Q</t>
+          <t>ATH-D</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
@@ -39997,7 +39999,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>-684</t>
+          <t>S01181254</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -40007,7 +40009,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>LONDRES 4280</t>
+          <t>THAMES 677</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -40017,12 +40019,12 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">01638116 </t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -40032,8 +40034,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna 114 picada en base con receptor óptico propio, ver de colocar otra columna a la derecha asi poder traspasar el mismo receptor y Cdo propio.
-</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I462" t="n">
@@ -40055,24 +40056,24 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>-58.48081</v>
+        <v>-58.441083</v>
       </c>
       <c r="N462" t="n">
-        <v>-34.582354</v>
+        <v>-34.594165</v>
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P462" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>ATH-D</t>
+          <t>VCR-H</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
@@ -40084,27 +40085,27 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>-685</t>
+          <t>S01199701</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>11/25/2025</t>
+          <t>11/26/2025</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Av soldado de la frontera 5267</t>
+          <t>LAVALLEJA 726</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>810853910</t>
+          <t>01635621</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -40119,7 +40120,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>cambiar columna de lugar por renovacion de parada de colectivo</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I463" t="n">
@@ -40132,7 +40133,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -40141,14 +40142,14 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>-58.463629</v>
+        <v>-58.431973</v>
       </c>
       <c r="N463" t="n">
-        <v>-34.685879</v>
+        <v>-34.599274</v>
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P463" t="inlineStr">
@@ -40158,7 +40159,7 @@
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>PAV-T</t>
+          <t>CLI-O</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
@@ -40170,7 +40171,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>S01181254</t>
+          <t>S01199754</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -40180,7 +40181,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>THAMES 677</t>
+          <t>Lavalleja 762</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -40190,7 +40191,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810862863</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -40218,7 +40219,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -40227,10 +40228,10 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>-58.441083</v>
+        <v>-58.4316</v>
       </c>
       <c r="N464" t="n">
-        <v>-34.594165</v>
+        <v>-34.599036</v>
       </c>
       <c r="O464" t="inlineStr">
         <is>
@@ -40244,7 +40245,7 @@
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>VCR-H</t>
+          <t>CLI-O</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
@@ -40256,7 +40257,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>S01199701</t>
+          <t>7882</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -40266,22 +40267,22 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>LAVALLEJA 726</t>
+          <t xml:space="preserve">BELAUSTEGUI, LUIS, DR. 3490 </t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810862856</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -40291,7 +40292,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>inclinado</t>
         </is>
       </c>
       <c r="I465" t="n">
@@ -40304,33 +40305,33 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>-58.431973</v>
+        <v>-58.484549</v>
       </c>
       <c r="N465" t="n">
-        <v>-34.599274</v>
+        <v>-34.620529</v>
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P465" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
-          <t>CLI-O</t>
+          <t>DEV-K</t>
         </is>
       </c>
       <c r="R465" t="inlineStr">
@@ -40342,7 +40343,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>S01199754</t>
+          <t xml:space="preserve">7883 </t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -40352,22 +40353,22 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Lavalleja 762</t>
+          <t xml:space="preserve"> SASTRE, MARCOS 2792</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>810862863</t>
+          <t>810862848</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -40377,7 +40378,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>inclinado base quebrada</t>
         </is>
       </c>
       <c r="I466" t="n">
@@ -40395,28 +40396,28 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Poste</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>-58.4316</v>
+        <v>-58.486709</v>
       </c>
       <c r="N466" t="n">
-        <v>-34.599036</v>
+        <v>-34.602702</v>
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P466" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>CLI-O</t>
+          <t>NRA-P</t>
         </is>
       </c>
       <c r="R466" t="inlineStr">
@@ -40428,7 +40429,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>7882</t>
+          <t>S00727663</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -40438,22 +40439,22 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t xml:space="preserve">BELAUSTEGUI, LUIS, DR. 3490 </t>
+          <t>NECOCHEA 721</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>810862856</t>
+          <t>810862843</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -40463,7 +40464,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>inclinado</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I467" t="n">
@@ -40481,28 +40482,28 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>-58.484549</v>
+        <v>-58.361052</v>
       </c>
       <c r="N467" t="n">
-        <v>-34.620529</v>
+        <v>-34.630445</v>
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P467" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>DEV-K</t>
+          <t>CON-F</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
@@ -40514,7 +40515,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t xml:space="preserve">7883 </t>
+          <t xml:space="preserve">6436 </t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -40524,17 +40525,17 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SASTRE, MARCOS 2792</t>
+          <t xml:space="preserve">ARIAS 4306 </t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>810862848</t>
+          <t>810862832</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -40549,7 +40550,7 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>inclinado base quebrada</t>
+          <t>chocada</t>
         </is>
       </c>
       <c r="I468" t="n">
@@ -40567,18 +40568,18 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Poste</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>-58.486709</v>
+        <v>-58.49108</v>
       </c>
       <c r="N468" t="n">
-        <v>-34.602702</v>
+        <v>-34.550102</v>
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P468" t="inlineStr">
@@ -40588,7 +40589,7 @@
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>NRA-P</t>
+          <t>COG-A</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
@@ -40600,27 +40601,27 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>S00727663</t>
+          <t>-686</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>11/26/2025</t>
+          <t>11/27/2025</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>NECOCHEA 721</t>
+          <t>Pumacahua 292</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>810862843</t>
+          <t>810862736</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -40657,14 +40658,14 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>-58.361052</v>
+        <v>-58.453749</v>
       </c>
       <c r="N469" t="n">
-        <v>-34.630445</v>
+        <v>-34.629882</v>
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P469" t="inlineStr">
@@ -40674,7 +40675,7 @@
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>CON-F</t>
+          <t>PCH-A</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
@@ -40686,32 +40687,32 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t xml:space="preserve">6436 </t>
+          <t>-687</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>11/26/2025</t>
+          <t>11/27/2025</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARIAS 4306 </t>
+          <t>Junin 722</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>810862832</t>
+          <t>810862729</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
@@ -40721,7 +40722,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>chocada</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I470" t="n">
@@ -40743,36 +40744,36 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>-58.49108</v>
+        <v>-58.397171</v>
       </c>
       <c r="N470" t="n">
-        <v>-34.550102</v>
+        <v>-34.600729</v>
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P470" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>COG-A</t>
+          <t>RET-J</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.1RET</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>-686</t>
+          <t>-688</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -40782,22 +40783,22 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Pumacahua 292</t>
+          <t>Murguiondo 4001</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>810862736</t>
+          <t>810862571</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -40807,7 +40808,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>corroida</t>
         </is>
       </c>
       <c r="I471" t="n">
@@ -40829,10 +40830,10 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>-58.453749</v>
+        <v>-58.477556</v>
       </c>
       <c r="N471" t="n">
-        <v>-34.629882</v>
+        <v>-34.675565</v>
       </c>
       <c r="O471" t="inlineStr">
         <is>
@@ -40846,7 +40847,7 @@
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>PCH-A</t>
+          <t>PAV-V</t>
         </is>
       </c>
       <c r="R471" t="inlineStr">
@@ -40858,7 +40859,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>-687</t>
+          <t>-689</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -40868,22 +40869,22 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Junin 722</t>
+          <t>Federico Garcia Lorca 285</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>810862729</t>
+          <t>810863096</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -40893,7 +40894,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>corroida</t>
         </is>
       </c>
       <c r="I472" t="n">
@@ -40915,10 +40916,10 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>-58.397171</v>
+        <v>-58.445274</v>
       </c>
       <c r="N472" t="n">
-        <v>-34.600729</v>
+        <v>-34.618595</v>
       </c>
       <c r="O472" t="inlineStr">
         <is>
@@ -40932,44 +40933,44 @@
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>RET-J</t>
+          <t>NRA-A</t>
         </is>
       </c>
       <c r="R472" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.1RET</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>-688</t>
+          <t>900008844810</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>11/27/2025</t>
+          <t>11/28/2025</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Murguiondo 4001</t>
+          <t>Llavallol 2324</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>810862571</t>
+          <t>810877564</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -40979,7 +40980,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>corroida</t>
+          <t>inclinada</t>
         </is>
       </c>
       <c r="I473" t="n">
@@ -40997,28 +40998,28 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Pasante</t>
+          <t>Terminal</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>-58.477556</v>
+        <v>-58.492267</v>
       </c>
       <c r="N473" t="n">
-        <v>-34.675565</v>
+        <v>-34.608819</v>
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="P473" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
-          <t>PAV-V</t>
+          <t>DEV-B</t>
         </is>
       </c>
       <c r="R473" t="inlineStr">
@@ -41030,17 +41031,17 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>-689</t>
+          <t xml:space="preserve">900008354910 </t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>11/27/2025</t>
+          <t>11/28/2025</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Federico Garcia Lorca 285</t>
+          <t>Hortiguera 505</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -41050,7 +41051,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>810863096</t>
+          <t>810877561</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -41065,7 +41066,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>corroida</t>
+          <t>inclinado</t>
         </is>
       </c>
       <c r="I474" t="n">
@@ -41087,14 +41088,14 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>-58.445274</v>
+        <v>-58.445009</v>
       </c>
       <c r="N474" t="n">
-        <v>-34.618595</v>
+        <v>-34.628478</v>
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P474" t="inlineStr">
@@ -41104,7 +41105,7 @@
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>NRA-A</t>
+          <t>PCH-D</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
@@ -41116,7 +41117,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>900008844810</t>
+          <t>S00785128</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -41126,22 +41127,22 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Llavallol 2324</t>
+          <t>Paraguay 5055</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>810877564</t>
+          <t>810877555</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>PEBCOM</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
@@ -41151,7 +41152,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>inclinada</t>
+          <t>inclinada base corroida</t>
         </is>
       </c>
       <c r="I475" t="n">
@@ -41169,28 +41170,28 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>-58.492267</v>
+        <v>-58.429394</v>
       </c>
       <c r="N475" t="n">
-        <v>-34.608819</v>
+        <v>-34.580587</v>
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P475" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
-          <t>DEV-B</t>
+          <t>ATH-I</t>
         </is>
       </c>
       <c r="R475" t="inlineStr">
@@ -41202,7 +41203,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t xml:space="preserve">900008354910 </t>
+          <t>S00964409</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -41212,22 +41213,22 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Hortiguera 505</t>
+          <t>CERETTI 3556</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>810877561</t>
+          <t>810877550</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -41237,7 +41238,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>inclinado</t>
+          <t>inclinada base corroida</t>
         </is>
       </c>
       <c r="I476" t="n">
@@ -41259,24 +41260,24 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>-58.445009</v>
+        <v>-58.502145</v>
       </c>
       <c r="N476" t="n">
-        <v>-34.628478</v>
+        <v>-34.566981</v>
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P476" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>PCH-D</t>
+          <t>PUE-H</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
@@ -41288,7 +41289,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>S00785128</t>
+          <t>-690</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -41298,17 +41299,17 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Paraguay 5055</t>
+          <t>VILLAFAÑE, WENCESLAO 1655</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>810877555</t>
+          <t>810877541</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -41323,7 +41324,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>inclinada base corroida</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I477" t="n">
@@ -41345,14 +41346,14 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>-58.429394</v>
+        <v>-58.374586</v>
       </c>
       <c r="N477" t="n">
-        <v>-34.580587</v>
+        <v>-34.635118</v>
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P477" t="inlineStr">
@@ -41362,7 +41363,7 @@
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>ATH-I</t>
+          <t>CON-B</t>
         </is>
       </c>
       <c r="R477" t="inlineStr">
@@ -41374,7 +41375,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>S00964409</t>
+          <t>-692</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -41384,17 +41385,17 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>CERETTI 3556</t>
+          <t>Manuel Ugarte 1795</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>810877550</t>
+          <t>810877533</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -41409,7 +41410,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>inclinada base corroida</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I478" t="n">
@@ -41431,14 +41432,14 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>-58.502145</v>
+        <v>-58.455625</v>
       </c>
       <c r="N478" t="n">
-        <v>-34.566981</v>
+        <v>-34.553098</v>
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="P478" t="inlineStr">
@@ -41448,7 +41449,7 @@
       </c>
       <c r="Q478" t="inlineStr">
         <is>
-          <t>PUE-H</t>
+          <t>BLO-D</t>
         </is>
       </c>
       <c r="R478" t="inlineStr">
@@ -41460,7 +41461,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>-690</t>
+          <t>S00566892</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -41470,17 +41471,17 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>VILLAFAÑE, WENCESLAO 1655</t>
+          <t xml:space="preserve">SANTA FE AV. 3711 </t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>810877541</t>
+          <t>810877633</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -41495,7 +41496,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>inclinada</t>
         </is>
       </c>
       <c r="I479" t="n">
@@ -41517,14 +41518,14 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>-58.374586</v>
+        <v>-58.416063</v>
       </c>
       <c r="N479" t="n">
-        <v>-34.635118</v>
+        <v>-34.584975</v>
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P479" t="inlineStr">
@@ -41534,7 +41535,7 @@
       </c>
       <c r="Q479" t="inlineStr">
         <is>
-          <t>CON-B</t>
+          <t>AGU-L</t>
         </is>
       </c>
       <c r="R479" t="inlineStr">
@@ -41546,17 +41547,17 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>-692</t>
+          <t>-691</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>11/28/2025</t>
+          <t>12/1/2025</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Manuel Ugarte 1795</t>
+          <t>Comodoro Rivadavia 1989</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -41566,7 +41567,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>810877533</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -41581,11 +41582,11 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>inclinada</t>
         </is>
       </c>
       <c r="I480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J480" t="inlineStr">
         <is>
@@ -41602,25 +41603,21 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M480" t="n">
-        <v>-58.455625</v>
-      </c>
-      <c r="N480" t="n">
-        <v>-34.553098</v>
-      </c>
+      <c r="M480" t="inlineStr"/>
+      <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>No ubicado</t>
         </is>
       </c>
       <c r="P480" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>No clasificado, consultar con mantenimiento</t>
         </is>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
-          <t>BLO-D</t>
+          <t>No ubicado</t>
         </is>
       </c>
       <c r="R480" t="inlineStr">
@@ -41632,32 +41629,32 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>S00566892</t>
+          <t>-693</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>11/28/2025</t>
+          <t>12/1/2025</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t xml:space="preserve">SANTA FE AV. 3711 </t>
+          <t>Santos Tome 5015</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>810877633</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>PEBCOM</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
@@ -41667,7 +41664,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>inclinada</t>
+          <t>base corroida correr 50cm por garaje</t>
         </is>
       </c>
       <c r="I481" t="n">
@@ -41688,28 +41685,454 @@
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M481" t="n">
-        <v>-58.416063</v>
-      </c>
-      <c r="N481" t="n">
-        <v>-34.584975</v>
-      </c>
+      <c r="M481" t="inlineStr"/>
+      <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="P481" t="inlineStr">
+        <is>
+          <t>No clasificado, consultar con mantenimiento</t>
+        </is>
+      </c>
+      <c r="Q481" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7891 </t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>12/1/2025</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>URUGUAY 1070</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>base corroida</t>
+        </is>
+      </c>
+      <c r="I482" t="n">
+        <v>1</v>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M482" t="n">
+        <v>-58.387161</v>
+      </c>
+      <c r="N482" t="n">
+        <v>-34.596255</v>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q482" t="inlineStr">
+        <is>
+          <t>RET-R</t>
+        </is>
+      </c>
+      <c r="R482" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>7892</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>12/1/2025</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Juncal 1642</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>base corroida</t>
+        </is>
+      </c>
+      <c r="I483" t="n">
+        <v>1</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>Fuente Teco</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M483" t="n">
+        <v>-58.390974</v>
+      </c>
+      <c r="N483" t="n">
+        <v>-34.594177</v>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="P483" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q483" t="inlineStr">
+        <is>
+          <t>RET-N</t>
+        </is>
+      </c>
+      <c r="R483" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>-694</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>12/2/2025</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Castillo 4</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>base corroida</t>
+        </is>
+      </c>
+      <c r="I484" t="n">
+        <v>0</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M484" t="n">
+        <v>-58.430346</v>
+      </c>
+      <c r="N484" t="n">
+        <v>-34.599721</v>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
           <t>Palermo</t>
         </is>
       </c>
-      <c r="P481" t="inlineStr">
+      <c r="P484" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>
       </c>
-      <c r="Q481" t="inlineStr">
-        <is>
-          <t>AGU-L</t>
-        </is>
-      </c>
-      <c r="R481" t="inlineStr">
+      <c r="Q484" t="inlineStr">
+        <is>
+          <t>CLI-N</t>
+        </is>
+      </c>
+      <c r="R484" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">900008882010 </t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>12/2/2025</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PAVON AV. 3707 </t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>PEBCOM</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>base corroida</t>
+        </is>
+      </c>
+      <c r="I485" t="n">
+        <v>1</v>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M485" t="n">
+        <v>-58.416724</v>
+      </c>
+      <c r="N485" t="n">
+        <v>-34.630181</v>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+      <c r="Q485" t="inlineStr">
+        <is>
+          <t>PPT-R</t>
+        </is>
+      </c>
+      <c r="R485" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>-695</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>12/3/2025</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Estomba 2626</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>desmontar</t>
+        </is>
+      </c>
+      <c r="I486" t="n">
+        <v>1</v>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M486" t="n">
+        <v>-58.47538</v>
+      </c>
+      <c r="N486" t="n">
+        <v>-34.566015</v>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P486" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q486" t="inlineStr">
+        <is>
+          <t>PUE-E</t>
+        </is>
+      </c>
+      <c r="R486" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
         </is>
@@ -45881,12 +46304,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pendiente de Traspaso PROPIO</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Pendiente de traspaso nodo TLC ICD Colocacion ICD30449342</t>
+          <t>Pendiente de desmonte icd Colocacion ICD30449342</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -50917,27 +51340,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-677</t>
+          <t>-678</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MONROE 1611</t>
+          <t>San Luis 2492</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>810787648</t>
+          <t>810804472</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -50956,7 +51379,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -50974,24 +51397,24 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>-58.452384</v>
+        <v>-58.402179</v>
       </c>
       <c r="N108" t="n">
-        <v>-34.553744</v>
+        <v>-34.600152</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>BLO-D</t>
+          <t>CLI-E</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -51003,27 +51426,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-678</t>
+          <t>S00110420</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>11/19/2025</t>
+          <t>11/18/2025</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>San Luis 2492</t>
+          <t>YATAY 760</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>810804472</t>
+          <t>810804303</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -51038,7 +51461,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>base picada</t>
+          <t>columna inclinada</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -51060,10 +51483,10 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>-58.402179</v>
+        <v>-58.428752</v>
       </c>
       <c r="N109" t="n">
-        <v>-34.600152</v>
+        <v>-34.603273</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -51077,7 +51500,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>CLI-E</t>
+          <t>ALM-M</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -51089,7 +51512,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S00110420</t>
+          <t>S00921200</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -51099,17 +51522,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>YATAY 760</t>
+          <t>ROSETI 544</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>810804303</t>
+          <t>810804233</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -51146,24 +51569,24 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>-58.428752</v>
+        <v>-58.4513</v>
       </c>
       <c r="N110" t="n">
-        <v>-34.603273</v>
+        <v>-34.584106</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>ALM-M</t>
+          <t>ATH-N</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -51175,27 +51598,27 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>S00921200</t>
+          <t>S00921590</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>11/18/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ROSETI 544</t>
+          <t>CASEROS AV. 3621</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>810804233</t>
+          <t>810804462</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -51210,7 +51633,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>columna inclinada</t>
+          <t>columna inclinada corroida</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -51232,24 +51655,24 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>-58.4513</v>
+        <v>-58.416134</v>
       </c>
       <c r="N111" t="n">
-        <v>-34.584106</v>
+        <v>-34.638879</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>ATH-N</t>
+          <t>PPT-Q</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -51261,7 +51684,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S00921590</t>
+          <t>S00921597</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -51271,7 +51694,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3621</t>
+          <t>CASEROS AV. 3507</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -51281,7 +51704,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>810804462</t>
+          <t>810804451</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -51318,10 +51741,10 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>-58.416134</v>
+        <v>-58.414769</v>
       </c>
       <c r="N112" t="n">
-        <v>-34.638879</v>
+        <v>-34.638638</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -51347,7 +51770,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S00921597</t>
+          <t>S00921602</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -51357,7 +51780,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3507</t>
+          <t>CASEROS AV. 3411</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -51367,7 +51790,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>810804451</t>
+          <t>810804383</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -51382,7 +51805,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>columna inclinada corroida</t>
+          <t>columna inclinada</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -51404,10 +51827,10 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>-58.414769</v>
+        <v>-58.413499</v>
       </c>
       <c r="N113" t="n">
-        <v>-34.638638</v>
+        <v>-34.638416</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -51433,7 +51856,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S00921602</t>
+          <t>900008740210</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -51443,17 +51866,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3411</t>
+          <t>MORENO 2911</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>810804383</t>
+          <t>810804379</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -51468,7 +51891,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>columna inclinada</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -51490,14 +51913,14 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>-58.413499</v>
+        <v>-58.406823</v>
       </c>
       <c r="N114" t="n">
-        <v>-34.638416</v>
+        <v>-34.613644</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
@@ -51507,7 +51930,7 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>PPT-Q</t>
+          <t>CEN-I</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -51519,7 +51942,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>900008740210</t>
+          <t>S01145223</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -51529,17 +51952,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MORENO 2911</t>
+          <t>C. Gaspar M. de Jovellanos 302</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>810804379</t>
+          <t>810804373</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -51554,7 +51977,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>inclinada base corroida</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -51572,28 +51995,24 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Pasante</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>-58.406823</v>
-      </c>
-      <c r="N115" t="n">
-        <v>-34.613644</v>
-      </c>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>No ubicado</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>No clasificado, consultar con mantenimiento</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>CEN-I</t>
+          <t>No ubicado</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -51605,7 +52024,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>S01145223</t>
+          <t>S00942399</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -51615,17 +52034,13 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>C. Gaspar M. de Jovellanos 302</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>ESTADOS UNIDOS 4030</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>810804373</t>
+          <t xml:space="preserve">01503983 </t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -51640,7 +52055,8 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>inclinada base corroida</t>
+          <t>base corroida
+Colocar PRFV 400</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -51653,29 +52069,33 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Terminal</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>-58.422536</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-34.623094</v>
+      </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>No ubicado</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>No clasificado, consultar con mantenimiento</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>No ubicado</t>
+          <t>ALM-A</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -51687,7 +52107,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S00942399</t>
+          <t xml:space="preserve"> S01123014</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -51697,13 +52117,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ESTADOS UNIDOS 4030</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>PADILLA 1255</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve">01503983 </t>
+          <t>810804370</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -51718,8 +52142,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>base corroida
-Colocar PRFV 400</t>
+          <t>columna inclinada base corroida</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -51732,7 +52155,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Fuente Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -51741,24 +52164,24 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>-58.422536</v>
+        <v>-58.447651</v>
       </c>
       <c r="N117" t="n">
-        <v>-34.623094</v>
+        <v>-34.595324</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>ALM-A</t>
+          <t>VCR-?</t>
         </is>
       </c>
       <c r="R117" t="inlineStr">
@@ -51770,7 +52193,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S01123014</t>
+          <t>S01110546</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -51780,17 +52203,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>PADILLA 1255</t>
+          <t>ALSINA, ADOLFO 2490</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>810804370</t>
+          <t>810804369</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -51805,7 +52228,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>columna inclinada base corroida</t>
+          <t>columna inclinada  base corroida</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -51827,24 +52250,24 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>-58.447651</v>
+        <v>-58.401266</v>
       </c>
       <c r="N118" t="n">
-        <v>-34.595324</v>
+        <v>-34.612194</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>VCR-?</t>
+          <t>CEN-H</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
@@ -51856,7 +52279,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>S01110546</t>
+          <t>S00982328</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -51866,17 +52289,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ALSINA, ADOLFO 2490</t>
+          <t>BROWN, ALTE. AV. 1201</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>810804369</t>
+          <t>810804366</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -51891,7 +52314,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>columna inclinada  base corroida</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -51913,14 +52336,14 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>-58.401266</v>
+        <v>-58.358915</v>
       </c>
       <c r="N119" t="n">
-        <v>-34.612194</v>
+        <v>-34.635472</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
@@ -51930,7 +52353,7 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>CEN-H</t>
+          <t>CON-G</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
@@ -51942,7 +52365,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>S00982328</t>
+          <t>AGUIRRE 290</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -51952,17 +52375,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 1201</t>
+          <t>AGUIRRE 290</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>810804366</t>
+          <t>810804344</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -51999,14 +52422,14 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>-58.358915</v>
+        <v>-58.434002</v>
       </c>
       <c r="N120" t="n">
-        <v>-34.635472</v>
+        <v>-34.599505</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -52016,7 +52439,7 @@
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>CON-G</t>
+          <t>CLI-O</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
@@ -52028,7 +52451,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AGUIRRE 290</t>
+          <t>S01098187</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -52038,7 +52461,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>AGUIRRE 290</t>
+          <t>SERRANO 432</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -52048,7 +52471,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>810804344</t>
+          <t>810804334</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -52085,24 +52508,24 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>-58.434002</v>
+        <v>-58.443352</v>
       </c>
       <c r="N121" t="n">
-        <v>-34.599505</v>
+        <v>-34.596905</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>CLI-O</t>
+          <t>VCR-J</t>
         </is>
       </c>
       <c r="R121" t="inlineStr">
@@ -52114,17 +52537,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>S01098187</t>
+          <t>-679</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>11/19/2025</t>
+          <t>11/20/2025</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SERRANO 432</t>
+          <t>Malabia 518</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -52134,7 +52557,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>810804334</t>
+          <t xml:space="preserve">01565659 </t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -52149,7 +52572,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t xml:space="preserve">base corroida </t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -52162,7 +52585,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -52171,24 +52594,24 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>-58.443352</v>
+        <v>-58.438283</v>
       </c>
       <c r="N122" t="n">
-        <v>-34.596905</v>
+        <v>-34.597989</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>VCR-J</t>
+          <t>VCR-H</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
@@ -52200,7 +52623,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>-679</t>
+          <t>S01128759</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -52210,17 +52633,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Malabia 518</t>
+          <t>YRIGOYEN, HIPOLITO 1935</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">01565659 </t>
+          <t xml:space="preserve">01565615 </t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -52235,7 +52658,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t xml:space="preserve">base corroida </t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -52257,14 +52680,14 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>-58.438283</v>
+        <v>-58.393835</v>
       </c>
       <c r="N123" t="n">
-        <v>-34.597989</v>
+        <v>-34.610417</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -52274,7 +52697,7 @@
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>VCR-H</t>
+          <t>CEN-G</t>
         </is>
       </c>
       <c r="R123" t="inlineStr">
@@ -52286,7 +52709,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S01128759</t>
+          <t>S01145254</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -52296,17 +52719,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>YRIGOYEN, HIPOLITO 1935</t>
+          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 591</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve">01565615 </t>
+          <t>810820746</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -52334,7 +52757,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -52343,14 +52766,14 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>-58.393835</v>
+        <v>-58.360658</v>
       </c>
       <c r="N124" t="n">
-        <v>-34.610417</v>
+        <v>-34.638004</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -52360,7 +52783,7 @@
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>CEN-G</t>
+          <t>CON-E</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
@@ -52372,7 +52795,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S01145254</t>
+          <t>S01183783</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -52382,7 +52805,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 591</t>
+          <t xml:space="preserve"> 24 DE NOVIEMBRE 2133 </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -52392,7 +52815,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>810820746</t>
+          <t>810820614</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -52407,7 +52830,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>inclinada</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -52429,10 +52852,10 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>-58.360658</v>
+        <v>-58.409282</v>
       </c>
       <c r="N125" t="n">
-        <v>-34.638004</v>
+        <v>-34.635897</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -52446,7 +52869,7 @@
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>CON-E</t>
+          <t>PPT-Q</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
@@ -52458,7 +52881,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S01183783</t>
+          <t>-681</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -52468,17 +52891,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 DE NOVIEMBRE 2133 </t>
+          <t>Ugarteche 3075</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>810820614</t>
+          <t xml:space="preserve">01638326 </t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -52493,7 +52916,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>inclinada</t>
+          <t xml:space="preserve">Columna de telecom corroida en base para retira A pocos metros ya hay columna nueva de telecentro </t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -52501,7 +52924,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Desmonte</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -52515,14 +52938,14 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>-58.409282</v>
+        <v>-58.411934</v>
       </c>
       <c r="N126" t="n">
-        <v>-34.635897</v>
+        <v>-34.580653</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
@@ -52532,7 +52955,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>PPT-Q</t>
+          <t>AGU-M</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -52544,7 +52967,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>-681</t>
+          <t xml:space="preserve">7874 </t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -52554,17 +52977,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ugarteche 3075</t>
+          <t>SAN LUIS 2488</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810820592</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -52579,7 +53002,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Columna de telecom corroida en base para retira A pocos metros ya hay columna nueva de telecentro </t>
+          <t>base muy picada</t>
         </is>
       </c>
       <c r="I127" t="n">
@@ -52587,7 +53010,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Desmonte</t>
+          <t>Cambio</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -52601,14 +53024,14 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>-58.411934</v>
+        <v>-58.402179</v>
       </c>
       <c r="N127" t="n">
-        <v>-34.580653</v>
+        <v>-34.600152</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -52618,7 +53041,7 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>AGU-M</t>
+          <t>CLI-E</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
@@ -52630,27 +53053,27 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">7874 </t>
+          <t>-682</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>11/20/2025</t>
+          <t>11/25/2025</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SAN LUIS 2488</t>
+          <t>Paraguay 4301</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>810820592</t>
+          <t>810853935</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -52665,7 +53088,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>base muy picada</t>
+          <t>Cambio de columna propia corroida en base</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -52687,14 +53110,14 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>-58.402179</v>
+        <v>-58.422434</v>
       </c>
       <c r="N128" t="n">
-        <v>-34.600152</v>
+        <v>-34.585978</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
@@ -52704,7 +53127,7 @@
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>CLI-E</t>
+          <t>VCR-O</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -52716,27 +53139,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>-682</t>
+          <t>S01181254</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>11/25/2025</t>
+          <t>11/26/2025</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Paraguay 4301</t>
+          <t>THAMES 677</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>810853935</t>
+          <t xml:space="preserve">01638116 </t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -52751,7 +53174,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Cambio de columna propia corroida en base</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -52764,7 +53187,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -52773,10 +53196,10 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>-58.422434</v>
+        <v>-58.441083</v>
       </c>
       <c r="N129" t="n">
-        <v>-34.585978</v>
+        <v>-34.594165</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -52790,7 +53213,7 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>VCR-O</t>
+          <t>VCR-H</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
@@ -52802,27 +53225,27 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>-685</t>
+          <t>S01199701</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>11/25/2025</t>
+          <t>11/26/2025</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Av soldado de la frontera 5267</t>
+          <t>LAVALLEJA 726</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>810853910</t>
+          <t>01635621</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -52837,7 +53260,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>cambiar columna de lugar por renovacion de parada de colectivo</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -52850,7 +53273,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Nodo Teco</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -52859,14 +53282,14 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>-58.463629</v>
+        <v>-58.431973</v>
       </c>
       <c r="N130" t="n">
-        <v>-34.685879</v>
+        <v>-34.599274</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
@@ -52876,7 +53299,7 @@
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>PAV-T</t>
+          <t>CLI-O</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
@@ -52888,7 +53311,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>S01181254</t>
+          <t>S01199754</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -52898,7 +53321,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>THAMES 677</t>
+          <t>Lavalleja 762</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -52908,7 +53331,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810862863</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -52936,7 +53359,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -52945,10 +53368,10 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>-58.441083</v>
+        <v>-58.4316</v>
       </c>
       <c r="N131" t="n">
-        <v>-34.594165</v>
+        <v>-34.599036</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -52962,7 +53385,7 @@
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>VCR-H</t>
+          <t>CLI-O</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -52974,7 +53397,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>S01199701</t>
+          <t>S00727663</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -52984,17 +53407,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>LAVALLEJA 726</t>
+          <t>NECOCHEA 721</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>810862843</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -53022,7 +53445,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Nodo Teco</t>
+          <t>Sin equipos</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -53031,14 +53454,14 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>-58.431973</v>
+        <v>-58.361052</v>
       </c>
       <c r="N132" t="n">
-        <v>-34.599274</v>
+        <v>-34.630445</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P132" t="inlineStr">
@@ -53048,7 +53471,7 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>CLI-O</t>
+          <t>CON-F</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -53060,27 +53483,27 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>S01199754</t>
+          <t>-686</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>11/26/2025</t>
+          <t>11/27/2025</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Lavalleja 762</t>
+          <t>Pumacahua 292</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>810862863</t>
+          <t>810862736</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -53117,14 +53540,14 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>-58.4316</v>
+        <v>-58.453749</v>
       </c>
       <c r="N133" t="n">
-        <v>-34.599036</v>
+        <v>-34.629882</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P133" t="inlineStr">
@@ -53134,7 +53557,7 @@
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>CLI-O</t>
+          <t>PCH-A</t>
         </is>
       </c>
       <c r="R133" t="inlineStr">
@@ -53146,27 +53569,27 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>S00727663</t>
+          <t>-687</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>11/26/2025</t>
+          <t>11/27/2025</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>NECOCHEA 721</t>
+          <t>Junin 722</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>810862843</t>
+          <t>810862729</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -53203,14 +53626,14 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>-58.361052</v>
+        <v>-58.397171</v>
       </c>
       <c r="N134" t="n">
-        <v>-34.630445</v>
+        <v>-34.600729</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -53220,39 +53643,39 @@
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>CON-F</t>
+          <t>RET-J</t>
         </is>
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Fuera de Poligono OVL</t>
+          <t>ARATO-25058.PO.1RET</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>-686</t>
+          <t xml:space="preserve">900008354910 </t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>11/27/2025</t>
+          <t>11/28/2025</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Pumacahua 292</t>
+          <t>Hortiguera 505</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>810862736</t>
+          <t>810877561</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -53267,7 +53690,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>inclinado</t>
         </is>
       </c>
       <c r="I135" t="n">
@@ -53289,10 +53712,10 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>-58.453749</v>
+        <v>-58.445009</v>
       </c>
       <c r="N135" t="n">
-        <v>-34.629882</v>
+        <v>-34.628478</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -53306,7 +53729,7 @@
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>PCH-A</t>
+          <t>PCH-D</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
@@ -53318,27 +53741,27 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>-687</t>
+          <t>S00785128</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>11/27/2025</t>
+          <t>11/28/2025</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Junin 722</t>
+          <t>Paraguay 5055</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>810862729</t>
+          <t>810877555</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -53353,7 +53776,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>inclinada base corroida</t>
         </is>
       </c>
       <c r="I136" t="n">
@@ -53375,14 +53798,14 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>-58.397171</v>
+        <v>-58.429394</v>
       </c>
       <c r="N136" t="n">
-        <v>-34.600729</v>
+        <v>-34.580587</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
@@ -53392,39 +53815,39 @@
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>RET-J</t>
+          <t>ATH-I</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>ARATO-25058.PO.1RET</t>
+          <t>Fuera de Poligono OVL</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>-688</t>
+          <t>-690</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>11/27/2025</t>
+          <t>11/28/2025</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Murguiondo 4001</t>
+          <t>VILLAFAÑE, WENCESLAO 1655</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>810862571</t>
+          <t>810877541</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -53439,7 +53862,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>corroida</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -53461,14 +53884,14 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>-58.477556</v>
+        <v>-58.374586</v>
       </c>
       <c r="N137" t="n">
-        <v>-34.675565</v>
+        <v>-34.635118</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -53478,7 +53901,7 @@
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>PAV-V</t>
+          <t>CON-B</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -53490,27 +53913,27 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>-689</t>
+          <t>S00566892</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>11/27/2025</t>
+          <t>11/28/2025</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Federico Garcia Lorca 285</t>
+          <t xml:space="preserve">SANTA FE AV. 3711 </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>810863096</t>
+          <t>810877633</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -53525,7 +53948,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>corroida</t>
+          <t>inclinada</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -53547,14 +53970,14 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>-58.445274</v>
+        <v>-58.416063</v>
       </c>
       <c r="N138" t="n">
-        <v>-34.618595</v>
+        <v>-34.584975</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -53564,7 +53987,7 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>NRA-A</t>
+          <t>AGU-L</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -53576,27 +53999,27 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">900008354910 </t>
+          <t xml:space="preserve">7891 </t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>11/28/2025</t>
+          <t>12/1/2025</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Hortiguera 505</t>
+          <t>URUGUAY 1070</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>810877561</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -53611,7 +54034,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>inclinado</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -53633,14 +54056,14 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>-58.445009</v>
+        <v>-58.387161</v>
       </c>
       <c r="N139" t="n">
-        <v>-34.628478</v>
+        <v>-34.596255</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
@@ -53650,7 +54073,7 @@
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>PCH-D</t>
+          <t>RET-R</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -53662,27 +54085,27 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>S00785128</t>
+          <t>7892</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>11/28/2025</t>
+          <t>12/1/2025</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Paraguay 5055</t>
+          <t>Juncal 1642</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>810877555</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -53697,7 +54120,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>inclinada base corroida</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -53710,7 +54133,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Sin equipos</t>
+          <t>Fuente Teco</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -53719,14 +54142,14 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>-58.429394</v>
+        <v>-58.390974</v>
       </c>
       <c r="N140" t="n">
-        <v>-34.580587</v>
+        <v>-34.594177</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
@@ -53736,7 +54159,7 @@
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>ATH-I</t>
+          <t>RET-N</t>
         </is>
       </c>
       <c r="R140" t="inlineStr">
@@ -53748,27 +54171,27 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>-690</t>
+          <t>-694</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>11/28/2025</t>
+          <t>12/2/2025</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>VILLAFAÑE, WENCESLAO 1655</t>
+          <t>Castillo 4</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>810877541</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -53787,7 +54210,7 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -53805,14 +54228,14 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>-58.374586</v>
+        <v>-58.430346</v>
       </c>
       <c r="N141" t="n">
-        <v>-34.635118</v>
+        <v>-34.599721</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -53822,7 +54245,7 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>CON-B</t>
+          <t>CLI-N</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
@@ -53834,27 +54257,27 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>S00566892</t>
+          <t xml:space="preserve">900008882010 </t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>11/28/2025</t>
+          <t>12/2/2025</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">SANTA FE AV. 3711 </t>
+          <t xml:space="preserve"> PAVON AV. 3707 </t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>810877633</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -53869,7 +54292,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>inclinada</t>
+          <t>base corroida</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -53891,14 +54314,14 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>-58.416063</v>
+        <v>-58.416724</v>
       </c>
       <c r="N142" t="n">
-        <v>-34.584975</v>
+        <v>-34.630181</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
@@ -53908,7 +54331,7 @@
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>AGU-L</t>
+          <t>PPT-R</t>
         </is>
       </c>
       <c r="R142" t="inlineStr">
@@ -53928,7 +54351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61611,7 +62034,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">01675746 </t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -61697,7 +62120,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">01639693 </t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -62022,27 +62445,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>900008844810</t>
+          <t>-688</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>11/28/2025</t>
+          <t>11/27/2025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Llavallol 2324</t>
+          <t>Murguiondo 4001</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>810877564</t>
+          <t>810862571</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -62057,7 +62480,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>inclinada</t>
+          <t>corroida</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -62075,28 +62498,28 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Terminal</t>
+          <t>Pasante</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>-58.492267</v>
+        <v>-58.477556</v>
       </c>
       <c r="N95" t="n">
-        <v>-34.608819</v>
+        <v>-34.675565</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>DEV-B</t>
+          <t>PAV-V</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -62108,27 +62531,27 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S00964409</t>
+          <t>-689</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>11/28/2025</t>
+          <t>11/27/2025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CERETTI 3556</t>
+          <t>Federico Garcia Lorca 285</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>810877550</t>
+          <t>810863096</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -62143,7 +62566,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>inclinada base corroida</t>
+          <t>corroida</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -62165,24 +62588,24 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>-58.502145</v>
+        <v>-58.445274</v>
       </c>
       <c r="N96" t="n">
-        <v>-34.566981</v>
+        <v>-34.618595</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>PUE-H</t>
+          <t>NRA-A</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -62194,7 +62617,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-692</t>
+          <t>900008844810</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -62204,17 +62627,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Manuel Ugarte 1795</t>
+          <t>Llavallol 2324</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>810877533</t>
+          <t>810877564</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -62229,7 +62652,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>base corroida</t>
+          <t>inclinada</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -62247,31 +62670,453 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
+          <t>Terminal</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>-58.492267</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-34.608819</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>DEV-B</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>S00964409</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>11/28/2025</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>CERETTI 3556</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>810877550</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>inclinada base corroida</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
           <t>Pasante</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="M98" t="n">
+        <v>-58.502145</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-34.566981</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>PUE-H</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>-692</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>11/28/2025</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Manuel Ugarte 1795</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>810877533</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>base corroida</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>-58.455625</v>
       </c>
-      <c r="N97" t="n">
+      <c r="N99" t="n">
         <v>-34.553098</v>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>Saavedra</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr">
+      <c r="P99" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>
       </c>
-      <c r="Q97" t="inlineStr">
+      <c r="Q99" t="inlineStr">
         <is>
           <t>BLO-D</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr">
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>-691</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>12/1/2025</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Comodoro Rivadavia 1989</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>inclinada</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>No clasificado, consultar con mantenimiento</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>-693</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>12/1/2025</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Santos Tome 5015</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>base corroida correr 50cm por garaje</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>No clasificado, consultar con mantenimiento</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>No ubicado</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Fuera de Poligono OVL</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>-695</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>12/3/2025</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Estomba 2626</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>desmontar</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Desmonte</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Sin equipos</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Pasante</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>-58.47538</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-34.566015</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>PUE-E</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
         <is>
           <t>Fuera de Poligono OVL</t>
         </is>
@@ -77565,7 +78410,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>01517664</t>
+          <t>810932740</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -77580,7 +78425,8 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>columna inclinada</t>
+          <t xml:space="preserve">falta desmontar columna
+</t>
         </is>
       </c>
       <c r="I89" t="n">
